--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$9:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$F$80</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="209">
   <si>
     <t>Reports</t>
   </si>
@@ -382,15 +382,9 @@
     <t>Role access, admin, user</t>
   </si>
   <si>
-    <t>Manual sites</t>
-  </si>
-  <si>
     <t>Country specific rules</t>
   </si>
   <si>
-    <t>Add observations</t>
-  </si>
-  <si>
     <t>Add observation: name combiation searched (permutations used)</t>
   </si>
   <si>
@@ -418,9 +412,6 @@
     <t>Points identified in the meeting</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>Report</t>
   </si>
   <si>
@@ -433,9 +424,6 @@
     <t>Mark Site Review completed</t>
   </si>
   <si>
-    <t>Accepted / Rejected -&gt; Text change to  Is an issue, is not an issue, remove 'clear' option</t>
-  </si>
-  <si>
     <t>Name, Role</t>
   </si>
   <si>
@@ -487,9 +475,6 @@
     <t>Image capture</t>
   </si>
   <si>
-    <t>Remove Issue Number - in detail page</t>
-  </si>
-  <si>
     <t>Pdf / image attachment to comp form</t>
   </si>
   <si>
@@ -511,9 +496,6 @@
     <t>SAM  site - include in search</t>
   </si>
   <si>
-    <t>Detail page</t>
-  </si>
-  <si>
     <t>Show site link</t>
   </si>
   <si>
@@ -538,9 +520,6 @@
     <t>Remember me - local storage</t>
   </si>
   <si>
-    <t>Review completed check box / Save button -&gt; Mark as completed and Close</t>
-  </si>
-  <si>
     <t>Site Summary</t>
   </si>
   <si>
@@ -557,6 +536,117 @@
   </si>
   <si>
     <t>Download excel form template</t>
+  </si>
+  <si>
+    <t>one site to be included.</t>
+  </si>
+  <si>
+    <t>Findings</t>
+  </si>
+  <si>
+    <t>Open Compliance Form</t>
+  </si>
+  <si>
+    <t>Investigator Summary</t>
+  </si>
+  <si>
+    <t>Compliance Form</t>
+  </si>
+  <si>
+    <t>Status Column - with color circle + legend</t>
+  </si>
+  <si>
+    <t>Filters - load from server</t>
+  </si>
+  <si>
+    <t>Quick Search Filters</t>
+  </si>
+  <si>
+    <t>Upload Dialog must close when upload is complerted - provide status etc</t>
+  </si>
+  <si>
+    <t>Form Validation - for Study Number etc</t>
+  </si>
+  <si>
+    <t>get Study Numbers from server</t>
+  </si>
+  <si>
+    <t>Country drop down</t>
+  </si>
+  <si>
+    <t>Enable Search button only when Investigayot / site is added</t>
+  </si>
+  <si>
+    <t>Optional Sites - World Health Check - etc. to be added to Search Sites</t>
+  </si>
+  <si>
+    <t>Investigator Status Column</t>
+  </si>
+  <si>
+    <t>Investigator Validation - min 2 components in name, non alpha chacaters - prevent</t>
+  </si>
+  <si>
+    <t>Delete Investigator Dialog confirm + Up , Dn</t>
+  </si>
+  <si>
+    <t>Investigator:</t>
+  </si>
+  <si>
+    <t>Sites:</t>
+  </si>
+  <si>
+    <t>Findings:</t>
+  </si>
+  <si>
+    <t>Column: Issues identified - retest</t>
+  </si>
+  <si>
+    <t>disable buttons when Search is in progress</t>
+  </si>
+  <si>
+    <t>Upload file - validate - display error message</t>
+  </si>
+  <si>
+    <t>Summary section</t>
+  </si>
+  <si>
+    <t>Ht of summary site boxes - uniform</t>
+  </si>
+  <si>
+    <t>Routing issues</t>
+  </si>
+  <si>
+    <t>Search Action</t>
+  </si>
+  <si>
+    <t>Site Source Date - Save while extracting, overwrite date if exists.</t>
+  </si>
+  <si>
+    <t>Was also searched</t>
+  </si>
+  <si>
+    <t>Add Findings - at comp form level</t>
+  </si>
+  <si>
+    <t>Add Findiings - for Investigator</t>
+  </si>
+  <si>
+    <t>Add findings - for site</t>
+  </si>
+  <si>
+    <t>Comp Form Genertation</t>
+  </si>
+  <si>
+    <t>Date of Action -&gt; Inspection Date</t>
+  </si>
+  <si>
+    <t>User Managemen t</t>
+  </si>
+  <si>
+    <t>Add Manual Site</t>
+  </si>
+  <si>
+    <t>Remove Manual Sites</t>
   </si>
 </sst>
 </file>
@@ -1638,16 +1728,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection sqref="A1:G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="79.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,34 +1775,59 @@
         <v>114</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
       <c r="C8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>176</v>
+        <v>153</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>42697</v>
       </c>
       <c r="F8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>131</v>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>42697</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
       <c r="B10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1721,540 +1837,733 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>42697</v>
+        <v>42698</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
       <c r="B12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="7">
-        <v>42697</v>
+        <v>121</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7">
-        <v>42698</v>
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
       <c r="B14" t="s">
         <v>123</v>
       </c>
-      <c r="D14">
-        <v>3</v>
+      <c r="F14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>42698</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
       <c r="B16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" s="7">
+        <v>42699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="7">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="7">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7">
         <v>42698</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="7">
-        <v>42699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" s="7">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" s="7">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" s="7">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" s="7">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="7">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39" s="7">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" s="7">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" t="s">
-        <v>161</v>
-      </c>
-      <c r="E50" s="7">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E54" s="7">
         <v>42697</v>
       </c>
-      <c r="F54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65">
         <v>3</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E65" s="7">
         <v>42702</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E62" s="7">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C64" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>170</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" s="7">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>164</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" s="7">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>155</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" s="7">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>137</v>
       </c>
-      <c r="D68">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="7">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" s="7">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" s="7">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" s="7">
+        <v>42702</v>
+      </c>
+      <c r="F84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" s="7">
+        <v>42702</v>
+      </c>
+      <c r="F88" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>149</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E93" s="7">
+        <v>42702</v>
+      </c>
+      <c r="F93" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95" s="7">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" t="s">
+        <v>155</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" t="s">
+        <v>155</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97" s="7">
         <v>42697</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>172</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69" s="7">
-        <v>42698</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>169</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70" s="7">
-        <v>42698</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" s="7">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>166</v>
-      </c>
-      <c r="C72" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>178</v>
+      <c r="F97" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:F25"/>
+  <autoFilter ref="A7:F80"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$F$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$F$81</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="235">
   <si>
     <t>Reports</t>
   </si>
@@ -647,13 +647,111 @@
   </si>
   <si>
     <t>Remove Manual Sites</t>
+  </si>
+  <si>
+    <t>Qs to Dinesh - call on 26-Dec-2016</t>
+  </si>
+  <si>
+    <t>Sponsor based sites - how to find sponsor from available address?</t>
+  </si>
+  <si>
+    <t>Name To search - want to restrct the name to minimum two parts - One part name produces a large number of results and is difficult to handle.</t>
+  </si>
+  <si>
+    <t>Can a user modify other user's ICFs</t>
+  </si>
+  <si>
+    <t>ICFs generated through Upload</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Can a new name be added</t>
+  </si>
+  <si>
+    <t>Can an existing name be deleted</t>
+  </si>
+  <si>
+    <t>Can the Project No, address etc modified?</t>
+  </si>
+  <si>
+    <t>Is an Issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each Observation has a flag, Is an Issue.  </t>
+  </si>
+  <si>
+    <t>Each site in the compliance form has a column 'Issues Identified'.  If one or more Investigators under the site has a observation with flag 'Is An Issue' then the site is marked 'Issues Identified'</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Q:</t>
+  </si>
+  <si>
+    <t>Can we automatically add the fully matching records to observations and flag them as 'Is an Issue'</t>
+  </si>
+  <si>
+    <t>If yes, can the user remove the automatically added record or remove the 'Is an Issue' flag</t>
+  </si>
+  <si>
+    <t>In the existing arrangement, the user has to open each site (Findings Page) and mark the site as 'Review Completed"</t>
+  </si>
+  <si>
+    <t>Can we provide a facility where the user can mark all sites to 'Review Completed', or conditionally, only for No match found or partiall matched items</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Application needs to know if all the site results for all the investigators are reviewed, hence the flage 'Review completed'</t>
+  </si>
+  <si>
+    <t>By defulat only my 'Review not completed' forms will be displayed, other forms can be viewed by changing the filters.</t>
+  </si>
+  <si>
+    <t>Country specific sites will be added automatically, can they be removed later?</t>
+  </si>
+  <si>
+    <t>Disable 'Add for site …' button when zero records</t>
+  </si>
+  <si>
+    <t>After the sites are scanned, the name cannot be edited.</t>
+  </si>
+  <si>
+    <t>Inspection Date - how to find? For each site</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Record Details:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Transfer to findings. Can you provide the content for each site that has to be transferred to findings.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +761,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -702,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -711,8 +817,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1728,15 +1845,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection sqref="A1:G97"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1745,7 +1862,7 @@
       <c r="A1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1753,7 +1870,7 @@
       <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1761,17 +1878,17 @@
       <c r="A3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1798,7 +1915,7 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C8" t="s">
@@ -1807,7 +1924,7 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>42697</v>
       </c>
       <c r="F8" t="s">
@@ -1815,24 +1932,24 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>42697</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>42697</v>
       </c>
     </row>
@@ -1840,7 +1957,7 @@
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C11" t="s">
@@ -1849,7 +1966,7 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>42698</v>
       </c>
     </row>
@@ -1857,7 +1974,7 @@
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D12">
@@ -1868,7 +1985,7 @@
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>122</v>
       </c>
       <c r="C13" t="s">
@@ -1882,7 +1999,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F14" t="s">
@@ -1893,7 +2010,7 @@
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>162</v>
       </c>
       <c r="C15" t="s">
@@ -1902,7 +2019,7 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>42698</v>
       </c>
     </row>
@@ -1910,7 +2027,7 @@
       <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>151</v>
       </c>
       <c r="C16" t="s">
@@ -1924,7 +2041,7 @@
       <c r="A17">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C17" t="s">
@@ -1933,7 +2050,7 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>42699</v>
       </c>
     </row>
@@ -1941,7 +2058,7 @@
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="8" t="s">
         <v>142</v>
       </c>
       <c r="D18">
@@ -1949,39 +2066,39 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C19" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>42702</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C20" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>42702</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D23">
@@ -1992,7 +2109,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>177</v>
       </c>
       <c r="D24">
@@ -2000,7 +2117,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D25">
@@ -2008,7 +2125,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>179</v>
       </c>
       <c r="D26">
@@ -2016,7 +2133,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>180</v>
       </c>
       <c r="D27">
@@ -2027,7 +2144,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D28">
@@ -2035,17 +2152,17 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>181</v>
       </c>
       <c r="D31">
@@ -2053,7 +2170,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="9" t="s">
         <v>183</v>
       </c>
       <c r="D32">
@@ -2061,7 +2178,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D33">
@@ -2069,12 +2186,12 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>187</v>
       </c>
       <c r="D35">
@@ -2082,7 +2199,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>182</v>
       </c>
       <c r="D36">
@@ -2090,7 +2207,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>188</v>
       </c>
       <c r="D37">
@@ -2098,7 +2215,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D38">
@@ -2106,7 +2223,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>186</v>
       </c>
       <c r="D39">
@@ -2114,12 +2231,12 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>207</v>
       </c>
       <c r="D41">
@@ -2127,7 +2244,7 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>208</v>
       </c>
       <c r="D42">
@@ -2135,296 +2252,285 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="9" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="9" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="B45" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="B46" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C50" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
         <v>164</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>42697</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>42697</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>42698</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
         <v>168</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <v>42697</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="s">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>4</v>
-      </c>
-      <c r="B64" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" t="s">
-        <v>153</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>7</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>161</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <v>3</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E66" s="6">
         <v>42702</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>5</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D75">
+      <c r="D76">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>161</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E77" s="6">
         <v>42702</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>6</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>2</v>
-      </c>
-      <c r="B82" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" t="s">
-        <v>153</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="E82" s="7">
-        <v>42702</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
-      <c r="B83" t="s">
-        <v>154</v>
+      <c r="B83" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C83" t="s">
         <v>153</v>
@@ -2432,120 +2538,126 @@
       <c r="D83">
         <v>2</v>
       </c>
+      <c r="E83" s="6">
+        <v>42702</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>3</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>159</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>1</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="6">
         <v>42702</v>
-      </c>
-      <c r="F84" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>132</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
       </c>
       <c r="F85" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>3</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E89" s="6">
         <v>42702</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F89" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="6" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E94" s="6">
         <v>42702</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F94" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>1</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>153</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-      <c r="E95" s="7">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>145</v>
-      </c>
-      <c r="C96" t="s">
-        <v>155</v>
       </c>
       <c r="D96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>146</v>
+      <c r="E96" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="C97" t="s">
         <v>155</v>
@@ -2553,15 +2665,167 @@
       <c r="D97">
         <v>3</v>
       </c>
-      <c r="E97" s="7">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" t="s">
+        <v>155</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98" s="6">
         <v>42697</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F98" t="s">
         <v>170</v>
       </c>
     </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B115" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B117" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B120" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B123" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B124" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B125" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:F80"/>
+  <autoFilter ref="A7:F81"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="257">
   <si>
     <t>Reports</t>
   </si>
@@ -745,6 +745,72 @@
       </rPr>
       <t xml:space="preserve"> Transfer to findings. Can you provide the content for each site that has to be transferred to findings.</t>
     </r>
+  </si>
+  <si>
+    <t>New Pts in the call</t>
+  </si>
+  <si>
+    <t>Provide an option to re-assign a compliance form</t>
+  </si>
+  <si>
+    <t>Compliance Form Layout</t>
+  </si>
+  <si>
+    <t>Additional sites to be displayed in a seaparate table</t>
+  </si>
+  <si>
+    <t>Sr Nos for these additional tables will be running from previous table</t>
+  </si>
+  <si>
+    <t>Form footer - to display last updated date</t>
+  </si>
+  <si>
+    <t>Icon Project No and Sponsor Protocal on the same row, Institute and Addres on the second row</t>
+  </si>
+  <si>
+    <t>Menu _&gt; Compliance Form -&gt; Due Deligence Check</t>
+  </si>
+  <si>
+    <t>Create &gt; Due Deligence Check (Manual)</t>
+  </si>
+  <si>
+    <t>Upload .. Due Deligence Check (Upload)</t>
+  </si>
+  <si>
+    <t>Download Compliance Form -&gt; Sample Upload Template, different location.</t>
+  </si>
+  <si>
+    <t>Buttons larger</t>
+  </si>
+  <si>
+    <t>Filters, below action buttons.</t>
+  </si>
+  <si>
+    <t>Dinesh will provide the list of Sponsor which is first 4 letters of the ICON Project number</t>
+  </si>
+  <si>
+    <t>Can restrict name to min two components</t>
+  </si>
+  <si>
+    <t>No, can be reassigned.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>No, invividually closed</t>
+  </si>
+  <si>
+    <t>Explained</t>
+  </si>
+  <si>
+    <t>No,</t>
+  </si>
+  <si>
+    <t>Dinesh will provide the details</t>
   </si>
 </sst>
 </file>
@@ -1845,10 +1911,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2695,6 +2761,9 @@
       <c r="B101" s="7" t="s">
         <v>210</v>
       </c>
+      <c r="C101" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -2703,6 +2772,9 @@
       <c r="B102" s="7" t="s">
         <v>211</v>
       </c>
+      <c r="C102" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -2711,6 +2783,9 @@
       <c r="B103" s="7" t="s">
         <v>212</v>
       </c>
+      <c r="C103" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
@@ -2727,31 +2802,49 @@
       <c r="B105" s="7" t="s">
         <v>232</v>
       </c>
+      <c r="C105" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="C106" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="C107" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="C108" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
         <v>230</v>
       </c>
+      <c r="C109" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
         <v>225</v>
       </c>
+      <c r="C110" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
@@ -2762,66 +2855,155 @@
       <c r="B112" s="7" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="118" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="119" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="123" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="124" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="125" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B133" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="7" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="516" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11400" windowHeight="8010" tabRatio="516" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$F$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$F$129</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="298">
   <si>
     <t>Reports</t>
   </si>
@@ -861,9 +861,6 @@
     <t>Reassign Comp Form</t>
   </si>
   <si>
-    <t>min 2 components in a name</t>
-  </si>
-  <si>
     <t>links</t>
   </si>
   <si>
@@ -931,6 +928,12 @@
   </si>
   <si>
     <t>items spacing bring closer</t>
+  </si>
+  <si>
+    <t>Close ICFs</t>
+  </si>
+  <si>
+    <t>Summary No of Reviews pending: etc.</t>
   </si>
 </sst>
 </file>
@@ -2050,13 +2053,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2119,7 +2122,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2161,7 +2164,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2178,21 +2181,21 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>3</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>123</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>142</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>143</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>164</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>268</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>170</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>179</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>194</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>262</v>
       </c>
@@ -2420,17 +2423,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
         <v>180</v>
       </c>
@@ -2438,265 +2441,266 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
-        <v>192</v>
+        <v>290</v>
       </c>
       <c r="D40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D41" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
       <c r="B48" s="9" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D55">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>293</v>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" t="s">
+        <v>41</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="D63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
         <v>42697</v>
       </c>
     </row>
-    <row r="65" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="13">
+        <v>0</v>
+      </c>
+      <c r="E64" s="15">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D65" s="13">
         <v>0</v>
       </c>
       <c r="E65" s="15">
+        <v>42698</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
         <v>42697</v>
       </c>
     </row>
-    <row r="66" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D66" s="13">
-        <v>0</v>
-      </c>
-      <c r="E66" s="15">
-        <v>42698</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
-      <c r="E67" s="6">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2708,7 +2712,7 @@
         <v>274</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E70" s="6"/>
     </row>
@@ -2723,7 +2727,7 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -2732,7 +2736,7 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -2740,59 +2744,58 @@
       <c r="E73" s="6"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74" s="6"/>
+      <c r="B74" s="8" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="8" t="s">
-        <v>197</v>
+      <c r="B75" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
+      <c r="B78" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="s">
-        <v>203</v>
+      <c r="B79" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="7" t="s">
-        <v>204</v>
+      <c r="B80" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="s">
-        <v>130</v>
+      <c r="B81" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2806,418 +2809,420 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
-        <v>288</v>
+      <c r="B84" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="8" t="s">
-        <v>283</v>
+      <c r="B85" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="9" t="s">
-        <v>284</v>
+      <c r="B86" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="9" t="s">
-        <v>281</v>
+      <c r="B87" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="7" t="s">
-        <v>282</v>
+      <c r="B88" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="7" t="s">
+      <c r="B90" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="8" t="s">
-        <v>86</v>
+    </row>
+    <row r="93" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C96" t="s">
         <v>160</v>
-      </c>
-      <c r="D94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="D96">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>4</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C97" t="s">
-        <v>152</v>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>7</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C98" t="s">
-        <v>160</v>
+      <c r="B98" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="D98">
         <v>3</v>
       </c>
-      <c r="E98" s="6">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" t="s">
+        <v>160</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" s="6">
         <v>42702</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="8" t="s">
-        <v>294</v>
+      <c r="B106" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="8" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="10" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>5</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B113" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C112" t="s">
-        <v>160</v>
-      </c>
-      <c r="E112" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E113" s="6"/>
+      <c r="D113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E114" s="6"/>
-    </row>
-    <row r="115" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="13">
-        <v>6</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D115" s="13">
-        <v>0</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C114" t="s">
+        <v>160</v>
+      </c>
+      <c r="E114" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E115" s="6"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" spans="1:6" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13">
+        <v>6</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="7" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="14" t="s">
+    <row r="120" spans="1:6" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D118" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="12" t="s">
+      <c r="D120" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D119" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D121">
+      <c r="D121" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D122">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="13">
-        <v>2</v>
-      </c>
-      <c r="B124" s="14" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="13">
+        <v>2</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C126" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D124" s="13">
-        <v>0</v>
-      </c>
-      <c r="E124" s="15">
+      <c r="D126" s="13">
+        <v>0</v>
+      </c>
+      <c r="E126" s="15">
         <v>42702</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>2</v>
-      </c>
-      <c r="B125" s="7" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C127" t="s">
         <v>152</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>3</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C126" t="s">
-        <v>158</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126" s="6">
-        <v>42702</v>
-      </c>
-      <c r="F126" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
-      <c r="F127" t="s">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C128" t="s">
+        <v>158</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" s="6">
+        <v>42702</v>
+      </c>
+      <c r="F128" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C129" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130" s="6">
-        <v>42702</v>
-      </c>
-      <c r="F130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D131">
-        <v>5</v>
+        <v>146</v>
+      </c>
+      <c r="C131" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C132" t="s">
+        <v>152</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132" s="6">
+        <v>42702</v>
+      </c>
+      <c r="F132" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C133" t="s">
+        <v>152</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D133">
+      <c r="D135">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="9" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="9" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135" s="6">
-        <v>42702</v>
-      </c>
-      <c r="F135" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>1</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C137" t="s">
-        <v>152</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -3225,103 +3230,107 @@
       <c r="E137" s="6">
         <v>42702</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="7" t="s">
+      <c r="F137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C139" t="s">
+        <v>152</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C140" t="s">
         <v>154</v>
       </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="7" t="s">
+      <c r="D140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C141" t="s">
         <v>154</v>
       </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139" s="6">
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141" s="6">
         <v>42697</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F141" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B141" s="8" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="8" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>1</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C142" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>2</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C143" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C144" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C145" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>3</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B146" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C146" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>4</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B147" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>213</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B148" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="C146" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C147" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="C148" t="s">
         <v>250</v>
@@ -3329,7 +3338,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C149" t="s">
         <v>250</v>
@@ -3337,207 +3346,195 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C150" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C151" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C152" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B151" s="7" t="s">
+    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B153" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C153" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="10" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="10" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C153" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B154" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="C155" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B158" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B158" s="7" t="s">
+    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B160" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C160" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="7" t="s">
+    <row r="161" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B161" s="7" t="s">
+    <row r="162" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B163" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C163" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="7" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C164" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="10" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="10" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B164" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C164" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B165" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C165" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C166" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B167" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C167" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B168" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="7" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
         <v>1</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B171" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>2</v>
-      </c>
-      <c r="B170" s="7" t="s">
+      <c r="D171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D172">
-        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B176" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C177" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="E177" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C178" t="s">
-        <v>260</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="E178" t="s">
-        <v>169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C179" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -3548,7 +3545,10 @@
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="C180" t="s">
+        <v>260</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -3559,7 +3559,10 @@
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+      <c r="C181" t="s">
+        <v>261</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -3570,7 +3573,7 @@
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -3579,13 +3582,45 @@
         <v>169</v>
       </c>
     </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="7" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:F127"/>
+  <autoFilter ref="A7:F129">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="-"/>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$F$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$F$161</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="319">
   <si>
     <t>Reports</t>
   </si>
@@ -539,9 +539,6 @@
   </si>
   <si>
     <t>Findings</t>
-  </si>
-  <si>
-    <t>Open Compliance Form</t>
   </si>
   <si>
     <t>Investigator Summary</t>
@@ -979,6 +976,27 @@
   </si>
   <si>
     <t xml:space="preserve">User   </t>
+  </si>
+  <si>
+    <t>Login Details</t>
+  </si>
+  <si>
+    <t>Logged in User</t>
+  </si>
+  <si>
+    <t>Error Log</t>
+  </si>
+  <si>
+    <t>About us</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>ALL ISCFS</t>
+  </si>
+  <si>
+    <t>Filters + No match found, Review pending</t>
   </si>
 </sst>
 </file>
@@ -2111,10 +2129,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154:XFD154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,7 +2393,7 @@
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D22" s="12">
         <v>9</v>
@@ -2383,7 +2401,7 @@
     </row>
     <row r="23" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D23" s="12">
         <v>0</v>
@@ -2391,10 +2409,10 @@
     </row>
     <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>309</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>310</v>
       </c>
       <c r="D24" s="12">
         <v>0</v>
@@ -2402,17 +2420,17 @@
     </row>
     <row r="25" spans="1:6" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D27" s="12">
         <v>0</v>
@@ -2420,7 +2438,7 @@
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D28" s="12">
         <v>3</v>
@@ -2428,7 +2446,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2442,53 +2460,50 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2496,28 +2511,28 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
+      <c r="B38" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -2525,7 +2540,7 @@
     </row>
     <row r="41" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -2533,248 +2548,247 @@
     </row>
     <row r="42" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
-        <v>288</v>
+        <v>191</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D44" s="3">
+    <row r="43" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D50">
         <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="9" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D52">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D58">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D59">
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" t="s">
-        <v>41</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="7" t="s">
+    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" s="6">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D67" s="12">
-        <v>0</v>
-      </c>
-      <c r="E67" s="14">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
         <v>42697</v>
       </c>
     </row>
     <row r="68" spans="2:5" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="12">
+        <v>0</v>
+      </c>
+      <c r="E68" s="14">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D68" s="12">
-        <v>0</v>
-      </c>
-      <c r="E68" s="14">
+      <c r="D69" s="12">
+        <v>0</v>
+      </c>
+      <c r="E69" s="14">
         <v>42698</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" s="6">
-        <v>42697</v>
       </c>
     </row>
     <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
-      <c r="E70" s="6"/>
+      <c r="E70" s="6">
+        <v>42697</v>
+      </c>
     </row>
     <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2783,25 +2797,25 @@
     </row>
     <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E73" s="6"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -2810,10 +2824,10 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" s="6"/>
     </row>
@@ -2822,63 +2836,64 @@
         <v>288</v>
       </c>
       <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D77">
         <v>2</v>
       </c>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
-        <v>197</v>
-      </c>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
+      <c r="B78" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D79">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="D80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="s">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D82">
+      <c r="D83">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-    </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
-        <v>278</v>
+      <c r="B84" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -2886,508 +2901,476 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="9" t="s">
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
-        <v>287</v>
+      <c r="D98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="7" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>160</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103">
         <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>4</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C103" t="s">
-        <v>152</v>
-      </c>
-      <c r="D103">
-        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C104" t="s">
+        <v>152</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>7</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B105" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>160</v>
-      </c>
-      <c r="D104">
-        <v>3</v>
-      </c>
-      <c r="E104" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="D105">
         <v>3</v>
       </c>
+      <c r="E105" s="6">
+        <v>42702</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="8" t="s">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="7" t="s">
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B117" s="19" t="s">
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B121" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="8"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="8"/>
+    </row>
+    <row r="126" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B126" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="8" t="s">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="9" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>5</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C134" t="s">
+        <v>160</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" spans="1:5" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="12">
+        <v>6</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D137" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D143" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>5</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C125" t="s">
-        <v>160</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E126" s="6"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E127" s="6"/>
-    </row>
-    <row r="128" spans="1:5" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="12">
-        <v>6</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D128" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D134" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B137" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="12">
-        <v>2</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D140" s="12">
-        <v>0</v>
-      </c>
-      <c r="E140" s="14">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="E141" s="14"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>2</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C142" t="s">
-        <v>152</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>3</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C143" t="s">
-        <v>158</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143" s="6">
-        <v>42702</v>
-      </c>
-      <c r="F143" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B144" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E144" s="6"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E145" s="6"/>
-    </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B146" s="7" t="s">
-        <v>132</v>
+      <c r="B146" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="D146">
         <v>1</v>
       </c>
-      <c r="F146" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B148" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="12">
+        <v>2</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149" s="12">
+        <v>0</v>
+      </c>
+      <c r="E149" s="14">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="13"/>
+      <c r="E150" s="14"/>
+    </row>
+    <row r="151" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E151" s="14"/>
+    </row>
+    <row r="152" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="13"/>
+      <c r="E152" s="14"/>
+    </row>
+    <row r="153" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E153" s="14"/>
+    </row>
+    <row r="154" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="13"/>
+      <c r="E154" s="14"/>
+    </row>
+    <row r="155" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="13"/>
+      <c r="E155" s="14"/>
+    </row>
+    <row r="156" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="D148">
+      <c r="E156" s="14"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B150" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B157" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C157" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B151" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C151" t="s">
-        <v>152</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151" s="6">
-        <v>42702</v>
-      </c>
-      <c r="F151" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C152" t="s">
-        <v>152</v>
-      </c>
-      <c r="D152">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B156" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D156">
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B157" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B158" s="9" t="s">
-        <v>166</v>
+      <c r="B158" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C158" t="s">
+        <v>158</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" s="6">
         <v>42702</v>
@@ -3396,386 +3379,482 @@
         <v>169</v>
       </c>
     </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E159" s="6"/>
+    </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>1</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C160" t="s">
-        <v>152</v>
-      </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160" s="6">
-        <v>42702</v>
-      </c>
+      <c r="E160" s="6"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C161" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C162" t="s">
-        <v>154</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162" s="6">
-        <v>42697</v>
-      </c>
-      <c r="F162" t="s">
-        <v>169</v>
+        <v>296</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E163" s="6"/>
+      <c r="B163" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>208</v>
+        <v>146</v>
+      </c>
+      <c r="C165" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>1</v>
-      </c>
       <c r="B166" s="7" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="C166" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>2</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166" s="6">
+        <v>42702</v>
+      </c>
+      <c r="F166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="C167" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>3</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C168" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>4</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>213</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C170" t="s">
-        <v>250</v>
+        <v>152</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C171" t="s">
-        <v>250</v>
+        <v>149</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B172" s="7" t="s">
+      <c r="B172" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B173" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173" s="6">
+        <v>42702</v>
+      </c>
+      <c r="F173" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C175" t="s">
+        <v>152</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B176" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C176" t="s">
+        <v>154</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B177" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C177" t="s">
+        <v>154</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177" s="6">
+        <v>42697</v>
+      </c>
+      <c r="F177" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E178" s="6"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B180" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C181" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C182" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>3</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C183" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>212</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C185" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B186" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C186" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B187" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C187" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B188" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C172" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B173" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C173" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B174" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C174" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B175" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C175" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B176" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C177" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B180" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B182" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C182" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B185" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C185" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C186" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B188" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="C188" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
         <v>228</v>
       </c>
       <c r="C189" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B190" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C190" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B191" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B192" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C192" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B195" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B197" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C197" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="190" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B190" s="7" t="s">
+    <row r="198" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B200" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C200" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B201" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C201" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B192" s="7" t="s">
+    <row r="203" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B203" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C203" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B204" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C204" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B205" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B207" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208" s="7" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>1</v>
-      </c>
-      <c r="B193" s="7" t="s">
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2</v>
+      </c>
+      <c r="B209" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B210" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D210">
         <v>2</v>
       </c>
-      <c r="B194" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B195" s="7" t="s">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B211" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D195">
+      <c r="D211">
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B196" s="7" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B197" s="7" t="s">
+      <c r="D212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B213" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D197">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B198" s="7" t="s">
+      <c r="D213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B214" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B216" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B199" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B201" s="7" t="s">
+      <c r="C216" t="s">
+        <v>258</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B217" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C217" t="s">
         <v>259</v>
       </c>
-      <c r="D201">
-        <v>0</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B202" s="7" t="s">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B218" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C218" t="s">
         <v>260</v>
       </c>
-      <c r="D202">
-        <v>0</v>
-      </c>
-      <c r="E202" t="s">
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="7" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B219" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C203" t="s">
-        <v>261</v>
-      </c>
-      <c r="D203">
-        <v>0</v>
-      </c>
-      <c r="E203" t="s">
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B204" s="7" t="s">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B220" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D204">
-        <v>0</v>
-      </c>
-      <c r="E204" t="s">
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="7" t="s">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B221" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="E205" t="s">
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B206" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D206">
-        <v>0</v>
-      </c>
-      <c r="E206" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B208" s="7" t="s">
-        <v>258</v>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:F146">
+  <autoFilter ref="A7:F161">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="-"/>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -1074,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1113,6 +1113,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2132,8 +2135,8 @@
   </sheetPr>
   <dimension ref="A1:G218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,14 +2504,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2846,7 +2849,7 @@
         <v>150</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" s="6"/>
     </row>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="317">
   <si>
     <t>Reports</t>
   </si>
@@ -373,9 +373,6 @@
     <t>Show error message if not loaded</t>
   </si>
   <si>
-    <t>Provide reload option for sites not loaded</t>
-  </si>
-  <si>
     <t xml:space="preserve">Combine records from the same audit </t>
   </si>
   <si>
@@ -400,9 +397,6 @@
     <t>Password generation</t>
   </si>
   <si>
-    <t>By admin</t>
-  </si>
-  <si>
     <t>show searches according to user</t>
   </si>
   <si>
@@ -547,9 +541,6 @@
     <t>Country drop down</t>
   </si>
   <si>
-    <t>Enable Search button only when Investigayot / site is added</t>
-  </si>
-  <si>
     <t>Optional Sites - World Health Check - etc. to be added to Search Sites</t>
   </si>
   <si>
@@ -569,9 +560,6 @@
   </si>
   <si>
     <t>Findings:</t>
-  </si>
-  <si>
-    <t>Column: Issues identified - retest</t>
   </si>
   <si>
     <t>disable buttons when Search is in progress</t>
@@ -997,6 +985,12 @@
   </si>
   <si>
     <t>Site Source Date - display.</t>
+  </si>
+  <si>
+    <t>Provide reload option for sites not loaded / even if sites are loaded.</t>
+  </si>
+  <si>
+    <t>"Re-Search" - button with warning for losing previous data.</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1116,6 +1110,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2133,10 +2130,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,24 +2180,24 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2211,7 +2208,7 @@
         <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2220,10 +2217,10 @@
         <v>42697</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>116</v>
       </c>
@@ -2234,9 +2231,9 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -2250,10 +2247,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2262,15 +2259,15 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" s="12">
         <v>9</v>
@@ -2281,27 +2278,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2309,10 +2306,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2321,15 +2318,15 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
         <v>148</v>
-      </c>
-      <c r="C16" t="s">
-        <v>150</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -2340,10 +2337,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2357,7 +2354,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
         <v>41</v>
@@ -2365,10 +2362,10 @@
     </row>
     <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2379,10 +2376,10 @@
     </row>
     <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2393,15 +2390,15 @@
     </row>
     <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E22" s="12">
         <v>3</v>
@@ -2409,7 +2406,7 @@
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -2417,10 +2414,10 @@
     </row>
     <row r="24" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E24" s="12">
         <v>0</v>
@@ -2428,25 +2425,25 @@
     </row>
     <row r="25" spans="1:7" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E27" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E28" s="12">
         <v>2</v>
@@ -2454,40 +2451,40 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E32" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E33" s="12">
         <v>2</v>
@@ -2495,7 +2492,7 @@
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2506,32 +2503,32 @@
     </row>
     <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2539,28 +2536,28 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
+    <row r="40" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
@@ -2568,15 +2565,15 @@
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -2584,28 +2581,28 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>175</v>
+        <v>316</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2613,7 +2610,7 @@
     </row>
     <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2621,25 +2618,25 @@
     </row>
     <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="9" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -2647,12 +2644,12 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2660,163 +2657,164 @@
     </row>
     <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="E56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>256</v>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>192</v>
+        <v>314</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E60">
+      <c r="B60" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E62">
         <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
-        <v>310</v>
+        <v>189</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
-        <v>193</v>
+        <v>305</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="9" t="s">
-        <v>279</v>
+      <c r="B66" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" t="s">
+        <v>41</v>
       </c>
       <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C67" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="E67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0</v>
+      </c>
+      <c r="F68" s="14">
         <v>42697</v>
       </c>
     </row>
     <row r="69" spans="2:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E69" s="12">
         <v>0</v>
       </c>
       <c r="F69" s="14">
+        <v>42698</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
         <v>42697</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E70" s="12">
-        <v>0</v>
-      </c>
-      <c r="F70" s="14">
-        <v>42698</v>
       </c>
     </row>
     <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71" s="6">
-        <v>42697</v>
-      </c>
+      <c r="F71" s="6"/>
     </row>
     <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2825,7 +2823,7 @@
     </row>
     <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2834,31 +2832,34 @@
     </row>
     <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
+      </c>
+      <c r="C74" t="s">
+        <v>148</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>313</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2867,10 +2868,10 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="C77" t="s">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2878,139 +2879,135 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C78" t="s">
-        <v>157</v>
-      </c>
-      <c r="E78">
+      <c r="B78" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E84">
         <v>1</v>
       </c>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E81">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="8" t="s">
-        <v>305</v>
+    </row>
+    <row r="85" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E86">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="7" t="s">
+    <row r="87" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E87">
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E90">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="9" t="s">
+    <row r="91" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
         <v>273</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3018,289 +3015,304 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" t="s">
-        <v>157</v>
-      </c>
-      <c r="E100">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" t="s">
+        <v>155</v>
+      </c>
+      <c r="E101">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E103">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>4</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C103" t="s">
-        <v>150</v>
-      </c>
-      <c r="E103">
+      <c r="B104" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" t="s">
+        <v>148</v>
+      </c>
+      <c r="E104">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>7</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C104" t="s">
-        <v>157</v>
-      </c>
-      <c r="E104">
-        <v>3</v>
-      </c>
-      <c r="F104" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="C105" t="s">
+        <v>155</v>
       </c>
       <c r="E105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
+      <c r="B112" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B117" s="19" t="s">
+    <row r="118" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B118" s="19" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E120">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B120" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="8"/>
-    </row>
-    <row r="123" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B123" s="19" t="s">
+    <row r="121" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B121" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="8"/>
+    </row>
+    <row r="124" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B124" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="9" t="s">
-        <v>269</v>
+      <c r="B125" s="8" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="9" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="7" t="s">
-        <v>289</v>
+      <c r="B127" s="9" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>5</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C132" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
-      <c r="F132" s="6">
+    </row>
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C133" t="s">
+        <v>155</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133" s="6">
         <v>42702</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E134">
+        <v>309</v>
+      </c>
+      <c r="F134" s="6"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D135" t="s">
+        <v>155</v>
+      </c>
+      <c r="E135">
         <v>1</v>
       </c>
-      <c r="F134" s="6"/>
-    </row>
-    <row r="135" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="12">
+      <c r="F135" s="6"/>
+    </row>
+    <row r="136" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="12">
         <v>6</v>
       </c>
-      <c r="B135" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E135" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="13" t="s">
-        <v>292</v>
+        <v>124</v>
       </c>
       <c r="E136" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="13" t="s">
-        <v>296</v>
+        <v>288</v>
+      </c>
+      <c r="D137" t="s">
+        <v>155</v>
       </c>
       <c r="E137" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="7" t="s">
-        <v>126</v>
+    <row r="138" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D138" t="s">
+        <v>155</v>
+      </c>
+      <c r="E138" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="D139" t="s">
+        <v>155</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -3308,7 +3320,7 @@
     </row>
     <row r="140" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E140" s="12">
         <v>0</v>
@@ -3316,7 +3328,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3329,10 +3341,10 @@
         <v>2</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E145" s="12">
         <v>0</v>
@@ -3345,15 +3357,15 @@
       <c r="B146" s="13"/>
       <c r="F146" s="14"/>
     </row>
-    <row r="147" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E147" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F147" s="14"/>
     </row>
@@ -3361,15 +3373,15 @@
       <c r="B148" s="13"/>
       <c r="F148" s="14"/>
     </row>
-    <row r="149" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E149" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149" s="14"/>
     </row>
@@ -3379,22 +3391,22 @@
     </row>
     <row r="151" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="16" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F151" s="14"/>
     </row>
     <row r="152" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F152" s="14"/>
     </row>
     <row r="153" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F153" s="14"/>
     </row>
@@ -3403,10 +3415,10 @@
         <v>2</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C154" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -3414,35 +3426,35 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F155" s="6"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F156" s="6"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E157">
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C159" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E159">
         <v>2</v>
@@ -3450,18 +3462,18 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C161" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C162" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -3470,31 +3482,51 @@
         <v>42702</v>
       </c>
       <c r="G162" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C163" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E163">
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B167" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E167">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E165">
         <v>3</v>
       </c>
     </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166" s="6">
+        <v>42702</v>
+      </c>
+      <c r="G166" t="s">
+        <v>163</v>
+      </c>
+    </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B168" s="9" t="s">
-        <v>162</v>
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C168" t="s">
+        <v>148</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -3502,16 +3534,21 @@
       <c r="F168" s="6">
         <v>42702</v>
       </c>
-      <c r="G168" t="s">
-        <v>165</v>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C169" t="s">
+        <v>150</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>1</v>
-      </c>
       <c r="B170" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="C170" t="s">
         <v>150</v>
@@ -3520,368 +3557,343 @@
         <v>0</v>
       </c>
       <c r="F170" s="6">
-        <v>42702</v>
+        <v>42697</v>
+      </c>
+      <c r="G170" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B171" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C171" t="s">
-        <v>152</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B172" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C172" t="s">
-        <v>152</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172" s="6">
-        <v>42697</v>
-      </c>
-      <c r="G172" t="s">
-        <v>165</v>
-      </c>
+      <c r="F171" s="6"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F173" s="6"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B175" s="8" t="s">
-        <v>200</v>
+      <c r="B173" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C174" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C175" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B176" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C176" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>201</v>
       </c>
-      <c r="C176" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>2</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C177" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>3</v>
-      </c>
       <c r="B178" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C178" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>4</v>
-      </c>
       <c r="B179" s="7" t="s">
         <v>204</v>
       </c>
+      <c r="C179" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>205</v>
-      </c>
       <c r="B180" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C180" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C181" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C182" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C183" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C184" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B184" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C185" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="10" t="s">
-        <v>168</v>
+      <c r="B186" s="7" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C187" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B188" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B190" s="7" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B190" s="7" t="s">
+      <c r="C190" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B192" s="7" t="s">
+    <row r="192" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B193" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C193" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C194" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C192" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="7" t="s">
+    </row>
+    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B196" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B195" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C195" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B196" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="C196" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B197" s="10" t="s">
-        <v>218</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B197" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C197" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B198" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C198" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B199" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C199" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B200" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2</v>
+      </c>
       <c r="B202" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="7" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>1</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="E204">
         <v>2</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E205">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B206" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B207" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E207">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B208" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E208">
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C209" t="s">
+        <v>247</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B210" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C210" t="s">
         <v>248</v>
       </c>
-      <c r="E209">
-        <v>0</v>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C211" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E211">
         <v>0</v>
       </c>
       <c r="F211" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C212" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E212">
         <v>0</v>
       </c>
       <c r="F212" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C213" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="E213">
         <v>0</v>
       </c>
       <c r="F213" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E214">
         <v>0</v>
       </c>
       <c r="F214" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B215" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E215">
-        <v>0</v>
-      </c>
-      <c r="F215" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E216">
-        <v>0</v>
-      </c>
-      <c r="F216" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B218" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3889,9 +3901,6 @@
     <filterColumn colId="4">
       <filters blank="1">
         <filter val="1"/>
-        <filter val="2"/>
-        <filter val="3"/>
-        <filter val="9"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -16,12 +16,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$G$159</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="324">
   <si>
     <t>Reports</t>
   </si>
@@ -1001,6 +1000,18 @@
   </si>
   <si>
     <t>Done (have added current date as source date for live sites)</t>
+  </si>
+  <si>
+    <t>Investigator name is pending</t>
+  </si>
+  <si>
+    <t>Need clarification from clients</t>
+  </si>
+  <si>
+    <t>partially done. Need to display and sort by 'Match Count'</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -2136,8 +2147,8 @@
   </sheetPr>
   <dimension ref="A1:G218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,6 +2887,9 @@
       <c r="C77" t="s">
         <v>317</v>
       </c>
+      <c r="D77" t="s">
+        <v>322</v>
+      </c>
       <c r="E77">
         <v>1</v>
       </c>
@@ -2931,6 +2945,9 @@
       <c r="B84" s="7" t="s">
         <v>196</v>
       </c>
+      <c r="D84" t="s">
+        <v>321</v>
+      </c>
       <c r="E84">
         <v>2</v>
       </c>
@@ -2987,6 +3004,9 @@
       <c r="B91" s="9" t="s">
         <v>269</v>
       </c>
+      <c r="D91" t="s">
+        <v>320</v>
+      </c>
       <c r="E91">
         <v>1</v>
       </c>
@@ -3221,6 +3241,9 @@
       <c r="B129" s="7" t="s">
         <v>267</v>
       </c>
+      <c r="D129" t="s">
+        <v>323</v>
+      </c>
       <c r="E129">
         <v>1</v>
       </c>
@@ -3355,6 +3378,9 @@
       </c>
       <c r="C147" s="12" t="s">
         <v>150</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="E147" s="12">
         <v>1</v>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="75" windowWidth="15825" windowHeight="8190" tabRatio="516" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="20130" windowHeight="8265" tabRatio="516" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$G$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$210</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="337">
   <si>
     <t>Reports</t>
   </si>
@@ -798,9 +798,6 @@
     <t>Forgot Password</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Additional sites in separate section</t>
   </si>
   <si>
@@ -991,13 +988,253 @@
   </si>
   <si>
     <t>"Re-Search" - button with warning for losing previous data.</t>
+  </si>
+  <si>
+    <t>Landing Page:  Can the landing page be the “Due Diligence Check” instead of Users?</t>
+  </si>
+  <si>
+    <t>Name of the tab be “Due Diligence Search” instead of check</t>
+  </si>
+  <si>
+    <t>The name of the buttons be just “Manual Search” &amp; “Batch Upload”</t>
+  </si>
+  <si>
+    <t>Name of the “Sample Upload Template” to “Batch Upload Template”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please have the Legends in all pages for better clarity. </t>
+  </si>
+  <si>
+    <t>Could only the Pending reviews be shown in the main page instead of all?</t>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Closed ICSFs tab be changed to “Closed Reviews”. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>All ICSFs tab be changed to “All Searches”.</t>
+    </r>
+  </si>
+  <si>
+    <t>Manage ICSFs tab be changed to “Manage Reassignments”</t>
+  </si>
+  <si>
+    <t>Manage ICSFs</t>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Please interchange the 7</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and 8</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Web links in all.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Worldcheck should be the default 13</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> web link and this should have provision to provide the descriptions of findings if found manually.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>In the search, could an option be provided to change the Role of the investigator, if needed?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Option like “+” sign be provided in main page next to the principal investigator which would list out all the Sub Investigators who were in the search if expanded.</t>
+    </r>
+  </si>
+  <si>
+    <t>Requested By</t>
+  </si>
+  <si>
+    <t>Dinesh</t>
+  </si>
+  <si>
+    <t>Requested on</t>
+  </si>
+  <si>
+    <t>Inspection Date revised logic</t>
+  </si>
+  <si>
+    <t>Patrick + Pradeep</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Can we move the Role &amp; Account to top left Corner with option coming up while clicked on name.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,6 +1265,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1068,7 +1330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1114,6 +1376,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2130,21 +2405,26 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:I219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="79.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -2152,7 +2432,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -2160,7 +2440,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -2168,1744 +2448,2148 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" t="s">
         <v>147</v>
       </c>
-      <c r="D6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>162</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>148</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>42697</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="H9" s="6">
         <v>42697</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10">
+        <v>314</v>
+      </c>
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="H10" s="6">
         <v>42697</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>148</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
         <v>42698</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="12">
+      <c r="G12" s="12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>148</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>148</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
         <v>42698</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>148</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>148</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
         <v>42699</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="G18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>148</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
         <v>42702</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>151</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
         <v>42702</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E22" s="12">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="G22" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="G28" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D29" s="22">
+        <v>42760</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" s="22">
+        <v>42760</v>
+      </c>
+      <c r="E32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D34" s="22">
+        <v>42760</v>
+      </c>
+      <c r="E34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="D42" s="22">
+        <v>42760</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="D43" s="22">
+        <v>42760</v>
+      </c>
+      <c r="F43" s="22"/>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D44" s="22">
+        <v>42760</v>
+      </c>
+      <c r="E44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="G46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="G47" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="G53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="D58" s="26">
+        <v>42760</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D60" s="22">
+        <v>42760</v>
+      </c>
+      <c r="E60" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="G66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="G68" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="D71" s="26">
+        <v>42760</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="D72" s="26">
+        <v>42760</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" s="6">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="G81" s="12">
+        <v>0</v>
+      </c>
+      <c r="H81" s="14">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="G82" s="12">
+        <v>0</v>
+      </c>
+      <c r="H82" s="14">
+        <v>42698</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" s="6">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E87" t="s">
+        <v>148</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E88" t="s">
+        <v>148</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E89" t="s">
+        <v>312</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E90" t="s">
+        <v>155</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D99" s="22">
+        <v>42760</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D104" s="22">
+        <v>42760</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+    </row>
+    <row r="108" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D108" s="22">
+        <v>42760</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+    </row>
+    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+    </row>
+    <row r="116" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D116" s="22">
+        <v>42760</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G116" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D117" s="22">
+        <v>42760</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G117" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E118" t="s">
+        <v>155</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="G120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>4</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E121" t="s">
+        <v>148</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>7</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E122" t="s">
+        <v>155</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="H122" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+    </row>
+    <row r="131" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B135" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B138" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+    </row>
+    <row r="141" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B141" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+    </row>
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>5</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E150" t="s">
+        <v>155</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151" s="6"/>
+    </row>
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="F152" t="s">
+        <v>155</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152" s="6"/>
+    </row>
+    <row r="153" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="12">
+        <v>6</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="G153" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="F154" t="s">
+        <v>155</v>
+      </c>
+      <c r="G154" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="F155" t="s">
+        <v>155</v>
+      </c>
+      <c r="G155" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F156" t="s">
+        <v>155</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="G157" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="B159" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G159" s="12">
+        <v>0</v>
+      </c>
+      <c r="H159" s="14">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G160" s="12">
+        <v>2</v>
+      </c>
+      <c r="H160" s="14"/>
+    </row>
+    <row r="161" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G161" s="12">
+        <v>2</v>
+      </c>
+      <c r="H161" s="14"/>
+    </row>
+    <row r="162" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="H162" s="14"/>
+    </row>
+    <row r="163" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H163" s="14"/>
+    </row>
+    <row r="164" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+      <c r="H164" s="14"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E165" t="s">
+        <v>148</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E169" t="s">
+        <v>148</v>
+      </c>
+      <c r="G169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E171" t="s">
+        <v>148</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171" s="6">
+        <v>42702</v>
+      </c>
+      <c r="I171" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E172" t="s">
+        <v>148</v>
+      </c>
+      <c r="G172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174" s="6">
+        <v>42702</v>
+      </c>
+      <c r="I174" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E175" t="s">
+        <v>148</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E176" t="s">
+        <v>150</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E177" t="s">
+        <v>150</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177" s="6">
+        <v>42697</v>
+      </c>
+      <c r="I177" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E179" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E180" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>3</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E181" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>201</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E183" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E184" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B186" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E186" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B187" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E187" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B188" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E188" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B189" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B190" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E190" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B191" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B192" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B193" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B195" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E195" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B197" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E197" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B198" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E198" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B199" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+    </row>
+    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B200" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E200" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B201" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E201" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B202" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B203" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B206" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B207" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E211" s="22"/>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B212" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E212" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="E32" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C36" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C37" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="E40" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67" s="6">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E68" s="12">
-        <v>0</v>
-      </c>
-      <c r="F68" s="14">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E69" s="12">
-        <v>0</v>
-      </c>
-      <c r="F69" s="14">
-        <v>42698</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70" s="6">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C75" t="s">
-        <v>148</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C76" t="s">
-        <v>313</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C77" t="s">
-        <v>155</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E80">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C101" t="s">
-        <v>155</v>
-      </c>
-      <c r="E101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>4</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C104" t="s">
-        <v>148</v>
-      </c>
-      <c r="E104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>7</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C105" t="s">
-        <v>155</v>
-      </c>
-      <c r="E105">
-        <v>3</v>
-      </c>
-      <c r="F105" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B118" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B121" s="19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="8"/>
-    </row>
-    <row r="124" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B124" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>5</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C133" t="s">
-        <v>155</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F134" s="6"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D135" t="s">
-        <v>155</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135" s="6"/>
-    </row>
-    <row r="136" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="12">
-        <v>6</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E136" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D137" t="s">
-        <v>155</v>
-      </c>
-      <c r="E137" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="D138" t="s">
-        <v>155</v>
-      </c>
-      <c r="E138" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D139" t="s">
-        <v>155</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E140" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B141" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B142" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="12">
-        <v>2</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E145" s="12">
-        <v>0</v>
-      </c>
-      <c r="F145" s="14">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="13"/>
-      <c r="F146" s="14"/>
-    </row>
-    <row r="147" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E147" s="12">
-        <v>2</v>
-      </c>
-      <c r="F147" s="14"/>
-    </row>
-    <row r="148" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="13"/>
-      <c r="F148" s="14"/>
-    </row>
-    <row r="149" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E149" s="12">
-        <v>2</v>
-      </c>
-      <c r="F149" s="14"/>
-    </row>
-    <row r="150" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="13"/>
-      <c r="F150" s="14"/>
-    </row>
-    <row r="151" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="F151" s="14"/>
-    </row>
-    <row r="152" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="F152" s="14"/>
-    </row>
-    <row r="153" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="F153" s="14"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>2</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C154" t="s">
-        <v>148</v>
-      </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B155" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F155" s="6"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F156" s="6"/>
-    </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="G157" t="s">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B213" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E213" t="s">
+        <v>248</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B158" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C159" t="s">
-        <v>148</v>
-      </c>
-      <c r="E159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B161" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C161" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B162" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C162" t="s">
-        <v>148</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162" s="6">
-        <v>42702</v>
-      </c>
-      <c r="G162" t="s">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B214" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E214" t="s">
+        <v>249</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B163" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C163" t="s">
-        <v>148</v>
-      </c>
-      <c r="E163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B165" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E165">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B166" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166" s="6">
-        <v>42702</v>
-      </c>
-      <c r="G166" t="s">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B215" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>1</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C168" t="s">
-        <v>148</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B169" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C169" t="s">
-        <v>150</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B170" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C170" t="s">
-        <v>150</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170" s="6">
-        <v>42697</v>
-      </c>
-      <c r="G170" t="s">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B216" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F171" s="6"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B173" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>1</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C174" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>2</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C175" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>3</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C176" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>4</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>201</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C178" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C179" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C180" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C181" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C182" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B183" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C183" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C185" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B188" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B190" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C190" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B193" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C193" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B194" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C194" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B195" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B196" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C196" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B197" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C197" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B198" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B200" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>1</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>2</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E203">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B204" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E204">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E205">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B206" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B207" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B209" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C209" t="s">
-        <v>247</v>
-      </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
-      <c r="F209" t="s">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B217" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B210" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C210" t="s">
-        <v>248</v>
-      </c>
-      <c r="E210">
-        <v>0</v>
-      </c>
-      <c r="F210" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B211" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C211" t="s">
-        <v>249</v>
-      </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
-      <c r="F211" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B212" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E212">
-        <v>0</v>
-      </c>
-      <c r="F212" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B213" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E213">
-        <v>0</v>
-      </c>
-      <c r="F213" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B214" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E214">
-        <v>0</v>
-      </c>
-      <c r="F214" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B216" s="7" t="s">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B219" s="7" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G159">
-    <filterColumn colId="4">
+  <autoFilter ref="A7:I210">
+    <filterColumn colId="6">
       <filters blank="1">
+        <filter val="-"/>
         <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="337">
   <si>
     <t>Reports</t>
   </si>
@@ -2408,10 +2408,10 @@
   <dimension ref="A1:I219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B71" sqref="B71"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2513,8 +2513,8 @@
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9" s="6">
-        <v>42697</v>
+      <c r="H9" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2524,8 +2524,8 @@
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="H10" s="6">
-        <v>42697</v>
+      <c r="H10" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2822,6 +2822,9 @@
       </c>
       <c r="E34" t="s">
         <v>334</v>
+      </c>
+      <c r="G34" s="2">
+        <v>42767</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -2424,10 +2424,10 @@
   <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B92" sqref="B92"/>
+      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,7 +2522,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>116</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>314</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>3</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>251</v>
       </c>
@@ -2735,14 +2735,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" s="12" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
         <v>168</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>254</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>257</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>316</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>247</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="s">
         <v>317</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
       <c r="D33" s="22"/>
@@ -2846,7 +2846,7 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>278</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="13" t="s">
         <v>302</v>
@@ -2889,7 +2889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="20" t="s">
         <v>181</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>182</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>250</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="23" t="s">
         <v>318</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="23" t="s">
         <v>319</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>168</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
         <v>172</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>180</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="17" t="s">
         <v>273</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>171</v>
       </c>
@@ -3027,14 +3027,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>177</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
     </row>
-    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="17" t="s">
         <v>175</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
         <v>176</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>315</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="9" t="s">
         <v>271</v>
@@ -3095,7 +3095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="21" t="s">
         <v>332</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="9" t="s">
         <v>290</v>
@@ -3123,7 +3123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="24" t="s">
         <v>328</v>
@@ -3144,21 +3144,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
       <c r="F62" s="22"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>178</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>190</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>252</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>179</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>188</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>313</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>167</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
         <v>305</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>189</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9" t="s">
         <v>336</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
         <v>337</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
         <v>344</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>166</v>
       </c>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
         <v>259</v>
       </c>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
         <v>260</v>
       </c>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
         <v>311</v>
       </c>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
         <v>273</v>
       </c>
@@ -3488,14 +3488,14 @@
       </c>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>185</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>186</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
         <v>187</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
         <v>245</v>
       </c>
@@ -3519,14 +3519,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
         <v>192</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
         <v>300</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="24" t="s">
         <v>323</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
         <v>301</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
         <v>266</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="24" t="s">
         <v>322</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="9" t="s">
         <v>264</v>
       </c>
@@ -3634,14 +3634,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
         <v>325</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
     </row>
-    <row r="111" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111" s="23" t="s">
         <v>324</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
         <v>269</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
         <v>272</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
         <v>306</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
         <v>285</v>
       </c>
@@ -3702,14 +3702,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
     </row>
-    <row r="119" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B119" s="25" t="s">
         <v>320</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B120" s="27" t="s">
         <v>335</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
         <v>154</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="9" t="s">
         <v>184</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>7</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
         <v>128</v>
       </c>
@@ -3813,37 +3813,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
         <v>275</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
         <v>294</v>
       </c>
@@ -3874,14 +3874,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="2:7" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B138" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
         <v>298</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
         <v>299</v>
       </c>
@@ -3897,69 +3898,69 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="142" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:7" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B142" s="19" t="s">
         <v>296</v>
       </c>
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
         <v>295</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B146" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C146" s="19"/>
       <c r="D146" s="19"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
         <v>283</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
         <v>264</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="9" t="s">
         <v>285</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
         <v>268</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
         <v>193</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="13" t="s">
         <v>287</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="13" t="s">
         <v>291</v>
       </c>
@@ -4112,7 +4113,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="16" t="s">
         <v>295</v>
       </c>
@@ -4126,7 +4127,7 @@
       </c>
       <c r="H165" s="14"/>
     </row>
-    <row r="166" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="21" t="s">
         <v>338</v>
       </c>
@@ -4134,7 +4135,7 @@
       <c r="D166" s="16"/>
       <c r="H166" s="14"/>
     </row>
-    <row r="167" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="21" t="s">
         <v>341</v>
       </c>
@@ -4142,7 +4143,7 @@
       <c r="D167" s="16"/>
       <c r="H167" s="14"/>
     </row>
-    <row r="168" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="16" t="s">
         <v>297</v>
       </c>
@@ -4156,7 +4157,7 @@
       </c>
       <c r="H168" s="14"/>
     </row>
-    <row r="169" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="16" t="s">
         <v>309</v>
       </c>
@@ -4164,7 +4165,7 @@
       <c r="D169" s="16"/>
       <c r="H169" s="14"/>
     </row>
-    <row r="170" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
         <v>286</v>
       </c>
@@ -4175,7 +4176,7 @@
       </c>
       <c r="H170" s="14"/>
     </row>
-    <row r="171" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="16" t="s">
         <v>282</v>
       </c>
@@ -4183,7 +4184,7 @@
       <c r="D171" s="16"/>
       <c r="H171" s="14"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
         <v>288</v>
       </c>
@@ -4214,12 +4215,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
         <v>281</v>
       </c>
@@ -4230,22 +4231,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="8" t="s">
         <v>142</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
         <v>144</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
         <v>145</v>
       </c>
@@ -4352,17 +4353,17 @@
         <v>163</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="H188" s="6"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>4</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>201</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
         <v>204</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="7" t="s">
         <v>202</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
         <v>203</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" s="7" t="s">
         <v>217</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
         <v>212</v>
       </c>
@@ -4454,14 +4455,14 @@
         <v>240</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
         <v>166</v>
       </c>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B201" s="7" t="s">
         <v>205</v>
       </c>
@@ -4469,27 +4470,27 @@
         <v>241</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206" s="7" t="s">
         <v>210</v>
       </c>
@@ -4497,12 +4498,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="7" t="s">
         <v>221</v>
       </c>
@@ -4510,7 +4511,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="7" t="s">
         <v>220</v>
       </c>
@@ -4518,14 +4519,14 @@
         <v>243</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
         <v>214</v>
       </c>
       <c r="C210" s="10"/>
       <c r="D210" s="10"/>
     </row>
-    <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="7" t="s">
         <v>215</v>
       </c>
@@ -4533,7 +4534,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="7" t="s">
         <v>216</v>
       </c>
@@ -4541,12 +4542,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" s="7" t="s">
         <v>222</v>
       </c>
@@ -4562,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="7" t="s">
         <v>225</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" s="7" t="s">
         <v>226</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="7" t="s">
         <v>227</v>
       </c>
@@ -4695,13 +4696,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I221">
-    <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="1"/>
-        <filter val="2"/>
-        <filter val="3"/>
-        <filter val="9"/>
-      </filters>
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <printOptions gridLines="1"/>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="20130" windowHeight="8265" tabRatio="496" activeTab="3"/>
+    <workbookView xWindow="1005" yWindow="3525" windowWidth="20130" windowHeight="8265" tabRatio="375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$222</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="348">
   <si>
     <t>Reports</t>
   </si>
@@ -1238,6 +1238,9 @@
   </si>
   <si>
     <t>Log Page</t>
+  </si>
+  <si>
+    <t>Activity Indicator at all levels - Saving, loading</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1710,7 @@
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
@@ -2418,13 +2421,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G182" sqref="G182"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2887,7 +2890,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="13" t="s">
         <v>181</v>
       </c>
       <c r="C39" s="13"/>
@@ -2896,7 +2899,7 @@
         <v>148</v>
       </c>
       <c r="G39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2986,27 +2989,24 @@
     </row>
     <row r="47" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
-        <v>172</v>
+        <v>347</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
-      <c r="G47" s="12">
+    </row>
+    <row r="48" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="G48" s="12">
         <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="G48" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="17" t="s">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -3014,66 +3014,66 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
+    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="G50">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="G51">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="G52" s="3">
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="G53" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
-        <v>314</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="G54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="G55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -3081,72 +3081,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="G58">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="21" t="s">
+    <row r="59" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D59" s="22">
         <v>42760</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E59" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G58" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="9" t="s">
+      <c r="G59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="G59">
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="G60">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="24" t="s">
+    <row r="61" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D61" s="22">
         <v>42760</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>155</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>333</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="F61" s="22"/>
+      <c r="G61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
@@ -3156,25 +3159,22 @@
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
+      <c r="A63" s="12"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="G64">
-        <v>0</v>
-      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
     </row>
     <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -3182,72 +3182,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="G66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="G67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="G68">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="G68" s="11" t="s">
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="G69" s="11" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>312</v>
+        <v>188</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:7" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D71" s="22">
-        <v>42760</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G71" s="12">
-        <v>0</v>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:7" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>329</v>
@@ -3262,36 +3255,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="8" t="s">
+    <row r="73" spans="2:7" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D73" s="22">
+        <v>42760</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="G74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="9" t="s">
-        <v>305</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
-        <v>189</v>
+        <v>305</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -3299,19 +3299,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="G79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -3339,56 +3339,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="G81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" t="s">
-        <v>41</v>
-      </c>
+      <c r="B82" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
       <c r="G82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="7" t="s">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" t="s">
+        <v>41</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83" s="6">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="G84" s="12">
-        <v>0</v>
-      </c>
-      <c r="H84" s="14">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" s="6">
         <v>42697</v>
       </c>
     </row>
     <row r="85" spans="2:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -3396,32 +3393,36 @@
         <v>0</v>
       </c>
       <c r="H85" s="14">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="G86" s="12">
+        <v>0</v>
+      </c>
+      <c r="H86" s="14">
         <v>42698</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86" s="6">
-        <v>42697</v>
       </c>
     </row>
     <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
-      <c r="H87" s="6"/>
+      <c r="H87" s="6">
+        <v>42697</v>
+      </c>
     </row>
     <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3430,256 +3431,259 @@
     </row>
     <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="20" t="s">
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="3" t="s">
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G91" s="3">
         <v>2</v>
       </c>
-      <c r="H90" s="29"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E91" t="s">
-        <v>148</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91" s="6"/>
+      <c r="H91" s="29"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="E92" t="s">
-        <v>311</v>
+        <v>148</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="7" t="s">
+    <row r="93" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+      <c r="H93" s="29"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E94" t="s">
         <v>155</v>
       </c>
-      <c r="G93">
+      <c r="G94">
         <v>1</v>
       </c>
-      <c r="H93" s="6"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="8" t="s">
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G95">
-        <v>2</v>
-      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G96">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G97">
+      <c r="G98">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="8" t="s">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-    </row>
-    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="7" t="s">
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="8" t="s">
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="G100">
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="G101">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="7" t="s">
+    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="24" t="s">
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C103" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="D102" s="22">
+      <c r="D103" s="22">
         <v>42760</v>
       </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="7" t="s">
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G103">
+      <c r="G104">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="7" t="s">
+    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="8" t="s">
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="G105">
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="G106">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="9" t="s">
+    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="G106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="24" t="s">
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C108" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="D107" s="22">
+      <c r="D108" s="22">
         <v>42760</v>
       </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="9" t="s">
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="G108">
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="G109">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="7" t="s">
+    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="8" t="s">
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-    </row>
-    <row r="111" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="23" t="s">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+    </row>
+    <row r="112" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="C111" s="22" t="s">
+      <c r="C112" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="D111" s="22">
+      <c r="D112" s="22">
         <v>42760</v>
       </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="8" t="s">
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-    </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="7" t="s">
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+    </row>
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -3687,47 +3691,38 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="8" t="s">
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-    </row>
-    <row r="119" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="25" t="s">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+    </row>
+    <row r="120" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="25" t="s">
         <v>319</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D119" s="22">
-        <v>42760</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G119" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="26" t="s">
-        <v>334</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>329</v>
@@ -3735,324 +3730,328 @@
       <c r="D120" s="22">
         <v>42760</v>
       </c>
-      <c r="E120" s="22" t="s">
+      <c r="E120" s="12" t="s">
         <v>155</v>
       </c>
       <c r="G120" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="7" t="s">
+    <row r="121" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D121" s="22">
+        <v>42760</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G121" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E122" t="s">
         <v>155</v>
       </c>
-      <c r="G121">
+      <c r="G122">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="9" t="s">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="G122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="G124">
         <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>4</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E124" t="s">
-        <v>148</v>
-      </c>
-      <c r="G124">
-        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E125" t="s">
+        <v>148</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>7</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B126" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E126" t="s">
         <v>155</v>
-      </c>
-      <c r="G125">
-        <v>3</v>
-      </c>
-      <c r="H125" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="G126">
         <v>3</v>
       </c>
+      <c r="H126" s="6">
+        <v>42702</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="8" t="s">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-    </row>
-    <row r="134" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
     </row>
     <row r="135" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B136" s="7" t="s">
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G136">
+      <c r="G137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B138" s="19" t="s">
+    <row r="139" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B139" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B139" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="7" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="142" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B142" s="19" t="s">
+    <row r="143" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B143" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="C142" s="19"/>
-      <c r="D142" s="19"/>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B143" s="8" t="s">
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B144" s="9" t="s">
-        <v>338</v>
-      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B145" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B146" s="19" t="s">
+    <row r="147" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B147" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="8" t="s">
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B149" s="9" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="7" t="s">
-        <v>284</v>
-      </c>
+      <c r="B150" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="7" t="s">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="8" t="s">
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-    </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+    </row>
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>5</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B155" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E155" t="s">
-        <v>155</v>
-      </c>
       <c r="G155">
         <v>0</v>
-      </c>
-      <c r="H155" s="6">
-        <v>42702</v>
       </c>
     </row>
     <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>308</v>
+        <v>253</v>
+      </c>
+      <c r="E156" t="s">
+        <v>155</v>
       </c>
       <c r="G156">
         <v>0</v>
       </c>
-      <c r="H156" s="6"/>
+      <c r="H156" s="6">
+        <v>42702</v>
+      </c>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F158" t="s">
         <v>155</v>
       </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157" s="6"/>
-    </row>
-    <row r="158" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="12">
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158" s="6"/>
+    </row>
+    <row r="159" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="12">
         <v>6</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="B159" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="G158" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="13" t="s">
-        <v>287</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
-      <c r="F159" t="s">
-        <v>155</v>
-      </c>
       <c r="G159" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
@@ -4063,282 +4062,284 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="7" t="s">
-        <v>289</v>
-      </c>
+    <row r="161" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
       <c r="F161" t="s">
         <v>155</v>
       </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="13" t="s">
+      <c r="G161" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F162" t="s">
+        <v>155</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="G162" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="7" t="s">
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="G163" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="12">
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="12">
         <v>2</v>
       </c>
-      <c r="B164" s="13" t="s">
+      <c r="B165" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G164" s="12">
-        <v>0</v>
-      </c>
-      <c r="H164" s="14">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="C165" s="16"/>
-      <c r="D165" s="16"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
       <c r="E165" s="12" t="s">
         <v>148</v>
       </c>
       <c r="G165" s="12">
-        <v>2</v>
-      </c>
-      <c r="H165" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="H165" s="14">
+        <v>42702</v>
+      </c>
     </row>
     <row r="166" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="21" t="s">
-        <v>337</v>
+      <c r="B166" s="16" t="s">
+        <v>295</v>
       </c>
       <c r="C166" s="16"/>
       <c r="D166" s="16"/>
+      <c r="E166" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G166" s="12">
+        <v>2</v>
+      </c>
       <c r="H166" s="14"/>
     </row>
     <row r="167" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="21" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C167" s="16"/>
       <c r="D167" s="16"/>
       <c r="H167" s="14"/>
     </row>
     <row r="168" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="16" t="s">
-        <v>297</v>
+      <c r="B168" s="21" t="s">
+        <v>340</v>
       </c>
       <c r="C168" s="16"/>
       <c r="D168" s="16"/>
-      <c r="E168" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G168" s="12">
-        <v>2</v>
-      </c>
       <c r="H168" s="14"/>
     </row>
     <row r="169" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="16" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C169" s="16"/>
       <c r="D169" s="16"/>
+      <c r="E169" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G169" s="12">
+        <v>2</v>
+      </c>
       <c r="H169" s="14"/>
     </row>
-    <row r="170" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="20" t="s">
+    <row r="170" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C170" s="16"/>
+      <c r="D170" s="16"/>
+      <c r="H170" s="14"/>
+    </row>
+    <row r="171" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="C170" s="20"/>
-      <c r="D170" s="20"/>
-      <c r="E170" s="3" t="s">
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H170" s="29"/>
-    </row>
-    <row r="171" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="16" t="s">
+      <c r="H171" s="29"/>
+    </row>
+    <row r="172" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="H171" s="14"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+      <c r="H172" s="14"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173">
         <v>2</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B173" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E173" t="s">
         <v>148</v>
       </c>
-      <c r="G172">
+      <c r="G173">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B173" s="7" t="s">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H173" s="6"/>
-    </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="7" t="s">
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="I174" t="s">
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="I175" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B175" s="7" t="s">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="20" t="s">
+    <row r="177" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="C176" s="20"/>
-      <c r="D176" s="20"/>
-      <c r="E176" s="3" t="s">
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G176" s="3">
+      <c r="G177" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B177" s="8" t="s">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="8" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="7" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="8" t="s">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
       <c r="E181" t="s">
         <v>148</v>
       </c>
-      <c r="G181">
-        <v>0</v>
-      </c>
-      <c r="H181" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I181" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E182" t="s">
         <v>148</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H182" s="6">
+        <v>42702</v>
+      </c>
+      <c r="I182" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E183" t="s">
+        <v>148</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G183">
+      <c r="G184">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="9" t="s">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9"/>
-      <c r="G184">
-        <v>0</v>
-      </c>
-      <c r="H184" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I184" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>1</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E185" t="s">
-        <v>148</v>
-      </c>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
       <c r="G185">
         <v>0</v>
       </c>
       <c r="H185" s="6">
         <v>42702</v>
       </c>
+      <c r="I185" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
       <c r="B186" s="7" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="E186" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G186">
         <v>0</v>
+      </c>
+      <c r="H186" s="6">
+        <v>42702</v>
       </c>
     </row>
     <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E187" t="s">
         <v>150</v>
@@ -4346,78 +4347,81 @@
       <c r="G187">
         <v>0</v>
       </c>
-      <c r="H187" s="6">
+    </row>
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E188" t="s">
+        <v>150</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188" s="6">
         <v>42697</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I188" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H188" s="6"/>
-    </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B189" s="8" t="s">
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B190" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191">
         <v>1</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B191" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E191" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191">
+    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192">
         <v>2</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B192" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E192" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>3</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E192" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
+        <v>3</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E193" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>4</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B194" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>201</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B195" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="E194" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B195" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="E195" t="s">
         <v>238</v>
@@ -4425,7 +4429,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B196" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E196" t="s">
         <v>238</v>
@@ -4433,7 +4437,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E197" t="s">
         <v>238</v>
@@ -4441,102 +4445,102 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B198" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E198" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E199" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B199" s="7" t="s">
+    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B200" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E200" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B200" s="10" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B201" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C200" s="10"/>
-      <c r="D200" s="10"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B201" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E201" t="s">
-        <v>241</v>
-      </c>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B202" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="E202" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B204" s="7" t="s">
+    <row r="205" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B205" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="7" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B206" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B206" s="7" t="s">
+    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B207" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E207" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="7" t="s">
+    <row r="208" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B208" s="7" t="s">
+    <row r="209" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B209" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="E208" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B209" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="E209" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E210" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B211" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-    </row>
-    <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B211" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E211" t="s">
-        <v>241</v>
-      </c>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
     </row>
     <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E212" t="s">
         <v>241</v>
@@ -4544,44 +4548,44 @@
     </row>
     <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B213" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E213" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B214" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B214" s="7" t="s">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B215" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A215">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216">
         <v>1</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="B216" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217">
         <v>2</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B217" s="7" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B217" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G217">
-        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B218" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -4589,51 +4593,45 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B219" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B220" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G219">
+      <c r="G220">
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="7" t="s">
+    <row r="221" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="7" t="s">
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E222" s="22"/>
+      <c r="G222">
+        <v>0</v>
+      </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B223" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E223" t="s">
-        <v>247</v>
-      </c>
-      <c r="G223">
-        <v>0</v>
-      </c>
-      <c r="H223" t="s">
-        <v>163</v>
-      </c>
+      <c r="E223" s="22"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B224" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E224" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -4644,10 +4642,10 @@
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E225" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -4658,7 +4656,10 @@
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="E226" t="s">
+        <v>249</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -4669,7 +4670,7 @@
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -4680,7 +4681,7 @@
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -4689,13 +4690,24 @@
         <v>163</v>
       </c>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B230" s="7" t="s">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B229" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B231" s="7" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:I221">
+  <autoFilter ref="A7:I222">
     <filterColumn colId="6">
       <filters blank="1">
         <filter val="1"/>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$206</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="329">
   <si>
     <t>Reports</t>
   </si>
@@ -367,30 +367,12 @@
     <t>Patrick, Divya and Praddep in person</t>
   </si>
   <si>
-    <t xml:space="preserve">Ensure all sites are loaded, </t>
-  </si>
-  <si>
-    <t>Show error message if not loaded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combine records from the same audit </t>
-  </si>
-  <si>
     <t>Role access, admin, user</t>
   </si>
   <si>
     <t>Country specific rules</t>
   </si>
   <si>
-    <t>Add observation: name combiation searched (permutations used)</t>
-  </si>
-  <si>
-    <t>Comp form with multiple names</t>
-  </si>
-  <si>
-    <t>Upload names grouped for a comp form</t>
-  </si>
-  <si>
     <t>User Creation</t>
   </si>
   <si>
@@ -433,15 +415,6 @@
     <t>Date of Search - from - to</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>User name must be case insensitive</t>
-  </si>
-  <si>
-    <t>Progress - while logging in</t>
-  </si>
-  <si>
     <t>Routing defaults</t>
   </si>
   <si>
@@ -460,9 +433,6 @@
     <t>Image capture</t>
   </si>
   <si>
-    <t>Pdf / image attachment to comp form</t>
-  </si>
-  <si>
     <t>Handled by</t>
   </si>
   <si>
@@ -475,12 +445,6 @@
     <t>Divya / Patrick</t>
   </si>
   <si>
-    <t>Divya</t>
-  </si>
-  <si>
-    <t>SAM  site - include in search</t>
-  </si>
-  <si>
     <t>Show site link</t>
   </si>
   <si>
@@ -490,18 +454,12 @@
     <t>Patrick</t>
   </si>
   <si>
-    <t>Record links wherever available</t>
-  </si>
-  <si>
     <t>Display links in record details</t>
   </si>
   <si>
     <t>Correct all links</t>
   </si>
   <si>
-    <t>Remember me - local storage</t>
-  </si>
-  <si>
     <t>Type of Scan: Database / Live / Manual</t>
   </si>
   <si>
@@ -515,9 +473,6 @@
   </si>
   <si>
     <t>Download excel form template</t>
-  </si>
-  <si>
-    <t>one site to be included.</t>
   </si>
   <si>
     <t>Findings</t>
@@ -795,9 +750,6 @@
     <t>Pagination</t>
   </si>
   <si>
-    <t>Forgot Password</t>
-  </si>
-  <si>
     <t>Additional sites in separate section</t>
   </si>
   <si>
@@ -879,9 +831,6 @@
     <t>Summary No of Reviews pending: etc.</t>
   </si>
   <si>
-    <t>Does not clear previous login - unless browser is closed</t>
-  </si>
-  <si>
     <t>handling errors</t>
   </si>
   <si>
@@ -912,18 +861,9 @@
     <t>Logged in user should not modify self record</t>
   </si>
   <si>
-    <t>Close Comp Form only when all reviews are completed</t>
-  </si>
-  <si>
     <t>Deletion of user - check referential records</t>
   </si>
   <si>
-    <t>Logout - Prod mode: After logout ,  does not display login page</t>
-  </si>
-  <si>
-    <t>bug</t>
-  </si>
-  <si>
     <t>Version Number</t>
   </si>
   <si>
@@ -979,9 +919,6 @@
   </si>
   <si>
     <t>Site Source Date - display.</t>
-  </si>
-  <si>
-    <t>Provide reload option for sites not loaded / even if sites are loaded.</t>
   </si>
   <si>
     <t>"Re-Search" - button with warning for losing previous data.</t>
@@ -1241,6 +1178,12 @@
   </si>
   <si>
     <t>Activity Indicator at all levels - Saving, loading</t>
+  </si>
+  <si>
+    <t>Combine records for same audit</t>
+  </si>
+  <si>
+    <t>User Manual</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1376,9 +1319,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2421,13 +2361,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I231"/>
+  <dimension ref="A1:I215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,614 +2416,570 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="G10" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" s="21">
+        <v>42760</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="21">
+        <v>42760</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" s="21">
+        <v>42760</v>
+      </c>
+      <c r="E16" t="s">
+        <v>311</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>42697</v>
-      </c>
-      <c r="I8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+    </row>
+    <row r="18" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="12">
         <v>2</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>42698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" t="s">
-        <v>148</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>42698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>42699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>42702</v>
       </c>
     </row>
     <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24" s="21">
+        <v>42760</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" s="21">
+        <v>42760</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D26" s="21">
+        <v>42760</v>
+      </c>
+      <c r="E26" t="s">
+        <v>311</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="G31" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="G32" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="G22" s="12">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="G41">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="G23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+    <row r="42" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D42" s="21">
+        <v>42760</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43" s="21">
+        <v>42760</v>
+      </c>
+      <c r="E43" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" t="s">
+        <v>312</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="G51" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B25" s="18" t="s">
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D54" s="21">
+        <v>42760</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D55" s="21">
+        <v>42760</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="G28" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D29" s="22">
-        <v>42760</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="D32" s="22">
-        <v>42760</v>
-      </c>
-      <c r="E32" t="s">
-        <v>155</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="22"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D34" s="22">
-        <v>42760</v>
-      </c>
-      <c r="E34" t="s">
-        <v>332</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>42767</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="G36" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G37" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" t="s">
-        <v>155</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E41" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="D42" s="22">
-        <v>42760</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="D43" s="22">
-        <v>42760</v>
-      </c>
-      <c r="F43" s="22"/>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D44" s="22">
-        <v>42760</v>
-      </c>
-      <c r="E44" t="s">
-        <v>332</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="G46" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="G48" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="G51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="G55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="G56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
-        <v>244</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -3091,1623 +2987,1439 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="G58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D59" s="22">
-        <v>42760</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G59" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="G60">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D61" s="22">
-        <v>42760</v>
-      </c>
-      <c r="E61" t="s">
-        <v>155</v>
-      </c>
-      <c r="F61" t="s">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
       <c r="G61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="G64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" t="s">
+        <v>41</v>
+      </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="G67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="G68">
+      <c r="H66" s="6">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="G67" s="12">
+        <v>0</v>
+      </c>
+      <c r="H67" s="14">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="G68" s="12">
+        <v>0</v>
+      </c>
+      <c r="H68" s="14">
+        <v>42698</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" s="6">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G73" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="G69" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G70">
+      <c r="H73" s="28"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E74" t="s">
+        <v>138</v>
+      </c>
+      <c r="G74">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D72" s="22">
-        <v>42760</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G72" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D73" s="22">
-        <v>42760</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G73" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="G75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="2:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="G75" s="12">
+        <v>0</v>
+      </c>
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E76" t="s">
+        <v>143</v>
+      </c>
       <c r="G76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="G77">
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G77" s="12">
+        <v>0</v>
+      </c>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="G84">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="G78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="G79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="G80">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D86" s="21">
+        <v>42760</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G87">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="G81">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="G89">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="G82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" t="s">
-        <v>41</v>
-      </c>
-      <c r="G83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84" s="6">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="G85" s="12">
-        <v>0</v>
-      </c>
-      <c r="H85" s="14">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="G86" s="12">
-        <v>0</v>
-      </c>
-      <c r="H86" s="14">
-        <v>42698</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87" s="6">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="7" t="s">
-        <v>258</v>
-      </c>
+    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G91" s="3">
-        <v>2</v>
-      </c>
-      <c r="H91" s="29"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E92" t="s">
-        <v>148</v>
-      </c>
+    </row>
+    <row r="91" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D91" s="21">
+        <v>42760</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
       <c r="G92">
         <v>1</v>
       </c>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="G93" s="3">
+    </row>
+    <row r="93" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D95" s="21">
+        <v>42760</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G98">
         <v>1</v>
       </c>
-      <c r="H93" s="29"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E94" t="s">
-        <v>155</v>
-      </c>
-      <c r="G94">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G99">
         <v>1</v>
       </c>
-      <c r="H94" s="6"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G97">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-    </row>
-    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="G101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+    </row>
+    <row r="103" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="D103" s="22">
+        <v>298</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D103" s="21">
         <v>42760</v>
       </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E103" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G103" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D104" s="21">
+        <v>42760</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G104" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>270</v>
+        <v>142</v>
+      </c>
+      <c r="E105" t="s">
+        <v>143</v>
       </c>
       <c r="G105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
       <c r="G106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B107" s="9" t="s">
-        <v>267</v>
+        <v>169</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="G107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="D108" s="22">
-        <v>42760</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E108" t="s">
+        <v>138</v>
       </c>
       <c r="G108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>7</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E109" t="s">
+        <v>143</v>
+      </c>
       <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+    </row>
+    <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G120">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-    </row>
-    <row r="112" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="D112" s="22">
-        <v>42760</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-    </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G115">
+    <row r="122" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B122" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G123">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-    </row>
-    <row r="120" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D120" s="22">
-        <v>42760</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G120" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D121" s="22">
-        <v>42760</v>
-      </c>
-      <c r="E121" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="G121" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E122" t="s">
-        <v>155</v>
-      </c>
-      <c r="G122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="G123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="G124">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B127" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B131" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+    </row>
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E140" t="s">
+        <v>143</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141" s="6"/>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F142" t="s">
+        <v>143</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142" s="6"/>
+    </row>
+    <row r="143" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="12">
+        <v>6</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="G143" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="F144" t="s">
+        <v>143</v>
+      </c>
+      <c r="G144" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="F145" t="s">
+        <v>143</v>
+      </c>
+      <c r="G145" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F146" t="s">
+        <v>143</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="G147" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="12">
+        <v>2</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G149" s="12">
+        <v>0</v>
+      </c>
+      <c r="H149" s="14">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G150" s="12">
+        <v>2</v>
+      </c>
+      <c r="H150" s="14"/>
+    </row>
+    <row r="151" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="H151" s="14"/>
+    </row>
+    <row r="152" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="H152" s="14"/>
+    </row>
+    <row r="153" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G153" s="12">
+        <v>2</v>
+      </c>
+      <c r="H153" s="14"/>
+    </row>
+    <row r="154" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="H154" s="14"/>
+    </row>
+    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H155" s="28"/>
+    </row>
+    <row r="156" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="H156" s="14"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E157" t="s">
+        <v>138</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H158" s="6"/>
+    </row>
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="I159" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G161" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B165" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E166" t="s">
+        <v>138</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166" s="6">
+        <v>42702</v>
+      </c>
+      <c r="I166" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E167" t="s">
+        <v>138</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169" s="6">
+        <v>42702</v>
+      </c>
+      <c r="I169" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E170" t="s">
+        <v>138</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E171" t="s">
+        <v>140</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E172" t="s">
+        <v>140</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172" s="6">
+        <v>42697</v>
+      </c>
+      <c r="I172" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H173" s="6"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E175" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E176" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>3</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E177" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>4</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E125" t="s">
-        <v>148</v>
-      </c>
-      <c r="G125">
+      <c r="B178" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>186</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E179" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E180" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E181" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E182" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E183" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B184" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E184" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E186" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B189" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B191" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E191" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B193" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E193" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E194" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+    </row>
+    <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B196" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E196" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B197" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E197" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B198" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>7</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E126" t="s">
-        <v>155</v>
-      </c>
-      <c r="G126">
+      <c r="B201" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B202" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B203" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G204">
         <v>3</v>
       </c>
-      <c r="H126" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B134" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-    </row>
-    <row r="135" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B139" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B140" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B141" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B142" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B143" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B144" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B147" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-    </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>5</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E156" t="s">
-        <v>155</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157" s="6"/>
-    </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F158" t="s">
-        <v>155</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158" s="6"/>
-    </row>
-    <row r="159" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="12">
-        <v>6</v>
-      </c>
-      <c r="B159" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="G159" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="F160" t="s">
-        <v>155</v>
-      </c>
-      <c r="G160" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="F161" t="s">
-        <v>155</v>
-      </c>
-      <c r="G161" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F162" t="s">
-        <v>155</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="G163" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="12">
-        <v>2</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G165" s="12">
-        <v>0</v>
-      </c>
-      <c r="H165" s="14">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="C166" s="16"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G166" s="12">
-        <v>2</v>
-      </c>
-      <c r="H166" s="14"/>
-    </row>
-    <row r="167" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-      <c r="H167" s="14"/>
-    </row>
-    <row r="168" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="C168" s="16"/>
-      <c r="D168" s="16"/>
-      <c r="H168" s="14"/>
-    </row>
-    <row r="169" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G169" s="12">
-        <v>2</v>
-      </c>
-      <c r="H169" s="14"/>
-    </row>
-    <row r="170" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
-      <c r="H170" s="14"/>
-    </row>
-    <row r="171" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C171" s="20"/>
-      <c r="D171" s="20"/>
-      <c r="E171" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H171" s="29"/>
-    </row>
-    <row r="172" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="C172" s="16"/>
-      <c r="D172" s="16"/>
-      <c r="H172" s="14"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>2</v>
-      </c>
-      <c r="B173" s="7" t="s">
+    </row>
+    <row r="205" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E207" s="21"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E208" t="s">
+        <v>232</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208" t="s">
         <v>149</v>
       </c>
-      <c r="E173" t="s">
-        <v>148</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B174" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H174" s="6"/>
-    </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="I175" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B176" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="C177" s="20"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G177" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B179" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E182" t="s">
-        <v>148</v>
-      </c>
-      <c r="G182">
-        <v>0</v>
-      </c>
-      <c r="H182" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I182" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B183" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E183" t="s">
-        <v>148</v>
-      </c>
-      <c r="G183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G184">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C185" s="9"/>
-      <c r="D185" s="9"/>
-      <c r="G185">
-        <v>0</v>
-      </c>
-      <c r="H185" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I185" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>1</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E186" t="s">
-        <v>148</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E187" t="s">
-        <v>150</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E188" t="s">
-        <v>150</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-      <c r="H188" s="6">
-        <v>42697</v>
-      </c>
-      <c r="I188" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H189" s="6"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B190" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>1</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E191" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>2</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E192" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>3</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E193" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>4</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>201</v>
-      </c>
-      <c r="B195" s="7" t="s">
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B209" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E209" t="s">
+        <v>233</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B210" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E210" t="s">
+        <v>234</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B211" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B212" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B213" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E195" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B196" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E196" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B197" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E197" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B198" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E198" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B199" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E199" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B200" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E200" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B201" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B202" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E202" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B204" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B205" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B206" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B207" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E207" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B209" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E209" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B210" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E210" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B211" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
-    </row>
-    <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B212" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E212" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B213" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E213" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B214" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>1</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>2</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B218" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G218">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B219" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G219">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B220" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G220">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E223" s="22"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B224" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E224" t="s">
-        <v>247</v>
-      </c>
-      <c r="G224">
-        <v>0</v>
-      </c>
-      <c r="H224" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B225" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E225" t="s">
-        <v>248</v>
-      </c>
-      <c r="G225">
-        <v>0</v>
-      </c>
-      <c r="H225" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B226" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E226" t="s">
-        <v>249</v>
-      </c>
-      <c r="G226">
-        <v>0</v>
-      </c>
-      <c r="H226" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B227" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B228" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G228">
-        <v>0</v>
-      </c>
-      <c r="H228" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B229" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B231" s="7" t="s">
-        <v>246</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:I222">
+  <autoFilter ref="A7:I206">
     <filterColumn colId="6">
       <filters blank="1">
         <filter val="1"/>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="3525" windowWidth="20130" windowHeight="8265" tabRatio="375" activeTab="3"/>
+    <workbookView xWindow="-405" yWindow="885" windowWidth="20130" windowHeight="11760" tabRatio="375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$230</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="358">
   <si>
     <t>Reports</t>
   </si>
@@ -382,9 +382,6 @@
     <t>show searches according to user</t>
   </si>
   <si>
-    <t>Points identified in the meeting</t>
-  </si>
-  <si>
     <t>Report</t>
   </si>
   <si>
@@ -421,9 +418,6 @@
     <t>Dialog - confirm delete</t>
   </si>
   <si>
-    <t>Comp Form output</t>
-  </si>
-  <si>
     <t>Word</t>
   </si>
   <si>
@@ -517,30 +511,15 @@
     <t>Findings:</t>
   </si>
   <si>
-    <t>disable buttons when Search is in progress</t>
-  </si>
-  <si>
     <t>Upload file - validate - display error message</t>
   </si>
   <si>
-    <t>Summary section</t>
-  </si>
-  <si>
     <t>Ht of summary site boxes - uniform</t>
   </si>
   <si>
     <t>Routing issues</t>
   </si>
   <si>
-    <t>Search Action</t>
-  </si>
-  <si>
-    <t>Site Source Date - Save while extracting, overwrite date if exists.</t>
-  </si>
-  <si>
-    <t>Was also searched</t>
-  </si>
-  <si>
     <t>Add Findings - at comp form level</t>
   </si>
   <si>
@@ -550,13 +529,7 @@
     <t>Add findings - for site</t>
   </si>
   <si>
-    <t>Comp Form Genertation</t>
-  </si>
-  <si>
     <t>Date of Action -&gt; Inspection Date</t>
-  </si>
-  <si>
-    <t>User Managemen t</t>
   </si>
   <si>
     <t>Add Manual Site</t>
@@ -732,9 +705,6 @@
     <t>Investigator Id</t>
   </si>
   <si>
-    <t>Search Que</t>
-  </si>
-  <si>
     <t>Bugs</t>
   </si>
   <si>
@@ -831,15 +801,9 @@
     <t>Summary No of Reviews pending: etc.</t>
   </si>
   <si>
-    <t>handling errors</t>
-  </si>
-  <si>
     <t>handling changes in web site</t>
   </si>
   <si>
-    <t>Search Engine</t>
-  </si>
-  <si>
     <t>Manage Compliance Forms</t>
   </si>
   <si>
@@ -879,9 +843,6 @@
     <t>About us</t>
   </si>
   <si>
-    <t>Help</t>
-  </si>
-  <si>
     <t>ALL ISCFS</t>
   </si>
   <si>
@@ -921,9 +882,6 @@
     <t>Site Source Date - display.</t>
   </si>
   <si>
-    <t>"Re-Search" - button with warning for losing previous data.</t>
-  </si>
-  <si>
     <t>Landing Page:  Can the landing page be the “Due Diligence Check” instead of Users?</t>
   </si>
   <si>
@@ -940,29 +898,6 @@
   </si>
   <si>
     <t>Could only the Pending reviews be shown in the main page instead of all?</t>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Closed ICSFs tab be changed to “Closed Reviews”. </t>
-    </r>
   </si>
   <si>
     <r>
@@ -989,9 +924,6 @@
   </si>
   <si>
     <t>Manage ICSFs tab be changed to “Manage Reassignments”</t>
-  </si>
-  <si>
-    <t>Manage ICSFs</t>
   </si>
   <si>
     <r>
@@ -1156,34 +1088,169 @@
     <t>Test for Login failed</t>
   </si>
   <si>
-    <t>IP Address</t>
-  </si>
-  <si>
-    <t>Provision for disabling application during updates / testing</t>
-  </si>
-  <si>
     <t>Option like “+” sign be provided in main page next to the principal investigator which would list out all the Sub Investigators who were in the search if expanded.</t>
   </si>
   <si>
-    <t>Bulk - mark Review as completed.</t>
-  </si>
-  <si>
     <t>Data Extractor</t>
   </si>
   <si>
     <t>Set up Task Scheduler on Server</t>
   </si>
   <si>
-    <t>Log Page</t>
-  </si>
-  <si>
     <t>Activity Indicator at all levels - Saving, loading</t>
   </si>
   <si>
     <t>Combine records for same audit</t>
   </si>
   <si>
-    <t>User Manual</t>
+    <t>Compliance Form Generation</t>
+  </si>
+  <si>
+    <t>Enable Compliance Form generation only if the Review is completed.</t>
+  </si>
+  <si>
+    <t>Devendra/Dinesh</t>
+  </si>
+  <si>
+    <t>Last updated on on footer.</t>
+  </si>
+  <si>
+    <t>Alternate layout for Compliance Form suggested by Clarity.  Instead of the current vertical format, Clarity will provide a tab based format. </t>
+  </si>
+  <si>
+    <t>Clarity / Devendra</t>
+  </si>
+  <si>
+    <t>Investigator Summary Page Review status can be marked as Review Completed for DB/Live sites where no match is found.  This value can be changed by the user if required.</t>
+  </si>
+  <si>
+    <t>Investigator Summary Page, Summary.  Add items: Data Extraction Errors and Review Pending</t>
+  </si>
+  <si>
+    <t>Investigator Summary Page, Provide filters such as 'Review Pending', 'Matches Found' etc.</t>
+  </si>
+  <si>
+    <t>Findings Page 'Add from site's matching records' change text to 'Review Matching Records'</t>
+  </si>
+  <si>
+    <t>Findings Page,  'Add' change text to 'Add Additional Findings'.</t>
+  </si>
+  <si>
+    <t>Findings Page. Summary: Provide hyper-links on 'Full Match' and 'Partial Match' so that if the user clicks on the hyper link the application opens the list of Full or Partial match records.</t>
+  </si>
+  <si>
+    <t>General: ICON will provide content for the About page.</t>
+  </si>
+  <si>
+    <t>The current excel file format will be changed to handle recording Investigators, one per row.</t>
+  </si>
+  <si>
+    <t>Live Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closed ICSFs tab be changed to “Closed Reviews”. </t>
+  </si>
+  <si>
+    <t>List of Specially … Page Number: 0, Matches &gt; Number of Name components</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>AppAdmin</t>
+  </si>
+  <si>
+    <t>App Admin Role</t>
+  </si>
+  <si>
+    <t>Start / Stop Application</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>Logout - info</t>
+  </si>
+  <si>
+    <t>Live Scan Log / Que</t>
+  </si>
+  <si>
+    <t>Data Extractor Log</t>
+  </si>
+  <si>
+    <t>Change TextLog to DBLog</t>
+  </si>
+  <si>
+    <t>Windows Service</t>
+  </si>
+  <si>
+    <t>Stop / Start Service</t>
+  </si>
+  <si>
+    <t>Live Scan Status - On/Off, Que Status</t>
+  </si>
+  <si>
+    <t>Email to Admins - on repeated errors.</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>App Admin</t>
+  </si>
+  <si>
+    <t>Background Processes</t>
+  </si>
+  <si>
+    <t>Clear Error Screen Shots</t>
+  </si>
+  <si>
+    <t>Schedule Start / Stop</t>
+  </si>
+  <si>
+    <t>Disk Space</t>
+  </si>
+  <si>
+    <t>Clear uploaded files</t>
+  </si>
+  <si>
+    <t>Clear generated Comp Forms</t>
+  </si>
+  <si>
+    <t>Project Number</t>
+  </si>
+  <si>
+    <t>Protocol Number</t>
+  </si>
+  <si>
+    <t>Sim. To ALL ICFs</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>User Name - check for unique</t>
+  </si>
+  <si>
+    <t>Column: IP Address</t>
+  </si>
+  <si>
+    <t>Stop Live Scan after n errors</t>
+  </si>
+  <si>
+    <t>User Manual / Help</t>
+  </si>
+  <si>
+    <t>IP Address Column</t>
+  </si>
+  <si>
+    <t>Excel File Upload</t>
+  </si>
+  <si>
+    <t>Store both original file name and generated file name in comp form.</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1315,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1264,12 +1331,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,7 +1375,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1346,6 +1406,9 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2361,13 +2424,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:I239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B127" sqref="B127"/>
+      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2416,42 +2479,48 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="A8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B9" s="13" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -2460,8 +2529,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B10" s="13" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -2470,297 +2542,387 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B11" s="13" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D11" s="21">
+        <v>292</v>
+      </c>
+      <c r="D11" s="20">
         <v>42760</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G11" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B12" s="8" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B13" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" s="20">
+        <v>42760</v>
+      </c>
+      <c r="E14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D15" s="20">
+        <v>42760</v>
+      </c>
+      <c r="E15" t="s">
         <v>295</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="D14" s="21">
-        <v>42760</v>
-      </c>
-      <c r="E14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D16" s="21">
-        <v>42760</v>
-      </c>
-      <c r="E16" t="s">
-        <v>311</v>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>42767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="G17" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B18" s="13" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
+      <c r="E18" s="12" t="s">
+        <v>141</v>
+      </c>
       <c r="G18" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="C22" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D22" s="20">
+        <v>42760</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D23" s="20">
+        <v>42760</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D24" s="20">
+        <v>42760</v>
+      </c>
+      <c r="E24" t="s">
+        <v>295</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="G28" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="G29" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="D24" s="21">
-        <v>42760</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="D25" s="21">
-        <v>42760</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D26" s="21">
-        <v>42760</v>
-      </c>
-      <c r="E26" t="s">
-        <v>311</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="G28" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="G31" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="G32" s="12">
-        <v>2</v>
-      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="A33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
       <c r="G33" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B34" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="G34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="G36" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="G36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B37" s="9" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2768,1658 +2930,2346 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+    <row r="38" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D38" s="20">
+        <v>42760</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D39" s="20">
+        <v>42760</v>
+      </c>
+      <c r="E39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" t="s">
+        <v>296</v>
+      </c>
       <c r="G39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B41" s="9" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="G41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D42" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="G45" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D48" s="20">
         <v>42760</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G42" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D43" s="21">
+      <c r="E48" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D49" s="20">
         <v>42760</v>
       </c>
-      <c r="E43" t="s">
-        <v>143</v>
-      </c>
-      <c r="F43" t="s">
-        <v>312</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="G49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
+      <c r="E49" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="G51" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
-        <v>292</v>
-      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
       <c r="G53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:7" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D54" s="21">
-        <v>42760</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G54" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D55" s="21">
-        <v>42760</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G55" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
-        <v>168</v>
+        <v>299</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>314</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" s="28">
+        <v>42775</v>
+      </c>
       <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>315</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D59" s="28">
+        <v>42775</v>
+      </c>
       <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>316</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D60" s="28">
+        <v>42775</v>
+      </c>
       <c r="G60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
       <c r="G61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="G63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="G64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" t="s">
-        <v>41</v>
+      <c r="H62" s="6">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+      <c r="H63" s="14">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="G64" s="12">
+        <v>0</v>
+      </c>
+      <c r="H64" s="14">
+        <v>42698</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="G65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H65" s="6">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B66" s="7" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66" s="6">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="13" t="s">
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="27"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G71" s="12">
+        <v>1</v>
+      </c>
+      <c r="H71" s="14"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E72" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="G67" s="12">
-        <v>0</v>
-      </c>
-      <c r="H67" s="14">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="G68" s="12">
-        <v>0</v>
-      </c>
-      <c r="H68" s="14">
-        <v>42698</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69" s="6">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="28"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E74" t="s">
-        <v>138</v>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G73" s="12">
+        <v>0</v>
+      </c>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>317</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D74" s="28">
+        <v>42775</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="2:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="G75" s="12">
-        <v>0</v>
-      </c>
-      <c r="H75" s="14"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E76" t="s">
-        <v>143</v>
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>318</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D75" s="28">
+        <v>42775</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>319</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D76" s="28">
+        <v>42775</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B77" s="7" t="s">
-        <v>327</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D77" s="28"/>
       <c r="G77" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B78" s="8" t="s">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B79" s="7" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="G79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="7" t="s">
-        <v>172</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D80" s="20">
+        <v>42760</v>
       </c>
       <c r="G80">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B81" s="7" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="G81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-    </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="7" t="s">
-        <v>177</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
       <c r="G83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
       <c r="G84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="7" t="s">
-        <v>247</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D85" s="20">
+        <v>42760</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="D86" s="21">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D88" s="20">
         <v>42760</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="G88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="G89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="G90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="D91" s="21">
+    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="12"/>
+      <c r="B89" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
+      <c r="B90" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="12"/>
+      <c r="B91" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D99" s="20">
         <v>42760</v>
       </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-    </row>
-    <row r="95" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="D95" s="21">
+      <c r="E99" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G99" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D100" s="20">
         <v>42760</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E100" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G100" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B101" s="7" t="s">
-        <v>235</v>
+        <v>140</v>
+      </c>
+      <c r="E101" t="s">
+        <v>141</v>
       </c>
       <c r="G101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-    </row>
-    <row r="103" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D103" s="21">
-        <v>42760</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G103" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D104" s="21">
-        <v>42760</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G104" s="12">
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="G103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E104" t="s">
+        <v>136</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B105" s="7" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E105" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
+      <c r="H105" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="G106">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="9" t="s">
+      <c r="A107" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
+        <v>309</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D118" s="28">
+        <v>42775</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>321</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D120" s="28">
+        <v>42775</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="G107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>4</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E108" t="s">
-        <v>138</v>
-      </c>
-      <c r="G108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>7</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E109" t="s">
-        <v>143</v>
-      </c>
-      <c r="G109">
-        <v>3</v>
-      </c>
-      <c r="H109" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-    </row>
-    <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B122" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="G123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B127" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="9" t="s">
-        <v>318</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A124" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="12"/>
+      <c r="B128" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A129" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+    </row>
+    <row r="130" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A130" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
     </row>
     <row r="131" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B131" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
+      <c r="A131" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+    </row>
+    <row r="132" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A132" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="9"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+    </row>
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="B134" s="9" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="B136" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="B137" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-    </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>5</v>
-      </c>
-      <c r="B139" s="7" t="s">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+      <c r="B139" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
+      <c r="B140" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="G141" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E140" t="s">
-        <v>143</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140" s="6">
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E143" t="s">
+        <v>141</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" s="6">
         <v>42702</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141" s="6"/>
-    </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F142" t="s">
-        <v>143</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142" s="6"/>
-    </row>
-    <row r="143" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="12">
-        <v>6</v>
-      </c>
-      <c r="B143" s="13" t="s">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F145" t="s">
+        <v>141</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145" s="6"/>
+    </row>
+    <row r="146" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="G143" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="F144" t="s">
-        <v>143</v>
-      </c>
-      <c r="G144" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="F145" t="s">
-        <v>143</v>
-      </c>
-      <c r="G145" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F146" t="s">
-        <v>143</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="G146" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="B147" s="13" t="s">
-        <v>124</v>
+        <v>258</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
+      <c r="F147" t="s">
+        <v>141</v>
+      </c>
       <c r="G147" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="12">
-        <v>2</v>
-      </c>
-      <c r="B149" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="F148" t="s">
+        <v>141</v>
+      </c>
+      <c r="G148" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F149" t="s">
+        <v>141</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="G150" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G149" s="12">
-        <v>0</v>
-      </c>
-      <c r="H149" s="14">
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G152" s="12">
+        <v>0</v>
+      </c>
+      <c r="H152" s="14">
         <v>42702</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G150" s="12">
-        <v>2</v>
-      </c>
-      <c r="H150" s="14"/>
-    </row>
-    <row r="151" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="H151" s="14"/>
-    </row>
-    <row r="152" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="H152" s="14"/>
-    </row>
-    <row r="153" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="12" t="s">
-        <v>138</v>
-      </c>
+    <row r="153" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
       <c r="G153" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153" s="14"/>
     </row>
-    <row r="154" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
+    <row r="154" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="H154" s="14"/>
     </row>
-    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="B155" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H155" s="28"/>
-    </row>
-    <row r="156" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="G155" s="12">
+        <v>2</v>
+      </c>
+      <c r="H155" s="14"/>
+    </row>
+    <row r="156" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="G156" s="12">
+        <v>0</v>
+      </c>
+      <c r="H156" s="14"/>
+    </row>
+    <row r="157" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="H157" s="14"/>
+    </row>
+    <row r="158" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="H156" s="14"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>2</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E157" t="s">
-        <v>138</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B158" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H158" s="6"/>
-    </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="I159" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B160" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G161" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B162" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B163" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B164" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B165" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G158" s="12">
+        <v>2</v>
+      </c>
+      <c r="H158" s="14"/>
+    </row>
+    <row r="159" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="G159" s="12">
+        <v>1</v>
+      </c>
+      <c r="H159" s="14"/>
+    </row>
+    <row r="160" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="H160" s="14"/>
+    </row>
+    <row r="161" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="H161" s="14"/>
+    </row>
+    <row r="162" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="H162" s="14"/>
+    </row>
+    <row r="163" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C163" s="18"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H163" s="27"/>
+    </row>
+    <row r="164" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A164" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="H164" s="6"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165" s="6"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="12" t="s">
+        <v>340</v>
+      </c>
       <c r="B166" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E166" t="s">
-        <v>138</v>
+        <v>328</v>
       </c>
       <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="H166" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I166" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="12" t="s">
+        <v>340</v>
+      </c>
       <c r="B167" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E167" t="s">
-        <v>138</v>
+        <v>343</v>
       </c>
       <c r="G167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H167" s="6"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="12" t="s">
+        <v>340</v>
+      </c>
       <c r="B168" s="7" t="s">
-        <v>136</v>
+        <v>338</v>
       </c>
       <c r="G168">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>342</v>
+      </c>
       <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169" s="6">
+        <v>3</v>
+      </c>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G170">
+        <v>3</v>
+      </c>
+      <c r="H170" s="6"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G172">
+        <v>3</v>
+      </c>
+      <c r="H172" s="6"/>
+    </row>
+    <row r="173" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B173" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="H173" s="6"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G175">
+        <v>2</v>
+      </c>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="H176" s="14"/>
+    </row>
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E177" t="s">
+        <v>136</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G180">
+        <v>2</v>
+      </c>
+      <c r="H180" s="6"/>
+    </row>
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="I181" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="12"/>
+      <c r="B182" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E185" t="s">
+        <v>136</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185" s="6">
         <v>42702</v>
       </c>
-      <c r="I169" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>1</v>
-      </c>
-      <c r="B170" s="7" t="s">
+      <c r="I185" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186" s="6">
+        <v>42702</v>
+      </c>
+      <c r="I186" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B187" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E187" t="s">
+        <v>136</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E188" t="s">
         <v>138</v>
       </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="7" t="s">
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B189" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E171" t="s">
-        <v>140</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E172" t="s">
-        <v>140</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172" s="6">
+      <c r="E189" t="s">
+        <v>138</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189" s="6">
         <v>42697</v>
       </c>
-      <c r="I172" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H173" s="6"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B174" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E175" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>2</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E176" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>3</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E177" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>4</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>186</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E179" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B180" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E180" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E181" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B182" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E182" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B183" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E183" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B184" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E184" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B185" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C185" s="10"/>
-      <c r="D185" s="10"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B186" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E186" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B187" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B188" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B189" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I189" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="12" t="s">
+        <v>304</v>
+      </c>
       <c r="B190" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B191" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E191" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B193" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E193" t="s">
-        <v>228</v>
+        <v>259</v>
+      </c>
+      <c r="G190">
+        <v>2</v>
+      </c>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B191" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C191" s="17"/>
+      <c r="D191" s="17"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B192" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>320</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D193" s="28">
+        <v>42775</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E194" t="s">
-        <v>228</v>
+        <v>354</v>
+      </c>
+      <c r="G194">
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B195" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-    </row>
-    <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B196" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E196" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B197" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E197" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B198" s="7" t="s">
-        <v>198</v>
-      </c>
+      <c r="B195" t="s">
+        <v>312</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D195" s="28">
+        <v>42775</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B196" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="H196" s="6"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H197" s="6"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C198" s="8"/>
+      <c r="D198" s="8"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1</v>
+      </c>
       <c r="B199" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="E199" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G200">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="E200" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>209</v>
+        <v>175</v>
+      </c>
+      <c r="E201" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>4</v>
+      </c>
       <c r="B202" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G202">
-        <v>2</v>
+        <v>176</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>177</v>
+      </c>
       <c r="B203" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G203">
-        <v>2</v>
+        <v>195</v>
+      </c>
+      <c r="E203" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B204" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G204">
+        <v>180</v>
+      </c>
+      <c r="E204" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B205" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E205" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E206" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E207" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B208" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E208" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B209" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B210" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E210" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B211" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B212" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B213" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B214" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B215" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B217" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E217" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B218" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E218" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B219" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+    </row>
+    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B220" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E220" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B221" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E221" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B222" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B223" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B226" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B227" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B228" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G228">
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E207" s="21"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B208" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E208" t="s">
-        <v>232</v>
-      </c>
-      <c r="G208">
-        <v>0</v>
-      </c>
-      <c r="H208" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B209" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E209" t="s">
-        <v>233</v>
-      </c>
-      <c r="G209">
-        <v>0</v>
-      </c>
-      <c r="H209" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B210" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E210" t="s">
-        <v>234</v>
-      </c>
-      <c r="G210">
-        <v>0</v>
-      </c>
-      <c r="H210" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B211" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="H211" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B212" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G212">
-        <v>0</v>
-      </c>
-      <c r="H212" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B213" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G213">
-        <v>0</v>
-      </c>
-      <c r="H213" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B215" s="7" t="s">
-        <v>231</v>
+    <row r="229" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E231" s="20"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B232" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E232" t="s">
+        <v>222</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B233" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E233" t="s">
+        <v>223</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B234" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E234" t="s">
+        <v>224</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B235" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B236" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B237" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B239" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:I206">
+  <autoFilter ref="A7:I230">
     <filterColumn colId="6">
       <filters blank="1">
         <filter val="1"/>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$238</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="365">
   <si>
     <t>Reports</t>
   </si>
@@ -422,9 +422,6 @@
   </si>
   <si>
     <t>PDF</t>
-  </si>
-  <si>
-    <t>Image capture</t>
   </si>
   <si>
     <t>Handled by</t>
@@ -769,9 +766,6 @@
   </si>
   <si>
     <t>Generate Comp Form component</t>
-  </si>
-  <si>
-    <t>Compoents</t>
   </si>
   <si>
     <t>Generate ICF button</t>
@@ -1251,6 +1245,33 @@
   </si>
   <si>
     <t>Store both original file name and generated file name in comp form.</t>
+  </si>
+  <si>
+    <t>Extractin Pending Status, include errors while extracting</t>
+  </si>
+  <si>
+    <t>embed attachments, pdf etc</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Download mongo db log</t>
+  </si>
+  <si>
+    <t>rotate mongo db log</t>
+  </si>
+  <si>
+    <t>MongDB</t>
+  </si>
+  <si>
+    <t>Indexing</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>Restore</t>
   </si>
 </sst>
 </file>
@@ -2424,18 +2445,18 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I239"/>
+  <dimension ref="A1:I247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="79.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="7" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
@@ -2479,30 +2500,30 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
       <c r="H6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" t="s">
         <v>146</v>
-      </c>
-      <c r="I6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2510,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -2520,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -2533,7 +2554,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -2546,16 +2567,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D11" s="20">
         <v>42760</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="12">
         <v>0</v>
@@ -2566,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -2576,13 +2597,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -2590,16 +2611,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D14" s="20">
         <v>42760</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2610,16 +2631,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D15" s="20">
         <v>42760</v>
       </c>
       <c r="E15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2633,7 +2654,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2644,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2657,12 +2678,12 @@
         <v>2</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G18" s="12">
         <v>0</v>
@@ -2673,7 +2694,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2687,12 +2708,12 @@
         <v>2</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" s="12">
         <v>0</v>
@@ -2703,10 +2724,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2717,10 +2738,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D22" s="20">
         <v>42760</v>
@@ -2734,10 +2755,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D23" s="20">
         <v>42760</v>
@@ -2752,50 +2773,48 @@
         <v>2</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D24" s="20">
         <v>42760</v>
       </c>
       <c r="E24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="20"/>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>272</v>
+      <c r="B27" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -2803,17 +2822,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>306</v>
+      <c r="B28" s="9" t="s">
+        <v>270</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="G28" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2821,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>155</v>
+        <v>304</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -2829,66 +2848,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="G30" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="G31">
-        <v>2</v>
+      <c r="B31" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="G31" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="G34">
-        <v>0</v>
+      <c r="B34" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="G34" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2896,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2909,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2922,7 +2941,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2930,78 +2949,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="D38" s="20">
-        <v>42760</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="22" t="s">
+      <c r="C39" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>292</v>
       </c>
       <c r="D39" s="20">
         <v>42760</v>
       </c>
-      <c r="E39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" t="s">
-        <v>296</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D40" s="20">
+        <v>42760</v>
+      </c>
+      <c r="E40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" t="s">
+        <v>294</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="G41">
-        <v>0</v>
-      </c>
+      <c r="B41" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -3014,7 +3033,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -3022,12 +3041,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -3035,60 +3054,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="G45" s="11" t="s">
+      <c r="B45" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="G46" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="D48" s="20">
-        <v>42760</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G48" s="12">
+      <c r="B48" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48">
         <v>0</v>
       </c>
     </row>
@@ -3097,55 +3109,62 @@
         <v>2</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D49" s="20">
         <v>42760</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G49" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50" s="20">
+        <v>42760</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>272</v>
+        <v>163</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3153,7 +3172,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -3161,17 +3180,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3179,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -3192,7 +3211,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -3200,43 +3219,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B57" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="G58">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
-        <v>314</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D58" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D59" s="28">
         <v>42775</v>
@@ -3244,16 +3258,17 @@
       <c r="G59">
         <v>0</v>
       </c>
+      <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D60" s="28">
         <v>42775</v>
@@ -3262,49 +3277,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" t="s">
+      <c r="B61" t="s">
+        <v>314</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D61" s="28">
+        <v>42775</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" t="s">
         <v>41</v>
       </c>
-      <c r="G61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" s="6">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="G63" s="12">
-        <v>0</v>
-      </c>
-      <c r="H63" s="14">
+      <c r="B63" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
         <v>42697</v>
       </c>
     </row>
@@ -3313,7 +3329,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -3321,21 +3337,23 @@
         <v>0</v>
       </c>
       <c r="H64" s="14">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="G65" s="12">
+        <v>0</v>
+      </c>
+      <c r="H65" s="14">
         <v>42698</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65" s="6">
-        <v>42697</v>
       </c>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3343,19 +3361,21 @@
         <v>2</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66" s="6"/>
+      <c r="H66" s="6">
+        <v>42697</v>
+      </c>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3367,86 +3387,86 @@
         <v>2</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="18" t="s">
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2</v>
+      </c>
+      <c r="H70" s="27"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="27"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E70" t="s">
-        <v>136</v>
-      </c>
-      <c r="G70">
-        <v>2</v>
-      </c>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="G71" s="12">
-        <v>1</v>
-      </c>
-      <c r="H71" s="14"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>135</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E72" t="s">
-        <v>141</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G72" s="12">
+        <v>1</v>
+      </c>
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G73" s="12">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
       </c>
       <c r="H73" s="6"/>
     </row>
@@ -3454,16 +3474,10 @@
       <c r="A74" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B74" t="s">
-        <v>317</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D74" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G74">
+      <c r="B74" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G74" s="12">
         <v>0</v>
       </c>
       <c r="H74" s="6"/>
@@ -3473,10 +3487,10 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D75" s="28">
         <v>42775</v>
@@ -3486,21 +3500,21 @@
       </c>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D76" s="28">
         <v>42775</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="6"/>
     </row>
@@ -3508,172 +3522,185 @@
       <c r="A77" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>324</v>
+      <c r="B77" t="s">
+        <v>317</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D77" s="28"/>
-      <c r="G77" s="12">
-        <v>1</v>
+        <v>308</v>
+      </c>
+      <c r="D77" s="28">
+        <v>42775</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
       </c>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="G78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D78" s="28"/>
+      <c r="E78" t="s">
+        <v>135</v>
+      </c>
+      <c r="G78" s="12">
+        <v>1</v>
+      </c>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D81" s="20">
+        <v>42760</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D86" s="20">
+        <v>42760</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="D80" s="20">
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D89" s="20">
         <v>42760</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="G83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="G84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="D85" s="20">
-        <v>42760</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="G86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="D88" s="20">
-        <v>42760</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
+      <c r="G89">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
@@ -3686,41 +3713,38 @@
     <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="21" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
+      <c r="B92" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3728,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3739,125 +3763,122 @@
         <v>2</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-    </row>
-    <row r="99" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="D99" s="20">
-        <v>42760</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G99" s="12">
-        <v>0</v>
-      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="24" t="s">
-        <v>297</v>
+      <c r="B100" s="23" t="s">
+        <v>282</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D100" s="20">
         <v>42760</v>
       </c>
-      <c r="E100" s="20" t="s">
-        <v>141</v>
+      <c r="E100" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="G100" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D101" s="20">
+        <v>42760</v>
+      </c>
+      <c r="E101" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E101" t="s">
-        <v>141</v>
-      </c>
-      <c r="G101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
+      <c r="B102" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E102" t="s">
+        <v>140</v>
+      </c>
       <c r="G102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="G103">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E104" t="s">
-        <v>136</v>
-      </c>
+      <c r="B104" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
       <c r="G104">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3865,16 +3886,13 @@
         <v>2</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E105" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G105">
-        <v>3</v>
-      </c>
-      <c r="H105" s="6">
-        <v>42702</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3882,18 +3900,27 @@
         <v>2</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="E106" t="s">
+        <v>140</v>
       </c>
       <c r="G106">
         <v>3</v>
       </c>
+      <c r="H106" s="6">
+        <v>42702</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3901,7 +3928,7 @@
         <v>2</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3909,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -3917,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3925,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -3933,83 +3960,83 @@
         <v>2</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-    </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
+      <c r="B114" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
     </row>
     <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>307</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" t="s">
-        <v>309</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D118" s="28">
+      <c r="D119" s="28">
         <v>42775</v>
       </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" t="s">
-        <v>311</v>
+      <c r="G119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4017,24 +4044,24 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>321</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D120" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>133</v>
+      <c r="B121" t="s">
+        <v>319</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D121" s="28">
+        <v>42775</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4042,87 +4069,85 @@
         <v>2</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A125" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-    </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B126" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
+      <c r="B126" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B128" s="9" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="G128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A129" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B129" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="12"/>
+      <c r="B129" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
     </row>
     <row r="130" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A130" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>329</v>
+      <c r="B130" s="17" t="s">
+        <v>1</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -4131,8 +4156,8 @@
       <c r="A131" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>337</v>
+      <c r="B131" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
@@ -4141,39 +4166,36 @@
       <c r="A132" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B132" s="9"/>
+      <c r="B132" s="9" t="s">
+        <v>335</v>
+      </c>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A133" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-    </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="9"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="G134">
-        <v>0</v>
-      </c>
+      <c r="B134" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
     </row>
     <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
@@ -4185,9 +4207,11 @@
       <c r="A136" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="B136" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
       <c r="G136">
         <v>0</v>
       </c>
@@ -4197,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4208,46 +4232,46 @@
         <v>1</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
-      <c r="B139" s="10" t="s">
-        <v>238</v>
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
-      <c r="B140" s="7" t="s">
-        <v>350</v>
+      <c r="B140" s="10" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="G141" t="s">
+      <c r="A141" s="12"/>
+      <c r="B141" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="G142" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4255,16 +4279,10 @@
         <v>1</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E143" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="G143">
         <v>0</v>
-      </c>
-      <c r="H143" s="6">
-        <v>42702</v>
       </c>
     </row>
     <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4272,55 +4290,56 @@
         <v>1</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>275</v>
+        <v>226</v>
+      </c>
+      <c r="E144" t="s">
+        <v>140</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
-      <c r="H144" s="6"/>
+      <c r="H144" s="6">
+        <v>42702</v>
+      </c>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F145" t="s">
-        <v>141</v>
+        <v>273</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145" s="6"/>
     </row>
-    <row r="146" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F146" t="s">
+        <v>140</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146" s="6"/>
+    </row>
+    <row r="147" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="G146" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>258</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
-      <c r="F147" t="s">
-        <v>141</v>
-      </c>
       <c r="G147" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4328,99 +4347,98 @@
         <v>1</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
       <c r="F148" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G148" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="B149" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
       <c r="F149" t="s">
-        <v>141</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="G149" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="13" t="s">
+      <c r="B150" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F150" t="s">
+        <v>140</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="G150" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="G151" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B152" s="13" t="s">
+      <c r="B152" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G152" s="12">
-        <v>0</v>
-      </c>
-      <c r="H152" s="14">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="13" t="s">
-        <v>351</v>
       </c>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
+      <c r="E153" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="G153" s="12">
-        <v>1</v>
-      </c>
-      <c r="H153" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="H153" s="14">
+        <v>42702</v>
+      </c>
     </row>
     <row r="154" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B154" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G154" s="12" t="s">
-        <v>41</v>
+      <c r="B154" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="G154" s="12">
+        <v>1</v>
       </c>
       <c r="H154" s="14"/>
     </row>
@@ -4428,69 +4446,72 @@
       <c r="A155" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B155" s="19" t="s">
-        <v>300</v>
+      <c r="B155" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
-      <c r="G155" s="12">
-        <v>2</v>
+      <c r="E155" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G155" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="H155" s="14"/>
     </row>
-    <row r="156" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
       <c r="G156" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H156" s="14"/>
     </row>
-    <row r="157" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
+      <c r="G157" s="12">
+        <v>0</v>
+      </c>
       <c r="H157" s="14"/>
     </row>
     <row r="158" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B158" s="15" t="s">
-        <v>265</v>
+      <c r="B158" s="19" t="s">
+        <v>329</v>
       </c>
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
-      <c r="E158" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G158" s="12">
-        <v>2</v>
-      </c>
       <c r="H158" s="14"/>
     </row>
     <row r="159" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B159" s="19" t="s">
-        <v>334</v>
+      <c r="B159" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
+      <c r="E159" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="G159" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" s="14"/>
     </row>
@@ -4498,11 +4519,14 @@
       <c r="A160" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B160" s="19" t="s">
         <v>332</v>
       </c>
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
+      <c r="G160" s="12">
+        <v>1</v>
+      </c>
       <c r="H160" s="14"/>
     </row>
     <row r="161" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4510,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
@@ -4521,53 +4545,52 @@
         <v>1</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="H162" s="14"/>
     </row>
-    <row r="163" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H163" s="27"/>
-    </row>
-    <row r="164" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B163" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="H163" s="14"/>
+    </row>
+    <row r="164" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="H164" s="6"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C164" s="18"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H164" s="27"/>
+    </row>
+    <row r="165" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A165" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G165">
-        <v>3</v>
+        <v>338</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>324</v>
       </c>
       <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -4576,10 +4599,10 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -4588,10 +4611,10 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -4600,10 +4623,10 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G169">
         <v>3</v>
@@ -4612,10 +4635,10 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -4624,10 +4647,10 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -4636,7 +4659,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>344</v>
@@ -4646,104 +4669,95 @@
       </c>
       <c r="H172" s="6"/>
     </row>
-    <row r="173" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B173" s="17" t="s">
-        <v>341</v>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G173">
+        <v>3</v>
       </c>
       <c r="H173" s="6"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B174" s="15" t="s">
-        <v>356</v>
+      <c r="A174" s="12"/>
+      <c r="B174" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="12"/>
       <c r="B175" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G175">
-        <v>2</v>
+        <v>360</v>
       </c>
       <c r="H175" s="6"/>
     </row>
-    <row r="176" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
-      <c r="H176" s="14"/>
-    </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E177" t="s">
+    <row r="176" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B176" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="H176" s="6"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="H177" s="6"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G178">
+        <v>2</v>
+      </c>
+      <c r="H178" s="6"/>
+    </row>
+    <row r="179" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="H179" s="14"/>
+    </row>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>259</v>
+      <c r="E180" t="s">
+        <v>135</v>
       </c>
       <c r="G180">
-        <v>2</v>
-      </c>
-      <c r="H180" s="6"/>
-    </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>122</v>
+        <v>333</v>
       </c>
       <c r="G181">
-        <v>0</v>
-      </c>
-      <c r="I181" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="12"/>
+      <c r="A182" s="12" t="s">
+        <v>320</v>
+      </c>
       <c r="B182" s="7" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -4751,531 +4765,602 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>304</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G183">
+        <v>2</v>
+      </c>
+      <c r="H183" s="6"/>
     </row>
     <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>305</v>
+        <v>122</v>
       </c>
       <c r="G184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="12" t="s">
-        <v>304</v>
-      </c>
+      <c r="I184" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="12"/>
       <c r="B185" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E185" t="s">
-        <v>136</v>
+        <v>351</v>
       </c>
       <c r="G185">
-        <v>0</v>
-      </c>
-      <c r="H185" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I185" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I186" t="s">
-        <v>147</v>
+        <v>302</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E187" t="s">
-        <v>136</v>
+        <v>303</v>
       </c>
       <c r="G187">
         <v>0</v>
-      </c>
-      <c r="H187" s="6">
-        <v>42702</v>
       </c>
     </row>
     <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E188" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G188">
         <v>0</v>
+      </c>
+      <c r="H188" s="6">
+        <v>42702</v>
+      </c>
+      <c r="I188" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B189" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189" s="6">
+        <v>42702</v>
+      </c>
+      <c r="I189" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E190" t="s">
+        <v>135</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E191" t="s">
+        <v>137</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B192" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E189" t="s">
-        <v>138</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="H189" s="6">
+      <c r="E192" t="s">
+        <v>137</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192" s="6">
         <v>42697</v>
       </c>
-      <c r="I189" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G190">
-        <v>2</v>
-      </c>
-      <c r="H190" s="6"/>
-    </row>
-    <row r="191" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B191" s="17" t="s">
+      <c r="I192" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="12"/>
+      <c r="B194" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B195" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C191" s="17"/>
-      <c r="D191" s="17"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B192" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>320</v>
-      </c>
-      <c r="C193" s="7" t="s">
+      <c r="C195" s="17"/>
+      <c r="D195" s="17"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B196" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>318</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D197" s="28">
+        <v>42775</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
         <v>310</v>
       </c>
-      <c r="D193" s="28">
+      <c r="C199" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D199" s="28">
         <v>42775</v>
       </c>
-      <c r="G193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B194" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G194">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>312</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D195" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B196" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="H196" s="6"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H197" s="6"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B198" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>1</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E199" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>2</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E200" t="s">
-        <v>212</v>
-      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H200" s="6"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="B201" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="H201" s="6"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B202" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G202">
         <v>3</v>
       </c>
-      <c r="B201" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E201" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>4</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>176</v>
-      </c>
+      <c r="H202" s="6"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>177</v>
-      </c>
       <c r="B203" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E203" t="s">
-        <v>214</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G203">
+        <v>3</v>
+      </c>
+      <c r="H203" s="6"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B204" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E204" t="s">
+        <v>364</v>
+      </c>
+      <c r="G204">
+        <v>3</v>
+      </c>
+      <c r="H204" s="6"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H205" s="6"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>3</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>4</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>176</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E211" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E212" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B213" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E213" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B214" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B215" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B205" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E205" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B206" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E206" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B207" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E207" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B208" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E208" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B209" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B210" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E210" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B211" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B212" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B213" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B214" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B215" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E215" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B216" s="7" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B217" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E217" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B217" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B218" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E218" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B219" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B220" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B221" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B222" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B223" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E223" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B225" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E218" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B219" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
-    </row>
-    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B220" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E220" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B221" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E221" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B222" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B223" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>1</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>2</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>200</v>
+      <c r="E225" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B226" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G226">
-        <v>2</v>
+        <v>195</v>
+      </c>
+      <c r="E226" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B227" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G227">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B227" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
+    </row>
+    <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B228" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G228">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E228" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B229" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E229" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B230" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G230">
-        <v>0</v>
+        <v>188</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E231" s="20"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B231" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1</v>
+      </c>
       <c r="B232" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E232" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="G232">
         <v>0</v>
       </c>
-      <c r="H232" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2</v>
+      </c>
       <c r="B233" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E233" t="s">
-        <v>223</v>
-      </c>
-      <c r="G233">
-        <v>0</v>
-      </c>
-      <c r="H233" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B234" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E234" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="G234">
-        <v>0</v>
-      </c>
-      <c r="H234" t="s">
-        <v>147</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B235" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G235">
-        <v>0</v>
-      </c>
-      <c r="H235" t="s">
-        <v>147</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B236" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E239" s="20"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B240" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E240" t="s">
+        <v>221</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B241" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E241" t="s">
+        <v>222</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B242" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E242" t="s">
+        <v>223</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B243" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B244" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B245" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G236">
-        <v>0</v>
-      </c>
-      <c r="H236" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B237" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G237">
-        <v>0</v>
-      </c>
-      <c r="H237" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B239" s="7" t="s">
-        <v>221</v>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B247" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:I230">
+  <autoFilter ref="A7:I238">
     <filterColumn colId="6">
       <filters blank="1">
         <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>
-        <filter val="9"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-405" yWindow="885" windowWidth="20130" windowHeight="11760" tabRatio="375" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="420" windowWidth="20130" windowHeight="11760" tabRatio="375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$238</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$239</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="366">
   <si>
     <t>Reports</t>
   </si>
@@ -1272,6 +1272,9 @@
   </si>
   <si>
     <t>Restore</t>
+  </si>
+  <si>
+    <t>Delete Confirm Error Image</t>
   </si>
 </sst>
 </file>
@@ -2445,13 +2448,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I247"/>
+  <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomRight" activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4641,7 +4644,7 @@
         <v>340</v>
       </c>
       <c r="G170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H170" s="6"/>
     </row>
@@ -4650,10 +4653,10 @@
         <v>338</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="G171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H171" s="6"/>
     </row>
@@ -4662,7 +4665,7 @@
         <v>338</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -4674,7 +4677,7 @@
         <v>338</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G173">
         <v>3</v>
@@ -4682,74 +4685,75 @@
       <c r="H173" s="6"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="12"/>
+      <c r="A174" s="12" t="s">
+        <v>338</v>
+      </c>
       <c r="B174" s="7" t="s">
-        <v>359</v>
+        <v>342</v>
+      </c>
+      <c r="G174">
+        <v>3</v>
       </c>
       <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
       <c r="B175" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="12"/>
+      <c r="B176" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H175" s="6"/>
-    </row>
-    <row r="176" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B176" s="17" t="s">
+      <c r="H176" s="6"/>
+    </row>
+    <row r="177" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B177" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="H176" s="6"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B177" s="15" t="s">
+      <c r="H177" s="6"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="H177" s="6"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="7" t="s">
+      <c r="H178" s="6"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G178">
-        <v>2</v>
-      </c>
-      <c r="H178" s="6"/>
-    </row>
-    <row r="179" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
-      <c r="H179" s="14"/>
-    </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <v>2</v>
+      </c>
+      <c r="H179" s="6"/>
+    </row>
+    <row r="180" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="B180" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E180" t="s">
-        <v>135</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="H180" s="14"/>
+    </row>
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>320</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>333</v>
+        <v>136</v>
+      </c>
+      <c r="E181" t="s">
+        <v>135</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -4757,10 +4761,10 @@
         <v>320</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -4768,53 +4772,53 @@
         <v>320</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="G183">
         <v>2</v>
       </c>
-      <c r="H183" s="6"/>
-    </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>320</v>
       </c>
       <c r="B184" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G184">
+        <v>2</v>
+      </c>
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G184">
-        <v>0</v>
-      </c>
-      <c r="I184" t="s">
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="I185" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="12"/>
-      <c r="B185" s="7" t="s">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="12"/>
+      <c r="B186" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="G185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="B187" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
+      <c r="B187" s="8" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -4822,30 +4826,22 @@
         <v>302</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E188" t="s">
-        <v>135</v>
+        <v>303</v>
       </c>
       <c r="G188">
         <v>0</v>
-      </c>
-      <c r="H188" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I188" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="B189" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
+      <c r="B189" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E189" t="s">
+        <v>135</v>
+      </c>
       <c r="G189">
         <v>0</v>
       </c>
@@ -4860,17 +4856,19 @@
       <c r="A190" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="B190" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E190" t="s">
-        <v>135</v>
-      </c>
+      <c r="B190" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
       <c r="G190">
         <v>0</v>
       </c>
       <c r="H190" s="6">
         <v>42702</v>
+      </c>
+      <c r="I190" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -4878,13 +4876,16 @@
         <v>302</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E191" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G191">
         <v>0</v>
+      </c>
+      <c r="H191" s="6">
+        <v>42702</v>
       </c>
     </row>
     <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -4892,7 +4893,7 @@
         <v>302</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E192" t="s">
         <v>137</v>
@@ -4900,184 +4901,190 @@
       <c r="G192">
         <v>0</v>
       </c>
-      <c r="H192" s="6">
-        <v>42697</v>
-      </c>
-      <c r="I192" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>302</v>
       </c>
       <c r="B193" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E193" t="s">
+        <v>137</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193" s="6">
+        <v>42697</v>
+      </c>
+      <c r="I193" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B194" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G193">
-        <v>2</v>
-      </c>
-      <c r="H193" s="6"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="12"/>
-      <c r="B194" s="13" t="s">
+      <c r="G194">
+        <v>2</v>
+      </c>
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="12"/>
+      <c r="B195" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="H194" s="6"/>
-    </row>
-    <row r="195" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B195" s="17" t="s">
+      <c r="H195" s="6"/>
+    </row>
+    <row r="196" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B196" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C195" s="17"/>
-      <c r="D195" s="17"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B196" s="8" t="s">
+      <c r="C196" s="17"/>
+      <c r="D196" s="17"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B197" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="G196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
+      <c r="G197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
         <v>318</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C198" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D197" s="28">
+      <c r="D198" s="28">
         <v>42775</v>
       </c>
-      <c r="G197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B198" s="7" t="s">
+      <c r="G198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B199" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G198">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
+      <c r="G199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
         <v>310</v>
       </c>
-      <c r="C199" s="7" t="s">
+      <c r="C200" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D199" s="28">
+      <c r="D200" s="28">
         <v>42775</v>
       </c>
-      <c r="G199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H200" s="6"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B201" s="8" t="s">
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H201" s="6"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="H201" s="6"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B202" s="7" t="s">
+      <c r="H202" s="6"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B203" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G202">
-        <v>3</v>
-      </c>
-      <c r="H202" s="6"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B203" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="G203">
         <v>3</v>
       </c>
       <c r="H203" s="6"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B204" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G204">
         <v>3</v>
       </c>
       <c r="H204" s="6"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
       <c r="H205" s="6"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B206" s="8" t="s">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H206" s="6"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C206" s="8"/>
-      <c r="D206" s="8"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>1</v>
-      </c>
-      <c r="B207" s="7" t="s">
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E208" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>2</v>
-      </c>
-      <c r="B208" s="7" t="s">
+    <row r="209" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2</v>
+      </c>
+      <c r="B209" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E209" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>3</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E209" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
+        <v>3</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E210" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
         <v>4</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B211" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>176</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B212" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="E211" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B212" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="E212" t="s">
         <v>213</v>
@@ -5085,7 +5092,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B213" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E213" t="s">
         <v>213</v>
@@ -5093,207 +5100,201 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B214" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B215" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E215" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B216" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E216" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B217" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E217" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B217" s="10" t="s">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B218" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B218" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E218" t="s">
-        <v>216</v>
-      </c>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B219" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="E219" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B220" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B221" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B221" s="7" t="s">
+    <row r="222" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B222" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B222" s="7" t="s">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B223" s="7" t="s">
+    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B224" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E224" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="7" t="s">
+    <row r="225" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B225" s="7" t="s">
+    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B226" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="E225" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B226" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="E226" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B227" s="10" t="s">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B227" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E227" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B228" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C227" s="10"/>
-      <c r="D227" s="10"/>
-    </row>
-    <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B228" s="7" t="s">
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
+    </row>
+    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B229" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="E228" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B229" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="E229" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B230" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E230" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B231" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B231" s="7" t="s">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B232" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>1</v>
-      </c>
-      <c r="B232" s="7" t="s">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>2</v>
-      </c>
-      <c r="B233" s="7" t="s">
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2</v>
+      </c>
+      <c r="B234" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B234" s="7" t="s">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B235" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G234">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B235" s="7" t="s">
+      <c r="G235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B236" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G235">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B236" s="7" t="s">
+      <c r="G236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B237" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G236">
+      <c r="G237">
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="7" t="s">
+    <row r="238" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="7" t="s">
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E239" s="20"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B240" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E240" t="s">
-        <v>221</v>
-      </c>
-      <c r="G240">
-        <v>0</v>
-      </c>
-      <c r="H240" t="s">
-        <v>146</v>
-      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E240" s="20"/>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E241" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -5304,10 +5305,10 @@
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E242" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -5316,9 +5317,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="243" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="E243" t="s">
+        <v>223</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -5327,9 +5331,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B244" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -5340,7 +5344,7 @@
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -5349,13 +5353,24 @@
         <v>146</v>
       </c>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B247" s="7" t="s">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B246" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B248" s="7" t="s">
         <v>220</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:I238">
+  <autoFilter ref="A7:I239">
     <filterColumn colId="6">
       <filters blank="1">
         <filter val="1"/>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$247</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="377">
   <si>
     <t>Reports</t>
   </si>
@@ -835,9 +835,6 @@
   </si>
   <si>
     <t>About us</t>
-  </si>
-  <si>
-    <t>ALL ISCFS</t>
   </si>
   <si>
     <t>Filters + No match found, Review pending</t>
@@ -1275,6 +1272,42 @@
   </si>
   <si>
     <t>Delete Confirm Error Image</t>
+  </si>
+  <si>
+    <t>Does not retain page number after returning from Finding</t>
+  </si>
+  <si>
+    <t>ALL Searches</t>
+  </si>
+  <si>
+    <t>Column Active - replace with Review Completed</t>
+  </si>
+  <si>
+    <t>Column Searched On and Assigned to are interchanged.</t>
+  </si>
+  <si>
+    <t>Additional Sites - web link is not shown</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Clicking 'Add Investigator' from tabs does not open Investigator Tab</t>
+  </si>
+  <si>
+    <t>Do not Save Investigator if name is blank</t>
+  </si>
+  <si>
+    <t>Activity Indicator for all listing pages</t>
+  </si>
+  <si>
+    <t>Enhanement</t>
+  </si>
+  <si>
+    <t>Column: Last Updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhancement  </t>
   </si>
 </sst>
 </file>
@@ -2448,13 +2481,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B154" sqref="B154"/>
+      <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,16 +2536,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E6" t="s">
         <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -2526,7 +2559,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2570,10 +2603,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D11" s="20">
         <v>42760</v>
@@ -2614,10 +2647,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D14" s="20">
         <v>42760</v>
@@ -2634,16 +2667,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D15" s="20">
         <v>42760</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2668,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2681,7 +2714,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -2741,10 +2774,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D22" s="20">
         <v>42760</v>
@@ -2758,10 +2791,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D23" s="20">
         <v>42760</v>
@@ -2776,16 +2809,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D24" s="20">
         <v>42760</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2794,7 +2827,7 @@
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="20"/>
@@ -2830,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -2843,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -2891,39 +2924,37 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="F33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="16" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="G35">
-        <v>0</v>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="G35" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2931,7 +2962,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2944,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2957,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2965,104 +2996,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="D39" s="20">
-        <v>42760</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="22" t="s">
-        <v>288</v>
+      <c r="B40" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D40" s="20">
         <v>42760</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D41" s="20">
+        <v>42760</v>
+      </c>
+      <c r="E41" t="s">
         <v>140</v>
       </c>
-      <c r="F40" t="s">
-        <v>294</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="F41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="20"/>
+      <c r="F42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="20"/>
+      <c r="F43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="G44">
-        <v>0</v>
-      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -3070,164 +3097,166 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="G46" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="G47" s="3">
-        <v>1</v>
+      <c r="B47" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="G47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>277</v>
-      </c>
+      <c r="B48" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
       <c r="G48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="D49" s="20">
-        <v>42760</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G49" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="D50" s="20">
-        <v>42760</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G50" s="12">
-        <v>0</v>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="F49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="F50" t="s">
+        <v>376</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="G51" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D54" s="20">
+        <v>42760</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D55" s="20">
+        <v>42760</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="G56">
-        <v>0</v>
-      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>296</v>
+        <v>163</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -3235,47 +3264,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B58" s="9" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="G58">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B59" t="s">
-        <v>312</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D59" s="28">
-        <v>42775</v>
-      </c>
+      <c r="B59" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
       <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59" s="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B60" t="s">
-        <v>313</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D60" s="28">
-        <v>42775</v>
-      </c>
+      <c r="B60" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
       <c r="G60">
         <v>0</v>
       </c>
@@ -3284,192 +3307,187 @@
       <c r="A61" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B61" t="s">
-        <v>314</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D61" s="28">
+      <c r="B61" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="G63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>311</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D64" s="28">
         <v>42775</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63" s="6">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="G64" s="12">
-        <v>0</v>
-      </c>
-      <c r="H64" s="14">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="G65" s="12">
-        <v>0</v>
-      </c>
-      <c r="H65" s="14">
-        <v>42698</v>
+      <c r="B65" t="s">
+        <v>312</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D65" s="28">
+        <v>42775</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>144</v>
+      <c r="B66" t="s">
+        <v>313</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D66" s="28">
+        <v>42775</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66" s="6">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>193</v>
+      <c r="B67" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" t="s">
+        <v>41</v>
       </c>
       <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67" s="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="G69" s="12">
+        <v>0</v>
+      </c>
+      <c r="H69" s="14">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="G70" s="12">
+        <v>0</v>
+      </c>
+      <c r="H70" s="14">
+        <v>42698</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" s="6">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G70" s="3">
-        <v>2</v>
-      </c>
-      <c r="H70" s="27"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E71" t="s">
-        <v>135</v>
-      </c>
-      <c r="G71">
-        <v>2</v>
-      </c>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="G72" s="12">
-        <v>1</v>
-      </c>
-      <c r="H72" s="14"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E73" t="s">
-        <v>140</v>
-      </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="6"/>
     </row>
@@ -3478,155 +3496,168 @@
         <v>2</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G74" s="12">
+        <v>231</v>
+      </c>
+      <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B75" t="s">
-        <v>315</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D75" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75" s="6"/>
-    </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G75" s="3">
+        <v>2</v>
+      </c>
+      <c r="H75" s="27"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B76" t="s">
-        <v>316</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D76" s="28">
-        <v>42775</v>
+      <c r="B76" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E76" t="s">
+        <v>135</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B77" t="s">
-        <v>317</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D77" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77" s="6"/>
-    </row>
-    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G77" s="12">
+        <v>1</v>
+      </c>
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D78" s="28"/>
+        <v>245</v>
+      </c>
       <c r="E78" t="s">
-        <v>135</v>
-      </c>
-      <c r="G78" s="12">
+        <v>140</v>
+      </c>
+      <c r="G78">
         <v>1</v>
       </c>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="G79">
-        <v>1</v>
-      </c>
+      <c r="B79" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G79" s="12">
+        <v>0</v>
+      </c>
+      <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>236</v>
+      <c r="B80" t="s">
+        <v>314</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D80" s="28">
+        <v>42775</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D81" s="20">
-        <v>42760</v>
+      <c r="B81" t="s">
+        <v>315</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81" s="28">
+        <v>42775</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>266</v>
+      <c r="B82" t="s">
+        <v>316</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D82" s="28">
+        <v>42775</v>
       </c>
       <c r="G82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="D83" s="28"/>
+      <c r="E83" t="s">
+        <v>135</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G83" s="12">
+        <v>1</v>
+      </c>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>239</v>
+        <v>366</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -3634,28 +3665,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+      <c r="B85" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="G85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="25" t="s">
-        <v>321</v>
+      <c r="B86" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D86" s="20">
         <v>42760</v>
@@ -3664,645 +3693,662 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12"/>
+      <c r="B89" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F89" t="s">
+        <v>370</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
+      <c r="B90" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F90" t="s">
+        <v>322</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D93" s="20">
+        <v>42760</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="G87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="7" t="s">
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D89" s="20">
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D96" s="20">
         <v>42760</v>
       </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="21" t="s">
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="12"/>
+      <c r="B97" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="12"/>
+      <c r="B98" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="12"/>
+      <c r="B99" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="7" t="s">
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="7" t="s">
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="7" t="s">
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" s="7" t="s">
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="8" t="s">
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-    </row>
-    <row r="100" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="D100" s="20">
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D107" s="20">
         <v>42760</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E107" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G100" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="D101" s="20">
+      <c r="G107" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D108" s="20">
         <v>42760</v>
       </c>
-      <c r="E101" s="20" t="s">
+      <c r="E108" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="G101" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="7" t="s">
+      <c r="G108" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="G109" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E110" t="s">
         <v>140</v>
       </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="9" t="s">
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="G103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="9" t="s">
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="G104">
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="G112">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="7" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E113" t="s">
         <v>135</v>
       </c>
-      <c r="G105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="7" t="s">
+      <c r="G113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E114" t="s">
         <v>140</v>
       </c>
-      <c r="G106">
+      <c r="G114">
         <v>3</v>
       </c>
-      <c r="H106" s="6">
+      <c r="H114" s="6">
         <v>42702</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="7" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G107">
+      <c r="G115">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="7" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="7" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="7" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="7" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="7" t="s">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" s="7" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="8" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-    </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" s="7" t="s">
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="7" t="s">
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="7" t="s">
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" s="8" t="s">
+      <c r="G125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="C127" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="D127" s="28">
+        <v>42775</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
         <v>308</v>
       </c>
-      <c r="D119" s="28">
+    </row>
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>318</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D129" s="28">
         <v>42775</v>
       </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" t="s">
-        <v>319</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D121" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="7" t="s">
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" s="7" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A125" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="17" t="s">
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A133" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-    </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
-      <c r="B129" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="G129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A130" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-    </row>
-    <row r="131" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A131" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-    </row>
-    <row r="132" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A132" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-    </row>
-    <row r="133" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A133" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B133" s="9"/>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
+        <v>298</v>
+      </c>
       <c r="G135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
+        <v>299</v>
+      </c>
       <c r="G136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>253</v>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="12"/>
+      <c r="B137" s="9" t="s">
+        <v>352</v>
       </c>
       <c r="G137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A138" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+    </row>
+    <row r="139" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A139" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
-      <c r="B140" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
-      <c r="B141" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+    </row>
+    <row r="140" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A140" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+    </row>
+    <row r="141" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A141" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="9"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>328</v>
+        <v>252</v>
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
-      <c r="G142" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>117</v>
-      </c>
+      <c r="B143" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
       <c r="G143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B144" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E144" t="s">
-        <v>140</v>
-      </c>
+      <c r="B144" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
       <c r="G144">
         <v>0</v>
-      </c>
-      <c r="H144" s="6">
-        <v>42702</v>
       </c>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4310,97 +4356,67 @@
         <v>1</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F146" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="H146" s="6"/>
-    </row>
-    <row r="147" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B147" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="G147" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B148" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="F148" t="s">
-        <v>140</v>
-      </c>
-      <c r="G148" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B149" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="F149" t="s">
-        <v>140</v>
-      </c>
-      <c r="G149" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="12"/>
+      <c r="B148" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
+      <c r="B149" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F150" t="s">
-        <v>140</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="G150" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B151" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="G151" s="12">
+      <c r="B151" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G151">
         <v>0</v>
       </c>
     </row>
@@ -4409,149 +4425,156 @@
         <v>1</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
+      </c>
+      <c r="E152" t="s">
+        <v>140</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H152" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B153" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G153" s="12">
-        <v>0</v>
-      </c>
-      <c r="H153" s="14">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="G154" s="12">
-        <v>1</v>
-      </c>
-      <c r="H154" s="14"/>
-    </row>
-    <row r="155" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153" s="6"/>
+    </row>
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F154" t="s">
+        <v>140</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B155" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G155" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H155" s="14"/>
-    </row>
-    <row r="156" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="G155" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B156" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
+      <c r="B156" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="F156" t="s">
+        <v>140</v>
+      </c>
       <c r="G156" s="12">
-        <v>2</v>
-      </c>
-      <c r="H156" s="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B157" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
+      <c r="B157" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="F157" t="s">
+        <v>140</v>
+      </c>
       <c r="G157" s="12">
-        <v>0</v>
-      </c>
-      <c r="H157" s="14"/>
-    </row>
-    <row r="158" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B158" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="H158" s="14"/>
-    </row>
-    <row r="159" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F158" t="s">
+        <v>140</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B159" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="12" t="s">
+      <c r="B159" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="G159" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G159" s="12">
-        <v>2</v>
-      </c>
-      <c r="H159" s="14"/>
-    </row>
-    <row r="160" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="G160" s="12">
-        <v>1</v>
-      </c>
-      <c r="H160" s="14"/>
-    </row>
-    <row r="161" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B161" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-      <c r="H161" s="14"/>
+      <c r="G161" s="12">
+        <v>0</v>
+      </c>
+      <c r="H161" s="14">
+        <v>42702</v>
+      </c>
     </row>
     <row r="162" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
+      <c r="B162" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="G162" s="12">
+        <v>1</v>
+      </c>
       <c r="H162" s="14"/>
     </row>
     <row r="163" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4559,137 +4582,150 @@
         <v>1</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
+      <c r="E163" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G163" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="H163" s="14"/>
     </row>
-    <row r="164" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B164" s="18" t="s">
+      <c r="B164" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="G164" s="12">
+        <v>2</v>
+      </c>
+      <c r="H164" s="14"/>
+    </row>
+    <row r="165" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="G165" s="12">
+        <v>0</v>
+      </c>
+      <c r="H165" s="14"/>
+    </row>
+    <row r="166" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="H166" s="14"/>
+    </row>
+    <row r="167" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G167" s="12">
+        <v>2</v>
+      </c>
+      <c r="H167" s="14"/>
+    </row>
+    <row r="168" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="G168" s="12">
+        <v>1</v>
+      </c>
+      <c r="H168" s="14"/>
+    </row>
+    <row r="169" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="H169" s="14"/>
+    </row>
+    <row r="170" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="H170" s="14"/>
+    </row>
+    <row r="171" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="H171" s="14"/>
+    </row>
+    <row r="172" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="3" t="s">
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H164" s="27"/>
-    </row>
-    <row r="165" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A165" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B165" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="H165" s="6"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G166">
-        <v>3</v>
-      </c>
-      <c r="H166" s="6"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G167">
-        <v>3</v>
-      </c>
-      <c r="H167" s="6"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G168">
-        <v>3</v>
-      </c>
-      <c r="H168" s="6"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G169">
-        <v>3</v>
-      </c>
-      <c r="H169" s="6"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170" s="6"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G171">
-        <v>2</v>
-      </c>
-      <c r="H171" s="6"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G172">
-        <v>3</v>
-      </c>
-      <c r="H172" s="6"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H172" s="27"/>
+    </row>
+    <row r="173" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A173" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G173">
-        <v>3</v>
+        <v>337</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>323</v>
       </c>
       <c r="H173" s="6"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -4697,147 +4733,153 @@
       <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="12"/>
+      <c r="A175" s="12" t="s">
+        <v>337</v>
+      </c>
       <c r="B175" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G175">
+        <v>3</v>
+      </c>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G176">
+        <v>3</v>
+      </c>
+      <c r="H176" s="6"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+      <c r="H177" s="6"/>
+    </row>
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178" s="6"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G179">
+        <v>2</v>
+      </c>
+      <c r="H179" s="6"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G180">
+        <v>3</v>
+      </c>
+      <c r="H180" s="6"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G181">
+        <v>3</v>
+      </c>
+      <c r="H181" s="6"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G182">
+        <v>3</v>
+      </c>
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="12"/>
+      <c r="B183" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H183" s="6"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="12"/>
+      <c r="B184" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="H175" s="6"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="12"/>
-      <c r="B176" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H176" s="6"/>
-    </row>
-    <row r="177" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B177" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="H177" s="6"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="15" t="s">
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B185" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="H185" s="6"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="H186" s="6"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B187" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="H178" s="6"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B179" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G179">
-        <v>2</v>
-      </c>
-      <c r="H179" s="6"/>
-    </row>
-    <row r="180" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C180" s="15"/>
-      <c r="D180" s="15"/>
-      <c r="H180" s="14"/>
-    </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B181" s="7" t="s">
+      <c r="G187">
+        <v>2</v>
+      </c>
+      <c r="H187" s="6"/>
+    </row>
+    <row r="188" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C188" s="15"/>
+      <c r="D188" s="15"/>
+      <c r="H188" s="14"/>
+    </row>
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B189" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="E181" t="s">
-        <v>135</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G183">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G184">
-        <v>2</v>
-      </c>
-      <c r="H184" s="6"/>
-    </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G185">
-        <v>0</v>
-      </c>
-      <c r="I185" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="12"/>
-      <c r="B186" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="E189" t="s">
         <v>135</v>
@@ -4845,532 +4887,627 @@
       <c r="G189">
         <v>0</v>
       </c>
-      <c r="H189" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I189" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C190" s="9"/>
-      <c r="D190" s="9"/>
+        <v>319</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="G190">
-        <v>0</v>
-      </c>
-      <c r="H190" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I190" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E191" t="s">
-        <v>135</v>
+        <v>333</v>
       </c>
       <c r="G191">
-        <v>0</v>
-      </c>
-      <c r="H191" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E192" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="G192">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H192" s="6"/>
     </row>
     <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E193" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G193">
         <v>0</v>
-      </c>
-      <c r="H193" s="6">
-        <v>42697</v>
       </c>
       <c r="I193" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="12" t="s">
+      <c r="A194" s="12"/>
+      <c r="B194" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B196" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E197" t="s">
+        <v>135</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197" s="6">
+        <v>42702</v>
+      </c>
+      <c r="I197" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C198" s="9"/>
+      <c r="D198" s="9"/>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198" s="6">
+        <v>42702</v>
+      </c>
+      <c r="I198" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E199" t="s">
+        <v>135</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E200" t="s">
+        <v>137</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E201" t="s">
+        <v>137</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201" s="6">
+        <v>42697</v>
+      </c>
+      <c r="I201" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B202" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G194">
-        <v>2</v>
-      </c>
-      <c r="H194" s="6"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="12"/>
-      <c r="B195" s="13" t="s">
+      <c r="G202">
+        <v>2</v>
+      </c>
+      <c r="H202" s="6"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="12"/>
+      <c r="B203" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="H195" s="6"/>
-    </row>
-    <row r="196" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B196" s="17" t="s">
+      <c r="H203" s="6"/>
+    </row>
+    <row r="204" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B204" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C196" s="17"/>
-      <c r="D196" s="17"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B197" s="8" t="s">
+      <c r="C204" s="17"/>
+      <c r="D204" s="17"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="G197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>318</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D198" s="28">
+      <c r="G205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>317</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D206" s="28">
         <v>42775</v>
       </c>
-      <c r="G198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B199" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G199">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
+      <c r="G206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>309</v>
+      </c>
+      <c r="C208" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C200" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D200" s="28">
+      <c r="D208" s="28">
         <v>42775</v>
       </c>
-      <c r="G200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H201" s="6"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B202" s="8" t="s">
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H209" s="6"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B210" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="H210" s="6"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B211" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H202" s="6"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B203" s="7" t="s">
+      <c r="G211">
+        <v>3</v>
+      </c>
+      <c r="H211" s="6"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B212" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G203">
+      <c r="G212">
         <v>3</v>
       </c>
-      <c r="H203" s="6"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B204" s="7" t="s">
+      <c r="H212" s="6"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B213" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G204">
+      <c r="G213">
         <v>3</v>
       </c>
-      <c r="H204" s="6"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B205" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G205">
+      <c r="H213" s="6"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H214" s="6"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B215" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C215" s="8"/>
+      <c r="D215" s="8"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E216" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E217" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218">
         <v>3</v>
       </c>
-      <c r="H205" s="6"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H206" s="6"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B207" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C207" s="8"/>
-      <c r="D207" s="8"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>1</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E208" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>2</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E209" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="B218" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E218" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>4</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>176</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E220" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B221" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E221" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B222" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E222" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B223" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E223" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B224" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E224" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B225" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E225" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B227" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E227" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B228" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B230" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B231" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B232" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E232" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B234" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E234" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B235" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E235" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B236" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C236" s="10"/>
+      <c r="D236" s="10"/>
+    </row>
+    <row r="237" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B237" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E237" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B238" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E238" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B239" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B240" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B243" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B244" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B245" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G245">
         <v>3</v>
       </c>
-      <c r="B210" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E210" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>4</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>176</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E212" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B213" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E213" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B214" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B215" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E215" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B216" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E216" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B217" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E217" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B218" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B219" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E219" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B220" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B221" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B222" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B223" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B224" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E224" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B226" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E226" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B227" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E227" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B228" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10"/>
-    </row>
-    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B229" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E229" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B230" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E230" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B231" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B232" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>1</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>2</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B235" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G235">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B236" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G236">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B237" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G237">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="7" t="s">
+    </row>
+    <row r="246" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="7" t="s">
+      <c r="G246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E240" s="20"/>
-    </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B241" s="7" t="s">
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E248" s="20"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B249" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E249" t="s">
         <v>221</v>
       </c>
-      <c r="G241">
-        <v>0</v>
-      </c>
-      <c r="H241" t="s">
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B242" s="7" t="s">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B250" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E250" t="s">
         <v>222</v>
       </c>
-      <c r="G242">
-        <v>0</v>
-      </c>
-      <c r="H242" t="s">
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B243" s="7" t="s">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B251" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E251" t="s">
         <v>223</v>
       </c>
-      <c r="G243">
-        <v>0</v>
-      </c>
-      <c r="H243" t="s">
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="244" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B244" s="7" t="s">
+    <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B252" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G244">
-        <v>0</v>
-      </c>
-      <c r="H244" t="s">
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B245" s="7" t="s">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B253" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G245">
-        <v>0</v>
-      </c>
-      <c r="H245" t="s">
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B246" s="7" t="s">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B254" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G246">
-        <v>0</v>
-      </c>
-      <c r="H246" t="s">
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B248" s="7" t="s">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B256" s="7" t="s">
         <v>220</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:I239">
+  <autoFilter ref="A7:I247">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="Bug"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6">
       <filters blank="1">
         <filter val="1"/>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$247</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$250</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="380">
   <si>
     <t>Reports</t>
   </si>
@@ -1308,6 +1308,15 @@
   </si>
   <si>
     <t xml:space="preserve">Enhancement  </t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Status Color displays grey immediately on first Save.</t>
+  </si>
+  <si>
+    <t>Devp / Staging / - flag under ICON flag</t>
   </si>
 </sst>
 </file>
@@ -2481,13 +2490,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I256"/>
+  <dimension ref="A1:I259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B182" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomRight" activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2693,7 +2702,7 @@
         <v>250</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -2832,7 +2841,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="20"/>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2894,7 +2903,7 @@
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="G30" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2920,7 +2929,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="G32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2933,6 +2942,9 @@
       <c r="F33" t="s">
         <v>322</v>
       </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
@@ -3062,6 +3074,9 @@
       <c r="F42" t="s">
         <v>322</v>
       </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
@@ -3073,6 +3088,9 @@
       <c r="F43" t="s">
         <v>322</v>
       </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
@@ -3136,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="9" t="s">
         <v>369</v>
@@ -3147,7 +3165,7 @@
         <v>322</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3187,7 +3205,7 @@
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="G52" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3274,7 +3292,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="G58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3287,7 +3305,7 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="G59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3516,7 +3534,7 @@
         <v>135</v>
       </c>
       <c r="G75" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H75" s="27"/>
     </row>
@@ -3531,7 +3549,7 @@
         <v>135</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H76" s="6"/>
     </row>
@@ -3548,7 +3566,7 @@
         <v>275</v>
       </c>
       <c r="G77" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77" s="14"/>
     </row>
@@ -3563,7 +3581,7 @@
         <v>140</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="6"/>
     </row>
@@ -3633,7 +3651,7 @@
       </c>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>2</v>
       </c>
@@ -3648,246 +3666,248 @@
         <v>322</v>
       </c>
       <c r="G83" s="12">
+        <v>0</v>
+      </c>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="12"/>
+      <c r="B84" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D84" s="28"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
+      <c r="B85" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D85" s="28"/>
+      <c r="F85" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G85" s="12">
         <v>1</v>
       </c>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="8" t="s">
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="G84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="7" t="s">
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="G86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="22" t="s">
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C88" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="D86" s="20">
+      <c r="D88" s="20">
         <v>42760</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="7" t="s">
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="7" t="s">
+      <c r="G89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="7" t="s">
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="12"/>
+      <c r="B91" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F91" t="s">
         <v>370</v>
       </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F90" t="s">
-        <v>322</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
       <c r="G91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="9" t="s">
+      <c r="A92" s="12"/>
+      <c r="B92" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F92" t="s">
+        <v>322</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="G93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="G92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="D93" s="20">
-        <v>42760</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="G94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D95" s="20">
+        <v>42760</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="G96" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="21" t="s">
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C98" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D98" s="20">
         <v>42760</v>
       </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
-      <c r="B98" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
+      <c r="G98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="8" t="s">
+    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="12"/>
+      <c r="B100" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="12"/>
+      <c r="B101" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-    </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="7" t="s">
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3895,167 +3915,161 @@
         <v>2</v>
       </c>
       <c r="B104" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="7" t="s">
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="8" t="s">
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-    </row>
-    <row r="107" spans="1:7" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="23" t="s">
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+    </row>
+    <row r="109" spans="1:7" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C109" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D107" s="20">
+      <c r="D109" s="20">
         <v>42760</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E109" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G107" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="24" t="s">
+      <c r="G109" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="C110" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D108" s="20">
+      <c r="D110" s="20">
         <v>42760</v>
       </c>
-      <c r="E108" s="20" t="s">
+      <c r="E110" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="G108" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="19" t="s">
+      <c r="G110" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="12" t="s">
+      <c r="C111" s="13"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G111" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="7" t="s">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E112" t="s">
         <v>140</v>
       </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="9" t="s">
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="G111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="G112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E113" t="s">
-        <v>135</v>
-      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
       <c r="G113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E114" t="s">
-        <v>140</v>
-      </c>
+      <c r="B114" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
       <c r="G114">
         <v>3</v>
       </c>
-      <c r="H114" s="6">
-        <v>42702</v>
-      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="E115" t="s">
+        <v>135</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4063,7 +4077,16 @@
         <v>2</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="E116" t="s">
+        <v>140</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116" s="6">
+        <v>42702</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4071,7 +4094,10 @@
         <v>2</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4079,7 +4105,7 @@
         <v>2</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4087,7 +4113,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4095,7 +4121,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4103,272 +4129,265 @@
         <v>2</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-    </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="7" t="s">
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+    </row>
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" s="7" t="s">
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="7" t="s">
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G125">
+      <c r="G127">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B126" s="8" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="12"/>
+      <c r="B128" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" t="s">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
         <v>306</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C130" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D127" s="28">
+      <c r="D130" s="28">
         <v>42775</v>
       </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" t="s">
-        <v>318</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D129" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>133</v>
+      <c r="G130">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>356</v>
+      <c r="B131" t="s">
+        <v>308</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B132" s="7" t="s">
-        <v>168</v>
+      <c r="B132" t="s">
+        <v>318</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D132" s="28">
+        <v>42775</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
+      <c r="B133" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
+      <c r="B134" s="7" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A136" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+    </row>
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B136" s="9" t="s">
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
-      <c r="B137" s="9" t="s">
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
+      <c r="B140" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="G137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A138" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-    </row>
-    <row r="139" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A139" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
-    </row>
-    <row r="140" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A140" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
+      <c r="G140">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A141" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B141" s="9"/>
+      <c r="B141" s="17" t="s">
+        <v>1</v>
+      </c>
       <c r="C141" s="17"/>
       <c r="D141" s="17"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-    </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+    </row>
+    <row r="143" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A143" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="G143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+    </row>
+    <row r="144" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A144" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="G144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="9"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B145" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
+      <c r="B145" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="7" t="s">
-        <v>241</v>
-      </c>
+      <c r="B146" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
       <c r="G146">
         <v>0</v>
       </c>
@@ -4377,149 +4396,138 @@
       <c r="A147" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>235</v>
-      </c>
+      <c r="B147" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
       <c r="G147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
-      <c r="B148" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="B149" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="G150" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="B150" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="12"/>
+      <c r="B151" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
       <c r="B152" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E152" t="s">
-        <v>140</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153" s="6"/>
+      <c r="B153" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="G153" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F154" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="H154" s="6"/>
-    </row>
-    <row r="155" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B155" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="G155" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E155" t="s">
+        <v>140</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B156" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="F156" t="s">
-        <v>140</v>
-      </c>
-      <c r="G156" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B157" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
+      <c r="B157" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="F157" t="s">
         <v>140</v>
       </c>
-      <c r="G157" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B158" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F158" t="s">
-        <v>140</v>
-      </c>
-      <c r="G158">
+      <c r="B158" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="G158" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4528,97 +4536,98 @@
         <v>1</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>123</v>
+        <v>256</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
+      <c r="F159" t="s">
+        <v>140</v>
+      </c>
       <c r="G159" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="F160" t="s">
+        <v>140</v>
+      </c>
+      <c r="G160" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B161" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G161" s="12">
-        <v>0</v>
-      </c>
-      <c r="H161" s="14">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F161" t="s">
+        <v>140</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="B162" s="13" t="s">
-        <v>348</v>
+        <v>123</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
       <c r="G162" s="12">
-        <v>1</v>
-      </c>
-      <c r="H162" s="14"/>
-    </row>
-    <row r="163" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G163" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H163" s="14"/>
-    </row>
-    <row r="164" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B164" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
+      <c r="B164" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="G164" s="12">
-        <v>2</v>
-      </c>
-      <c r="H164" s="14"/>
-    </row>
-    <row r="165" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H164" s="14">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="G165" s="12">
         <v>1</v>
-      </c>
-      <c r="B165" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="G165" s="12">
-        <v>0</v>
       </c>
       <c r="H165" s="14"/>
     </row>
@@ -4626,41 +4635,44 @@
       <c r="A166" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B166" s="19" t="s">
-        <v>328</v>
+      <c r="B166" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
+      <c r="E166" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="H166" s="14"/>
     </row>
     <row r="167" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B167" s="15" t="s">
-        <v>263</v>
+      <c r="B167" s="19" t="s">
+        <v>297</v>
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
-      <c r="E167" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="G167" s="12">
         <v>2</v>
       </c>
       <c r="H167" s="14"/>
     </row>
-    <row r="168" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="C168" s="15"/>
       <c r="D168" s="15"/>
       <c r="G168" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" s="14"/>
     </row>
@@ -4668,8 +4680,8 @@
       <c r="A169" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="15" t="s">
-        <v>329</v>
+      <c r="B169" s="19" t="s">
+        <v>328</v>
       </c>
       <c r="C169" s="15"/>
       <c r="D169" s="15"/>
@@ -4680,79 +4692,88 @@
         <v>1</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="C170" s="15"/>
       <c r="D170" s="15"/>
+      <c r="E170" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G170" s="12">
+        <v>2</v>
+      </c>
       <c r="H170" s="14"/>
     </row>
     <row r="171" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B171" s="15" t="s">
-        <v>273</v>
+      <c r="B171" s="19" t="s">
+        <v>331</v>
       </c>
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
+      <c r="G171" s="12">
+        <v>1</v>
+      </c>
       <c r="H171" s="14"/>
     </row>
-    <row r="172" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="18" t="s">
+      <c r="B172" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="H172" s="14"/>
+    </row>
+    <row r="173" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="H173" s="14"/>
+    </row>
+    <row r="174" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="H174" s="14"/>
+    </row>
+    <row r="175" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="3" t="s">
+      <c r="C175" s="18"/>
+      <c r="D175" s="18"/>
+      <c r="E175" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H172" s="27"/>
-    </row>
-    <row r="173" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A173" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B173" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="H173" s="6"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G174">
+      <c r="G175" s="3">
         <v>3</v>
       </c>
-      <c r="H174" s="6"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G175">
-        <v>3</v>
-      </c>
-      <c r="H175" s="6"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H175" s="27"/>
+    </row>
+    <row r="176" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A176" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="B176" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G176">
-        <v>3</v>
+      <c r="B176" s="17" t="s">
+        <v>323</v>
       </c>
       <c r="H176" s="6"/>
     </row>
@@ -4761,22 +4782,22 @@
         <v>337</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G177">
         <v>3</v>
       </c>
       <c r="H177" s="6"/>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>337</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H178" s="6"/>
     </row>
@@ -4785,10 +4806,10 @@
         <v>337</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="G179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H179" s="6"/>
     </row>
@@ -4797,22 +4818,22 @@
         <v>337</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G180">
         <v>3</v>
       </c>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>337</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H181" s="6"/>
     </row>
@@ -4821,125 +4842,126 @@
         <v>337</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G182">
+        <v>2</v>
+      </c>
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G183">
+        <v>3</v>
+      </c>
+      <c r="H183" s="6"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G184">
+        <v>3</v>
+      </c>
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G182">
+      <c r="G185">
         <v>3</v>
       </c>
-      <c r="H182" s="6"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="12"/>
-      <c r="B183" s="7" t="s">
+      <c r="H185" s="6"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="12"/>
+      <c r="B186" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="H183" s="6"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="12"/>
-      <c r="B184" s="7" t="s">
+      <c r="H186" s="6"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="12"/>
+      <c r="B187" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="H184" s="6"/>
-    </row>
-    <row r="185" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B185" s="17" t="s">
+      <c r="H187" s="6"/>
+    </row>
+    <row r="188" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B188" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="H185" s="6"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B186" s="15" t="s">
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="H186" s="6"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B187" s="7" t="s">
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G187">
-        <v>2</v>
-      </c>
-      <c r="H187" s="6"/>
-    </row>
-    <row r="188" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B188" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C188" s="15"/>
-      <c r="D188" s="15"/>
-      <c r="H188" s="14"/>
-    </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E189" t="s">
-        <v>135</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="G190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B191" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G191">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C191" s="15"/>
+      <c r="D191" s="15"/>
+      <c r="H191" s="14"/>
+    </row>
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
         <v>319</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>257</v>
+        <v>136</v>
+      </c>
+      <c r="E192" t="s">
+        <v>135</v>
       </c>
       <c r="G192">
-        <v>2</v>
-      </c>
-      <c r="H192" s="6"/>
-    </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>319</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
       <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="I193" t="s">
-        <v>146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="12"/>
+      <c r="A194" s="12" t="s">
+        <v>319</v>
+      </c>
       <c r="B194" s="7" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -4947,60 +4969,45 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>301</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G195">
+        <v>2</v>
+      </c>
+      <c r="H195" s="6"/>
     </row>
     <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>302</v>
+        <v>122</v>
       </c>
       <c r="G196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="12" t="s">
-        <v>301</v>
-      </c>
+      <c r="I196" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="12"/>
       <c r="B197" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E197" t="s">
-        <v>135</v>
+        <v>350</v>
       </c>
       <c r="G197">
-        <v>0</v>
-      </c>
-      <c r="H197" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I197" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B198" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C198" s="9"/>
-      <c r="D198" s="9"/>
-      <c r="G198">
-        <v>0</v>
-      </c>
-      <c r="H198" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I198" t="s">
-        <v>146</v>
+      <c r="B198" s="8" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -5008,16 +5015,10 @@
         <v>301</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E199" t="s">
-        <v>135</v>
+        <v>302</v>
       </c>
       <c r="G199">
         <v>0</v>
-      </c>
-      <c r="H199" s="6">
-        <v>42702</v>
       </c>
     </row>
     <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -5025,447 +5026,464 @@
         <v>301</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E200" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G200">
         <v>0</v>
+      </c>
+      <c r="H200" s="6">
+        <v>42702</v>
+      </c>
+      <c r="I200" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B201" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E201" t="s">
-        <v>137</v>
-      </c>
+      <c r="B201" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C201" s="9"/>
+      <c r="D201" s="9"/>
       <c r="G201">
         <v>0</v>
       </c>
       <c r="H201" s="6">
-        <v>42697</v>
+        <v>42702</v>
       </c>
       <c r="I201" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
         <v>301</v>
       </c>
       <c r="B202" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E202" t="s">
+        <v>135</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E203" t="s">
+        <v>137</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E204" t="s">
+        <v>137</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204" s="6">
+        <v>42697</v>
+      </c>
+      <c r="I204" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B205" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G202">
-        <v>2</v>
-      </c>
-      <c r="H202" s="6"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="12"/>
-      <c r="B203" s="13" t="s">
+      <c r="G205">
+        <v>2</v>
+      </c>
+      <c r="H205" s="6"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="12"/>
+      <c r="B206" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="H203" s="6"/>
-    </row>
-    <row r="204" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B204" s="17" t="s">
+      <c r="H206" s="6"/>
+    </row>
+    <row r="207" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B207" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C204" s="17"/>
-      <c r="D204" s="17"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B205" s="8" t="s">
+      <c r="C207" s="17"/>
+      <c r="D207" s="17"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B208" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="G205">
+      <c r="G208">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
         <v>317</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C209" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D206" s="28">
+      <c r="D209" s="28">
         <v>42775</v>
       </c>
-      <c r="G206">
+      <c r="G209">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B207" s="7" t="s">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B210" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="G207">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
+      <c r="G210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
         <v>309</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C211" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D208" s="28">
+      <c r="D211" s="28">
         <v>42775</v>
       </c>
-      <c r="G208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H209" s="6"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B210" s="8" t="s">
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H212" s="6"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B213" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="H210" s="6"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B211" s="7" t="s">
+      <c r="H213" s="6"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B214" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G211">
+      <c r="G214">
         <v>3</v>
       </c>
-      <c r="H211" s="6"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B212" s="7" t="s">
+      <c r="H214" s="6"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B215" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G212">
+      <c r="G215">
         <v>3</v>
       </c>
-      <c r="H212" s="6"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B213" s="7" t="s">
+      <c r="H215" s="6"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B216" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G213">
+      <c r="G216">
         <v>3</v>
       </c>
-      <c r="H213" s="6"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H214" s="6"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B215" s="8" t="s">
+      <c r="H216" s="6"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H217" s="6"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B218" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C215" s="8"/>
-      <c r="D215" s="8"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>1</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E216" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>2</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E217" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>3</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E218" t="s">
-        <v>212</v>
-      </c>
+      <c r="C218" s="8"/>
+      <c r="D218" s="8"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E219" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E220" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>3</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E221" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222">
         <v>4</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B222" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>176</v>
       </c>
-      <c r="B220" s="7" t="s">
+      <c r="B223" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="E220" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B221" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E221" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B222" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E222" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B223" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="E223" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B224" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E224" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B225" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E225" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E226" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B227" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E227" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="225" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B225" s="7" t="s">
+    <row r="228" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B228" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E228" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B226" s="10" t="s">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C226" s="10"/>
-      <c r="D226" s="10"/>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B227" s="7" t="s">
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B230" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E230" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B228" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B229" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="230" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B230" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B233" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B234" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="232" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B232" s="7" t="s">
+    <row r="235" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B235" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E235" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="233" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="7" t="s">
+    <row r="236" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="234" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B234" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E234" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B235" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E235" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B236" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C236" s="10"/>
-      <c r="D236" s="10"/>
     </row>
     <row r="237" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B237" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E237" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B238" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E238" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B239" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
+    </row>
+    <row r="240" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B240" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E240" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="238" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B238" s="7" t="s">
+    <row r="241" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B241" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E241" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="239" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B239" s="7" t="s">
+    <row r="242" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B242" s="7" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B240" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>1</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>2</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B243" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>2</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B246" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G243">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B244" s="7" t="s">
+      <c r="G246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B247" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G244">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B245" s="7" t="s">
+      <c r="G247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B248" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G245">
+      <c r="G248">
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="7" t="s">
+    <row r="249" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="7" t="s">
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E248" s="20"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B249" s="7" t="s">
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E251" s="20"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B252" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E252" t="s">
         <v>221</v>
-      </c>
-      <c r="G249">
-        <v>0</v>
-      </c>
-      <c r="H249" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B250" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E250" t="s">
-        <v>222</v>
-      </c>
-      <c r="G250">
-        <v>0</v>
-      </c>
-      <c r="H250" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B251" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E251" t="s">
-        <v>223</v>
-      </c>
-      <c r="G251">
-        <v>0</v>
-      </c>
-      <c r="H251" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B252" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -5476,7 +5494,10 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B253" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="E253" t="s">
+        <v>222</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -5487,7 +5508,10 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B254" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="E254" t="s">
+        <v>223</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -5496,15 +5520,48 @@
         <v>146</v>
       </c>
     </row>
+    <row r="255" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B255" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255" t="s">
+        <v>146</v>
+      </c>
+    </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B256" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B257" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B259" s="7" t="s">
         <v>220</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:I247">
+  <autoFilter ref="A7:I250">
     <filterColumn colId="5">
-      <filters blank="1">
+      <filters>
         <filter val="Bug"/>
       </filters>
     </filterColumn>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$261</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="387">
   <si>
     <t>Reports</t>
   </si>
@@ -1317,6 +1317,27 @@
   </si>
   <si>
     <t>Devp / Staging / - flag under ICON flag</t>
+  </si>
+  <si>
+    <t>Did not work as a windows Service, decided to use console app.</t>
+  </si>
+  <si>
+    <t>Console App</t>
+  </si>
+  <si>
+    <t>Server Disk free disk space</t>
+  </si>
+  <si>
+    <t>Mongo service - running status</t>
+  </si>
+  <si>
+    <t>Mongo Service - stop / start</t>
+  </si>
+  <si>
+    <t>Indexes</t>
+  </si>
+  <si>
+    <t>Clarity Logo</t>
   </si>
 </sst>
 </file>
@@ -2487,16 +2508,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I259"/>
+  <dimension ref="A1:I263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B182" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B190" sqref="B190"/>
+      <selection pane="bottomRight" activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,7 +2602,7 @@
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -2607,7 +2628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>2</v>
       </c>
@@ -2637,7 +2658,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>2</v>
       </c>
@@ -2651,7 +2672,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
@@ -2671,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>2</v>
       </c>
@@ -2705,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>2</v>
       </c>
@@ -2718,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>2</v>
       </c>
@@ -2734,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -2748,7 +2769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
@@ -2764,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>2</v>
       </c>
@@ -2778,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
@@ -2795,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>2</v>
       </c>
@@ -2813,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -2854,7 +2875,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -2867,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>2</v>
       </c>
@@ -2969,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>2</v>
       </c>
@@ -2982,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>2</v>
       </c>
@@ -2995,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>2</v>
       </c>
@@ -3008,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>2</v>
       </c>
@@ -3021,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>2</v>
       </c>
@@ -3041,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>2</v>
       </c>
@@ -3102,7 +3123,7 @@
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>2</v>
       </c>
@@ -3115,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>2</v>
       </c>
@@ -3128,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>2</v>
       </c>
@@ -3141,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>2</v>
       </c>
@@ -3154,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="9" t="s">
         <v>369</v>
@@ -3168,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="9" t="s">
         <v>375</v>
@@ -3208,7 +3229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>2</v>
       </c>
@@ -3219,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>2</v>
       </c>
@@ -3239,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>2</v>
       </c>
@@ -3269,7 +3290,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>2</v>
       </c>
@@ -3308,7 +3329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>2</v>
       </c>
@@ -3321,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>2</v>
       </c>
@@ -3334,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>2</v>
       </c>
@@ -3347,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
         <v>296</v>
       </c>
@@ -3357,7 +3378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>2</v>
       </c>
@@ -3375,7 +3396,7 @@
       </c>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>2</v>
       </c>
@@ -3392,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>2</v>
       </c>
@@ -3425,7 +3446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>2</v>
       </c>
@@ -3439,7 +3460,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>2</v>
       </c>
@@ -3455,7 +3476,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>2</v>
       </c>
@@ -3471,7 +3492,7 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>2</v>
       </c>
@@ -3485,7 +3506,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>2</v>
       </c>
@@ -3497,7 +3518,7 @@
       </c>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>2</v>
       </c>
@@ -3509,7 +3530,7 @@
       </c>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>2</v>
       </c>
@@ -3585,7 +3606,7 @@
       </c>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>2</v>
       </c>
@@ -3597,7 +3618,7 @@
       </c>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>2</v>
       </c>
@@ -3615,7 +3636,7 @@
       </c>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>2</v>
       </c>
@@ -3633,7 +3654,7 @@
       </c>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>2</v>
       </c>
@@ -3651,7 +3672,7 @@
       </c>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>2</v>
       </c>
@@ -3707,7 +3728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>2</v>
       </c>
@@ -3718,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>2</v>
       </c>
@@ -3746,7 +3767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>2</v>
       </c>
@@ -3757,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="7" t="s">
         <v>367</v>
@@ -3769,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="7" t="s">
         <v>368</v>
@@ -3794,7 +3815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>2</v>
       </c>
@@ -3807,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>2</v>
       </c>
@@ -3837,7 +3858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>2</v>
       </c>
@@ -3848,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>2</v>
       </c>
@@ -3899,7 +3920,7 @@
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>2</v>
       </c>
@@ -3910,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>2</v>
       </c>
@@ -3932,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>2</v>
       </c>
@@ -3943,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>2</v>
       </c>
@@ -3964,7 +3985,7 @@
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="1:7" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>2</v>
       </c>
@@ -3984,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>2</v>
       </c>
@@ -4004,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="19" t="s">
         <v>373</v>
       </c>
@@ -4018,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>2</v>
       </c>
@@ -4032,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>2</v>
       </c>
@@ -4158,7 +4179,7 @@
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>2</v>
       </c>
@@ -4169,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>2</v>
       </c>
@@ -4205,7 +4226,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>2</v>
       </c>
@@ -4233,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>2</v>
       </c>
@@ -4269,7 +4290,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>2</v>
       </c>
@@ -4300,7 +4321,7 @@
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>2</v>
       </c>
@@ -4311,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>2</v>
       </c>
@@ -4379,7 +4400,7 @@
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>1</v>
       </c>
@@ -4392,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>1</v>
       </c>
@@ -4405,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>1</v>
       </c>
@@ -4416,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
         <v>1</v>
       </c>
@@ -4427,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>1</v>
       </c>
@@ -4463,7 +4484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>1</v>
       </c>
@@ -4474,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>1</v>
       </c>
@@ -4491,7 +4512,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>1</v>
       </c>
@@ -4503,7 +4524,7 @@
       </c>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>1</v>
       </c>
@@ -4518,7 +4539,7 @@
       </c>
       <c r="H157" s="6"/>
     </row>
-    <row r="158" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>1</v>
       </c>
@@ -4531,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>1</v>
       </c>
@@ -4547,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>1</v>
       </c>
@@ -4563,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
         <v>1</v>
       </c>
@@ -4577,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>1</v>
       </c>
@@ -4590,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>1</v>
       </c>
@@ -4601,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>1</v>
       </c>
@@ -4662,7 +4683,7 @@
       </c>
       <c r="H167" s="14"/>
     </row>
-    <row r="168" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>1</v>
       </c>
@@ -4825,7 +4846,7 @@
       </c>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>337</v>
       </c>
@@ -4894,218 +4915,178 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="12"/>
-      <c r="B187" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="H187" s="6"/>
     </row>
-    <row r="188" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B188" s="17" t="s">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="12"/>
+      <c r="B188" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="12"/>
+      <c r="B189" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="12"/>
+      <c r="B190" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B191" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="H188" s="6"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B189" s="15" t="s">
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B192" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="H189" s="6"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B190" s="7" t="s">
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B193" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G190">
-        <v>2</v>
-      </c>
-      <c r="H190" s="6"/>
-    </row>
-    <row r="191" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B191" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C191" s="15"/>
-      <c r="D191" s="15"/>
-      <c r="H191" s="14"/>
-    </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E192" t="s">
-        <v>135</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="G193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B194" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G194">
-        <v>2</v>
-      </c>
+      <c r="B194" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="H194" s="14"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
         <v>319</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>257</v>
+        <v>136</v>
+      </c>
+      <c r="E195" t="s">
+        <v>135</v>
       </c>
       <c r="G195">
-        <v>2</v>
-      </c>
-      <c r="H195" s="6"/>
-    </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
         <v>319</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I196" t="s">
-        <v>146</v>
+        <v>380</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
       <c r="B197" s="7" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="G197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="G199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H199" s="6"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E200" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G200">
         <v>0</v>
-      </c>
-      <c r="H200" s="6">
-        <v>42702</v>
       </c>
       <c r="I200" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C201" s="9"/>
-      <c r="D201" s="9"/>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="12"/>
+      <c r="B201" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="G201">
-        <v>0</v>
-      </c>
-      <c r="H201" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I201" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B202" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E202" t="s">
-        <v>135</v>
-      </c>
-      <c r="G202">
-        <v>0</v>
-      </c>
-      <c r="H202" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
         <v>301</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E203" t="s">
-        <v>137</v>
+        <v>302</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
         <v>301</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E204" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G204">
         <v>0</v>
       </c>
       <c r="H204" s="6">
-        <v>42697</v>
+        <v>42702</v>
       </c>
       <c r="I204" t="s">
         <v>146</v>
@@ -5115,425 +5096,460 @@
       <c r="A205" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C205" s="9"/>
+      <c r="D205" s="9"/>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205" s="6">
+        <v>42702</v>
+      </c>
+      <c r="I205" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E206" t="s">
+        <v>135</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E207" t="s">
+        <v>137</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E208" t="s">
+        <v>137</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208" s="6">
+        <v>42697</v>
+      </c>
+      <c r="I208" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B209" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G205">
-        <v>2</v>
-      </c>
-      <c r="H205" s="6"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="12"/>
-      <c r="B206" s="13" t="s">
+      <c r="G209">
+        <v>2</v>
+      </c>
+      <c r="H209" s="6"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="12"/>
+      <c r="B210" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="H206" s="6"/>
-    </row>
-    <row r="207" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B207" s="17" t="s">
+      <c r="G210">
+        <v>9</v>
+      </c>
+      <c r="H210" s="6"/>
+    </row>
+    <row r="211" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B211" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C207" s="17"/>
-      <c r="D207" s="17"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B208" s="8" t="s">
+      <c r="C211" s="17"/>
+      <c r="D211" s="17"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B212" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="G208">
+      <c r="G212">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
         <v>317</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C213" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D209" s="28">
+      <c r="D213" s="28">
         <v>42775</v>
       </c>
-      <c r="G209">
+      <c r="G213">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B210" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G210">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>309</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D211" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H212" s="6"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B213" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="H213" s="6"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B214" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="G214">
-        <v>3</v>
-      </c>
-      <c r="H214" s="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B215" s="7" t="s">
-        <v>362</v>
+      <c r="B215" t="s">
+        <v>309</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D215" s="28">
+        <v>42775</v>
       </c>
       <c r="G215">
-        <v>3</v>
-      </c>
-      <c r="H215" s="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B216" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216" s="6"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B217" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="H217" s="6"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B218" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G218">
+        <v>3</v>
+      </c>
+      <c r="H218" s="6"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B219" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G219">
+        <v>3</v>
+      </c>
+      <c r="H219" s="6"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B220" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G216">
+      <c r="G220">
         <v>3</v>
       </c>
-      <c r="H216" s="6"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H217" s="6"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B218" s="8" t="s">
+      <c r="H220" s="6"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B221" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H221" s="6"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B222" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B223" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C218" s="8"/>
-      <c r="D218" s="8"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>1</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B224" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E224" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>2</v>
-      </c>
-      <c r="B220" s="7" t="s">
+    <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E225" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
         <v>3</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B226" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E226" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
         <v>4</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B227" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>176</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B228" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E228" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B224" s="7" t="s">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B229" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B225" s="7" t="s">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B230" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E230" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B226" s="7" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B231" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E231" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="227" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B227" s="7" t="s">
+    <row r="232" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B232" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E232" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="228" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B228" s="7" t="s">
+    <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B233" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E233" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B229" s="10" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B234" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10"/>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B230" s="7" t="s">
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B235" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E235" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B231" s="7" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B236" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B232" s="7" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B237" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="233" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B233" s="7" t="s">
+    <row r="238" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B238" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B234" s="7" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B239" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="235" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B235" s="7" t="s">
+    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B240" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E240" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="236" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="7" t="s">
+    <row r="241" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="237" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B237" s="7" t="s">
+    <row r="242" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B242" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E242" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B238" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E238" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B239" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10"/>
-    </row>
-    <row r="240" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B240" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E240" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B241" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E241" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B242" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B243" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>1</v>
-      </c>
-      <c r="B244" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>2</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E243" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B244" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C244" s="10"/>
+      <c r="D244" s="10"/>
+    </row>
+    <row r="245" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B245" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E245" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B246" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G246">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E246" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B247" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G247">
-        <v>2</v>
+        <v>188</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B248" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G248">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1</v>
+      </c>
       <c r="B249" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2</v>
+      </c>
       <c r="B250" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G250">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E251" s="20"/>
+      <c r="B251" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G251">
+        <v>2</v>
+      </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B252" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E252" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="G252">
-        <v>0</v>
-      </c>
-      <c r="H252" t="s">
-        <v>146</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B253" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E253" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="G253">
-        <v>0</v>
-      </c>
-      <c r="H253" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B254" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E254" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="G254">
         <v>0</v>
       </c>
-      <c r="H254" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B255" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G255">
         <v>0</v>
-      </c>
-      <c r="H255" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B256" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
+      </c>
+      <c r="E256" t="s">
+        <v>221</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -5544,7 +5560,10 @@
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
+      </c>
+      <c r="E257" t="s">
+        <v>222</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -5553,26 +5572,60 @@
         <v>146</v>
       </c>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B258" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E258" t="s">
+        <v>223</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B259" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B260" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B261" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B263" s="7" t="s">
         <v>220</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:I250">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Bug"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="1"/>
-        <filter val="2"/>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:I261"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="420" windowWidth="20130" windowHeight="11760" tabRatio="375" activeTab="3"/>
+    <workbookView xWindow="135" yWindow="-45" windowWidth="15780" windowHeight="7830" tabRatio="375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$266</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="391">
   <si>
     <t>Reports</t>
   </si>
@@ -368,9 +368,6 @@
   </si>
   <si>
     <t>Role access, admin, user</t>
-  </si>
-  <si>
-    <t>Country specific rules</t>
   </si>
   <si>
     <t>User Creation</t>
@@ -1338,6 +1335,21 @@
   </si>
   <si>
     <t>Clarity Logo</t>
+  </si>
+  <si>
+    <t>Sponsor specific site rules</t>
+  </si>
+  <si>
+    <t>Country specificsite  rules</t>
+  </si>
+  <si>
+    <t>Site Configuration</t>
+  </si>
+  <si>
+    <t>Site List, Add, Edit, Delete, ExcludeSI</t>
+  </si>
+  <si>
+    <t>Country Specific sites</t>
   </si>
 </sst>
 </file>
@@ -2508,23 +2520,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I263"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B175" sqref="B175"/>
+      <selection pane="bottomRight" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="64.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -2566,30 +2578,30 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
       <c r="H6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" t="s">
         <v>145</v>
-      </c>
-      <c r="I6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2597,17 +2609,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -2615,12 +2627,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -2628,21 +2640,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D11" s="20">
         <v>42760</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G11" s="12">
         <v>0</v>
@@ -2653,60 +2665,60 @@
         <v>2</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D14" s="20">
         <v>42760</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D15" s="20">
         <v>42760</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2715,23 +2727,23 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2739,28 +2751,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G18" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2769,45 +2781,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D22" s="20">
         <v>42760</v>
@@ -2816,15 +2828,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D23" s="20">
         <v>42760</v>
@@ -2834,30 +2846,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D24" s="20">
         <v>42760</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="20"/>
@@ -2870,17 +2882,17 @@
         <v>2</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -2888,12 +2900,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -2901,12 +2913,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -2914,17 +2926,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="G30" s="12">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2932,39 +2944,39 @@
         <v>2</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="G31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="G32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="F33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2972,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -2982,20 +2994,20 @@
         <v>2</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="G35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -3003,12 +3015,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -3016,12 +3028,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -3029,12 +3041,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -3042,44 +3054,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D40" s="20">
         <v>42760</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G40" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D41" s="20">
         <v>42760</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3088,12 +3100,12 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="20"/>
       <c r="F42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -3102,15 +3114,15 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="20"/>
       <c r="F43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3118,17 +3130,17 @@
         <v>2</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -3136,12 +3148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -3149,12 +3161,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -3162,12 +3174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -3175,32 +3187,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="F49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="F50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3208,7 +3220,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -3216,65 +3228,65 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="G52" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D54" s="20">
         <v>42760</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G54" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D55" s="20">
         <v>42760</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G55" s="12">
         <v>0</v>
@@ -3285,17 +3297,17 @@
         <v>2</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -3303,38 +3315,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="G58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="G59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -3342,12 +3354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -3355,12 +3367,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -3368,9 +3380,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -3378,15 +3390,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D64" s="28">
         <v>42775</v>
@@ -3396,15 +3408,15 @@
       </c>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D65" s="28">
         <v>42775</v>
@@ -3413,15 +3425,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D66" s="28">
         <v>42775</v>
@@ -3435,23 +3447,23 @@
         <v>2</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" t="s">
         <v>41</v>
       </c>
-      <c r="G67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3460,12 +3472,12 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -3476,12 +3488,12 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -3492,12 +3504,12 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3506,127 +3518,127 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="18" t="s">
         <v>231</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>232</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
       <c r="E75" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G75" s="3">
         <v>3</v>
       </c>
       <c r="H75" s="27"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G76">
         <v>3</v>
       </c>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G77" s="12">
         <v>3</v>
       </c>
       <c r="H77" s="14"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G79" s="12">
         <v>0</v>
       </c>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D80" s="28">
         <v>42775</v>
@@ -3636,15 +3648,15 @@
       </c>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D81" s="28">
         <v>42775</v>
@@ -3654,15 +3666,15 @@
       </c>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D82" s="28">
         <v>42775</v>
@@ -3672,19 +3684,19 @@
       </c>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G83" s="12">
         <v>0</v>
@@ -3694,7 +3706,7 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
       <c r="B84" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D84" s="28"/>
       <c r="F84" s="7"/>
@@ -3704,11 +3716,11 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D85" s="28"/>
       <c r="F85" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G85" s="12">
         <v>1</v>
@@ -3720,7 +3732,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -3728,26 +3740,26 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D88" s="20">
         <v>42760</v>
@@ -3756,47 +3768,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G89">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F91" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F92" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3807,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -3815,12 +3827,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -3828,15 +3840,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D95" s="20">
         <v>42760</v>
@@ -3850,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -3858,26 +3870,26 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D98" s="20">
         <v>42760</v>
@@ -3889,7 +3901,7 @@
     <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
@@ -3897,7 +3909,7 @@
     <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
@@ -3905,7 +3917,7 @@
     <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
@@ -3915,61 +3927,61 @@
         <v>2</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3985,80 +3997,80 @@
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D109" s="20">
         <v>42760</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G109" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D110" s="20">
         <v>42760</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G110" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
       <c r="F111" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G111" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E112" t="s">
         <v>139</v>
       </c>
-      <c r="E112" t="s">
-        <v>140</v>
-      </c>
       <c r="G112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -4066,12 +4078,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -4084,49 +4096,50 @@
         <v>2</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>116</v>
+        <v>387</v>
       </c>
       <c r="E115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="A116" s="12"/>
       <c r="B116" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117" t="s">
+        <v>139</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
+      <c r="H117" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E116" t="s">
-        <v>140</v>
-      </c>
-      <c r="G116">
-        <v>3</v>
-      </c>
-      <c r="H116" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>124</v>
+      <c r="G118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4134,7 +4147,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4142,7 +4155,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4150,7 +4163,7 @@
         <v>2</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4158,7 +4171,7 @@
         <v>2</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4166,128 +4179,128 @@
         <v>2</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
+      <c r="B124" s="7" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="G127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B128" s="7" t="s">
-        <v>379</v>
+        <v>259</v>
+      </c>
+      <c r="G128">
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>305</v>
+      <c r="A129" s="12"/>
+      <c r="B129" s="7" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>305</v>
+      </c>
+      <c r="C131" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="D131" s="28">
+        <v>42775</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
         <v>307</v>
       </c>
-      <c r="D130" s="28">
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>317</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D133" s="28">
         <v>42775</v>
       </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" t="s">
-        <v>308</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" t="s">
-        <v>318</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D132" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G134">
         <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4295,431 +4308,404 @@
         <v>2</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B136" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A137" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
+      <c r="D137" s="17"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D138" s="8"/>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
-      <c r="B140" s="9" t="s">
-        <v>352</v>
-      </c>
       <c r="G140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A141" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="12"/>
+      <c r="B141" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C142" s="17"/>
+      <c r="B142" s="17" t="s">
+        <v>1</v>
+      </c>
       <c r="D142" s="17"/>
     </row>
-    <row r="143" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B143" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-    </row>
-    <row r="144" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B143" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B144" s="9"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
+      <c r="B144" s="9" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
+        <v>388</v>
+      </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="12"/>
+      <c r="B146" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D146" s="28">
+        <v>42809</v>
+      </c>
+      <c r="G146">
         <v>1</v>
       </c>
-      <c r="B146" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="G146">
-        <v>0</v>
-      </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
+      <c r="A147" s="12"/>
+      <c r="B147" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D147" s="28">
+        <v>42809</v>
+      </c>
+      <c r="G147">
         <v>1</v>
       </c>
-      <c r="B147" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="G147">
-        <v>0</v>
-      </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="12"/>
+      <c r="B148" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D148" s="28">
+        <v>42809</v>
+      </c>
+      <c r="G148">
         <v>1</v>
       </c>
-      <c r="B148" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
+      <c r="A149" s="12"/>
+      <c r="B149" s="9"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
-      <c r="B151" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
-      <c r="B152" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C150" s="8"/>
+    </row>
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="G153" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E155" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="H155" s="6">
-        <v>42702</v>
-      </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156" s="6"/>
+      <c r="A156" s="12"/>
+      <c r="B156" s="10" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="A157" s="12"/>
       <c r="B157" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F157" t="s">
-        <v>140</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157" s="6"/>
-    </row>
-    <row r="158" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B158" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="G158" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="G158" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B159" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="F159" t="s">
-        <v>140</v>
-      </c>
-      <c r="G159" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B160" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="F160" t="s">
-        <v>140</v>
-      </c>
-      <c r="G160" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E160" t="s">
+        <v>139</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F161" t="s">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H161" s="6"/>
+    </row>
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B162" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="G162" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F162" t="s">
+        <v>139</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162" s="6"/>
+    </row>
+    <row r="163" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="G163" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
-      <c r="E164" s="12" t="s">
-        <v>135</v>
+      <c r="F164" t="s">
+        <v>139</v>
       </c>
       <c r="G164" s="12">
-        <v>0</v>
-      </c>
-      <c r="H164" s="14">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="B165" s="13" t="s">
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
+      <c r="F165" t="s">
+        <v>139</v>
+      </c>
       <c r="G165" s="12">
-        <v>1</v>
-      </c>
-      <c r="H165" s="14"/>
-    </row>
-    <row r="166" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B166" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G166" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H166" s="14"/>
-    </row>
-    <row r="167" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F166" t="s">
+        <v>139</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B167" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
+      <c r="B167" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
       <c r="G167" s="12">
-        <v>2</v>
-      </c>
-      <c r="H167" s="14"/>
-    </row>
-    <row r="168" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B168" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="C168" s="15"/>
-      <c r="D168" s="15"/>
-      <c r="G168" s="12">
-        <v>0</v>
-      </c>
-      <c r="H168" s="14"/>
-    </row>
-    <row r="169" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
-      <c r="H169" s="14"/>
-    </row>
-    <row r="170" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B170" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="12" t="s">
-        <v>135</v>
-      </c>
+      <c r="B169" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G169" s="12">
+        <v>0</v>
+      </c>
+      <c r="H169" s="14">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
       <c r="G170" s="12">
         <v>2</v>
       </c>
@@ -4729,903 +4715,982 @@
       <c r="A171" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B171" s="19" t="s">
-        <v>331</v>
+      <c r="B171" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
-      <c r="G171" s="12">
-        <v>1</v>
+      <c r="E171" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G171" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="H171" s="14"/>
     </row>
-    <row r="172" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="15" t="s">
-        <v>329</v>
+      <c r="B172" s="19" t="s">
+        <v>296</v>
       </c>
       <c r="C172" s="15"/>
       <c r="D172" s="15"/>
+      <c r="G172" s="12">
+        <v>2</v>
+      </c>
       <c r="H172" s="14"/>
     </row>
-    <row r="173" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B173" s="15" t="s">
-        <v>330</v>
+      <c r="B173" s="19" t="s">
+        <v>348</v>
       </c>
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
+      <c r="G173" s="12">
+        <v>0</v>
+      </c>
       <c r="H173" s="14"/>
     </row>
     <row r="174" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B174" s="15" t="s">
-        <v>273</v>
+      <c r="B174" s="19" t="s">
+        <v>327</v>
       </c>
       <c r="C174" s="15"/>
       <c r="D174" s="15"/>
       <c r="H174" s="14"/>
     </row>
-    <row r="175" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B175" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G175" s="3">
+      <c r="B175" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G175" s="12">
+        <v>2</v>
+      </c>
+      <c r="H175" s="14"/>
+    </row>
+    <row r="176" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="G176" s="12">
+        <v>2</v>
+      </c>
+      <c r="H176" s="14"/>
+    </row>
+    <row r="177" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="H177" s="14"/>
+    </row>
+    <row r="178" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="H178" s="14"/>
+    </row>
+    <row r="179" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="H179" s="14"/>
+    </row>
+    <row r="180" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G180" s="3">
         <v>3</v>
       </c>
-      <c r="H175" s="27"/>
-    </row>
-    <row r="176" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A176" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B176" s="17" t="s">
+      <c r="H180" s="27"/>
+    </row>
+    <row r="181" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A181" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B181" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="H181" s="6"/>
+    </row>
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B182" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H176" s="6"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B177" s="7" t="s">
+      <c r="G182">
+        <v>3</v>
+      </c>
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B183" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="G177">
-        <v>3</v>
-      </c>
-      <c r="H177" s="6"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G178">
-        <v>3</v>
-      </c>
-      <c r="H178" s="6"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G179">
-        <v>3</v>
-      </c>
-      <c r="H179" s="6"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G180">
-        <v>3</v>
-      </c>
-      <c r="H180" s="6"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
-      </c>
-      <c r="H181" s="6"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G182">
-        <v>2</v>
-      </c>
-      <c r="H182" s="6"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="G183">
         <v>3</v>
       </c>
       <c r="H183" s="6"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G184">
         <v>3</v>
       </c>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G185">
         <v>3</v>
       </c>
       <c r="H185" s="6"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="12"/>
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="12" t="s">
+        <v>336</v>
+      </c>
       <c r="B186" s="7" t="s">
-        <v>358</v>
+        <v>338</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
       </c>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="12"/>
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G187">
+        <v>2</v>
+      </c>
       <c r="H187" s="6"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="12"/>
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="12" t="s">
+        <v>336</v>
+      </c>
       <c r="B188" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G188">
+        <v>3</v>
+      </c>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G189">
+        <v>3</v>
+      </c>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G190">
+        <v>3</v>
+      </c>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="12"/>
+      <c r="B191" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="12"/>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="12"/>
+      <c r="B193" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="12"/>
+      <c r="B194" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="H188" s="6"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="12"/>
-      <c r="B189" s="7" t="s">
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="12"/>
+      <c r="B195" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H189" s="6"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="12"/>
-      <c r="B190" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H190" s="6"/>
-    </row>
-    <row r="191" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B191" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="H191" s="6"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B192" s="15" t="s">
+      <c r="H195" s="6"/>
+    </row>
+    <row r="196" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B196" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="H196" s="6"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B197" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="H197" s="6"/>
+    </row>
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H192" s="6"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B193" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G193">
-        <v>2</v>
-      </c>
-      <c r="H193" s="6"/>
-    </row>
-    <row r="194" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B194" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C194" s="15"/>
-      <c r="D194" s="15"/>
-      <c r="H194" s="14"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E195" t="s">
+      <c r="G198">
+        <v>2</v>
+      </c>
+      <c r="H198" s="6"/>
+    </row>
+    <row r="199" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="H199" s="14"/>
+    </row>
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B200" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B196" s="7" t="s">
+      <c r="E200" t="s">
+        <v>134</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G201">
+        <v>9</v>
+      </c>
+      <c r="I201" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="12"/>
+      <c r="B202" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B203" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G196">
-        <v>9</v>
-      </c>
-      <c r="I196" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="12"/>
-      <c r="B197" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G199">
-        <v>2</v>
-      </c>
-      <c r="H199" s="6"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G200">
-        <v>0</v>
-      </c>
-      <c r="I200" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="12"/>
-      <c r="B201" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G201">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="G203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E204" t="s">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c r="G204">
-        <v>0</v>
-      </c>
-      <c r="H204" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I204" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H204" s="6"/>
+    </row>
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
+        <v>318</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="G205">
         <v>0</v>
       </c>
-      <c r="H205" s="6">
-        <v>42702</v>
-      </c>
       <c r="I205" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="12" t="s">
-        <v>301</v>
-      </c>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="12"/>
       <c r="B206" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E206" t="s">
-        <v>135</v>
+        <v>349</v>
       </c>
       <c r="G206">
-        <v>0</v>
-      </c>
-      <c r="H206" s="6">
-        <v>42702</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B208" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E209" t="s">
+        <v>134</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209" s="6">
+        <v>42702</v>
+      </c>
+      <c r="I209" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C210" s="9"/>
+      <c r="D210" s="9"/>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210" s="6">
+        <v>42702</v>
+      </c>
+      <c r="I210" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E211" t="s">
+        <v>134</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E212" t="s">
+        <v>136</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B213" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E207" t="s">
-        <v>137</v>
-      </c>
-      <c r="G207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E208" t="s">
-        <v>137</v>
-      </c>
-      <c r="G208">
-        <v>0</v>
-      </c>
-      <c r="H208" s="6">
+      <c r="E213" t="s">
+        <v>136</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213" s="6">
         <v>42697</v>
       </c>
-      <c r="I208" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G209">
-        <v>2</v>
-      </c>
-      <c r="H209" s="6"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
-      <c r="B210" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G210">
+      <c r="I213" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G214">
+        <v>2</v>
+      </c>
+      <c r="H214" s="6"/>
+    </row>
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="12"/>
+      <c r="B215" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G215">
         <v>9</v>
       </c>
-      <c r="H210" s="6"/>
-    </row>
-    <row r="211" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B211" s="17" t="s">
+      <c r="H215" s="6"/>
+    </row>
+    <row r="216" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B216" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C211" s="17"/>
-      <c r="D211" s="17"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B212" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="G212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>317</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D213" s="28">
+      <c r="C216" s="17"/>
+      <c r="D216" s="17"/>
+    </row>
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>316</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D218" s="28">
         <v>42775</v>
       </c>
-      <c r="G213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B214" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G214">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
+      <c r="G218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>308</v>
+      </c>
+      <c r="C220" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C215" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D215" s="28">
+      <c r="D220" s="28">
         <v>42775</v>
       </c>
-      <c r="G215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B216" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G216">
-        <v>1</v>
-      </c>
-      <c r="H216" s="6"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B217" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="H217" s="6"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B218" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G218">
-        <v>3</v>
-      </c>
-      <c r="H218" s="6"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B219" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G219">
-        <v>3</v>
-      </c>
-      <c r="H219" s="6"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B220" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="G220">
-        <v>3</v>
-      </c>
-      <c r="H220" s="6"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="7" t="s">
         <v>385</v>
       </c>
+      <c r="G221">
+        <v>2</v>
+      </c>
       <c r="H221" s="6"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B222" s="7" t="s">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B222" s="8" t="s">
         <v>359</v>
       </c>
       <c r="H222" s="6"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B223" s="8" t="s">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G223">
+        <v>3</v>
+      </c>
+      <c r="H223" s="6"/>
+    </row>
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G224">
+        <v>3</v>
+      </c>
+      <c r="H224" s="6"/>
+    </row>
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G225">
+        <v>3</v>
+      </c>
+      <c r="H225" s="6"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B226" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H226" s="6"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B227" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H227" s="6"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B228" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C228" s="8"/>
+      <c r="D228" s="8"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C223" s="8"/>
-      <c r="D223" s="8"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>1</v>
-      </c>
-      <c r="B224" s="7" t="s">
+      <c r="E229" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2</v>
+      </c>
+      <c r="B230" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E230" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>2</v>
-      </c>
-      <c r="B225" s="7" t="s">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>3</v>
+      </c>
+      <c r="B231" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E231" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>3</v>
-      </c>
-      <c r="B226" s="7" t="s">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>4</v>
+      </c>
+      <c r="B232" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E226" t="s">
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>175</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E233" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>4</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B234" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E234" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B235" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B228" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E228" t="s">
+      <c r="E235" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B236" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E236" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B237" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E237" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B229" s="7" t="s">
+    <row r="238" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B238" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E238" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B239" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B240" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E229" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B230" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E230" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B231" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E231" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B232" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E232" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B233" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E233" t="s">
+      <c r="E240" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B234" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C234" s="10"/>
-      <c r="D234" s="10"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B235" s="7" t="s">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B241" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B242" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E235" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B236" s="7" t="s">
+    </row>
+    <row r="243" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B243" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B244" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B237" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B238" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B239" s="7" t="s">
+    <row r="245" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B245" s="7" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B240" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E240" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B242" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E242" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B243" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E243" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B244" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C244" s="10"/>
-      <c r="D244" s="10"/>
-    </row>
-    <row r="245" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B245" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="E245" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E246" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B247" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E247" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B248" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E248" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B249" s="10" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B248" s="7" t="s">
+      <c r="C249" s="10"/>
+      <c r="D249" s="10"/>
+    </row>
+    <row r="250" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B250" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E250" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B251" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E251" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B252" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B253" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254" s="7" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>1</v>
-      </c>
-      <c r="B249" s="7" t="s">
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2</v>
+      </c>
+      <c r="B255" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>2</v>
-      </c>
-      <c r="B250" s="7" t="s">
+    </row>
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="7" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B251" s="7" t="s">
+      <c r="G256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G251">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B252" s="7" t="s">
+      <c r="G257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G252">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B253" s="7" t="s">
+      <c r="G258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G253">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B254" s="7" t="s">
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B255" s="7" t="s">
+      <c r="E261" t="s">
+        <v>220</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E262" t="s">
+        <v>221</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E263" t="s">
+        <v>222</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B268" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B256" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E256" t="s">
-        <v>221</v>
-      </c>
-      <c r="G256">
-        <v>0</v>
-      </c>
-      <c r="H256" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B257" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E257" t="s">
-        <v>222</v>
-      </c>
-      <c r="G257">
-        <v>0</v>
-      </c>
-      <c r="H257" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B258" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E258" t="s">
-        <v>223</v>
-      </c>
-      <c r="G258">
-        <v>0</v>
-      </c>
-      <c r="H258" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="259" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B259" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G259">
-        <v>0</v>
-      </c>
-      <c r="H259" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B260" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G260">
-        <v>0</v>
-      </c>
-      <c r="H260" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B261" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G261">
-        <v>0</v>
-      </c>
-      <c r="H261" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B263" s="7" t="s">
-        <v>220</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:I261"/>
+  <autoFilter ref="A7:I266">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$266</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$269</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="395">
   <si>
     <t>Reports</t>
   </si>
@@ -1350,6 +1350,18 @@
   </si>
   <si>
     <t>Country Specific sites</t>
+  </si>
+  <si>
+    <t>DateOfInspection - lable for DB/Live Site</t>
+  </si>
+  <si>
+    <t>DateOfInspection - Date picker for Manual Sites</t>
+  </si>
+  <si>
+    <t>Clarity/ check with ICON</t>
+  </si>
+  <si>
+    <t>Is An Issue - set default true - reason: Findings is always / most of the time is an Issue.</t>
   </si>
 </sst>
 </file>
@@ -2520,16 +2532,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I268"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,7 +2626,7 @@
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -2627,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -2640,7 +2652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>2</v>
       </c>
@@ -2670,7 +2682,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>2</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
@@ -2704,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>2</v>
       </c>
@@ -2727,7 +2739,7 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>2</v>
       </c>
@@ -2738,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>2</v>
       </c>
@@ -2751,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>2</v>
       </c>
@@ -2767,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -2781,7 +2793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
@@ -2797,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>2</v>
       </c>
@@ -2811,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>2</v>
       </c>
@@ -2846,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -2866,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="21" t="s">
         <v>354</v>
@@ -2887,7 +2899,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -2900,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>2</v>
       </c>
@@ -2913,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -2926,7 +2938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>2</v>
       </c>
@@ -2952,7 +2964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>2</v>
       </c>
@@ -2965,7 +2977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="9" t="s">
         <v>370</v>
@@ -3002,7 +3014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>2</v>
       </c>
@@ -3015,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>2</v>
       </c>
@@ -3028,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>2</v>
       </c>
@@ -3041,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>2</v>
       </c>
@@ -3054,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>2</v>
       </c>
@@ -3074,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>2</v>
       </c>
@@ -3135,7 +3147,7 @@
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>2</v>
       </c>
@@ -3148,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>2</v>
       </c>
@@ -3161,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>2</v>
       </c>
@@ -3174,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>2</v>
       </c>
@@ -3187,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="9" t="s">
         <v>368</v>
@@ -3201,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="9" t="s">
         <v>374</v>
@@ -3228,7 +3240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>2</v>
       </c>
@@ -3241,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>2</v>
       </c>
@@ -3252,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>2</v>
       </c>
@@ -3272,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>2</v>
       </c>
@@ -3302,7 +3314,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>2</v>
       </c>
@@ -3315,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>2</v>
       </c>
@@ -3328,7 +3340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>2</v>
       </c>
@@ -3341,7 +3353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>2</v>
       </c>
@@ -3354,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>2</v>
       </c>
@@ -3367,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>2</v>
       </c>
@@ -3380,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
         <v>295</v>
       </c>
@@ -3390,7 +3402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>2</v>
       </c>
@@ -3408,7 +3420,7 @@
       </c>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>2</v>
       </c>
@@ -3425,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>2</v>
       </c>
@@ -3458,7 +3470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>2</v>
       </c>
@@ -3472,7 +3484,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>2</v>
       </c>
@@ -3488,7 +3500,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>2</v>
       </c>
@@ -3504,7 +3516,7 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>2</v>
       </c>
@@ -3518,7 +3530,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>2</v>
       </c>
@@ -3530,7 +3542,7 @@
       </c>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>2</v>
       </c>
@@ -3542,7 +3554,7 @@
       </c>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>2</v>
       </c>
@@ -3554,7 +3566,7 @@
       </c>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>2</v>
       </c>
@@ -3571,7 +3583,7 @@
       </c>
       <c r="H75" s="27"/>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>2</v>
       </c>
@@ -3586,7 +3598,7 @@
       </c>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>2</v>
       </c>
@@ -3603,7 +3615,7 @@
       </c>
       <c r="H77" s="14"/>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>2</v>
       </c>
@@ -3618,7 +3630,7 @@
       </c>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>2</v>
       </c>
@@ -3630,7 +3642,7 @@
       </c>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>2</v>
       </c>
@@ -3648,7 +3660,7 @@
       </c>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>2</v>
       </c>
@@ -3666,7 +3678,7 @@
       </c>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>2</v>
       </c>
@@ -3684,7 +3696,7 @@
       </c>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>2</v>
       </c>
@@ -3703,155 +3715,161 @@
       </c>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
-      <c r="B84" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="D84" s="28"/>
+      <c r="B84" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D84" s="28">
+        <v>42818</v>
+      </c>
+      <c r="E84" t="s">
+        <v>139</v>
+      </c>
       <c r="F84" s="7"/>
       <c r="G84" s="12"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D85" s="28">
+        <v>42818</v>
+      </c>
+      <c r="E85" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+      <c r="B86" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D86" s="28"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+      <c r="B87" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D87" s="28"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
+      <c r="B88" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="F85" s="7" t="s">
+      <c r="D88" s="28"/>
+      <c r="F88" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G88" s="12">
         <v>1</v>
       </c>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="8" t="s">
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="G86" t="s">
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="G89" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="7" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="22" t="s">
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C91" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="D88" s="20">
+      <c r="D91" s="20">
         <v>42760</v>
       </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="7" t="s">
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G89">
+      <c r="G92">
         <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F91" t="s">
-        <v>369</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F92" t="s">
-        <v>321</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="G93" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
+      <c r="B93" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="12"/>
+      <c r="B94" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F94" t="s">
+        <v>369</v>
+      </c>
       <c r="G94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D95" s="20">
-        <v>42760</v>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
+      <c r="B95" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F95" t="s">
+        <v>321</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3861,32 +3879,34 @@
       <c r="A96" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
+      <c r="B96" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
       <c r="G96" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>237</v>
-      </c>
+      <c r="B97" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
       <c r="G97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="21" t="s">
-        <v>283</v>
+      <c r="B98" s="25" t="s">
+        <v>319</v>
       </c>
       <c r="C98" s="20" t="s">
         <v>288</v>
@@ -3898,90 +3918,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="21" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="G99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D101" s="20">
+        <v>42760</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="12"/>
+      <c r="B102" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-    </row>
-    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="21" t="s">
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
+      <c r="B103" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-    </row>
-    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-      <c r="B101" s="21" t="s">
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
+      <c r="B104" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="8" t="s">
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-    </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="7" t="s">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="7" t="s">
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3991,104 +4019,97 @@
       <c r="A108" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-    </row>
-    <row r="109" spans="1:7" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="23" t="s">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+    </row>
+    <row r="112" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C112" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="D109" s="20">
+      <c r="D112" s="20">
         <v>42760</v>
       </c>
-      <c r="E109" s="12" t="s">
+      <c r="E112" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G109" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="24" t="s">
+      <c r="G112" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C113" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="D110" s="20">
+      <c r="D113" s="20">
         <v>42760</v>
       </c>
-      <c r="E110" s="20" t="s">
+      <c r="E113" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G110" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="19" t="s">
+      <c r="G113" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="12" t="s">
+      <c r="C114" s="13"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="G111" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E112" t="s">
-        <v>139</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="G113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="G114">
-        <v>3</v>
+      <c r="G114" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4096,58 +4117,62 @@
         <v>2</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>387</v>
+        <v>138</v>
       </c>
       <c r="E115" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
-      <c r="B116" s="7" t="s">
-        <v>386</v>
-      </c>
+      <c r="A116" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
       <c r="G116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E117" t="s">
-        <v>139</v>
-      </c>
+      <c r="B117" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
       <c r="G117">
         <v>3</v>
       </c>
-      <c r="H117" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>120</v>
+        <v>387</v>
+      </c>
+      <c r="E118" t="s">
+        <v>134</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="A119" s="12"/>
       <c r="B119" s="7" t="s">
-        <v>123</v>
+        <v>386</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4155,7 +4180,16 @@
         <v>2</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>139</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120" s="6">
+        <v>42702</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4163,7 +4197,10 @@
         <v>2</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4171,7 +4208,7 @@
         <v>2</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4179,7 +4216,7 @@
         <v>2</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4187,572 +4224,551 @@
         <v>2</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-    </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B126" s="7" t="s">
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
-      <c r="B129" s="7" t="s">
-        <v>378</v>
+      <c r="G129">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="12"/>
+      <c r="B132" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
         <v>305</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C134" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D131" s="28">
+      <c r="D134" s="28">
         <v>42775</v>
       </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" t="s">
-        <v>307</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" t="s">
-        <v>317</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D133" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="G134">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>307</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>167</v>
+      <c r="B136" t="s">
+        <v>317</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D136" s="28">
+        <v>42775</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="D137" s="17"/>
+      <c r="B137" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A140" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D140" s="17"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D138" s="8"/>
-    </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B139" s="9" t="s">
+      <c r="D141" s="8"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
-      <c r="B141" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A142" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B142" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D142" s="17"/>
+      <c r="G142">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>325</v>
+        <v>2</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="A144" s="12"/>
       <c r="B144" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A145" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145" s="17"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="8" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
-      <c r="B146" s="9" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
+      <c r="B149" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C149" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D146" s="28">
+      <c r="D149" s="28">
         <v>42809</v>
       </c>
-      <c r="G146">
+      <c r="G149">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="9" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="12"/>
+      <c r="B150" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C150" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D147" s="28">
+      <c r="D150" s="28">
         <v>42809</v>
       </c>
-      <c r="G147">
+      <c r="G150">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
-      <c r="B148" s="9" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="12"/>
+      <c r="B151" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="D148" s="28">
+      <c r="D151" s="28">
         <v>42809</v>
       </c>
-      <c r="G148">
+      <c r="G151">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
-      <c r="B149" s="9"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C150" s="8"/>
-    </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="G151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="G152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+      <c r="B152" s="9"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C153" s="8"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B154" s="7" t="s">
-        <v>240</v>
-      </c>
+      <c r="B154" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
       <c r="G154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B155" s="7" t="s">
-        <v>234</v>
-      </c>
+      <c r="B155" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
       <c r="G155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="12"/>
-      <c r="B156" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="B157" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B158" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="G158" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="B158" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="12"/>
+      <c r="B159" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="12"/>
       <c r="B160" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E160" t="s">
-        <v>139</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B161" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161" s="6"/>
-    </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="G161" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F162" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
-      <c r="H162" s="6"/>
-    </row>
-    <row r="163" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="G163" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E163" t="s">
+        <v>139</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B164" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="F164" t="s">
-        <v>139</v>
-      </c>
-      <c r="G164" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164" s="6"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B165" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
+      <c r="B165" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="F165" t="s">
         <v>139</v>
       </c>
-      <c r="G165" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165" s="6"/>
+    </row>
+    <row r="166" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B166" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F166" t="s">
-        <v>139</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="G166" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
+      <c r="F167" t="s">
+        <v>139</v>
+      </c>
       <c r="G167" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="F168" t="s">
+        <v>139</v>
+      </c>
+      <c r="G168" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G169" s="12">
-        <v>0</v>
-      </c>
-      <c r="H169" s="14">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F169" t="s">
+        <v>139</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="B170" s="13" t="s">
-        <v>347</v>
+        <v>122</v>
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
       <c r="G170" s="12">
-        <v>2</v>
-      </c>
-      <c r="H170" s="14"/>
-    </row>
-    <row r="171" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B171" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G171" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H171" s="14"/>
-    </row>
-    <row r="172" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
+      <c r="B172" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="G172" s="12">
-        <v>2</v>
-      </c>
-      <c r="H172" s="14"/>
-    </row>
-    <row r="173" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B173" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="H172" s="14">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
       <c r="G173" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H173" s="14"/>
     </row>
@@ -4760,41 +4776,44 @@
       <c r="A174" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B174" s="19" t="s">
-        <v>327</v>
+      <c r="B174" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="C174" s="15"/>
       <c r="D174" s="15"/>
+      <c r="E174" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G174" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="H174" s="14"/>
     </row>
-    <row r="175" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B175" s="15" t="s">
-        <v>262</v>
+      <c r="B175" s="19" t="s">
+        <v>296</v>
       </c>
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
-      <c r="E175" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="G175" s="12">
         <v>2</v>
       </c>
       <c r="H175" s="14"/>
     </row>
-    <row r="176" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="C176" s="15"/>
       <c r="D176" s="15"/>
       <c r="G176" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H176" s="14"/>
     </row>
@@ -4802,8 +4821,8 @@
       <c r="A177" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="15" t="s">
-        <v>328</v>
+      <c r="B177" s="19" t="s">
+        <v>327</v>
       </c>
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
@@ -4814,840 +4833,843 @@
         <v>1</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
+      <c r="E178" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G178" s="12">
+        <v>2</v>
+      </c>
       <c r="H178" s="14"/>
     </row>
     <row r="179" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B179" s="15" t="s">
-        <v>272</v>
+      <c r="B179" s="19" t="s">
+        <v>330</v>
       </c>
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
+      <c r="G179" s="12">
+        <v>2</v>
+      </c>
       <c r="H179" s="14"/>
     </row>
-    <row r="180" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B180" s="18" t="s">
+      <c r="B180" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="H180" s="14"/>
+    </row>
+    <row r="181" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="H181" s="14"/>
+    </row>
+    <row r="182" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="H182" s="14"/>
+    </row>
+    <row r="183" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="3" t="s">
+      <c r="C183" s="18"/>
+      <c r="D183" s="18"/>
+      <c r="E183" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G180" s="3">
+      <c r="G183" s="3">
         <v>3</v>
       </c>
-      <c r="H180" s="27"/>
-    </row>
-    <row r="181" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A181" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B181" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="H181" s="6"/>
-    </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G182">
-        <v>3</v>
-      </c>
-      <c r="H182" s="6"/>
-    </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G183">
-        <v>3</v>
-      </c>
-      <c r="H183" s="6"/>
-    </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H183" s="27"/>
+    </row>
+    <row r="184" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A184" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="B184" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G184">
-        <v>3</v>
+      <c r="B184" s="17" t="s">
+        <v>322</v>
       </c>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>336</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G185">
         <v>3</v>
       </c>
       <c r="H185" s="6"/>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>336</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>336</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H187" s="6"/>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
         <v>336</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G188">
         <v>3</v>
       </c>
       <c r="H188" s="6"/>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>336</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G189">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H189" s="6"/>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>336</v>
       </c>
       <c r="B190" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G190">
+        <v>2</v>
+      </c>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G191">
+        <v>3</v>
+      </c>
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G192">
+        <v>3</v>
+      </c>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B193" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="G190">
+      <c r="G193">
         <v>3</v>
-      </c>
-      <c r="H190" s="6"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="12"/>
-      <c r="B191" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="H191" s="6"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="12"/>
-      <c r="H192" s="6"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="12"/>
-      <c r="B193" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H193" s="6"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
       <c r="B194" s="7" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="H194" s="6"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
-      <c r="B195" s="7" t="s">
+      <c r="H195" s="6"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="12"/>
+      <c r="B196" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H196" s="6"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="12"/>
+      <c r="B197" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H197" s="6"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="12"/>
+      <c r="B198" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H195" s="6"/>
-    </row>
-    <row r="196" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B196" s="17" t="s">
+      <c r="H198" s="6"/>
+    </row>
+    <row r="199" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B199" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="H196" s="6"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B197" s="15" t="s">
+      <c r="H199" s="6"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="H197" s="6"/>
-    </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="7" t="s">
+      <c r="H200" s="6"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="G198">
-        <v>2</v>
-      </c>
-      <c r="H198" s="6"/>
-    </row>
-    <row r="199" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="12" t="s">
+      <c r="G201">
+        <v>2</v>
+      </c>
+      <c r="H201" s="6"/>
+    </row>
+    <row r="202" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="B199" s="15" t="s">
+      <c r="B202" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="C199" s="15"/>
-      <c r="D199" s="15"/>
-      <c r="H199" s="14"/>
-    </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E200" t="s">
-        <v>134</v>
-      </c>
-      <c r="G200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G201">
-        <v>9</v>
-      </c>
-      <c r="I201" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="12"/>
-      <c r="B202" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C202" s="15"/>
+      <c r="D202" s="15"/>
+      <c r="H202" s="14"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
         <v>318</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>332</v>
+        <v>135</v>
+      </c>
+      <c r="E203" t="s">
+        <v>134</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
         <v>318</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="G204">
-        <v>2</v>
-      </c>
-      <c r="H204" s="6"/>
-    </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I204" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="12"/>
+      <c r="B205" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="B205" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G205">
-        <v>0</v>
-      </c>
-      <c r="I205" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="12"/>
       <c r="B206" s="7" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G207">
+        <v>2</v>
+      </c>
+      <c r="H207" s="6"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>301</v>
+        <v>121</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
-        <v>300</v>
-      </c>
+      <c r="I208" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="12"/>
       <c r="B209" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E209" t="s">
-        <v>134</v>
+        <v>349</v>
       </c>
       <c r="G209">
-        <v>0</v>
-      </c>
-      <c r="H209" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I209" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B210" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
-      <c r="G210">
-        <v>0</v>
-      </c>
-      <c r="H210" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I210" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
         <v>300</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E211" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="G211">
         <v>0</v>
       </c>
-      <c r="H211" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
         <v>300</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E212" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H212" s="6">
+        <v>42702</v>
+      </c>
+      <c r="I212" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B213" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E213" t="s">
-        <v>136</v>
-      </c>
+      <c r="B213" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C213" s="9"/>
+      <c r="D213" s="9"/>
       <c r="G213">
         <v>0</v>
       </c>
       <c r="H213" s="6">
-        <v>42697</v>
+        <v>42702</v>
       </c>
       <c r="I213" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
         <v>300</v>
       </c>
       <c r="B214" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E214" t="s">
+        <v>134</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E215" t="s">
+        <v>136</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E216" t="s">
+        <v>136</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216" s="6">
+        <v>42697</v>
+      </c>
+      <c r="I216" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B217" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G214">
-        <v>2</v>
-      </c>
-      <c r="H214" s="6"/>
-    </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="12"/>
-      <c r="B215" s="13" t="s">
+      <c r="G217">
+        <v>2</v>
+      </c>
+      <c r="H217" s="6"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="12"/>
+      <c r="B218" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="G215">
+      <c r="G218">
         <v>9</v>
       </c>
-      <c r="H215" s="6"/>
-    </row>
-    <row r="216" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B216" s="17" t="s">
+      <c r="H218" s="6"/>
+    </row>
+    <row r="219" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B219" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C216" s="17"/>
-      <c r="D216" s="17"/>
-    </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="8" t="s">
+      <c r="C219" s="17"/>
+      <c r="D219" s="17"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="G217">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
+      <c r="G220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
         <v>316</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C221" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D218" s="28">
+      <c r="D221" s="28">
         <v>42775</v>
       </c>
-      <c r="G218">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="7" t="s">
+      <c r="G221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B222" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="G219">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B220" t="s">
+      <c r="G222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
         <v>308</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C223" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D220" s="28">
+      <c r="D223" s="28">
         <v>42775</v>
       </c>
-      <c r="G220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="7" t="s">
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B224" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G221">
-        <v>2</v>
-      </c>
-      <c r="H221" s="6"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B222" s="8" t="s">
+      <c r="G224">
+        <v>2</v>
+      </c>
+      <c r="H224" s="6"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B225" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="H222" s="6"/>
-    </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G223">
-        <v>3</v>
-      </c>
-      <c r="H223" s="6"/>
-    </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G224">
-        <v>3</v>
-      </c>
-      <c r="H224" s="6"/>
-    </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G225">
-        <v>3</v>
       </c>
       <c r="H225" s="6"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B226" s="7" t="s">
-        <v>384</v>
+        <v>360</v>
+      </c>
+      <c r="G226">
+        <v>3</v>
       </c>
       <c r="H226" s="6"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B227" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G227">
+        <v>3</v>
+      </c>
+      <c r="H227" s="6"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B228" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G228">
+        <v>3</v>
+      </c>
+      <c r="H228" s="6"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B229" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H229" s="6"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B230" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="H227" s="6"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B228" s="8" t="s">
+      <c r="H230" s="6"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B231" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C228" s="8"/>
-      <c r="D228" s="8"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>1</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E229" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>2</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E230" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>3</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E231" t="s">
-        <v>211</v>
-      </c>
+      <c r="C231" s="8"/>
+      <c r="D231" s="8"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E232" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E233" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>3</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E234" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>4</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B235" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>175</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B236" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="E233" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B234" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E234" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B235" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E235" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B236" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="E236" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B237" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E237" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B238" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E238" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B239" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E239" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B240" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E240" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B238" s="7" t="s">
+    <row r="241" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B241" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E241" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B239" s="10" t="s">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B242" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B240" s="7" t="s">
+      <c r="C242" s="10"/>
+      <c r="D242" s="10"/>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B243" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E243" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B241" s="7" t="s">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B244" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B242" s="7" t="s">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B245" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B243" s="7" t="s">
+    <row r="246" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B246" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B244" s="7" t="s">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B247" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B245" s="7" t="s">
+    <row r="248" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B248" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E248" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="7" t="s">
+    <row r="249" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B247" s="7" t="s">
+    <row r="250" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B250" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E250" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B248" s="7" t="s">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B251" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E251" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B249" s="10" t="s">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B252" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C249" s="10"/>
-      <c r="D249" s="10"/>
-    </row>
-    <row r="250" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B250" s="7" t="s">
+      <c r="C252" s="10"/>
+      <c r="D252" s="10"/>
+    </row>
+    <row r="253" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B253" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E253" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B251" s="7" t="s">
+    <row r="254" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B254" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E254" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B252" s="7" t="s">
+    <row r="255" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B255" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B253" s="7" t="s">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B256" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A254">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257">
         <v>1</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="B257" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>2</v>
-      </c>
-      <c r="B255" s="7" t="s">
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2</v>
+      </c>
+      <c r="B258" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="7" t="s">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B259" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G256">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="7" t="s">
+      <c r="G259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B260" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G257">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="7" t="s">
+      <c r="G260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B261" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G258">
+      <c r="G261">
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="7" t="s">
+    <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B262" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="7" t="s">
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B263" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="7" t="s">
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B264" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E264" t="s">
         <v>220</v>
-      </c>
-      <c r="G261">
-        <v>0</v>
-      </c>
-      <c r="H261" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="262" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E262" t="s">
-        <v>221</v>
-      </c>
-      <c r="G262">
-        <v>0</v>
-      </c>
-      <c r="H262" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="263" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E263" t="s">
-        <v>222</v>
-      </c>
-      <c r="G263">
-        <v>0</v>
-      </c>
-      <c r="H263" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="264" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -5656,9 +5678,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="265" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B265" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
+      </c>
+      <c r="E265" t="s">
+        <v>221</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -5667,9 +5692,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="266" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B266" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="E266" t="s">
+        <v>222</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -5678,19 +5706,46 @@
         <v>145</v>
       </c>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B267" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B268" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B269" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B271" s="7" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:I266">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:I269"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$I$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$J$270</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="399">
   <si>
     <t>Reports</t>
   </si>
@@ -377,9 +377,6 @@
   </si>
   <si>
     <t>show searches according to user</t>
-  </si>
-  <si>
-    <t>Report</t>
   </si>
   <si>
     <t>Report with filters</t>
@@ -1362,6 +1359,21 @@
   </si>
   <si>
     <t>Is An Issue - set default true - reason: Findings is always / most of the time is an Issue.</t>
+  </si>
+  <si>
+    <t>Mark all manual sites ReviewCompleted = true by default.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devendra </t>
+  </si>
+  <si>
+    <t>Request Type</t>
+  </si>
+  <si>
+    <t>Webex</t>
+  </si>
+  <si>
+    <t>Report - Output Report</t>
   </si>
 </sst>
 </file>
@@ -2532,16 +2544,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:J272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomRight" activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,12 +2561,13 @@
     <col min="2" max="2" width="64.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="7" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -2562,7 +2575,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -2570,7 +2583,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -2578,652 +2591,694 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E6" t="s">
-        <v>133</v>
+        <v>288</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="F6" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" t="s">
         <v>144</v>
       </c>
-      <c r="I6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="13"/>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="G10" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E10" s="13"/>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D11" s="20">
         <v>42760</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="20"/>
+      <c r="F11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D14" s="20">
         <v>42760</v>
       </c>
-      <c r="E14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="20"/>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D15" s="20">
         <v>42760</v>
       </c>
-      <c r="E15" t="s">
-        <v>291</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="E15" s="20"/>
+      <c r="F15" t="s">
+        <v>290</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
         <v>42767</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="13"/>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="13"/>
+      <c r="F18" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="13"/>
+      <c r="F20" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D22" s="20">
         <v>42760</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="20"/>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D23" s="20">
         <v>42760</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D24" s="20">
         <v>42760</v>
       </c>
-      <c r="E24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="20"/>
+      <c r="F24" t="s">
+        <v>290</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="20"/>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="20"/>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="19"/>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
-      <c r="G28" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="19"/>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
-      <c r="G29" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="19"/>
+      <c r="H29" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="G30" s="12">
+      <c r="E30" s="19"/>
+      <c r="H30" s="12">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
-      <c r="G31" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="16"/>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="G32">
+      <c r="E32" s="9"/>
+      <c r="H32">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="F33" t="s">
-        <v>321</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+      <c r="G33" t="s">
+        <v>320</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
-      <c r="G35" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="16"/>
+      <c r="H35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="9"/>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="9"/>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="9"/>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-      <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="9"/>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D40" s="20">
         <v>42760</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="20"/>
+      <c r="F40" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D41" s="20">
         <v>42760</v>
       </c>
-      <c r="E41" t="s">
-        <v>139</v>
-      </c>
+      <c r="E41" s="20"/>
       <c r="F41" t="s">
-        <v>292</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="G41" t="s">
+        <v>291</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="20"/>
-      <c r="F42" t="s">
-        <v>321</v>
-      </c>
-      <c r="G42">
+      <c r="E42" s="20"/>
+      <c r="G42" t="s">
+        <v>320</v>
+      </c>
+      <c r="H42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="20"/>
-      <c r="F43" t="s">
-        <v>321</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="20"/>
+      <c r="G43" t="s">
+        <v>320</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E45" s="9"/>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E46" s="9"/>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E47" s="9"/>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E48" s="9"/>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="F49" t="s">
-        <v>321</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E49" s="9"/>
+      <c r="G49" t="s">
+        <v>320</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="F50" t="s">
-        <v>375</v>
-      </c>
-      <c r="G50">
+      <c r="E50" s="9"/>
+      <c r="G50" t="s">
+        <v>374</v>
+      </c>
+      <c r="H50">
         <v>0</v>
       </c>
     </row>
@@ -3232,2520 +3287,2630 @@
         <v>2</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="G51" s="11" t="s">
+      <c r="E51" s="10"/>
+      <c r="H51" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E52" s="18"/>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D54" s="20">
         <v>42760</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G54" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E54" s="20"/>
+      <c r="F54" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D55" s="20">
         <v>42760</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G55" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D56" s="20">
+        <v>42817</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>268</v>
+        <v>161</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="G58">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E58" s="9"/>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>165</v>
+        <v>267</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-      <c r="G59">
+      <c r="E59" s="9"/>
+      <c r="H59">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>267</v>
+        <v>164</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E60" s="9"/>
+      <c r="H60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="G61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E61" s="9"/>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E62" s="9"/>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B63" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="G63">
+      <c r="E63" s="9"/>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="H64">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
-        <v>310</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D64" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D65" s="28">
         <v>42775</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E65" s="28"/>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D66" s="28">
         <v>42775</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E66" s="28"/>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" t="s">
+      <c r="B67" t="s">
+        <v>311</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D67" s="28">
+        <v>42775</v>
+      </c>
+      <c r="E67" s="28"/>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" t="s">
         <v>41</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H68" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68" s="6">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" s="6">
         <v>42697</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="G69" s="12">
-        <v>0</v>
-      </c>
-      <c r="H69" s="14">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
-      <c r="G70" s="12">
-        <v>0</v>
-      </c>
-      <c r="H70" s="14">
+      <c r="E70" s="13"/>
+      <c r="H70" s="12">
+        <v>0</v>
+      </c>
+      <c r="I70" s="14">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="H71" s="12">
+        <v>0</v>
+      </c>
+      <c r="I71" s="14">
         <v>42698</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71" s="6">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="6">
         <v>42697</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="18" t="s">
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H76" s="3">
+        <v>3</v>
+      </c>
+      <c r="I76" s="27"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G75" s="3">
+      <c r="F77" t="s">
+        <v>133</v>
+      </c>
+      <c r="H77">
         <v>3</v>
       </c>
-      <c r="H75" s="27"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E76" t="s">
-        <v>134</v>
-      </c>
-      <c r="G76">
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H78" s="12">
         <v>3</v>
       </c>
-      <c r="H76" s="6"/>
-    </row>
-    <row r="77" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G77" s="12">
-        <v>3</v>
-      </c>
-      <c r="H77" s="14"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E78" t="s">
-        <v>139</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="14"/>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G79" s="12">
-        <v>0</v>
-      </c>
-      <c r="H79" s="6"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="F79" t="s">
+        <v>138</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B80" t="s">
-        <v>313</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D80" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H80" s="12">
+        <v>0</v>
+      </c>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D81" s="28">
         <v>42775</v>
       </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E81" s="28"/>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D82" s="28">
         <v>42775</v>
       </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E82" s="28"/>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D83" s="28">
+        <v>42775</v>
+      </c>
+      <c r="E83" s="28"/>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" t="s">
+        <v>133</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" t="s">
-        <v>134</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G83" s="12">
-        <v>0</v>
-      </c>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-      <c r="B84" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="D84" s="28">
-        <v>42818</v>
-      </c>
-      <c r="E84" t="s">
-        <v>139</v>
-      </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H84" s="12">
+        <v>0</v>
+      </c>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="D85" s="28">
         <v>42818</v>
       </c>
-      <c r="E85" t="s">
-        <v>139</v>
-      </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E85" s="28"/>
+      <c r="F85" t="s">
+        <v>138</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C86" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D86" s="28">
+        <v>42818</v>
+      </c>
+      <c r="E86" s="28"/>
+      <c r="F86" t="s">
+        <v>138</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+      <c r="B87" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="8" t="s">
+      <c r="C87" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
+      <c r="B88" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="12"/>
+      <c r="B89" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="6"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D88" s="28"/>
-      <c r="F88" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G88" s="12">
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="G89" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H89" s="12">
         <v>1</v>
       </c>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="G89" t="s">
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="H90" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D91" s="20">
+      <c r="B91" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D92" s="20">
         <v>42760</v>
       </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G92">
+      <c r="E92" s="20"/>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H93">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B94" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F94" t="s">
-        <v>369</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F95" t="s">
-        <v>321</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="G95" t="s">
+        <v>368</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="12"/>
+      <c r="B96" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G96" t="s">
+        <v>320</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="H97" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="G96" t="s">
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D99" s="20">
+        <v>42760</v>
+      </c>
+      <c r="E99" s="20"/>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="H100" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D98" s="20">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D102" s="20">
         <v>42760</v>
       </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="G99" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D101" s="20">
-        <v>42760</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-    </row>
-    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E102" s="20"/>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E103" s="20"/>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E104" s="20"/>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="12"/>
+      <c r="B105" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+    </row>
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-    </row>
-    <row r="112" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D112" s="20">
-        <v>42760</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G112" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+    </row>
+    <row r="113" spans="1:9" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="24" t="s">
-        <v>293</v>
+      <c r="B113" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D113" s="20">
         <v>42760</v>
       </c>
-      <c r="E113" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="G113" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="19" t="s">
+      <c r="E113" s="20"/>
+      <c r="F113" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H113" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D114" s="20">
+        <v>42760</v>
+      </c>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H114" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="C115" s="13"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="C114" s="13"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="G114" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" s="7" t="s">
+      <c r="H115" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F116" t="s">
         <v>138</v>
       </c>
-      <c r="E115" t="s">
-        <v>139</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="G116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
-      <c r="G117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E117" s="9"/>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E118" t="s">
-        <v>134</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
+      <c r="B118" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="H118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B119" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G119">
+      <c r="F119" t="s">
+        <v>133</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="12"/>
+      <c r="B120" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F121" t="s">
+        <v>138</v>
+      </c>
+      <c r="H121">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" s="7" t="s">
+      <c r="I121" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E120" t="s">
-        <v>139</v>
-      </c>
-      <c r="G120">
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+    </row>
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="12"/>
+      <c r="B133" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>304</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D135" s="28">
+        <v>42775</v>
+      </c>
+      <c r="E135" s="28"/>
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
+        <v>306</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" t="s">
+        <v>316</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D137" s="28">
+        <v>42775</v>
+      </c>
+      <c r="E137" s="28"/>
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H138">
         <v>3</v>
       </c>
-      <c r="H120" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="7" t="s">
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A141" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="G131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
-      <c r="B132" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" t="s">
-        <v>305</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D134" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B135" t="s">
-        <v>307</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B136" t="s">
-        <v>317</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D136" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G137">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A140" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="D140" s="17"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D141" s="8"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B142" s="9" t="s">
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+    </row>
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="12"/>
-      <c r="B144" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A145" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D145" s="17"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="12"/>
+      <c r="B145" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A146" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="8" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B147" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B148" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
-      <c r="B149" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D149" s="28">
-        <v>42809</v>
-      </c>
-      <c r="G149">
+      <c r="B148" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
       <c r="B150" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D150" s="28">
         <v>42809</v>
       </c>
-      <c r="G150">
+      <c r="E150" s="28"/>
+      <c r="H150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="9" t="s">
-        <v>386</v>
+        <v>389</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="D151" s="28">
         <v>42809</v>
       </c>
-      <c r="G151">
+      <c r="E151" s="28"/>
+      <c r="H151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
-      <c r="B152" s="9"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
+      <c r="B152" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D152" s="28">
+        <v>42809</v>
+      </c>
+      <c r="E152" s="28"/>
+      <c r="H152">
         <v>1</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C153" s="8"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="12"/>
+      <c r="B153" s="9"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="G154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C154" s="8"/>
+    </row>
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
-      <c r="G155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E155" s="9"/>
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
-      <c r="B159" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
-      <c r="B160" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="G161" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="12"/>
+      <c r="B161" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="H162" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E163" t="s">
-        <v>139</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-      <c r="H163" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164" s="6"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="F164" t="s">
+        <v>138</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F165" t="s">
-        <v>139</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165" s="6"/>
-    </row>
-    <row r="166" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165" s="6"/>
+    </row>
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B166" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="G166" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G166" t="s">
+        <v>138</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166" s="6"/>
+    </row>
+    <row r="167" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>255</v>
+        <v>117</v>
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
-      <c r="F167" t="s">
-        <v>139</v>
-      </c>
-      <c r="G167" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E167" s="13"/>
+      <c r="H167" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
-      <c r="F168" t="s">
-        <v>139</v>
-      </c>
-      <c r="G168" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E168" s="13"/>
+      <c r="G168" t="s">
+        <v>138</v>
+      </c>
+      <c r="H168" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="F169" t="s">
-        <v>139</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="G169" t="s">
+        <v>138</v>
+      </c>
+      <c r="H169" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B170" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="G170" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G170" t="s">
+        <v>138</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B171" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="H171" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="13" t="s">
+      <c r="B172" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G172" s="12">
-        <v>0</v>
-      </c>
-      <c r="H172" s="14">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="13" t="s">
-        <v>347</v>
       </c>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
-      <c r="G173" s="12">
-        <v>2</v>
-      </c>
-      <c r="H173" s="14"/>
-    </row>
-    <row r="174" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B174" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C174" s="15"/>
-      <c r="D174" s="15"/>
-      <c r="E174" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G174" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H174" s="14"/>
-    </row>
-    <row r="175" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E173" s="13"/>
+      <c r="F173" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H173" s="12">
+        <v>0</v>
+      </c>
+      <c r="I173" s="14">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="H174" s="12">
+        <v>2</v>
+      </c>
+      <c r="I174" s="14"/>
+    </row>
+    <row r="175" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B175" s="19" t="s">
-        <v>296</v>
+      <c r="B175" s="15" t="s">
+        <v>259</v>
       </c>
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
-      <c r="G175" s="12">
-        <v>2</v>
-      </c>
-      <c r="H175" s="14"/>
-    </row>
-    <row r="176" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E175" s="15"/>
+      <c r="F175" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H175" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I175" s="14"/>
+    </row>
+    <row r="176" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="C176" s="15"/>
       <c r="D176" s="15"/>
-      <c r="G176" s="12">
-        <v>0</v>
-      </c>
-      <c r="H176" s="14"/>
-    </row>
-    <row r="177" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E176" s="15"/>
+      <c r="H176" s="12">
+        <v>2</v>
+      </c>
+      <c r="I176" s="14"/>
+    </row>
+    <row r="177" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
-      <c r="H177" s="14"/>
-    </row>
-    <row r="178" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E177" s="15"/>
+      <c r="H177" s="12">
+        <v>0</v>
+      </c>
+      <c r="I177" s="14"/>
+    </row>
+    <row r="178" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B178" s="15" t="s">
-        <v>262</v>
+      <c r="B178" s="19" t="s">
+        <v>326</v>
       </c>
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
-      <c r="E178" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G178" s="12">
-        <v>2</v>
-      </c>
-      <c r="H178" s="14"/>
-    </row>
-    <row r="179" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E178" s="15"/>
+      <c r="I178" s="14"/>
+    </row>
+    <row r="179" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B179" s="19" t="s">
-        <v>330</v>
+      <c r="B179" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
-      <c r="G179" s="12">
-        <v>2</v>
-      </c>
-      <c r="H179" s="14"/>
-    </row>
-    <row r="180" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E179" s="15"/>
+      <c r="F179" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H179" s="12">
+        <v>2</v>
+      </c>
+      <c r="I179" s="14"/>
+    </row>
+    <row r="180" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B180" s="15" t="s">
-        <v>328</v>
+      <c r="B180" s="19" t="s">
+        <v>329</v>
       </c>
       <c r="C180" s="15"/>
       <c r="D180" s="15"/>
-      <c r="H180" s="14"/>
-    </row>
-    <row r="181" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E180" s="15"/>
+      <c r="H180" s="12">
+        <v>2</v>
+      </c>
+      <c r="I180" s="14"/>
+    </row>
+    <row r="181" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C181" s="15"/>
       <c r="D181" s="15"/>
-      <c r="H181" s="14"/>
-    </row>
-    <row r="182" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E181" s="15"/>
+      <c r="I181" s="14"/>
+    </row>
+    <row r="182" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="C182" s="15"/>
       <c r="D182" s="15"/>
-      <c r="H182" s="14"/>
-    </row>
-    <row r="183" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E182" s="15"/>
+      <c r="I182" s="14"/>
+    </row>
+    <row r="183" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B183" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C183" s="18"/>
-      <c r="D183" s="18"/>
-      <c r="E183" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G183" s="3">
+      <c r="B183" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="I183" s="14"/>
+    </row>
+    <row r="184" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H184" s="12">
         <v>3</v>
       </c>
-      <c r="H183" s="27"/>
-    </row>
-    <row r="184" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A184" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B184" s="17" t="s">
+      <c r="I184" s="14"/>
+    </row>
+    <row r="185" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A185" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="I185" s="6"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B186" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H184" s="6"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B185" s="7" t="s">
+      <c r="H186">
+        <v>3</v>
+      </c>
+      <c r="I186" s="6"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B187" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G185">
+      <c r="H187">
         <v>3</v>
       </c>
-      <c r="H185" s="6"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G186">
+      <c r="I187" s="6"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H188">
         <v>3</v>
       </c>
-      <c r="H186" s="6"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B187" s="7" t="s">
+      <c r="I188" s="6"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H189">
+        <v>3</v>
+      </c>
+      <c r="I189" s="6"/>
+    </row>
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190" s="6"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H191">
+        <v>2</v>
+      </c>
+      <c r="I191" s="6"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H192">
+        <v>3</v>
+      </c>
+      <c r="I192" s="6"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H193">
+        <v>3</v>
+      </c>
+      <c r="I193" s="6"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B194" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="G187">
+      <c r="H194">
         <v>3</v>
       </c>
-      <c r="H187" s="6"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G188">
-        <v>3</v>
-      </c>
-      <c r="H188" s="6"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="H189" s="6"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G190">
-        <v>2</v>
-      </c>
-      <c r="H190" s="6"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G191">
-        <v>3</v>
-      </c>
-      <c r="H191" s="6"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G192">
-        <v>3</v>
-      </c>
-      <c r="H192" s="6"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G193">
-        <v>3</v>
-      </c>
-      <c r="H193" s="6"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="12"/>
-      <c r="B194" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="H194" s="6"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I194" s="6"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
-      <c r="H195" s="6"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="I195" s="6"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
-      <c r="B196" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H196" s="6"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I196" s="6"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
       <c r="B197" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H197" s="6"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="I197" s="6"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
       <c r="B198" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I198" s="6"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="12"/>
+      <c r="B199" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="I199" s="6"/>
+    </row>
+    <row r="200" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B200" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="I200" s="6"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B201" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="I201" s="6"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B202" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202" s="6"/>
+    </row>
+    <row r="203" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="I203" s="14"/>
+    </row>
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F204" t="s">
+        <v>133</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H205">
+        <v>9</v>
+      </c>
+      <c r="J205" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="12"/>
+      <c r="B206" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208" s="6"/>
+    </row>
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="J209" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="12"/>
+      <c r="B210" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F213" t="s">
+        <v>133</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213" s="6">
+        <v>42702</v>
+      </c>
+      <c r="J213" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C214" s="9"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="9"/>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214" s="6">
+        <v>42702</v>
+      </c>
+      <c r="J214" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F215" t="s">
+        <v>133</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F216" t="s">
+        <v>135</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F217" t="s">
+        <v>135</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217" s="6">
+        <v>42697</v>
+      </c>
+      <c r="J217" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218" s="6"/>
+    </row>
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="12"/>
+      <c r="B219" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="H219">
+        <v>9</v>
+      </c>
+      <c r="I219" s="6"/>
+    </row>
+    <row r="220" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B220" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C220" s="17"/>
+      <c r="D220" s="17"/>
+      <c r="E220" s="17"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B221" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>315</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D222" s="28">
+        <v>42775</v>
+      </c>
+      <c r="E222" s="28"/>
+      <c r="H222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B223" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>307</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D224" s="28">
+        <v>42775</v>
+      </c>
+      <c r="E224" s="28"/>
+      <c r="H224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225" s="6"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B226" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I226" s="6"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H227">
+        <v>3</v>
+      </c>
+      <c r="I227" s="6"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B228" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H228">
+        <v>3</v>
+      </c>
+      <c r="I228" s="6"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B229" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H229">
+        <v>3</v>
+      </c>
+      <c r="I229" s="6"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B230" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H198" s="6"/>
-    </row>
-    <row r="199" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B199" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="H199" s="6"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B200" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="H200" s="6"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B201" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G201">
-        <v>2</v>
-      </c>
-      <c r="H201" s="6"/>
-    </row>
-    <row r="202" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B202" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C202" s="15"/>
-      <c r="D202" s="15"/>
-      <c r="H202" s="14"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E203" t="s">
-        <v>134</v>
-      </c>
-      <c r="G203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G204">
-        <v>9</v>
-      </c>
-      <c r="I204" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="12"/>
-      <c r="B205" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G207">
-        <v>2</v>
-      </c>
-      <c r="H207" s="6"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G208">
-        <v>0</v>
-      </c>
-      <c r="I208" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="12"/>
-      <c r="B209" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G209">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E212" t="s">
-        <v>134</v>
-      </c>
-      <c r="G212">
-        <v>0</v>
-      </c>
-      <c r="H212" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I212" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B213" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C213" s="9"/>
-      <c r="D213" s="9"/>
-      <c r="G213">
-        <v>0</v>
-      </c>
-      <c r="H213" s="6">
-        <v>42702</v>
-      </c>
-      <c r="I213" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B214" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E214" t="s">
-        <v>134</v>
-      </c>
-      <c r="G214">
-        <v>0</v>
-      </c>
-      <c r="H214" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E215" t="s">
-        <v>136</v>
-      </c>
-      <c r="G215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E216" t="s">
-        <v>136</v>
-      </c>
-      <c r="G216">
-        <v>0</v>
-      </c>
-      <c r="H216" s="6">
-        <v>42697</v>
-      </c>
-      <c r="I216" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G217">
-        <v>2</v>
-      </c>
-      <c r="H217" s="6"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="12"/>
-      <c r="B218" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="G218">
-        <v>9</v>
-      </c>
-      <c r="H218" s="6"/>
-    </row>
-    <row r="219" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B219" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C219" s="17"/>
-      <c r="D219" s="17"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B220" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G220">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
-        <v>316</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D221" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G221">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B222" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G222">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
-        <v>308</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D223" s="28">
-        <v>42775</v>
-      </c>
-      <c r="G223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B224" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G224">
-        <v>2</v>
-      </c>
-      <c r="H224" s="6"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B225" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="H225" s="6"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B226" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G226">
+      <c r="I230" s="6"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I231" s="6"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B232" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C232" s="8"/>
+      <c r="D232" s="8"/>
+      <c r="E232" s="8"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F233" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F234" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>3</v>
       </c>
-      <c r="H226" s="6"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B227" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G227">
-        <v>3</v>
-      </c>
-      <c r="H227" s="6"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B228" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G228">
-        <v>3</v>
-      </c>
-      <c r="H228" s="6"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B229" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H229" s="6"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B230" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H230" s="6"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B231" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C231" s="8"/>
-      <c r="D231" s="8"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>1</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E232" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>2</v>
-      </c>
-      <c r="B233" s="7" t="s">
+      <c r="B235" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E233" t="s">
+      <c r="F235" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>3</v>
-      </c>
-      <c r="B234" s="7" t="s">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>4</v>
+      </c>
+      <c r="B236" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E234" t="s">
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>174</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F237" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>4</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B238" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F238" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B236" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E236" t="s">
+      <c r="F239" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B240" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F240" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B241" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F241" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B237" s="7" t="s">
+    <row r="242" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B242" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F242" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B243" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B244" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E237" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B238" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E238" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B239" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E239" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B240" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E240" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="241" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B241" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E241" t="s">
+      <c r="F244" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B242" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C242" s="10"/>
-      <c r="D242" s="10"/>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B243" s="7" t="s">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B245" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B246" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E243" t="s">
+    </row>
+    <row r="247" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B247" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B248" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B249" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F249" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B244" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B245" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="246" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B246" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B247" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="248" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B248" s="7" t="s">
+    <row r="250" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E248" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="249" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="250" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B250" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E250" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B251" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E251" t="s">
+      <c r="F251" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B252" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F252" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B253" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C253" s="10"/>
+      <c r="D253" s="10"/>
+      <c r="E253" s="10"/>
+    </row>
+    <row r="254" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B254" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F254" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B255" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F255" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B256" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B257" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B260" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B261" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B262" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="7" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B252" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C252" s="10"/>
-      <c r="D252" s="10"/>
-    </row>
-    <row r="253" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B253" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E253" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="254" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B254" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E254" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="255" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B255" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B256" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>1</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>2</v>
-      </c>
-      <c r="B258" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B259" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G259">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B260" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G260">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B261" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G261">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B262" s="7" t="s">
+      <c r="H264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B263" s="7" t="s">
+      <c r="F265" t="s">
+        <v>219</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F266" t="s">
+        <v>220</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F267" t="s">
+        <v>221</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B272" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B264" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E264" t="s">
-        <v>220</v>
-      </c>
-      <c r="G264">
-        <v>0</v>
-      </c>
-      <c r="H264" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B265" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E265" t="s">
-        <v>221</v>
-      </c>
-      <c r="G265">
-        <v>0</v>
-      </c>
-      <c r="H265" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B266" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E266" t="s">
-        <v>222</v>
-      </c>
-      <c r="G266">
-        <v>0</v>
-      </c>
-      <c r="H266" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B267" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G267">
-        <v>0</v>
-      </c>
-      <c r="H267" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B268" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G268">
-        <v>0</v>
-      </c>
-      <c r="H268" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B269" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G269">
-        <v>0</v>
-      </c>
-      <c r="H269" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B271" s="7" t="s">
-        <v>219</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:I269"/>
+  <autoFilter ref="A7:J270">
+    <filterColumn colId="7">
+      <filters blank="1">
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -2550,10 +2550,10 @@
   <dimension ref="A1:J272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B193" sqref="B193"/>
+      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>2</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>2</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="7" t="s">
         <v>385</v>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$J$270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$J$276</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="405">
   <si>
     <t>Reports</t>
   </si>
@@ -1374,6 +1374,24 @@
   </si>
   <si>
     <t>Report - Output Report</t>
+  </si>
+  <si>
+    <t>Changes in input fields according to Input Excel File</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>User Full Name</t>
+  </si>
+  <si>
+    <t>Stop/Start/Restart Mongodb Service</t>
+  </si>
+  <si>
+    <t>read list of files in log folder</t>
+  </si>
+  <si>
+    <t>Export / Import collections</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1501,9 +1519,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1528,8 +1543,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2547,13 +2564,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J272"/>
+  <dimension ref="A1:J278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomRight" activeCell="H239" sqref="H239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,10 +2698,10 @@
       <c r="C11" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>42760</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="12" t="s">
         <v>138</v>
       </c>
@@ -2721,16 +2738,16 @@
       <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>42760</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="19"/>
       <c r="F14" t="s">
         <v>138</v>
       </c>
@@ -2742,16 +2759,16 @@
       <c r="A15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>298</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>42760</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="19"/>
       <c r="F15" t="s">
         <v>290</v>
       </c>
@@ -2853,16 +2870,16 @@
       <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>42760</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="19"/>
       <c r="H22">
         <v>0</v>
       </c>
@@ -2871,17 +2888,17 @@
       <c r="A23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <v>42760</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="E23" s="19"/>
+      <c r="G23" s="19"/>
       <c r="H23">
         <v>0</v>
       </c>
@@ -2890,16 +2907,16 @@
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>280</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>42760</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="19"/>
       <c r="F24" t="s">
         <v>290</v>
       </c>
@@ -2909,12 +2926,12 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>353</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
       <c r="H25">
         <v>0</v>
       </c>
@@ -2934,12 +2951,12 @@
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
       <c r="H27" s="12">
         <v>0</v>
       </c>
@@ -2951,9 +2968,9 @@
       <c r="B28" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
       <c r="H28" s="12">
         <v>0</v>
       </c>
@@ -2962,12 +2979,12 @@
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
       <c r="H29" s="12">
         <v>2</v>
       </c>
@@ -2976,27 +2993,27 @@
       <c r="A30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
       <c r="H30" s="12">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="H31" s="3">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="H31" s="12">
         <v>2</v>
       </c>
     </row>
@@ -3030,42 +3047,44 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D34" s="27">
+        <v>42818</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="16" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="H35" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="H36">
-        <v>0</v>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="H36" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3073,7 +3092,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -3087,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -3101,7 +3120,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -3110,112 +3129,112 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>289</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D40" s="20">
-        <v>42760</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>285</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="19">
         <v>42760</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" t="s">
+      <c r="E41" s="19"/>
+      <c r="F41" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D42" s="19">
+        <v>42760</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" t="s">
         <v>138</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>291</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="G42" t="s">
-        <v>320</v>
-      </c>
       <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="9" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
       <c r="G43" t="s">
         <v>320</v>
       </c>
       <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="G44" t="s">
+        <v>320</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="H45">
-        <v>0</v>
-      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -3229,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -3243,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -3253,16 +3272,15 @@
       </c>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+      <c r="A49" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B49" s="9" t="s">
-        <v>367</v>
+        <v>223</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="G49" t="s">
-        <v>320</v>
-      </c>
       <c r="H49">
         <v>0</v>
       </c>
@@ -3270,75 +3288,69 @@
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="G50" t="s">
+        <v>320</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="G51" t="s">
         <v>374</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="10" t="s">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="H51" s="11" t="s">
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="H52" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="18" t="s">
+    <row r="53" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="7" t="s">
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D54" s="20">
-        <v>42760</v>
-      </c>
-      <c r="E54" s="20"/>
-      <c r="F54" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H54" s="12">
+      <c r="H54">
         <v>0</v>
       </c>
     </row>
@@ -3346,16 +3358,16 @@
       <c r="A55" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>284</v>
+      <c r="B55" s="25" t="s">
+        <v>283</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="19">
         <v>42760</v>
       </c>
-      <c r="E55" s="20"/>
+      <c r="E55" s="19"/>
       <c r="F55" s="12" t="s">
         <v>133</v>
       </c>
@@ -3363,63 +3375,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
+    <row r="56" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D56" s="19">
+        <v>42760</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D57" s="19">
         <v>42817</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E57" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F57" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="H56" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="8" t="s">
+      <c r="H57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="H58">
-        <v>0</v>
-      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="H59">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3427,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -3441,13 +3460,13 @@
         <v>2</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="H61">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3455,7 +3474,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -3469,7 +3488,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -3478,117 +3497,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B64" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="H65">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" t="s">
-        <v>309</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D65" s="28">
-        <v>42775</v>
-      </c>
-      <c r="E65" s="28"/>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D66" s="28">
+      <c r="D66" s="26">
         <v>42775</v>
       </c>
-      <c r="E66" s="28"/>
+      <c r="E66" s="26"/>
       <c r="H66">
         <v>0</v>
       </c>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D67" s="28">
+      <c r="D67" s="26">
         <v>42775</v>
       </c>
-      <c r="E67" s="28"/>
+      <c r="E67" s="26"/>
       <c r="H67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" t="s">
+        <v>311</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D68" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E68" s="26"/>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" t="s">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" t="s">
         <v>41</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H69" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="7" t="s">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69" s="6">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="H70" s="12">
-        <v>0</v>
-      </c>
-      <c r="I70" s="14">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" s="6">
         <v>42697</v>
       </c>
     </row>
@@ -3597,7 +3613,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -3606,21 +3622,24 @@
         <v>0</v>
       </c>
       <c r="I71" s="14">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="H72" s="12">
+        <v>0</v>
+      </c>
+      <c r="I72" s="14">
         <v>42698</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72" s="6">
-        <v>42697</v>
       </c>
     </row>
     <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3628,19 +3647,21 @@
         <v>2</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73" s="6"/>
+      <c r="I73" s="6">
+        <v>42697</v>
+      </c>
     </row>
     <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3652,87 +3673,87 @@
         <v>2</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="18" t="s">
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="3" t="s">
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H77" s="12">
         <v>3</v>
       </c>
-      <c r="I76" s="27"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="7" t="s">
+      <c r="I77" s="14"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>133</v>
       </c>
-      <c r="H77">
+      <c r="H78">
         <v>3</v>
       </c>
-      <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="13" t="s">
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="12" t="s">
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H79" s="12">
         <v>3</v>
       </c>
-      <c r="I78" s="14"/>
-    </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F79" t="s">
-        <v>138</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79" s="6"/>
+      <c r="I79" s="14"/>
     </row>
     <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H80" s="12">
+        <v>243</v>
+      </c>
+      <c r="F80" t="s">
+        <v>138</v>
+      </c>
+      <c r="H80">
         <v>0</v>
       </c>
       <c r="I80" s="6"/>
@@ -3741,17 +3762,10 @@
       <c r="A81" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B81" t="s">
-        <v>312</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D81" s="28">
-        <v>42775</v>
-      </c>
-      <c r="E81" s="28"/>
-      <c r="H81">
+      <c r="B81" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H81" s="12">
         <v>0</v>
       </c>
       <c r="I81" s="6"/>
@@ -3761,15 +3775,15 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D82" s="28">
+      <c r="D82" s="26">
         <v>42775</v>
       </c>
-      <c r="E82" s="28"/>
+      <c r="E82" s="26"/>
       <c r="H82">
         <v>0</v>
       </c>
@@ -3780,190 +3794,209 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D83" s="28">
+      <c r="D83" s="26">
         <v>42775</v>
       </c>
-      <c r="E83" s="28"/>
+      <c r="E83" s="26"/>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" t="s">
+        <v>314</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D84" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E84" s="26"/>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" t="s">
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" t="s">
         <v>133</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H84" s="12">
-        <v>0</v>
-      </c>
-      <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-      <c r="B85" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="D85" s="28">
-        <v>42818</v>
-      </c>
-      <c r="E85" s="28"/>
-      <c r="F85" t="s">
-        <v>138</v>
-      </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="12"/>
+      <c r="H85" s="12">
+        <v>0</v>
+      </c>
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C86" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="D86" s="28">
+      <c r="D86" s="26">
         <v>42818</v>
       </c>
-      <c r="E86" s="28"/>
+      <c r="E86" s="26"/>
       <c r="F86" t="s">
         <v>138</v>
       </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="12"/>
+      <c r="G86" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="H86" s="12">
+        <v>0</v>
+      </c>
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D87" s="26">
+        <v>42818</v>
+      </c>
+      <c r="E87" s="26"/>
+      <c r="F87" t="s">
+        <v>138</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="H87" s="12">
+        <v>0</v>
+      </c>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
+      <c r="B88" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="6"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="12"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="G88" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="H88" s="12">
+        <v>0</v>
+      </c>
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
+      <c r="B90" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="G89" s="7" t="s">
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="G90" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H90" s="12">
         <v>1</v>
       </c>
-      <c r="I89" s="6"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="8" t="s">
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="H90" t="s">
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="H91" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="7" t="s">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="22" t="s">
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C93" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="D92" s="20">
+      <c r="D93" s="19">
         <v>42760</v>
       </c>
-      <c r="E92" s="20"/>
-      <c r="H92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="7" t="s">
+      <c r="E93" s="19"/>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H93">
+      <c r="H94">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="7" t="s">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G95" t="s">
-        <v>368</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3972,184 +4005,185 @@
     <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G96" t="s">
+        <v>368</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12"/>
+      <c r="B97" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G97" t="s">
         <v>320</v>
       </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="8" t="s">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="H97" t="s">
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="H98" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" s="9" t="s">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="H98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="25" t="s">
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C100" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="D99" s="20">
+      <c r="D100" s="19">
         <v>42760</v>
       </c>
-      <c r="E99" s="20"/>
-      <c r="H99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="10" t="s">
+      <c r="E100" s="19"/>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="H100" t="s">
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="H101" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="7" t="s">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="21" t="s">
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C103" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="D102" s="20">
+      <c r="D103" s="19">
         <v>42760</v>
       </c>
-      <c r="E102" s="20"/>
-      <c r="H102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
+      <c r="E103" s="19"/>
+      <c r="H103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
-      <c r="B104" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
+      <c r="B104" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+      <c r="B106" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="8" t="s">
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-    </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B108" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="7" t="s">
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4157,104 +4191,101 @@
         <v>2</v>
       </c>
       <c r="B111" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="8" t="s">
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-    </row>
-    <row r="113" spans="1:9" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D113" s="20">
-        <v>42760</v>
-      </c>
-      <c r="E113" s="20"/>
-      <c r="F113" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H113" s="12">
-        <v>0</v>
-      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:9" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="24" t="s">
-        <v>292</v>
+      <c r="B114" s="22" t="s">
+        <v>279</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D114" s="20">
+      <c r="D114" s="19">
         <v>42760</v>
       </c>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20" t="s">
+      <c r="E114" s="19"/>
+      <c r="F114" s="12" t="s">
         <v>138</v>
       </c>
       <c r="H114" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="19" t="s">
+    <row r="115" spans="1:9" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D115" s="19">
+        <v>42760</v>
+      </c>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H115" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="12" t="s">
+      <c r="C116" s="13"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="H115" s="12">
+      <c r="H116" s="12">
         <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F116" t="s">
-        <v>138</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
+      <c r="B117" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F117" t="s">
+        <v>138</v>
+      </c>
       <c r="H117">
         <v>0</v>
       </c>
@@ -4264,72 +4295,81 @@
         <v>2</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="H118">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="H119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F120" t="s">
         <v>133</v>
       </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="7" t="s">
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="12"/>
+      <c r="B121" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" s="7" t="s">
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F121" t="s">
+      <c r="D122" s="26">
+        <v>42818</v>
+      </c>
+      <c r="F122" t="s">
         <v>138</v>
       </c>
-      <c r="H121">
+      <c r="H122">
         <v>1</v>
       </c>
-      <c r="I121" s="6">
+      <c r="I122" s="6">
         <v>42702</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="7" t="s">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>122</v>
+      <c r="H123">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4337,7 +4377,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4345,7 +4385,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4353,7 +4393,7 @@
         <v>2</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4361,7 +4401,7 @@
         <v>2</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4369,83 +4409,76 @@
         <v>2</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-    </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
     </row>
     <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B131" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" s="7" t="s">
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
-      <c r="B133" s="7" t="s">
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="12"/>
+      <c r="B134" s="7" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" s="8" t="s">
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="8" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B135" t="s">
-        <v>304</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D135" s="28">
-        <v>42775</v>
-      </c>
-      <c r="E135" s="28"/>
-      <c r="H135">
-        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4453,8 +4486,15 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>306</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D136" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E136" s="26"/>
       <c r="H136">
         <v>0</v>
       </c>
@@ -4464,28 +4504,28 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
+        <v>306</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" t="s">
         <v>316</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C138" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D137" s="28">
+      <c r="D138" s="26">
         <v>42775</v>
       </c>
-      <c r="E137" s="28"/>
-      <c r="H137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="E138" s="26"/>
       <c r="H138">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4493,183 +4533,183 @@
         <v>2</v>
       </c>
       <c r="B139" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="7" t="s">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A141" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="17" t="s">
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A142" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B142" s="8" t="s">
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-    </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
     </row>
     <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B144" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
-      <c r="B145" s="9" t="s">
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="12"/>
+      <c r="B146" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A146" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A147" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>324</v>
-      </c>
+      <c r="B147" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B148" s="9" t="s">
-        <v>332</v>
+      <c r="B148" s="8" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
-      <c r="B150" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D150" s="28">
-        <v>42809</v>
-      </c>
-      <c r="E150" s="28"/>
-      <c r="H150">
-        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D151" s="28">
+      <c r="D151" s="26">
         <v>42809</v>
       </c>
-      <c r="E151" s="28"/>
+      <c r="E151" s="26"/>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="D152" s="28">
+        <v>389</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D152" s="26">
         <v>42809</v>
       </c>
-      <c r="E152" s="28"/>
+      <c r="E152" s="26"/>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
-      <c r="B153" s="9"/>
+      <c r="B153" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D153" s="26">
+        <v>42809</v>
+      </c>
+      <c r="E153" s="26"/>
+      <c r="H153">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C154" s="8"/>
-    </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+      <c r="B154" s="9"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B155" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="H155">
-        <v>0</v>
-      </c>
+      <c r="B155" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C155" s="8"/>
     </row>
     <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -4682,9 +4722,12 @@
       <c r="A157" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B157" s="7" t="s">
-        <v>251</v>
-      </c>
+      <c r="B157" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
       <c r="H157">
         <v>0</v>
       </c>
@@ -4694,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -4705,47 +4748,50 @@
         <v>1</v>
       </c>
       <c r="B159" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
-      <c r="B160" s="10" t="s">
-        <v>235</v>
+      <c r="H160">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="12"/>
+      <c r="B162" s="7" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="H162" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H163">
-        <v>0</v>
+      <c r="B163" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="H163" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -4753,16 +4799,10 @@
         <v>1</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F164" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="H164">
         <v>0</v>
-      </c>
-      <c r="I164" s="6">
-        <v>42702</v>
       </c>
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -4770,57 +4810,57 @@
         <v>1</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>270</v>
+        <v>224</v>
+      </c>
+      <c r="F165" t="s">
+        <v>138</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
-      <c r="I165" s="6"/>
+      <c r="I165" s="6">
+        <v>42702</v>
+      </c>
     </row>
     <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G166" t="s">
-        <v>138</v>
+        <v>270</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B167" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="H167" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G167" t="s">
+        <v>138</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167" s="6"/>
+    </row>
+    <row r="168" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>254</v>
+        <v>117</v>
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
-      <c r="G168" t="s">
-        <v>138</v>
-      </c>
       <c r="H168" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4828,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
@@ -4840,122 +4880,121 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B170" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="B170" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
       <c r="G170" t="s">
         <v>138</v>
       </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H170" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B171" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="H171" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G171" t="s">
+        <v>138</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="H172" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B173" s="13" t="s">
+      <c r="B173" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H173" s="12">
-        <v>0</v>
-      </c>
-      <c r="I173" s="14">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="13" t="s">
-        <v>346</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
+      <c r="F174" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="H174" s="12">
-        <v>2</v>
-      </c>
-      <c r="I174" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="I174" s="14">
+        <v>42702</v>
+      </c>
     </row>
     <row r="175" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="12" t="s">
+      <c r="B175" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
+      <c r="H175" s="12">
+        <v>2</v>
+      </c>
+      <c r="I175" s="14"/>
+    </row>
+    <row r="176" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="H176" s="12">
         <v>1</v>
       </c>
-      <c r="B175" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="15"/>
-      <c r="F175" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H175" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I175" s="14"/>
-    </row>
-    <row r="176" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B176" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="15"/>
-      <c r="H176" s="12">
-        <v>2</v>
-      </c>
       <c r="I176" s="14"/>
     </row>
-    <row r="177" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="19" t="s">
-        <v>347</v>
+      <c r="B177" s="15" t="s">
+        <v>259</v>
       </c>
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
-      <c r="H177" s="12">
-        <v>0</v>
+      <c r="F177" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H177" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="I177" s="14"/>
     </row>
@@ -4963,29 +5002,29 @@
       <c r="A178" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B178" s="19" t="s">
-        <v>326</v>
+      <c r="B178" s="18" t="s">
+        <v>295</v>
       </c>
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
+      <c r="H178" s="12">
+        <v>1</v>
+      </c>
       <c r="I178" s="14"/>
     </row>
-    <row r="179" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B179" s="15" t="s">
-        <v>261</v>
+      <c r="B179" s="18" t="s">
+        <v>347</v>
       </c>
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
-      <c r="F179" s="12" t="s">
-        <v>133</v>
-      </c>
       <c r="H179" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" s="14"/>
     </row>
@@ -4993,15 +5032,12 @@
       <c r="A180" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B180" s="19" t="s">
-        <v>329</v>
+      <c r="B180" s="18" t="s">
+        <v>326</v>
       </c>
       <c r="C180" s="15"/>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
-      <c r="H180" s="12">
-        <v>2</v>
-      </c>
       <c r="I180" s="14"/>
     </row>
     <row r="181" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5009,23 +5045,32 @@
         <v>1</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>327</v>
+        <v>261</v>
       </c>
       <c r="C181" s="15"/>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
+      <c r="F181" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H181" s="12">
+        <v>2</v>
+      </c>
       <c r="I181" s="14"/>
     </row>
     <row r="182" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="15" t="s">
-        <v>328</v>
+      <c r="B182" s="18" t="s">
+        <v>329</v>
       </c>
       <c r="C182" s="15"/>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
+      <c r="H182" s="12">
+        <v>2</v>
+      </c>
       <c r="I182" s="14"/>
     </row>
     <row r="183" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5033,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="C183" s="15"/>
       <c r="D183" s="15"/>
@@ -5044,50 +5089,50 @@
       <c r="A184" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B184" s="13" t="s">
+      <c r="B184" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="I184" s="14"/>
+    </row>
+    <row r="185" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="I185" s="14"/>
+    </row>
+    <row r="186" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C184" s="13"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="12" t="s">
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H184" s="12">
+      <c r="H186" s="12">
         <v>3</v>
       </c>
-      <c r="I184" s="14"/>
-    </row>
-    <row r="185" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A185" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B185" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="I185" s="6"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H186">
-        <v>3</v>
-      </c>
-      <c r="I186" s="6"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I186" s="14"/>
+    </row>
+    <row r="187" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A187" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="B187" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H187">
-        <v>3</v>
+      <c r="B187" s="16" t="s">
+        <v>321</v>
       </c>
       <c r="I187" s="6"/>
     </row>
@@ -5096,7 +5141,7 @@
         <v>335</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="H188">
         <v>3</v>
@@ -5108,22 +5153,22 @@
         <v>335</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H189">
         <v>3</v>
       </c>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>335</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I190" s="6"/>
     </row>
@@ -5132,22 +5177,22 @@
         <v>335</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
         <v>335</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" s="6"/>
     </row>
@@ -5156,10 +5201,10 @@
         <v>335</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" s="6"/>
     </row>
@@ -5168,7 +5213,7 @@
         <v>335</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H194">
         <v>3</v>
@@ -5176,210 +5221,186 @@
       <c r="I194" s="6"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="12"/>
+      <c r="A195" s="12" t="s">
+        <v>335</v>
+      </c>
       <c r="B195" s="7" t="s">
-        <v>356</v>
+        <v>341</v>
+      </c>
+      <c r="H195">
+        <v>3</v>
       </c>
       <c r="I195" s="6"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="12"/>
+      <c r="A196" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H196">
+        <v>3</v>
+      </c>
       <c r="I196" s="6"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
       <c r="B197" s="7" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="I197" s="6"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
-      <c r="B198" s="7" t="s">
-        <v>381</v>
-      </c>
       <c r="I198" s="6"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
       <c r="B199" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="I199" s="6"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="12"/>
+      <c r="B200" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I200" s="6"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="12"/>
+      <c r="B201" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="I199" s="6"/>
-    </row>
-    <row r="200" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B200" s="17" t="s">
+      <c r="I201" s="6"/>
+    </row>
+    <row r="202" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B202" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="I200" s="6"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B201" s="15" t="s">
+      <c r="I202" s="6"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B203" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="I201" s="6"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B202" s="7" t="s">
+      <c r="I203" s="6"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B204" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="H202">
-        <v>2</v>
-      </c>
-      <c r="I202" s="6"/>
-    </row>
-    <row r="203" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="12" t="s">
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204" s="6"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I205" s="6"/>
+    </row>
+    <row r="206" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="B203" s="15" t="s">
+      <c r="B206" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="C203" s="15"/>
-      <c r="D203" s="15"/>
-      <c r="E203" s="15"/>
-      <c r="I203" s="14"/>
-    </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F204" t="s">
-        <v>133</v>
-      </c>
-      <c r="H204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H205">
-        <v>9</v>
-      </c>
-      <c r="J205" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="12"/>
-      <c r="B206" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="H206">
-        <v>0</v>
-      </c>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+      <c r="I206" s="14"/>
     </row>
     <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
         <v>317</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>331</v>
+        <v>134</v>
+      </c>
+      <c r="F207" t="s">
+        <v>133</v>
       </c>
       <c r="H207">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
         <v>317</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="H208">
-        <v>2</v>
-      </c>
-      <c r="I208" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="J208" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
+      <c r="A209" s="12"/>
+      <c r="B209" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="B209" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H209">
-        <v>0</v>
-      </c>
-      <c r="J209" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
       <c r="B210" s="7" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>299</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211" s="6"/>
     </row>
     <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="H212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="12" t="s">
-        <v>299</v>
-      </c>
+      <c r="J212" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="12"/>
       <c r="B213" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F213" t="s">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="H213">
-        <v>0</v>
-      </c>
-      <c r="I213" s="6">
-        <v>42702</v>
-      </c>
-      <c r="J213" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="B214" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C214" s="9"/>
-      <c r="D214" s="9"/>
-      <c r="E214" s="9"/>
-      <c r="H214">
-        <v>0</v>
-      </c>
-      <c r="I214" s="6">
-        <v>42702</v>
-      </c>
-      <c r="J214" t="s">
-        <v>144</v>
+      <c r="B214" s="8" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -5387,16 +5408,10 @@
         <v>299</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F215" t="s">
-        <v>133</v>
+        <v>300</v>
       </c>
       <c r="H215">
         <v>0</v>
-      </c>
-      <c r="I215" s="6">
-        <v>42702</v>
       </c>
     </row>
     <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -5404,505 +5419,592 @@
         <v>299</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F216" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H216">
         <v>0</v>
+      </c>
+      <c r="I216" s="6">
+        <v>42702</v>
+      </c>
+      <c r="J216" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="B217" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F217" t="s">
-        <v>135</v>
-      </c>
+      <c r="B217" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C217" s="9"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9"/>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217" s="6">
-        <v>42697</v>
+        <v>42702</v>
       </c>
       <c r="J217" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
         <v>299</v>
       </c>
       <c r="B218" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F218" t="s">
+        <v>133</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F219" t="s">
+        <v>135</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F220" t="s">
+        <v>135</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220" s="6">
+        <v>42697</v>
+      </c>
+      <c r="J220" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B221" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H218">
-        <v>2</v>
-      </c>
-      <c r="I218" s="6"/>
-    </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="12"/>
-      <c r="B219" s="13" t="s">
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221" s="6"/>
+    </row>
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="12"/>
+      <c r="B222" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="H219">
+      <c r="H222">
         <v>9</v>
       </c>
-      <c r="I219" s="6"/>
-    </row>
-    <row r="220" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B220" s="17" t="s">
+      <c r="I222" s="6"/>
+    </row>
+    <row r="223" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B223" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C220" s="17"/>
-      <c r="D220" s="17"/>
-      <c r="E220" s="17"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B221" s="8" t="s">
+      <c r="C223" s="16"/>
+      <c r="D223" s="16"/>
+      <c r="E223" s="16"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B224" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H221">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
+      <c r="H224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
         <v>315</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C225" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D222" s="28">
+      <c r="D225" s="26">
         <v>42775</v>
       </c>
-      <c r="E222" s="28"/>
-      <c r="H222">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B223" s="7" t="s">
+      <c r="E225" s="26"/>
+      <c r="H225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B226" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H223">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
+      <c r="H226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
         <v>307</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="C227" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D224" s="28">
+      <c r="D227" s="26">
         <v>42775</v>
       </c>
-      <c r="E224" s="28"/>
-      <c r="H224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B225" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H225">
-        <v>2</v>
-      </c>
-      <c r="I225" s="6"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B226" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="I226" s="6"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B227" s="7" t="s">
-        <v>359</v>
-      </c>
+      <c r="E227" s="26"/>
       <c r="H227">
-        <v>3</v>
-      </c>
-      <c r="I227" s="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B228" s="7" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I228" s="6"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B229" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H229">
-        <v>3</v>
+      <c r="B229" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="I229" s="6"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B230" s="7" t="s">
-        <v>383</v>
+        <v>359</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
       </c>
       <c r="I230" s="6"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B231" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H231">
+        <v>3</v>
+      </c>
+      <c r="I231" s="6"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B232" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H232">
+        <v>3</v>
+      </c>
+      <c r="I232" s="6"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B233" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="I233" s="6"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B234" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="I231" s="6"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B232" s="8" t="s">
+      <c r="H234">
+        <v>2</v>
+      </c>
+      <c r="I234" s="6"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B235" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H235">
+        <v>2</v>
+      </c>
+      <c r="I235" s="6"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B236" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H236">
+        <v>2</v>
+      </c>
+      <c r="I236" s="6"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B237" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H237">
+        <v>2</v>
+      </c>
+      <c r="I237" s="6"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B238" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C232" s="8"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="C238" s="8"/>
+      <c r="D238" s="8"/>
+      <c r="E238" s="8"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239">
         <v>1</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B239" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F239" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>2</v>
-      </c>
-      <c r="B234" s="7" t="s">
+    <row r="240" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>2</v>
+      </c>
+      <c r="B240" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F240" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241">
         <v>3</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B241" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F241" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242">
         <v>4</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="B242" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>174</v>
       </c>
-      <c r="B237" s="7" t="s">
+      <c r="B243" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F243" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B238" s="7" t="s">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B244" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F244" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B239" s="7" t="s">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B245" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F245" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B240" s="7" t="s">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B246" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F246" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="241" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B241" s="7" t="s">
+    <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B247" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F247" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="242" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B242" s="7" t="s">
+    <row r="248" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B248" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F248" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B243" s="10" t="s">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B249" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C243" s="10"/>
-      <c r="D243" s="10"/>
-      <c r="E243" s="10"/>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B244" s="7" t="s">
+      <c r="C249" s="10"/>
+      <c r="D249" s="10"/>
+      <c r="E249" s="10"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B250" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F250" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B245" s="7" t="s">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B251" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B246" s="7" t="s">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B252" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="247" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B247" s="7" t="s">
+    <row r="253" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B253" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B248" s="7" t="s">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B254" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="249" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B249" s="7" t="s">
+    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B255" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F249" t="s">
+      <c r="F255" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="250" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="7" t="s">
+    <row r="256" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="251" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B251" s="7" t="s">
+    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B257" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F257" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B252" s="7" t="s">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B258" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F258" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B253" s="10" t="s">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B259" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C253" s="10"/>
-      <c r="D253" s="10"/>
-      <c r="E253" s="10"/>
-    </row>
-    <row r="254" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B254" s="7" t="s">
+      <c r="C259" s="10"/>
+      <c r="D259" s="10"/>
+      <c r="E259" s="10"/>
+    </row>
+    <row r="260" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B260" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F260" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="255" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B255" s="7" t="s">
+    <row r="261" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B261" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F261" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="256" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B256" s="7" t="s">
+    <row r="262" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B262" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B257" s="7" t="s">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B263" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A258">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264">
         <v>1</v>
       </c>
-      <c r="B258" s="7" t="s">
+      <c r="B264" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>2</v>
-      </c>
-      <c r="B259" s="7" t="s">
+      <c r="H264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2</v>
+      </c>
+      <c r="B265" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B260" s="7" t="s">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B266" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H260">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B261" s="7" t="s">
+      <c r="H266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B267" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H261">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B262" s="7" t="s">
+      <c r="H267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B268" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H262">
+      <c r="H268">
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="7" t="s">
+    <row r="269" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F265" t="s">
-        <v>219</v>
-      </c>
-      <c r="H265">
-        <v>0</v>
-      </c>
-      <c r="I265" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F266" t="s">
-        <v>220</v>
-      </c>
-      <c r="H266">
-        <v>0</v>
-      </c>
-      <c r="I266" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F267" t="s">
-        <v>221</v>
-      </c>
-      <c r="H267">
-        <v>0</v>
-      </c>
-      <c r="I267" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H268">
-        <v>0</v>
-      </c>
-      <c r="I268" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="H269">
         <v>0</v>
-      </c>
-      <c r="I269" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F271" t="s">
+        <v>219</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F272" t="s">
+        <v>220</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F273" t="s">
+        <v>221</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H270">
-        <v>0</v>
-      </c>
-      <c r="I270" t="s">
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B272" s="7" t="s">
+    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B278" s="7" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:J270">
+  <autoFilter ref="A7:J276">
     <filterColumn colId="7">
       <filters blank="1">
         <filter val="1"/>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -2567,10 +2567,10 @@
   <dimension ref="A1:J278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B232" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H239" sqref="H239"/>
+      <selection pane="bottomRight" activeCell="H228" sqref="H228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>2</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>2</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="9" t="s">
         <v>363</v>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>2</v>
       </c>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="I77" s="14"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>2</v>
       </c>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>2</v>
       </c>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="7" t="s">
         <v>390</v>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="7" t="s">
         <v>391</v>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="7" t="s">
         <v>393</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>2</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>2</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="18" t="s">
         <v>371</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>2</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="7" t="s">
         <v>377</v>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>2</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
         <v>1</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="9" t="s">
         <v>388</v>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="9" t="s">
         <v>389</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="9" t="s">
         <v>385</v>
@@ -4771,7 +4771,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="7" t="s">
         <v>345</v>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>1</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>1</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="13" t="s">
         <v>346</v>
       </c>
@@ -5040,7 +5040,7 @@
       <c r="E180" s="15"/>
       <c r="I180" s="14"/>
     </row>
-    <row r="181" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>1</v>
       </c>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="I181" s="14"/>
     </row>
-    <row r="182" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>1</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="E185" s="15"/>
       <c r="I185" s="14"/>
     </row>
-    <row r="186" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>1</v>
       </c>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
         <v>335</v>
       </c>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>335</v>
       </c>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>335</v>
       </c>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
         <v>335</v>
       </c>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>335</v>
       </c>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
         <v>335</v>
       </c>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
         <v>335</v>
       </c>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
         <v>335</v>
       </c>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="I203" s="6"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204" s="7" t="s">
         <v>352</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
         <v>317</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="7" t="s">
         <v>348</v>
@@ -5505,7 +5505,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
         <v>299</v>
       </c>
@@ -5535,7 +5535,7 @@
       <c r="D223" s="16"/>
       <c r="E223" s="16"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="8" t="s">
         <v>262</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>315</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" s="7" t="s">
         <v>349</v>
       </c>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="I230" s="6"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="7" t="s">
         <v>360</v>
       </c>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="I231" s="6"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="7" t="s">
         <v>361</v>
       </c>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="I233" s="6"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="7" t="s">
         <v>357</v>
       </c>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="I234" s="6"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235" s="7" t="s">
         <v>402</v>
       </c>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="I235" s="6"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="7" t="s">
         <v>403</v>
       </c>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="I236" s="6"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="7" t="s">
         <v>404</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B266" s="7" t="s">
         <v>198</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B267" s="7" t="s">
         <v>199</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B268" s="7" t="s">
         <v>200</v>
       </c>
@@ -6008,8 +6008,6 @@
     <filterColumn colId="7">
       <filters blank="1">
         <filter val="1"/>
-        <filter val="2"/>
-        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$J$276</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$J$289</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="418">
   <si>
     <t>Reports</t>
   </si>
@@ -829,9 +829,6 @@
   </si>
   <si>
     <t>About us</t>
-  </si>
-  <si>
-    <t>Filters + No match found, Review pending</t>
   </si>
   <si>
     <t>Status legend - horizontal</t>
@@ -1064,9 +1061,6 @@
     <t>Focus on currently selected item button - so that the page scrolls and displays the currently selected item.</t>
   </si>
   <si>
-    <t>Filters: By User Name</t>
-  </si>
-  <si>
     <t>Filter: From, To</t>
   </si>
   <si>
@@ -1376,9 +1370,6 @@
     <t>Report - Output Report</t>
   </si>
   <si>
-    <t>Changes in input fields according to Input Excel File</t>
-  </si>
-  <si>
     <t>ICON</t>
   </si>
   <si>
@@ -1392,6 +1383,54 @@
   </si>
   <si>
     <t>Export / Import collections</t>
+  </si>
+  <si>
+    <t>Filters: By User Name, roles, active</t>
+  </si>
+  <si>
+    <t>Filters + No match found, Review pending, Principal Investigator</t>
+  </si>
+  <si>
+    <t>List of Matches - new section</t>
+  </si>
+  <si>
+    <t>Source date to World Check - all manual sites in Mandatory section</t>
+  </si>
+  <si>
+    <t>Institute World Check - Findings tab</t>
+  </si>
+  <si>
+    <t>Expand classfication types and Deficiency Codes</t>
+  </si>
+  <si>
+    <t>Color legend compliance form- top</t>
+  </si>
+  <si>
+    <t>Revised Search Logic - based on First Name, Middle Name Last Name</t>
+  </si>
+  <si>
+    <t>Changes in Investigator input fields according to Input Excel File</t>
+  </si>
+  <si>
+    <t>Display Single compnent count in Invest. Summary</t>
+  </si>
+  <si>
+    <t>Generate Output Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revised Reading logic for Input Excel Template </t>
+  </si>
+  <si>
+    <t>Addition of 'Name Searched' in Findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display single component matches - site wise </t>
+  </si>
+  <si>
+    <t>Provision to transfer to findings from single component match</t>
+  </si>
+  <si>
+    <t>Sam Site Converting from Live to DB</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1484,11 +1523,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1546,7 +1600,30 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2564,13 +2641,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J278"/>
+  <dimension ref="A1:J291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B199" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H228" sqref="H228"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,19 +2697,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F6" t="s">
         <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -2646,10 +2723,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
@@ -2693,10 +2770,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D11" s="19">
         <v>42760</v>
@@ -2709,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
@@ -2739,10 +2816,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D14" s="19">
         <v>42760</v>
@@ -2760,17 +2837,17 @@
         <v>2</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D15" s="19">
         <v>42760</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2795,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2809,7 +2886,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -2871,10 +2948,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D22" s="19">
         <v>42760</v>
@@ -2889,10 +2966,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D23" s="19">
         <v>42760</v>
@@ -2908,17 +2985,17 @@
         <v>2</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D24" s="19">
         <v>42760</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2927,7 +3004,7 @@
     <row r="25" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="19"/>
@@ -2936,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>2</v>
       </c>
@@ -2966,7 +3043,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -2980,7 +3057,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -3031,38 +3108,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="G33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
-      <c r="B34" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="D34" s="27">
-        <v>42818</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="H34">
+      <c r="B34" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="D34" s="29">
+        <v>42831</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="31">
+        <v>42834</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>2</v>
       </c>
@@ -3073,7 +3155,7 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:8" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>2</v>
       </c>
@@ -3087,7 +3169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>2</v>
       </c>
@@ -3101,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>2</v>
       </c>
@@ -3115,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>2</v>
       </c>
@@ -3129,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>2</v>
       </c>
@@ -3143,15 +3225,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D41" s="19">
         <v>42760</v>
@@ -3164,15 +3246,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D42" s="19">
         <v>42760</v>
@@ -3182,43 +3264,43 @@
         <v>138</v>
       </c>
       <c r="G42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="G43" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="G44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>2</v>
       </c>
@@ -3229,7 +3311,7 @@
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>2</v>
       </c>
@@ -3243,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>2</v>
       </c>
@@ -3257,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>2</v>
       </c>
@@ -3271,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>2</v>
       </c>
@@ -3285,37 +3367,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="G50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="G51" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>2</v>
       </c>
@@ -3329,7 +3411,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>2</v>
       </c>
@@ -3343,26 +3425,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D55" s="19">
         <v>42760</v>
@@ -3375,15 +3457,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D56" s="19">
         <v>42760</v>
@@ -3396,18 +3478,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D57" s="19">
         <v>42817</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>138</v>
@@ -3416,93 +3498,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="8" t="s">
+    <row r="58" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="D58" s="29">
+        <v>42831</v>
+      </c>
+      <c r="E58" s="29"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="31">
+        <v>42834</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="D59" s="29">
+        <v>42831</v>
+      </c>
+      <c r="E59" s="29"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="31">
+        <v>42834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="C60" s="33"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D61" s="35">
+        <v>42831</v>
+      </c>
+      <c r="E61" s="34"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="36">
+        <v>42842</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="D62" s="29">
+        <v>42831</v>
+      </c>
+      <c r="E62" s="29"/>
+      <c r="F62" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="31">
+        <v>42834</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="C63" s="8"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="H59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="H60">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="H61">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="H62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="H63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -3511,9 +3609,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B65" s="9" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -3526,35 +3627,26 @@
       <c r="A66" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B66" t="s">
-        <v>309</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D66" s="26">
-        <v>42775</v>
-      </c>
-      <c r="E66" s="26"/>
+      <c r="B66" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
       <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66" s="6"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B67" t="s">
-        <v>310</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D67" s="26">
-        <v>42775</v>
-      </c>
-      <c r="E67" s="26"/>
+      <c r="B67" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
       <c r="H67">
         <v>0</v>
       </c>
@@ -3563,195 +3655,202 @@
       <c r="A68" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B68" t="s">
-        <v>311</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D68" s="26">
+      <c r="B68" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="H70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>307</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D71" s="26">
         <v>42775</v>
       </c>
-      <c r="E68" s="26"/>
-      <c r="H68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" t="s">
-        <v>41</v>
-      </c>
-      <c r="H69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70" s="6">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="H71" s="12">
-        <v>0</v>
-      </c>
-      <c r="I71" s="14">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="26"/>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="H72" s="12">
-        <v>0</v>
-      </c>
-      <c r="I72" s="14">
-        <v>42698</v>
+      <c r="B72" t="s">
+        <v>308</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D72" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E72" s="26"/>
+      <c r="H72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>142</v>
-      </c>
+      <c r="B73" t="s">
+        <v>309</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D73" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E73" s="26"/>
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73" s="6">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="12"/>
+      <c r="B74" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D74" s="35">
+        <v>42831</v>
+      </c>
+      <c r="E74" s="35"/>
+      <c r="F74" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="31">
+        <v>42834</v>
+      </c>
     </row>
     <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75" s="6"/>
+      <c r="B75" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" t="s">
+        <v>41</v>
+      </c>
+      <c r="H75" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76" s="6"/>
+      <c r="I76" s="6">
+        <v>42697</v>
+      </c>
     </row>
     <row r="77" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
-      <c r="F77" s="12" t="s">
-        <v>133</v>
-      </c>
       <c r="H77" s="12">
-        <v>3</v>
-      </c>
-      <c r="I77" s="14"/>
-    </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I77" s="14">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F78" t="s">
-        <v>133</v>
-      </c>
-      <c r="H78">
-        <v>3</v>
-      </c>
-      <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="H78" s="12">
+        <v>0</v>
+      </c>
+      <c r="I78" s="14">
+        <v>42698</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="H79" s="12">
-        <v>3</v>
-      </c>
-      <c r="I79" s="14"/>
+      <c r="B79" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" s="6">
+        <v>42697</v>
+      </c>
     </row>
     <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F80" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3763,9 +3862,9 @@
         <v>2</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H81" s="12">
+        <v>232</v>
+      </c>
+      <c r="H81">
         <v>0</v>
       </c>
       <c r="I81" s="6"/>
@@ -3774,517 +3873,535 @@
       <c r="A82" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B82" t="s">
-        <v>312</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D82" s="26">
-        <v>42775</v>
-      </c>
-      <c r="E82" s="26"/>
+      <c r="B82" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B83" t="s">
-        <v>313</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D83" s="26">
-        <v>42775</v>
-      </c>
-      <c r="E83" s="26"/>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83" s="6"/>
+      <c r="B83" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H83" s="12">
+        <v>3</v>
+      </c>
+      <c r="I83" s="14"/>
     </row>
     <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B84" t="s">
-        <v>314</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D84" s="26">
-        <v>42775</v>
-      </c>
-      <c r="E84" s="26"/>
+      <c r="B84" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F84" t="s">
+        <v>133</v>
+      </c>
       <c r="H84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" t="s">
-        <v>133</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>320</v>
+      <c r="B85" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="H85" s="12">
-        <v>0</v>
-      </c>
-      <c r="I85" s="6"/>
-    </row>
-    <row r="86" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="I85" s="14"/>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B86" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D86" s="26">
-        <v>42818</v>
-      </c>
-      <c r="E86" s="26"/>
+        <v>243</v>
+      </c>
       <c r="F86" t="s">
         <v>138</v>
       </c>
-      <c r="G86" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="H86" s="12">
+      <c r="H86">
         <v>0</v>
       </c>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B87" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H87" s="12">
+        <v>0</v>
+      </c>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>310</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D88" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E88" s="26"/>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>311</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D89" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E89" s="26"/>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>312</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D90" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E90" s="26"/>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" t="s">
+        <v>133</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H91" s="12">
+        <v>0</v>
+      </c>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
+      <c r="B92" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="D92" s="26">
+        <v>42818</v>
+      </c>
+      <c r="E92" s="26"/>
+      <c r="F92" t="s">
+        <v>138</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H92" s="12">
+        <v>0</v>
+      </c>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12"/>
+      <c r="B93" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="D93" s="26">
+        <v>42818</v>
+      </c>
+      <c r="E93" s="26"/>
+      <c r="F93" t="s">
+        <v>138</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H93" s="12">
+        <v>0</v>
+      </c>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12"/>
+      <c r="B94" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="C87" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D87" s="26">
-        <v>42818</v>
-      </c>
-      <c r="E87" s="26"/>
-      <c r="F87" t="s">
-        <v>138</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="H87" s="12">
-        <v>0</v>
-      </c>
-      <c r="I87" s="6"/>
-    </row>
-    <row r="88" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="G88" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="H88" s="12">
-        <v>0</v>
-      </c>
-      <c r="I88" s="6"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="6"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="G90" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H90" s="12">
-        <v>1</v>
-      </c>
-      <c r="I90" s="6"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="8" t="s">
+      <c r="C94" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="G94" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H94" s="12">
+        <v>0</v>
+      </c>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
+      <c r="B95" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C95" s="17"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="12"/>
+      <c r="B96" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D96" s="35">
+        <v>42831</v>
+      </c>
+      <c r="E96" s="35"/>
+      <c r="F96" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="36">
+        <v>42842</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="12"/>
+      <c r="B97" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D97" s="35">
+        <v>42831</v>
+      </c>
+      <c r="E97" s="35"/>
+      <c r="F97" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="36">
+        <v>42842</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="12"/>
+      <c r="B98" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="12"/>
+      <c r="B99" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="G99" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H99" s="12">
+        <v>0</v>
+      </c>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="H100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D102" s="19">
+        <v>42760</v>
+      </c>
+      <c r="E102" s="19"/>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="12"/>
+      <c r="B105" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G105" t="s">
+        <v>366</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+      <c r="B106" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="H91" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="D93" s="19">
-        <v>42760</v>
-      </c>
-      <c r="E93" s="19"/>
-      <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
-      <c r="B96" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G96" t="s">
-        <v>368</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G97" t="s">
-        <v>320</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" s="8" t="s">
+      <c r="G106" t="s">
+        <v>318</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="H98" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="H99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="D100" s="19">
-        <v>42760</v>
-      </c>
-      <c r="E100" s="19"/>
-      <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="H101" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="D103" s="19">
-        <v>42760</v>
-      </c>
-      <c r="E103" s="19"/>
-      <c r="H103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-    </row>
-    <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-      <c r="B105" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-    </row>
-    <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>355</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
-    </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>239</v>
-      </c>
+      <c r="B108" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
       <c r="H108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>242</v>
-      </c>
+      <c r="B109" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D109" s="19">
+        <v>42760</v>
+      </c>
+      <c r="E109" s="19"/>
       <c r="H109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="H110" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>222</v>
-      </c>
+      <c r="B112" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D112" s="19">
+        <v>42760</v>
+      </c>
+      <c r="E112" s="19"/>
       <c r="H112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-    </row>
-    <row r="114" spans="1:9" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D114" s="19">
-        <v>42760</v>
-      </c>
+    <row r="113" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="12"/>
+      <c r="B113" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+    </row>
+    <row r="114" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="12"/>
+      <c r="B114" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
       <c r="E114" s="19"/>
-      <c r="F114" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H114" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D115" s="19">
-        <v>42760</v>
-      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
+      <c r="B115" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
       <c r="E115" s="19"/>
-      <c r="F115" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H115" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="H116" s="12">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F117" t="s">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -4294,12 +4411,9 @@
       <c r="A118" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
+      <c r="B118" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="H118">
         <v>0</v>
       </c>
@@ -4308,14 +4422,11 @@
       <c r="A119" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
+      <c r="B119" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="H119">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -4323,267 +4434,338 @@
         <v>2</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F120" t="s">
+        <v>252</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
+      <c r="B123" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="C123" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="D123" s="37">
+        <v>42831</v>
+      </c>
+      <c r="E123" s="38"/>
+      <c r="F123" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
-      <c r="B121" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="D122" s="26">
-        <v>42818</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="36">
+        <v>42842</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="12"/>
+      <c r="B124" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="D124" s="37">
+        <v>42831</v>
+      </c>
+      <c r="E124" s="38"/>
+      <c r="F124" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>122</v>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30">
+        <v>0</v>
+      </c>
+      <c r="I124" s="31">
+        <v>42834</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>123</v>
+      <c r="A125" s="12"/>
+      <c r="B125" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="C125" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D125" s="35">
+        <v>42831</v>
+      </c>
+      <c r="E125" s="38"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="36">
+        <v>42842</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+      <c r="B126" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="C126" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D126" s="35">
+        <v>42831</v>
+      </c>
+      <c r="E126" s="38"/>
+      <c r="F126" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30">
+        <v>0</v>
+      </c>
+      <c r="I126" s="31">
+        <v>42834</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D127" s="19">
+        <v>42760</v>
+      </c>
+      <c r="E127" s="19"/>
+      <c r="F127" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H127" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D128" s="19">
+        <v>42760</v>
+      </c>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H128" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="C129" s="13"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H129" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-    </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F130" t="s">
+        <v>138</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>246</v>
-      </c>
+      <c r="B131" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
       <c r="H131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B132" s="7" t="s">
-        <v>247</v>
-      </c>
+      <c r="B132" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
       <c r="H132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>258</v>
+        <v>384</v>
+      </c>
+      <c r="F133" t="s">
+        <v>133</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D135" s="26">
+        <v>42818</v>
+      </c>
+      <c r="F135" t="s">
+        <v>138</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B136" t="s">
-        <v>304</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D136" s="26">
-        <v>42775</v>
-      </c>
-      <c r="E136" s="26"/>
+      <c r="B136" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="H136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B137" t="s">
-        <v>306</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B138" t="s">
-        <v>316</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D138" s="26">
-        <v>42775</v>
-      </c>
-      <c r="E138" s="26"/>
-      <c r="H138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B142" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>259</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>296</v>
+      <c r="B144" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -4593,69 +4775,82 @@
       <c r="A145" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="9" t="s">
-        <v>297</v>
+      <c r="B145" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
-      <c r="B146" s="9" t="s">
-        <v>350</v>
+      <c r="A146" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A147" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="12"/>
+      <c r="B147" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>332</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B149" t="s">
+        <v>302</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D149" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E149" s="26"/>
       <c r="H149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>387</v>
+        <v>2</v>
+      </c>
+      <c r="B150" t="s">
+        <v>304</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
-      <c r="B151" s="9" t="s">
-        <v>388</v>
+      <c r="A151" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
+        <v>314</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="D151" s="26">
-        <v>42809</v>
+        <v>42775</v>
       </c>
       <c r="E151" s="26"/>
       <c r="H151">
@@ -4663,1351 +4858,1485 @@
       </c>
     </row>
     <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
-      <c r="B152" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D152" s="26">
-        <v>42809</v>
-      </c>
-      <c r="E152" s="26"/>
+      <c r="A152" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="H152">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="12"/>
-      <c r="B153" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="D153" s="26">
-        <v>42809</v>
-      </c>
-      <c r="E153" s="26"/>
-      <c r="H153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
-      <c r="B154" s="9"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C155" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
     </row>
     <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="H156">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
     </row>
     <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
+        <v>294</v>
+      </c>
       <c r="H157">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>251</v>
+        <v>2</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>295</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>239</v>
+      <c r="A159" s="12"/>
+      <c r="B159" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="12"/>
-      <c r="B161" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="12"/>
-      <c r="B162" s="7" t="s">
-        <v>345</v>
+      <c r="B160" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+    </row>
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>330</v>
       </c>
       <c r="H162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="H163" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>116</v>
-      </c>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="12"/>
+      <c r="B164" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D164" s="26">
+        <v>42809</v>
+      </c>
+      <c r="E164" s="26"/>
       <c r="H164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F165" t="s">
-        <v>138</v>
-      </c>
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="12"/>
+      <c r="B165" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D165" s="26">
+        <v>42809</v>
+      </c>
+      <c r="E165" s="26"/>
       <c r="H165">
         <v>0</v>
       </c>
-      <c r="I165" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>270</v>
-      </c>
+    </row>
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="12"/>
+      <c r="B166" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D166" s="26">
+        <v>42809</v>
+      </c>
+      <c r="E166" s="26"/>
       <c r="H166">
         <v>0</v>
       </c>
-      <c r="I166" s="6"/>
-    </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G167" t="s">
-        <v>138</v>
-      </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167" s="6"/>
-    </row>
-    <row r="168" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
+      <c r="B167" s="9"/>
+    </row>
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B168" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="H168" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C168" s="8"/>
+    </row>
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="G169" t="s">
-        <v>138</v>
-      </c>
-      <c r="H169" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="H169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B170" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
-      <c r="G170" t="s">
-        <v>138</v>
-      </c>
-      <c r="H170" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G171" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="13"/>
-      <c r="H172" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="12" t="s">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="12"/>
+      <c r="B174" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="12"/>
+      <c r="B175" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B174" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H174" s="12">
-        <v>0</v>
-      </c>
-      <c r="I174" s="14">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
-      <c r="H175" s="12">
-        <v>2</v>
-      </c>
-      <c r="I175" s="14"/>
-    </row>
-    <row r="176" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13"/>
-      <c r="H176" s="12">
-        <v>1</v>
-      </c>
-      <c r="I176" s="14"/>
-    </row>
-    <row r="177" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="H176" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="15"/>
-      <c r="F177" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H177" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I177" s="14"/>
-    </row>
-    <row r="178" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B178" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="C178" s="15"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="15"/>
-      <c r="H178" s="12">
-        <v>1</v>
-      </c>
-      <c r="I178" s="14"/>
-    </row>
-    <row r="179" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F178" t="s">
+        <v>138</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B179" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
-      <c r="E179" s="15"/>
-      <c r="H179" s="12">
-        <v>0</v>
-      </c>
-      <c r="I179" s="14"/>
-    </row>
-    <row r="180" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179" s="6"/>
+    </row>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B180" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="C180" s="15"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="15"/>
-      <c r="I180" s="14"/>
+      <c r="B180" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G180" t="s">
+        <v>138</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180" s="6"/>
     </row>
     <row r="181" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B181" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="12" t="s">
-        <v>133</v>
-      </c>
+      <c r="B181" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
       <c r="H181" s="12">
-        <v>2</v>
-      </c>
-      <c r="I181" s="14"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="182" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="C182" s="15"/>
-      <c r="D182" s="15"/>
-      <c r="E182" s="15"/>
+      <c r="B182" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="G182" t="s">
+        <v>138</v>
+      </c>
       <c r="H182" s="12">
         <v>2</v>
       </c>
-      <c r="I182" s="14"/>
-    </row>
-    <row r="183" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B183" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="C183" s="15"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="15"/>
-      <c r="I183" s="14"/>
-    </row>
-    <row r="184" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C183" s="13"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
+      <c r="G183" t="s">
+        <v>138</v>
+      </c>
+      <c r="H183" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B184" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="C184" s="15"/>
-      <c r="D184" s="15"/>
-      <c r="E184" s="15"/>
-      <c r="I184" s="14"/>
-    </row>
-    <row r="185" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G184" t="s">
+        <v>138</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B185" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="C185" s="15"/>
-      <c r="D185" s="15"/>
-      <c r="E185" s="15"/>
-      <c r="I185" s="14"/>
-    </row>
-    <row r="186" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C185" s="13"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+      <c r="H185" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B186" s="13" t="s">
+      <c r="B186" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C187" s="13"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H187" s="12">
+        <v>0</v>
+      </c>
+      <c r="I187" s="14">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
+      <c r="H188" s="12">
+        <v>2</v>
+      </c>
+      <c r="I188" s="14"/>
+    </row>
+    <row r="189" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+      <c r="H189" s="12">
+        <v>1</v>
+      </c>
+      <c r="I189" s="14"/>
+    </row>
+    <row r="190" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C190" s="15"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H190" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I190" s="14"/>
+    </row>
+    <row r="191" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="C191" s="15"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="H191" s="12">
+        <v>1</v>
+      </c>
+      <c r="I191" s="14"/>
+    </row>
+    <row r="192" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C192" s="15"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="H192" s="12">
+        <v>0</v>
+      </c>
+      <c r="I192" s="14"/>
+    </row>
+    <row r="193" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C193" s="15"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="15"/>
+      <c r="I193" s="14"/>
+    </row>
+    <row r="194" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B194" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H194" s="12">
+        <v>2</v>
+      </c>
+      <c r="I194" s="14"/>
+    </row>
+    <row r="195" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C195" s="15"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15"/>
+      <c r="H195" s="12">
+        <v>2</v>
+      </c>
+      <c r="I195" s="14"/>
+    </row>
+    <row r="196" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="I196" s="14"/>
+    </row>
+    <row r="197" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="I197" s="14"/>
+    </row>
+    <row r="198" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C198" s="15"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="15"/>
+      <c r="I198" s="14"/>
+    </row>
+    <row r="199" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C186" s="13"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13"/>
-      <c r="F186" s="12" t="s">
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H186" s="12">
+      <c r="H199" s="12">
         <v>3</v>
       </c>
-      <c r="I186" s="14"/>
-    </row>
-    <row r="187" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A187" s="12" t="s">
+      <c r="I199" s="14"/>
+    </row>
+    <row r="200" spans="1:9" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B200" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="I200" s="6"/>
+    </row>
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H201">
+        <v>3</v>
+      </c>
+      <c r="I201" s="6"/>
+    </row>
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H202">
+        <v>3</v>
+      </c>
+      <c r="I202" s="6"/>
+    </row>
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H203">
+        <v>3</v>
+      </c>
+      <c r="I203" s="6"/>
+    </row>
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H204">
+        <v>3</v>
+      </c>
+      <c r="I204" s="6"/>
+    </row>
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B205" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B187" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="I187" s="6"/>
-    </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H188">
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205" s="6"/>
+    </row>
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206" s="6"/>
+    </row>
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H207">
         <v>3</v>
       </c>
-      <c r="I188" s="6"/>
-    </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H189">
+      <c r="I207" s="6"/>
+    </row>
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H208">
         <v>3</v>
       </c>
-      <c r="I189" s="6"/>
-    </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H190">
+      <c r="I208" s="6"/>
+    </row>
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H209">
         <v>3</v>
       </c>
-      <c r="I190" s="6"/>
-    </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H191">
-        <v>3</v>
-      </c>
-      <c r="I191" s="6"/>
-    </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H192">
-        <v>0</v>
-      </c>
-      <c r="I192" s="6"/>
-    </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H193">
-        <v>2</v>
-      </c>
-      <c r="I193" s="6"/>
-    </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H194">
-        <v>3</v>
-      </c>
-      <c r="I194" s="6"/>
-    </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H195">
-        <v>3</v>
-      </c>
-      <c r="I195" s="6"/>
-    </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H196">
-        <v>3</v>
-      </c>
-      <c r="I196" s="6"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="12"/>
-      <c r="B197" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="I197" s="6"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="12"/>
-      <c r="I198" s="6"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="12"/>
-      <c r="B199" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="I199" s="6"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="12"/>
-      <c r="B200" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="I200" s="6"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="12"/>
-      <c r="B201" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="I201" s="6"/>
-    </row>
-    <row r="202" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B202" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="I202" s="6"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B203" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="I203" s="6"/>
-    </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H204">
-        <v>0</v>
-      </c>
-      <c r="I204" s="6"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I205" s="6"/>
-    </row>
-    <row r="206" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B206" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C206" s="15"/>
-      <c r="D206" s="15"/>
-      <c r="E206" s="15"/>
-      <c r="I206" s="14"/>
-    </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F207" t="s">
-        <v>133</v>
-      </c>
-      <c r="H207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H208">
-        <v>9</v>
-      </c>
-      <c r="J208" t="s">
+      <c r="I209" s="6"/>
+    </row>
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="12"/>
+      <c r="B210" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I210" s="6"/>
+    </row>
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="12"/>
+      <c r="I211" s="6"/>
+    </row>
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="12"/>
+      <c r="B212" s="7" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="12"/>
-      <c r="B209" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="H209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H211">
-        <v>0</v>
-      </c>
-      <c r="I211" s="6"/>
-    </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H212">
-        <v>0</v>
-      </c>
-      <c r="J212" t="s">
-        <v>144</v>
-      </c>
+      <c r="I212" s="6"/>
     </row>
     <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="H213">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H215">
-        <v>0</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="I213" s="6"/>
+    </row>
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="12"/>
+      <c r="B214" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="I214" s="6"/>
+    </row>
+    <row r="215" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B215" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="I215" s="6"/>
     </row>
     <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F216" t="s">
-        <v>133</v>
-      </c>
-      <c r="H216">
-        <v>0</v>
-      </c>
-      <c r="I216" s="6">
-        <v>42702</v>
-      </c>
-      <c r="J216" t="s">
-        <v>144</v>
-      </c>
+      <c r="B216" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="I216" s="6"/>
     </row>
     <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C217" s="9"/>
-      <c r="D217" s="9"/>
-      <c r="E217" s="9"/>
+      <c r="B217" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="H217">
         <v>0</v>
       </c>
-      <c r="I217" s="6">
-        <v>42702</v>
-      </c>
-      <c r="J217" t="s">
-        <v>144</v>
-      </c>
+      <c r="I217" s="6"/>
     </row>
     <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F218" t="s">
-        <v>133</v>
-      </c>
-      <c r="H218">
-        <v>0</v>
-      </c>
-      <c r="I218" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I218" s="6"/>
+    </row>
+    <row r="219" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F219" t="s">
-        <v>135</v>
-      </c>
-      <c r="H219">
-        <v>0</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C219" s="15"/>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15"/>
+      <c r="I219" s="14"/>
     </row>
     <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F220" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H220">
         <v>0</v>
-      </c>
-      <c r="I220" s="6">
-        <v>42697</v>
-      </c>
-      <c r="J220" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>255</v>
+        <v>328</v>
       </c>
       <c r="H221">
-        <v>0</v>
-      </c>
-      <c r="I221" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="J221" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
-      <c r="B222" s="13" t="s">
+      <c r="B222" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224" s="6"/>
+    </row>
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="J225" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="12"/>
+      <c r="B226" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F229" t="s">
+        <v>133</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229" s="6">
+        <v>42702</v>
+      </c>
+      <c r="J229" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C230" s="9"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="9"/>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230" s="6">
+        <v>42702</v>
+      </c>
+      <c r="J230" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F231" t="s">
+        <v>133</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F232" t="s">
+        <v>135</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F233" t="s">
+        <v>135</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233" s="6">
+        <v>42697</v>
+      </c>
+      <c r="J233" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234" s="6"/>
+    </row>
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="12"/>
+      <c r="B235" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="H222">
+      <c r="H235">
         <v>9</v>
       </c>
-      <c r="I222" s="6"/>
-    </row>
-    <row r="223" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B223" s="16" t="s">
+      <c r="I235" s="6"/>
+    </row>
+    <row r="236" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B236" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C223" s="16"/>
-      <c r="D223" s="16"/>
-      <c r="E223" s="16"/>
-    </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="8" t="s">
+      <c r="C236" s="16"/>
+      <c r="D236" s="16"/>
+      <c r="E236" s="16"/>
+    </row>
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H224">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
-        <v>315</v>
-      </c>
-      <c r="C225" s="7" t="s">
+      <c r="H237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>313</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D238" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E238" s="26"/>
+      <c r="H238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
         <v>305</v>
       </c>
-      <c r="D225" s="26">
+      <c r="C240" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D240" s="26">
         <v>42775</v>
       </c>
-      <c r="E225" s="26"/>
-      <c r="H225">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H226">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B227" t="s">
-        <v>307</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D227" s="26">
-        <v>42775</v>
-      </c>
-      <c r="E227" s="26"/>
-      <c r="H227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B228" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H228">
+      <c r="E240" s="26"/>
+      <c r="H240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H241">
         <v>1</v>
       </c>
-      <c r="I228" s="6"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B229" s="8" t="s">
+      <c r="I241" s="6"/>
+    </row>
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="I242" s="6"/>
+    </row>
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="6"/>
+    </row>
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="I229" s="6"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B230" s="7" t="s">
+      <c r="H244">
+        <v>3</v>
+      </c>
+      <c r="I244" s="6"/>
+    </row>
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="H230">
+      <c r="H245">
+        <v>3</v>
+      </c>
+      <c r="I245" s="6"/>
+    </row>
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I246" s="6"/>
+    </row>
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+      <c r="I247" s="6"/>
+    </row>
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H248">
+        <v>2</v>
+      </c>
+      <c r="I248" s="6"/>
+    </row>
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H249">
+        <v>2</v>
+      </c>
+      <c r="I249" s="6"/>
+    </row>
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H250">
+        <v>2</v>
+      </c>
+      <c r="I250" s="6"/>
+    </row>
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C251" s="8"/>
+      <c r="D251" s="8"/>
+      <c r="E251" s="8"/>
+    </row>
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252">
         <v>1</v>
       </c>
-      <c r="I230" s="6"/>
-    </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H231">
+      <c r="B252" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F252" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F253" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254">
         <v>3</v>
       </c>
-      <c r="I231" s="6"/>
-    </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H232">
+      <c r="B254" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F254" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>4</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>174</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F256" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F257" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F258" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F259" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F260" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F261" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C262" s="10"/>
+      <c r="D262" s="10"/>
+      <c r="E262" s="10"/>
+    </row>
+    <row r="263" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F263" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F268" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F270" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F271" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C272" s="10"/>
+      <c r="D272" s="10"/>
+      <c r="E272" s="10"/>
+    </row>
+    <row r="273" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F273" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F274" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H281">
         <v>3</v>
       </c>
-      <c r="I232" s="6"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B233" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="I233" s="6"/>
-    </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="H234">
-        <v>2</v>
-      </c>
-      <c r="I234" s="6"/>
-    </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="H235">
-        <v>2</v>
-      </c>
-      <c r="I235" s="6"/>
-    </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="H236">
-        <v>2</v>
-      </c>
-      <c r="I236" s="6"/>
-    </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H237">
-        <v>2</v>
-      </c>
-      <c r="I237" s="6"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B238" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C238" s="8"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>1</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F239" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>2</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F240" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>3</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F241" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>4</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>174</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F243" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B244" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F244" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B245" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F245" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B246" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F246" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B247" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F247" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B248" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F248" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B249" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C249" s="10"/>
-      <c r="D249" s="10"/>
-      <c r="E249" s="10"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B250" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F250" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B251" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B252" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B253" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B254" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B255" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F255" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B257" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F257" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B258" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F258" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B259" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C259" s="10"/>
-      <c r="D259" s="10"/>
-      <c r="E259" s="10"/>
-    </row>
-    <row r="260" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B260" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F260" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B261" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F261" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B262" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B263" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>1</v>
-      </c>
-      <c r="B264" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>2</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H266">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H267">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H268">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="7" t="s">
+    </row>
+    <row r="282" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="7" t="s">
+      <c r="H282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="7" t="s">
+      <c r="H283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F271" t="s">
+      <c r="F284" t="s">
         <v>219</v>
       </c>
-      <c r="H271">
-        <v>0</v>
-      </c>
-      <c r="I271" t="s">
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="7" t="s">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F285" t="s">
         <v>220</v>
       </c>
-      <c r="H272">
-        <v>0</v>
-      </c>
-      <c r="I272" t="s">
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="273" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="7" t="s">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F286" t="s">
         <v>221</v>
       </c>
-      <c r="H273">
-        <v>0</v>
-      </c>
-      <c r="I273" t="s">
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="274" spans="2:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="7" t="s">
+    <row r="287" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H274">
-        <v>0</v>
-      </c>
-      <c r="I274" t="s">
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="275" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="7" t="s">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H275">
-        <v>0</v>
-      </c>
-      <c r="I275" t="s">
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="276" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="7" t="s">
+    <row r="289" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H276">
-        <v>0</v>
-      </c>
-      <c r="I276" t="s">
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B278" s="7" t="s">
+    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B291" s="7" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:J276">
-    <filterColumn colId="7">
-      <filters blank="1">
-        <filter val="1"/>
+  <autoFilter ref="A7:J289">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="ICON"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="-45" windowWidth="15780" windowHeight="7830" tabRatio="375" activeTab="3"/>
+    <workbookView xWindow="135" yWindow="-45" windowWidth="17295" windowHeight="7830" tabRatio="375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="418">
   <si>
     <t>Reports</t>
   </si>
@@ -2644,10 +2644,10 @@
   <dimension ref="A1:J291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3108,7 +3108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="9" t="s">
         <v>367</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="28" t="s">
         <v>410</v>
@@ -3143,8 +3143,11 @@
       <c r="I34" s="31">
         <v>42834</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>2</v>
       </c>
@@ -3155,7 +3158,7 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:9" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>2</v>
       </c>
@@ -3169,7 +3172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>2</v>
       </c>
@@ -3183,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>2</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>2</v>
       </c>
@@ -3211,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>2</v>
       </c>
@@ -3225,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>2</v>
       </c>
@@ -3246,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>2</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="9" t="s">
         <v>361</v>
@@ -3285,7 +3288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="9" t="s">
         <v>368</v>
@@ -3300,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>2</v>
       </c>
@@ -3311,7 +3314,7 @@
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>2</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>2</v>
       </c>
@@ -3339,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>2</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>2</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="9" t="s">
         <v>365</v>
@@ -3382,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="9" t="s">
         <v>371</v>
@@ -3397,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>2</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>2</v>
       </c>
@@ -3425,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>2</v>
       </c>
@@ -3436,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>2</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="12" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>2</v>
       </c>
@@ -3478,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>392</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="28" t="s">
         <v>413</v>
       </c>
@@ -3515,8 +3518,11 @@
       <c r="I58" s="31">
         <v>42834</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="28" t="s">
         <v>409</v>
       </c>
@@ -3533,8 +3539,11 @@
       <c r="I59" s="31">
         <v>42834</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="28" t="s">
         <v>414</v>
       </c>
@@ -3545,8 +3554,11 @@
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
-    </row>
-    <row r="61" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="34" t="s">
         <v>412</v>
       </c>
@@ -3564,7 +3576,7 @@
         <v>42842</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="28" t="s">
         <v>407</v>
       </c>
@@ -3583,8 +3595,11 @@
       <c r="I62" s="31">
         <v>42834</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>2</v>
       </c>
@@ -3595,7 +3610,7 @@
       <c r="D63" s="27"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>2</v>
       </c>
@@ -3609,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>2</v>
       </c>
@@ -3623,7 +3638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>2</v>
       </c>
@@ -3637,7 +3652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>2</v>
       </c>
@@ -3651,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>2</v>
       </c>
@@ -3665,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>2</v>
       </c>
@@ -3679,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
         <v>293</v>
       </c>
@@ -3690,7 +3705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>2</v>
       </c>
@@ -3709,7 +3724,7 @@
       </c>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>2</v>
       </c>
@@ -3727,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>2</v>
       </c>
@@ -3745,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="30" t="s">
         <v>411</v>
@@ -3765,8 +3780,11 @@
       <c r="I74" s="31">
         <v>42834</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>2</v>
       </c>
@@ -3783,7 +3801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>2</v>
       </c>
@@ -3797,7 +3815,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>2</v>
       </c>
@@ -3814,7 +3832,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>2</v>
       </c>
@@ -3831,7 +3849,7 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>2</v>
       </c>
@@ -3845,7 +3863,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>2</v>
       </c>
@@ -4358,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="20" t="s">
         <v>342</v>
@@ -4367,7 +4385,7 @@
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="20" t="s">
         <v>340</v>
@@ -4376,7 +4394,7 @@
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="20" t="s">
         <v>341</v>
@@ -4385,7 +4403,7 @@
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>2</v>
       </c>
@@ -4396,7 +4414,7 @@
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>2</v>
       </c>
@@ -4407,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>2</v>
       </c>
@@ -4418,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>2</v>
       </c>
@@ -4429,7 +4447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>2</v>
       </c>
@@ -4440,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>2</v>
       </c>
@@ -4451,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>2</v>
       </c>
@@ -4462,7 +4480,7 @@
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="28" t="s">
         <v>417</v>
@@ -4483,7 +4501,7 @@
         <v>42842</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="28" t="s">
         <v>408</v>
@@ -4505,8 +4523,11 @@
       <c r="I124" s="31">
         <v>42834</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="28" t="s">
         <v>406</v>
@@ -4525,7 +4546,7 @@
         <v>42842</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="28" t="s">
         <v>405</v>
@@ -4547,8 +4568,11 @@
       <c r="I126" s="31">
         <v>42834</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J126" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>2</v>
       </c>
@@ -4569,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>2</v>
       </c>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="-45" windowWidth="17295" windowHeight="7830" tabRatio="375" activeTab="3"/>
+    <workbookView xWindow="135" yWindow="-45" windowWidth="20355" windowHeight="7830" tabRatio="375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$J$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$J$294</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="424">
   <si>
     <t>Reports</t>
   </si>
@@ -1431,6 +1431,24 @@
   </si>
   <si>
     <t>Sam Site Converting from Live to DB</t>
+  </si>
+  <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <t>Clarifications required from ICON</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Institute related Findings - Changes in Compliance Form</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Authroisation in API Controllers</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1538,11 +1556,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1610,20 +1665,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2641,13 +2751,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J291"/>
+  <dimension ref="A1:K296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B217" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="J61" sqref="J61"/>
+      <selection pane="bottomRight" activeCell="H238" sqref="H238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2726,7 +2836,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
@@ -2786,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
@@ -3013,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>2</v>
       </c>
@@ -3052,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -3080,7 +3190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>2</v>
       </c>
@@ -3123,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="28" t="s">
         <v>410</v>
@@ -3138,7 +3248,7 @@
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
       <c r="H34" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="31">
         <v>42834</v>
@@ -3147,7 +3257,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>2</v>
       </c>
@@ -3158,19 +3268,23 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:10" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="18" t="s">
+    <row r="36" spans="1:10" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="H36" s="12">
-        <v>2</v>
-      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52">
+        <v>2</v>
+      </c>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
     </row>
     <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
@@ -3273,20 +3387,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="9" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="52"/>
+      <c r="B43" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="G43" t="s">
+      <c r="C43" s="55"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
+      <c r="H43" s="57">
+        <v>2</v>
+      </c>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
     </row>
     <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
@@ -3303,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>2</v>
       </c>
@@ -3400,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>2</v>
       </c>
@@ -3501,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="28" t="s">
         <v>413</v>
       </c>
@@ -3514,7 +3631,9 @@
       <c r="E58" s="29"/>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
+      <c r="H58" s="32">
+        <v>0</v>
+      </c>
       <c r="I58" s="31">
         <v>42834</v>
       </c>
@@ -3522,7 +3641,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="28" t="s">
         <v>409</v>
       </c>
@@ -3535,7 +3654,9 @@
       <c r="E59" s="29"/>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
+      <c r="H59" s="32">
+        <v>0</v>
+      </c>
       <c r="I59" s="31">
         <v>42834</v>
       </c>
@@ -3543,63 +3664,77 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="28" t="s">
+    <row r="60" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
+      <c r="C60" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="D60" s="36">
+        <v>42831</v>
+      </c>
+      <c r="E60" s="36"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37">
+        <v>0</v>
+      </c>
+      <c r="I60" s="37"/>
       <c r="J60" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="34" t="s">
+      <c r="A61" s="52"/>
+      <c r="B61" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="58" t="s">
         <v>397</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D61" s="59">
         <v>42831</v>
       </c>
-      <c r="E61" s="34"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="36">
+      <c r="E61" s="58"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57">
+        <v>1</v>
+      </c>
+      <c r="I61" s="60">
         <v>42842</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="28" t="s">
+      <c r="J61" s="52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="D62" s="29">
+      <c r="D62" s="40">
         <v>42831</v>
       </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="32" t="s">
+      <c r="E62" s="40"/>
+      <c r="F62" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="31">
+      <c r="G62" s="41"/>
+      <c r="H62" s="41">
+        <v>0</v>
+      </c>
+      <c r="I62" s="42">
         <v>42834</v>
       </c>
       <c r="J62" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>2</v>
       </c>
@@ -3760,23 +3895,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="D74" s="35">
+      <c r="D74" s="34">
         <v>42831</v>
       </c>
-      <c r="E74" s="35"/>
+      <c r="E74" s="34"/>
       <c r="F74" s="30" t="s">
         <v>133</v>
       </c>
       <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
+      <c r="H74" s="30">
+        <v>0</v>
+      </c>
       <c r="I74" s="31">
         <v>42834</v>
       </c>
@@ -3784,7 +3921,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>2</v>
       </c>
@@ -3875,7 +4012,7 @@
       </c>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>2</v>
       </c>
@@ -3887,7 +4024,7 @@
       </c>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>2</v>
       </c>
@@ -3899,58 +4036,67 @@
       </c>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="13" t="s">
+    <row r="83" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="12" t="s">
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="H83" s="12">
+      <c r="G83" s="52"/>
+      <c r="H83" s="52">
         <v>3</v>
       </c>
-      <c r="I83" s="14"/>
-    </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="7" t="s">
+      <c r="I83" s="61"/>
+      <c r="J83" s="52"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="F84" t="s">
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="H84">
+      <c r="G84" s="57"/>
+      <c r="H84" s="57">
         <v>3</v>
       </c>
-      <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="13" t="s">
+      <c r="I84" s="60"/>
+      <c r="J84" s="57"/>
+    </row>
+    <row r="85" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="12" t="s">
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="H85" s="12">
+      <c r="G85" s="52"/>
+      <c r="H85" s="52">
         <v>3</v>
       </c>
-      <c r="I85" s="14"/>
-    </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="61"/>
+      <c r="J85" s="52"/>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>2</v>
       </c>
@@ -3965,7 +4111,7 @@
       </c>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>2</v>
       </c>
@@ -3977,7 +4123,7 @@
       </c>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>2</v>
       </c>
@@ -3996,7 +4142,7 @@
       </c>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>2</v>
       </c>
@@ -4015,7 +4161,7 @@
       </c>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>2</v>
       </c>
@@ -4034,7 +4180,7 @@
       </c>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>2</v>
       </c>
@@ -4054,7 +4200,7 @@
       </c>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="7" t="s">
         <v>388</v>
@@ -4077,7 +4223,7 @@
       </c>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="7" t="s">
         <v>389</v>
@@ -4100,7 +4246,7 @@
       </c>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="7" t="s">
         <v>391</v>
@@ -4118,7 +4264,7 @@
       </c>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="8" t="s">
         <v>404</v>
@@ -4130,49 +4276,59 @@
       <c r="H95" s="12"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
-      <c r="B96" s="34" t="s">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="52"/>
+      <c r="B96" s="58" t="s">
         <v>415</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="C96" s="58" t="s">
         <v>397</v>
       </c>
-      <c r="D96" s="35">
+      <c r="D96" s="59">
         <v>42831</v>
       </c>
-      <c r="E96" s="35"/>
-      <c r="F96" s="30" t="s">
+      <c r="E96" s="59"/>
+      <c r="F96" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="G96" s="32"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="36">
+      <c r="G96" s="52"/>
+      <c r="H96" s="52">
+        <v>1</v>
+      </c>
+      <c r="I96" s="60">
         <v>42842</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="34" t="s">
+      <c r="J96" s="62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="52"/>
+      <c r="B97" s="58" t="s">
         <v>416</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="C97" s="58" t="s">
         <v>397</v>
       </c>
-      <c r="D97" s="35">
+      <c r="D97" s="59">
         <v>42831</v>
       </c>
-      <c r="E97" s="35"/>
-      <c r="F97" s="30" t="s">
+      <c r="E97" s="59"/>
+      <c r="F97" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="G97" s="32"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="36">
+      <c r="G97" s="52"/>
+      <c r="H97" s="52">
+        <v>1</v>
+      </c>
+      <c r="I97" s="60">
         <v>42842</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J97" s="62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="8" t="s">
         <v>373</v>
@@ -4183,7 +4339,7 @@
       <c r="H98" s="12"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="7" t="s">
         <v>374</v>
@@ -4198,7 +4354,7 @@
       </c>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>2</v>
       </c>
@@ -4212,7 +4368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>2</v>
       </c>
@@ -4223,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>2</v>
       </c>
@@ -4241,18 +4397,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="7" t="s">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="H103">
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="57">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I103" s="57"/>
+      <c r="J103" s="57"/>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>2</v>
       </c>
@@ -4263,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="7" t="s">
         <v>363</v>
@@ -4275,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="7" t="s">
         <v>364</v>
@@ -4287,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>2</v>
       </c>
@@ -4301,7 +4464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>2</v>
       </c>
@@ -4315,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>2</v>
       </c>
@@ -4333,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>2</v>
       </c>
@@ -4347,7 +4510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>2</v>
       </c>
@@ -4358,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>2</v>
       </c>
@@ -4376,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="20" t="s">
         <v>342</v>
@@ -4385,7 +4548,7 @@
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
     </row>
-    <row r="114" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="20" t="s">
         <v>340</v>
@@ -4394,7 +4557,7 @@
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
     </row>
-    <row r="115" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="20" t="s">
         <v>341</v>
@@ -4403,7 +4566,7 @@
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>2</v>
       </c>
@@ -4414,7 +4577,7 @@
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>2</v>
       </c>
@@ -4425,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>2</v>
       </c>
@@ -4436,18 +4599,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" s="7" t="s">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="H119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C119" s="58"/>
+      <c r="D119" s="58"/>
+      <c r="E119" s="58"/>
+      <c r="F119" s="57"/>
+      <c r="G119" s="57"/>
+      <c r="H119" s="57">
+        <v>2</v>
+      </c>
+      <c r="I119" s="57"/>
+      <c r="J119" s="57"/>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>2</v>
       </c>
@@ -4458,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>2</v>
       </c>
@@ -4469,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>2</v>
       </c>
@@ -4480,125 +4650,139 @@
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
-      <c r="B123" s="28" t="s">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="52"/>
+      <c r="B123" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="C123" s="28" t="s">
+      <c r="C123" s="54" t="s">
         <v>397</v>
       </c>
-      <c r="D123" s="37">
+      <c r="D123" s="63">
         <v>42831</v>
       </c>
-      <c r="E123" s="38"/>
-      <c r="F123" s="30" t="s">
+      <c r="E123" s="64"/>
+      <c r="F123" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="G123" s="30"/>
-      <c r="H123" s="30"/>
-      <c r="I123" s="36">
+      <c r="G123" s="57"/>
+      <c r="H123" s="57">
+        <v>1</v>
+      </c>
+      <c r="I123" s="60">
         <v>42842</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J123" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="K123" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
-      <c r="B124" s="28" t="s">
+      <c r="B124" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="D124" s="37">
+      <c r="D124" s="44">
         <v>42831</v>
       </c>
-      <c r="E124" s="38"/>
-      <c r="F124" s="30" t="s">
+      <c r="E124" s="45"/>
+      <c r="F124" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="G124" s="30"/>
-      <c r="H124" s="30">
-        <v>0</v>
-      </c>
-      <c r="I124" s="31">
+      <c r="G124" s="46"/>
+      <c r="H124" s="46">
+        <v>0</v>
+      </c>
+      <c r="I124" s="47">
         <v>42834</v>
       </c>
       <c r="J124" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
-      <c r="B125" s="28" t="s">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="52"/>
+      <c r="B125" s="54" t="s">
         <v>406</v>
       </c>
-      <c r="C125" s="34" t="s">
+      <c r="C125" s="58" t="s">
         <v>397</v>
       </c>
-      <c r="D125" s="35">
+      <c r="D125" s="59">
         <v>42831</v>
       </c>
-      <c r="E125" s="38"/>
-      <c r="F125" s="30"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="30"/>
-      <c r="I125" s="36">
+      <c r="E125" s="64"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="57">
+        <v>1</v>
+      </c>
+      <c r="I125" s="60">
         <v>42842</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
-      <c r="B126" s="28" t="s">
+      <c r="J125" s="62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="52"/>
+      <c r="B126" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="C126" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="D126" s="59">
+        <v>42831</v>
+      </c>
+      <c r="E126" s="64"/>
+      <c r="F126" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G126" s="57"/>
+      <c r="H126" s="52">
+        <v>1</v>
+      </c>
+      <c r="I126" s="60"/>
+      <c r="J126" s="62"/>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+      <c r="B127" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="C126" s="34" t="s">
+      <c r="C127" s="48" t="s">
         <v>397</v>
       </c>
-      <c r="D126" s="35">
+      <c r="D127" s="49">
         <v>42831</v>
       </c>
-      <c r="E126" s="38"/>
-      <c r="F126" s="30" t="s">
+      <c r="E127" s="50"/>
+      <c r="F127" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="G126" s="30"/>
-      <c r="H126" s="30">
-        <v>0</v>
-      </c>
-      <c r="I126" s="31">
+      <c r="G127" s="51"/>
+      <c r="H127" s="51">
+        <v>0</v>
+      </c>
+      <c r="I127" s="42">
         <v>42834</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J127" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="22" t="s">
+    <row r="128" spans="1:11" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="22" t="s">
         <v>278</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D127" s="19">
-        <v>42760</v>
-      </c>
-      <c r="E127" s="19"/>
-      <c r="F127" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H127" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="23" t="s">
-        <v>291</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>286</v>
@@ -4607,418 +4791,437 @@
         <v>42760</v>
       </c>
       <c r="E128" s="19"/>
-      <c r="F128" s="19" t="s">
+      <c r="F128" s="12" t="s">
         <v>138</v>
       </c>
       <c r="H128" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="18" t="s">
+    <row r="129" spans="1:10" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D129" s="19">
+        <v>42760</v>
+      </c>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H129" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="52"/>
+      <c r="B130" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="C129" s="13"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="12" t="s">
+      <c r="C130" s="55"/>
+      <c r="D130" s="56"/>
+      <c r="E130" s="56"/>
+      <c r="F130" s="56"/>
+      <c r="G130" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="H129" s="12">
+      <c r="H130" s="52">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="7" t="s">
+      <c r="I130" s="52"/>
+      <c r="J130" s="52"/>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F131" t="s">
         <v>138</v>
       </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="9" t="s">
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="H131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="H133">
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" s="7" t="s">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F134" t="s">
         <v>133</v>
       </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
-      <c r="B134" s="7" t="s">
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="12"/>
+      <c r="B135" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B135" s="7" t="s">
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="58" t="s">
         <v>396</v>
       </c>
-      <c r="D135" s="26">
+      <c r="C136" s="58"/>
+      <c r="D136" s="59">
         <v>42818</v>
       </c>
-      <c r="F135" t="s">
+      <c r="E136" s="58"/>
+      <c r="F136" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="H135">
+      <c r="G136" s="57"/>
+      <c r="H136" s="57">
         <v>1</v>
       </c>
-      <c r="I135" s="6">
+      <c r="I136" s="60">
         <v>42702</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B136" s="7" t="s">
+      <c r="J136" s="57"/>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B137" s="7" t="s">
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="7" t="s">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B139" s="7" t="s">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="7" t="s">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="7" t="s">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B142" s="7" t="s">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="8" t="s">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-    </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B144" s="7" t="s">
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+    </row>
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" s="7" t="s">
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B146" s="7" t="s">
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="7" t="s">
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="12"/>
+      <c r="B148" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" s="8" t="s">
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B149" t="s">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" t="s">
         <v>302</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C150" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D149" s="26">
+      <c r="D150" s="26">
         <v>42775</v>
       </c>
-      <c r="E149" s="26"/>
-      <c r="H149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="E150" s="26"/>
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
         <v>304</v>
       </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
         <v>314</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C152" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D151" s="26">
+      <c r="D152" s="26">
         <v>42775</v>
       </c>
-      <c r="E151" s="26"/>
-      <c r="H151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B152" s="7" t="s">
+      <c r="E152" s="26"/>
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="H152">
+      <c r="C153" s="58"/>
+      <c r="D153" s="58"/>
+      <c r="E153" s="58"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="57"/>
+      <c r="H153" s="57">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B153" s="7" t="s">
+      <c r="I153" s="57"/>
+      <c r="J153" s="57"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B154" s="7" t="s">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B155" s="16" t="s">
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A156" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-    </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B156" s="8" t="s">
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-    </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B157" s="9" t="s">
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+    </row>
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B158" s="9" t="s">
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
-      <c r="B159" s="9" t="s">
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="12"/>
+      <c r="B160" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16"/>
-    </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A161" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B162" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="H162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
-      <c r="B164" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="D164" s="26">
-        <v>42809</v>
-      </c>
-      <c r="E164" s="26"/>
-      <c r="H164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>286</v>
@@ -5031,10 +5234,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
       <c r="B166" s="9" t="s">
-        <v>383</v>
+        <v>387</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="D166" s="26">
         <v>42809</v>
@@ -5044,39 +5250,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
-      <c r="B167" s="9"/>
-    </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C168" s="8"/>
-    </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D167" s="26">
+        <v>42809</v>
+      </c>
+      <c r="E167" s="26"/>
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="12"/>
+      <c r="B168" s="9"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-      <c r="H169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C169" s="8"/>
+    </row>
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -5085,629 +5290,711 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B171" s="7" t="s">
-        <v>251</v>
-      </c>
+      <c r="B171" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
       <c r="H171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B173" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="12"/>
-      <c r="B174" s="10" t="s">
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="12"/>
+      <c r="B175" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="12"/>
-      <c r="B175" s="7" t="s">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="52"/>
+      <c r="B176" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="H175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="H176" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="57"/>
+      <c r="G176" s="57"/>
+      <c r="H176" s="57">
+        <v>2</v>
+      </c>
+      <c r="I176" s="57"/>
+      <c r="J176" s="57"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8"/>
+      <c r="H177" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F178" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
-      <c r="I178" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>269</v>
+        <v>224</v>
+      </c>
+      <c r="F179" t="s">
+        <v>138</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
-      <c r="I179" s="6"/>
-    </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I179" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G180" t="s">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="H180">
         <v>0</v>
       </c>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B181" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="H181" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G181" t="s">
+        <v>138</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181" s="6"/>
+    </row>
+    <row r="182" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>254</v>
+        <v>117</v>
       </c>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
-      <c r="G182" t="s">
+      <c r="H182" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C183" s="55"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="55"/>
+      <c r="F183" s="52"/>
+      <c r="G183" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="H182" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="12" t="s">
+      <c r="H183" s="52">
+        <v>2</v>
+      </c>
+      <c r="I183" s="52"/>
+      <c r="J183" s="52"/>
+    </row>
+    <row r="184" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B183" s="13" t="s">
+      <c r="B184" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="C183" s="13"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="G183" t="s">
+      <c r="C184" s="55"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="55"/>
+      <c r="F184" s="52"/>
+      <c r="G184" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="H183" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G184" t="s">
-        <v>138</v>
-      </c>
-      <c r="H184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H184" s="52">
+        <v>2</v>
+      </c>
+      <c r="I184" s="52"/>
+      <c r="J184" s="52"/>
+    </row>
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B185" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C185" s="13"/>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
-      <c r="H185" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G185" t="s">
+        <v>138</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B186" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
+      <c r="H186" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B187" s="13" t="s">
+      <c r="B187" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="C187" s="13"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
-      <c r="F187" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H187" s="12">
-        <v>0</v>
-      </c>
-      <c r="I187" s="14">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="13" t="s">
-        <v>344</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
+      <c r="F188" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="H188" s="12">
-        <v>2</v>
-      </c>
-      <c r="I188" s="14"/>
-    </row>
-    <row r="189" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I188" s="14">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="52"/>
+      <c r="B189" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="C189" s="55"/>
+      <c r="D189" s="55"/>
+      <c r="E189" s="55"/>
+      <c r="F189" s="52"/>
+      <c r="G189" s="52"/>
+      <c r="H189" s="52">
+        <v>2</v>
+      </c>
+      <c r="I189" s="61"/>
+      <c r="J189" s="52"/>
+    </row>
+    <row r="190" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="52"/>
+      <c r="B190" s="55" t="s">
         <v>398</v>
       </c>
-      <c r="C189" s="13"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
-      <c r="H189" s="12">
+      <c r="C190" s="55"/>
+      <c r="D190" s="55"/>
+      <c r="E190" s="55"/>
+      <c r="F190" s="52"/>
+      <c r="G190" s="52"/>
+      <c r="H190" s="52">
         <v>1</v>
       </c>
-      <c r="I189" s="14"/>
-    </row>
-    <row r="190" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B190" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C190" s="15"/>
-      <c r="D190" s="15"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H190" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I190" s="14"/>
-    </row>
-    <row r="191" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I190" s="61"/>
+      <c r="J190" s="52"/>
+    </row>
+    <row r="191" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B191" s="18" t="s">
-        <v>402</v>
+      <c r="B191" s="15" t="s">
+        <v>259</v>
       </c>
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
-      <c r="H191" s="12">
+      <c r="F191" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H191" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I191" s="14"/>
+    </row>
+    <row r="192" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I191" s="14"/>
-    </row>
-    <row r="192" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="12" t="s">
+      <c r="B192" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="C192" s="65"/>
+      <c r="D192" s="65"/>
+      <c r="E192" s="65"/>
+      <c r="F192" s="52"/>
+      <c r="G192" s="52"/>
+      <c r="H192" s="52">
         <v>1</v>
       </c>
-      <c r="B192" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="C192" s="15"/>
-      <c r="D192" s="15"/>
-      <c r="E192" s="15"/>
-      <c r="H192" s="12">
-        <v>0</v>
-      </c>
-      <c r="I192" s="14"/>
-    </row>
-    <row r="193" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I192" s="61"/>
+      <c r="J192" s="52"/>
+    </row>
+    <row r="193" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="C193" s="15"/>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
+      <c r="H193" s="12">
+        <v>0</v>
+      </c>
       <c r="I193" s="14"/>
     </row>
-    <row r="194" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B194" s="15" t="s">
-        <v>261</v>
+      <c r="B194" s="18" t="s">
+        <v>324</v>
       </c>
       <c r="C194" s="15"/>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
-      <c r="F194" s="12" t="s">
+      <c r="I194" s="14"/>
+    </row>
+    <row r="195" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="C195" s="65"/>
+      <c r="D195" s="65"/>
+      <c r="E195" s="65"/>
+      <c r="F195" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="H194" s="12">
-        <v>2</v>
-      </c>
-      <c r="I194" s="14"/>
-    </row>
-    <row r="195" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="12" t="s">
+      <c r="G195" s="52"/>
+      <c r="H195" s="52">
+        <v>2</v>
+      </c>
+      <c r="I195" s="61"/>
+      <c r="J195" s="52"/>
+    </row>
+    <row r="196" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B195" s="18" t="s">
+      <c r="B196" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="C195" s="15"/>
-      <c r="D195" s="15"/>
-      <c r="E195" s="15"/>
-      <c r="H195" s="12">
-        <v>2</v>
-      </c>
-      <c r="I195" s="14"/>
-    </row>
-    <row r="196" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B196" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C196" s="15"/>
-      <c r="D196" s="15"/>
-      <c r="E196" s="15"/>
-      <c r="I196" s="14"/>
-    </row>
-    <row r="197" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C196" s="65"/>
+      <c r="D196" s="65"/>
+      <c r="E196" s="65"/>
+      <c r="F196" s="52"/>
+      <c r="G196" s="52"/>
+      <c r="H196" s="52">
+        <v>2</v>
+      </c>
+      <c r="I196" s="61"/>
+      <c r="J196" s="52"/>
+    </row>
+    <row r="197" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C197" s="15"/>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="I197" s="14"/>
     </row>
-    <row r="198" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="C198" s="15"/>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="I198" s="14"/>
     </row>
-    <row r="199" spans="1:9" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B199" s="13" t="s">
+      <c r="B199" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="I199" s="14"/>
+    </row>
+    <row r="200" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="C199" s="13"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="13"/>
-      <c r="F199" s="12" t="s">
+      <c r="C200" s="55"/>
+      <c r="D200" s="55"/>
+      <c r="E200" s="55"/>
+      <c r="F200" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="H199" s="12">
+      <c r="G200" s="52"/>
+      <c r="H200" s="52">
         <v>3</v>
       </c>
-      <c r="I199" s="14"/>
-    </row>
-    <row r="200" spans="1:9" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="B200" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="I200" s="6"/>
-    </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I200" s="61"/>
+      <c r="J200" s="52"/>
+    </row>
+    <row r="201" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A201" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="I201" s="6"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="B202" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="H201">
+      <c r="C202" s="58"/>
+      <c r="D202" s="58"/>
+      <c r="E202" s="58"/>
+      <c r="F202" s="57"/>
+      <c r="G202" s="57"/>
+      <c r="H202" s="57">
         <v>3</v>
       </c>
-      <c r="I201" s="6"/>
-    </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="12" t="s">
+      <c r="I202" s="60"/>
+      <c r="J202" s="57"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B203" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="H202">
+      <c r="C203" s="58"/>
+      <c r="D203" s="58"/>
+      <c r="E203" s="58"/>
+      <c r="F203" s="57"/>
+      <c r="G203" s="57"/>
+      <c r="H203" s="57">
         <v>3</v>
       </c>
-      <c r="I202" s="6"/>
-    </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="12" t="s">
+      <c r="I203" s="60"/>
+      <c r="J203" s="57"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B204" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="H203">
+      <c r="C204" s="58"/>
+      <c r="D204" s="58"/>
+      <c r="E204" s="58"/>
+      <c r="F204" s="57"/>
+      <c r="G204" s="57"/>
+      <c r="H204" s="57">
         <v>3</v>
       </c>
-      <c r="I203" s="6"/>
-    </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="12" t="s">
+      <c r="I204" s="60"/>
+      <c r="J204" s="57"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B205" s="58" t="s">
         <v>331</v>
       </c>
-      <c r="H204">
+      <c r="C205" s="58"/>
+      <c r="D205" s="58"/>
+      <c r="E205" s="58"/>
+      <c r="F205" s="57"/>
+      <c r="G205" s="57"/>
+      <c r="H205" s="57">
         <v>3</v>
       </c>
-      <c r="I204" s="6"/>
-    </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H205">
-        <v>0</v>
-      </c>
-      <c r="I205" s="6"/>
-    </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I205" s="60"/>
+      <c r="J205" s="57"/>
+    </row>
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
         <v>333</v>
       </c>
       <c r="B206" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206" s="6"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="B207" s="58" t="s">
         <v>360</v>
       </c>
-      <c r="H206">
-        <v>2</v>
-      </c>
-      <c r="I206" s="6"/>
-    </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="12" t="s">
+      <c r="C207" s="58"/>
+      <c r="D207" s="58"/>
+      <c r="E207" s="58"/>
+      <c r="F207" s="57"/>
+      <c r="G207" s="57"/>
+      <c r="H207" s="57">
+        <v>2</v>
+      </c>
+      <c r="I207" s="60"/>
+      <c r="J207" s="57"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B208" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="H207">
+      <c r="C208" s="58"/>
+      <c r="D208" s="58"/>
+      <c r="E208" s="58"/>
+      <c r="F208" s="57"/>
+      <c r="G208" s="57"/>
+      <c r="H208" s="57">
         <v>3</v>
       </c>
-      <c r="I207" s="6"/>
-    </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="12" t="s">
+      <c r="I208" s="60"/>
+      <c r="J208" s="57"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B209" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="H208">
+      <c r="C209" s="58"/>
+      <c r="D209" s="58"/>
+      <c r="E209" s="58"/>
+      <c r="F209" s="57"/>
+      <c r="G209" s="57"/>
+      <c r="H209" s="57">
         <v>3</v>
       </c>
-      <c r="I208" s="6"/>
-    </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
+      <c r="I209" s="60"/>
+      <c r="J209" s="57"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B210" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="H209">
+      <c r="C210" s="58"/>
+      <c r="D210" s="58"/>
+      <c r="E210" s="58"/>
+      <c r="F210" s="57"/>
+      <c r="G210" s="57"/>
+      <c r="H210" s="57">
         <v>3</v>
       </c>
-      <c r="I209" s="6"/>
-    </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
-      <c r="B210" s="7" t="s">
+      <c r="I210" s="60"/>
+      <c r="J210" s="57"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="12"/>
+      <c r="B211" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="I210" s="6"/>
-    </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="12"/>
       <c r="I211" s="6"/>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
-      <c r="B212" s="7" t="s">
-        <v>378</v>
-      </c>
       <c r="I212" s="6"/>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I213" s="6"/>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="I214" s="6"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="12"/>
+      <c r="B215" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="I214" s="6"/>
-    </row>
-    <row r="215" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B215" s="16" t="s">
+      <c r="I215" s="6"/>
+    </row>
+    <row r="216" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B216" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="I215" s="6"/>
-    </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="15" t="s">
+      <c r="I216" s="6"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B217" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="I216" s="6"/>
-    </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="7" t="s">
+      <c r="I217" s="6"/>
+    </row>
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H217">
-        <v>0</v>
-      </c>
-      <c r="I217" s="6"/>
-    </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H218">
+        <v>0</v>
+      </c>
       <c r="I218" s="6"/>
     </row>
-    <row r="219" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="B219" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="C219" s="15"/>
-      <c r="D219" s="15"/>
-      <c r="E219" s="15"/>
-      <c r="I219" s="14"/>
-    </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I219" s="6"/>
+    </row>
+    <row r="220" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="B220" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F220" t="s">
-        <v>133</v>
-      </c>
-      <c r="H220">
-        <v>0</v>
-      </c>
+      <c r="B220" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C220" s="15"/>
+      <c r="D220" s="15"/>
+      <c r="E220" s="15"/>
+      <c r="I220" s="14"/>
     </row>
     <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
         <v>315</v>
       </c>
       <c r="B221" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F221" t="s">
+        <v>133</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B222" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H221">
+      <c r="H222">
         <v>9</v>
       </c>
-      <c r="J221" t="s">
+      <c r="J222" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="12"/>
-      <c r="B222" s="7" t="s">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="12"/>
+      <c r="B223" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="H222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -5718,53 +6005,60 @@
         <v>315</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="H224">
         <v>0</v>
       </c>
-      <c r="I224" s="6"/>
     </row>
     <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
         <v>315</v>
       </c>
       <c r="B225" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225" s="6"/>
+    </row>
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B226" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H225">
-        <v>0</v>
-      </c>
-      <c r="J225" t="s">
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="J226" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="12"/>
-      <c r="B226" s="7" t="s">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="52"/>
+      <c r="B227" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="H226">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C227" s="58"/>
+      <c r="D227" s="58"/>
+      <c r="E227" s="58"/>
+      <c r="F227" s="57"/>
+      <c r="G227" s="57"/>
+      <c r="H227" s="57">
+        <v>2</v>
+      </c>
+      <c r="I227" s="57"/>
+      <c r="J227" s="57"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B228" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H228">
-        <v>0</v>
+      <c r="B228" s="8" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -5772,31 +6066,22 @@
         <v>297</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F229" t="s">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="H229">
         <v>0</v>
-      </c>
-      <c r="I229" s="6">
-        <v>42702</v>
-      </c>
-      <c r="J229" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B230" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C230" s="9"/>
-      <c r="D230" s="9"/>
-      <c r="E230" s="9"/>
+      <c r="B230" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F230" t="s">
+        <v>133</v>
+      </c>
       <c r="H230">
         <v>0</v>
       </c>
@@ -5811,17 +6096,20 @@
       <c r="A231" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B231" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F231" t="s">
-        <v>133</v>
-      </c>
+      <c r="B231" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C231" s="9"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="9"/>
       <c r="H231">
         <v>0</v>
       </c>
       <c r="I231" s="6">
         <v>42702</v>
+      </c>
+      <c r="J231" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -5829,13 +6117,16 @@
         <v>297</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F232" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H232">
         <v>0</v>
+      </c>
+      <c r="I232" s="6">
+        <v>42702</v>
       </c>
     </row>
     <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -5843,19 +6134,13 @@
         <v>297</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F233" t="s">
         <v>135</v>
       </c>
       <c r="H233">
         <v>0</v>
-      </c>
-      <c r="I233" s="6">
-        <v>42697</v>
-      </c>
-      <c r="J233" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -5863,486 +6148,582 @@
         <v>297</v>
       </c>
       <c r="B234" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F234" t="s">
+        <v>135</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234" s="6">
+        <v>42697</v>
+      </c>
+      <c r="J234" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B235" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H234">
-        <v>0</v>
-      </c>
-      <c r="I234" s="6"/>
-    </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="12"/>
-      <c r="B235" s="13" t="s">
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235" s="6"/>
+    </row>
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="12"/>
+      <c r="B236" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="H235">
+      <c r="H236">
         <v>9</v>
       </c>
-      <c r="I235" s="6"/>
-    </row>
-    <row r="236" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B236" s="16" t="s">
+      <c r="I236" s="6"/>
+    </row>
+    <row r="237" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B237" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C236" s="16"/>
-      <c r="D236" s="16"/>
-      <c r="E236" s="16"/>
-    </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="H237">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B238" t="s">
-        <v>313</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D238" s="26">
-        <v>42775</v>
-      </c>
-      <c r="E238" s="26"/>
+      <c r="C237" s="16"/>
+      <c r="D237" s="16"/>
+      <c r="E237" s="16"/>
+    </row>
+    <row r="238" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B238" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C238" s="16"/>
+      <c r="D238" s="16"/>
+      <c r="E238" s="16"/>
       <c r="H238">
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H239">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B240" t="s">
-        <v>305</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D240" s="26">
-        <v>42775</v>
-      </c>
-      <c r="E240" s="26"/>
-      <c r="H240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="7" t="s">
-        <v>382</v>
-      </c>
+    <row r="239" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B239" s="16"/>
+      <c r="C239" s="16"/>
+      <c r="D239" s="16"/>
+      <c r="E239" s="16"/>
+    </row>
+    <row r="240" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B240" s="64" t="s">
+        <v>422</v>
+      </c>
+      <c r="C240" s="16"/>
+      <c r="D240" s="16"/>
+      <c r="E240" s="16"/>
+    </row>
+    <row r="241" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B241" s="57" t="s">
+        <v>423</v>
+      </c>
+      <c r="C241" s="16"/>
+      <c r="D241" s="16"/>
+      <c r="E241" s="16"/>
       <c r="H241">
         <v>1</v>
       </c>
-      <c r="I241" s="6"/>
-    </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="8" t="s">
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="57"/>
+      <c r="B242" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="C242" s="58"/>
+      <c r="D242" s="58"/>
+      <c r="E242" s="58"/>
+      <c r="F242" s="57"/>
+      <c r="G242" s="57"/>
+      <c r="H242" s="57">
+        <v>2</v>
+      </c>
+      <c r="I242" s="57"/>
+      <c r="J242" s="57"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="57"/>
+      <c r="B243" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="C243" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="D243" s="59">
+        <v>42775</v>
+      </c>
+      <c r="E243" s="59"/>
+      <c r="F243" s="57"/>
+      <c r="G243" s="57"/>
+      <c r="H243" s="57">
+        <v>2</v>
+      </c>
+      <c r="I243" s="57"/>
+      <c r="J243" s="57"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="57"/>
+      <c r="B244" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="C244" s="58"/>
+      <c r="D244" s="58"/>
+      <c r="E244" s="58"/>
+      <c r="F244" s="57"/>
+      <c r="G244" s="57"/>
+      <c r="H244" s="57">
+        <v>1</v>
+      </c>
+      <c r="I244" s="57"/>
+      <c r="J244" s="57"/>
+    </row>
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>305</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D245" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E245" s="26"/>
+      <c r="H245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="57"/>
+      <c r="B246" s="58" t="s">
+        <v>382</v>
+      </c>
+      <c r="C246" s="58"/>
+      <c r="D246" s="58"/>
+      <c r="E246" s="58"/>
+      <c r="F246" s="57"/>
+      <c r="G246" s="57"/>
+      <c r="H246" s="57">
+        <v>0</v>
+      </c>
+      <c r="I246" s="60"/>
+      <c r="J246" s="57"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B247" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="I242" s="6"/>
-    </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="7" t="s">
+      <c r="I247" s="6"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="57"/>
+      <c r="B248" s="58" t="s">
         <v>357</v>
       </c>
-      <c r="H243">
+      <c r="C248" s="58"/>
+      <c r="D248" s="58"/>
+      <c r="E248" s="58"/>
+      <c r="F248" s="57"/>
+      <c r="G248" s="57"/>
+      <c r="H248" s="57">
         <v>1</v>
       </c>
-      <c r="I243" s="6"/>
-    </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="7" t="s">
+      <c r="I248" s="60"/>
+      <c r="J248" s="57"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="57"/>
+      <c r="B249" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="H244">
+      <c r="C249" s="58"/>
+      <c r="D249" s="58"/>
+      <c r="E249" s="58"/>
+      <c r="F249" s="57"/>
+      <c r="G249" s="57"/>
+      <c r="H249" s="57">
+        <v>2</v>
+      </c>
+      <c r="I249" s="60"/>
+      <c r="J249" s="57"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="57"/>
+      <c r="B250" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="C250" s="58"/>
+      <c r="D250" s="58"/>
+      <c r="E250" s="58"/>
+      <c r="F250" s="57"/>
+      <c r="G250" s="57"/>
+      <c r="H250" s="57">
+        <v>2</v>
+      </c>
+      <c r="I250" s="60"/>
+      <c r="J250" s="57"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B251" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I251" s="6"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="57"/>
+      <c r="B252" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="C252" s="58"/>
+      <c r="D252" s="58"/>
+      <c r="E252" s="58"/>
+      <c r="F252" s="57"/>
+      <c r="G252" s="57"/>
+      <c r="H252" s="57">
+        <v>2</v>
+      </c>
+      <c r="I252" s="60"/>
+      <c r="J252" s="57"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="57"/>
+      <c r="B253" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="C253" s="58"/>
+      <c r="D253" s="58"/>
+      <c r="E253" s="58"/>
+      <c r="F253" s="57"/>
+      <c r="G253" s="57"/>
+      <c r="H253" s="57">
+        <v>2</v>
+      </c>
+      <c r="I253" s="60"/>
+      <c r="J253" s="57"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="57"/>
+      <c r="B254" s="58" t="s">
+        <v>400</v>
+      </c>
+      <c r="C254" s="58"/>
+      <c r="D254" s="58"/>
+      <c r="E254" s="58"/>
+      <c r="F254" s="57"/>
+      <c r="G254" s="57"/>
+      <c r="H254" s="57">
+        <v>2</v>
+      </c>
+      <c r="I254" s="60"/>
+      <c r="J254" s="57"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="57"/>
+      <c r="B255" s="58" t="s">
+        <v>401</v>
+      </c>
+      <c r="C255" s="58"/>
+      <c r="D255" s="58"/>
+      <c r="E255" s="58"/>
+      <c r="F255" s="57"/>
+      <c r="G255" s="57"/>
+      <c r="H255" s="57">
+        <v>2</v>
+      </c>
+      <c r="I255" s="60"/>
+      <c r="J255" s="57"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B256" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C256" s="8"/>
+      <c r="D256" s="8"/>
+      <c r="E256" s="8"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F257" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F258" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
         <v>3</v>
       </c>
-      <c r="I244" s="6"/>
-    </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H245">
+      <c r="B259" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F259" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>4</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>174</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F261" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B262" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F262" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B263" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F263" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B264" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F264" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B265" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F265" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B266" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F266" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B267" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C267" s="10"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="10"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B268" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F268" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B269" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B270" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B271" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B272" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B273" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F273" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B275" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F275" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B276" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F276" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B277" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C277" s="10"/>
+      <c r="D277" s="10"/>
+      <c r="E277" s="10"/>
+    </row>
+    <row r="278" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B278" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F278" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B279" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F279" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B280" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B281" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>2</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="57"/>
+      <c r="B284" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C284" s="58"/>
+      <c r="D284" s="58"/>
+      <c r="E284" s="58"/>
+      <c r="F284" s="57"/>
+      <c r="G284" s="57"/>
+      <c r="H284" s="57">
+        <v>2</v>
+      </c>
+      <c r="I284" s="57"/>
+      <c r="J284" s="57"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="57"/>
+      <c r="B285" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C285" s="58"/>
+      <c r="D285" s="58"/>
+      <c r="E285" s="58"/>
+      <c r="F285" s="57"/>
+      <c r="G285" s="57"/>
+      <c r="H285" s="57">
+        <v>2</v>
+      </c>
+      <c r="I285" s="57"/>
+      <c r="J285" s="57"/>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="57"/>
+      <c r="B286" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C286" s="58"/>
+      <c r="D286" s="58"/>
+      <c r="E286" s="58"/>
+      <c r="F286" s="57"/>
+      <c r="G286" s="57"/>
+      <c r="H286" s="57">
         <v>3</v>
       </c>
-      <c r="I245" s="6"/>
-    </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="I246" s="6"/>
-    </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="H247">
-        <v>2</v>
-      </c>
-      <c r="I247" s="6"/>
-    </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H248">
-        <v>2</v>
-      </c>
-      <c r="I248" s="6"/>
-    </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="H249">
-        <v>2</v>
-      </c>
-      <c r="I249" s="6"/>
-    </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H250">
-        <v>2</v>
-      </c>
-      <c r="I250" s="6"/>
-    </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C251" s="8"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
-    </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>1</v>
-      </c>
-      <c r="B252" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F252" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>2</v>
-      </c>
-      <c r="B253" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F253" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>3</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F254" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>4</v>
-      </c>
-      <c r="B255" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>174</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F256" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="257" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F257" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="258" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F258" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="259" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F259" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="260" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F260" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="261" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F261" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="262" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C262" s="10"/>
-      <c r="D262" s="10"/>
-      <c r="E262" s="10"/>
-    </row>
-    <row r="263" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F263" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="264" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="265" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="266" spans="2:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="267" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="268" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F268" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="269" spans="2:6" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="270" spans="2:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F270" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="271" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F271" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="272" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C272" s="10"/>
-      <c r="D272" s="10"/>
-      <c r="E272" s="10"/>
-    </row>
-    <row r="273" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F273" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F274" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>1</v>
-      </c>
-      <c r="B277" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>2</v>
-      </c>
-      <c r="B278" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H279">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H280">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H281">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="7" t="s">
+      <c r="I286" s="57"/>
+      <c r="J286" s="57"/>
+    </row>
+    <row r="287" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="7" t="s">
+      <c r="H287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="7" t="s">
+      <c r="H288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F284" t="s">
+      <c r="F289" t="s">
         <v>219</v>
-      </c>
-      <c r="H284">
-        <v>0</v>
-      </c>
-      <c r="I284" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F285" t="s">
-        <v>220</v>
-      </c>
-      <c r="H285">
-        <v>0</v>
-      </c>
-      <c r="I285" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F286" t="s">
-        <v>221</v>
-      </c>
-      <c r="H286">
-        <v>0</v>
-      </c>
-      <c r="I286" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H287">
-        <v>0</v>
-      </c>
-      <c r="I287" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H288">
-        <v>0</v>
-      </c>
-      <c r="I288" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="289" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -6351,16 +6732,91 @@
         <v>144</v>
       </c>
     </row>
-    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F290" t="s">
+        <v>220</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B291" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F291" t="s">
+        <v>221</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="57"/>
+      <c r="B295" s="58"/>
+      <c r="C295" s="58"/>
+      <c r="D295" s="58"/>
+      <c r="E295" s="58"/>
+      <c r="F295" s="57"/>
+      <c r="G295" s="57"/>
+      <c r="H295" s="57"/>
+      <c r="I295" s="57"/>
+      <c r="J295" s="57"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B296" s="7" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:J289">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="ICON"/>
+  <autoFilter ref="A7:J294">
+    <filterColumn colId="7">
+      <filters blank="1">
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$J$294</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$J$293</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="422">
   <si>
     <t>Reports</t>
   </si>
@@ -1415,9 +1415,6 @@
     <t>Display Single compnent count in Invest. Summary</t>
   </si>
   <si>
-    <t>Generate Output Form</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revised Reading logic for Input Excel Template </t>
   </si>
   <si>
@@ -1431,9 +1428,6 @@
   </si>
   <si>
     <t>Sam Site Converting from Live to DB</t>
-  </si>
-  <si>
-    <t>Deferred</t>
   </si>
   <si>
     <t>Clarifications required from ICON</t>
@@ -2751,13 +2745,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K296"/>
+  <dimension ref="A1:K295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B217" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H238" sqref="H238"/>
+      <selection pane="bottomRight" activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3162,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -3190,7 +3184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>2</v>
       </c>
@@ -3268,7 +3262,7 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:10" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>2</v>
       </c>
@@ -3387,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="52"/>
       <c r="B43" s="54" t="s">
         <v>361</v>
@@ -3620,7 +3614,7 @@
     </row>
     <row r="58" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C58" s="28" t="s">
         <v>397</v>
@@ -3666,7 +3660,7 @@
     </row>
     <row r="60" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C60" s="35" t="s">
         <v>397</v>
@@ -3685,78 +3679,68 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
-      <c r="B61" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="C61" s="58" t="s">
+    <row r="61" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="C61" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="D61" s="59">
+      <c r="D61" s="40">
         <v>42831</v>
       </c>
-      <c r="E61" s="58"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57">
-        <v>1</v>
-      </c>
-      <c r="I61" s="60">
-        <v>42842</v>
-      </c>
-      <c r="J61" s="52" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="D62" s="40">
-        <v>42831</v>
-      </c>
-      <c r="E62" s="40"/>
-      <c r="F62" s="41" t="s">
+      <c r="E61" s="40"/>
+      <c r="F61" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41">
-        <v>0</v>
-      </c>
-      <c r="I62" s="42">
+      <c r="G61" s="41"/>
+      <c r="H61" s="41">
+        <v>0</v>
+      </c>
+      <c r="I61" s="42">
         <v>42834</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J61" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="8"/>
+      <c r="B63" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="H63">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="H64">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -3764,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -3778,13 +3762,13 @@
         <v>2</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="H66">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -3792,7 +3776,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -3806,7 +3790,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -3815,37 +3799,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>2</v>
-      </c>
+    <row r="69" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="H69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>307</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D70" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E70" s="26"/>
       <c r="H70">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>303</v>
@@ -3857,14 +3846,13 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>303</v>
@@ -3878,77 +3866,76 @@
       </c>
     </row>
     <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" t="s">
-        <v>309</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D73" s="26">
-        <v>42775</v>
-      </c>
-      <c r="E73" s="26"/>
-      <c r="H73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" s="30" t="s">
+      <c r="A73" s="12"/>
+      <c r="B73" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C73" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="D74" s="34">
+      <c r="D73" s="34">
         <v>42831</v>
       </c>
-      <c r="E74" s="34"/>
-      <c r="F74" s="30" t="s">
+      <c r="E73" s="34"/>
+      <c r="F73" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30">
-        <v>0</v>
-      </c>
-      <c r="I74" s="31">
+      <c r="G73" s="30"/>
+      <c r="H73" s="30">
+        <v>0</v>
+      </c>
+      <c r="I73" s="31">
         <v>42834</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J73" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" t="s">
-        <v>41</v>
-      </c>
-      <c r="H75" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="6">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76" s="6">
+      <c r="B76" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="H76" s="12">
+        <v>0</v>
+      </c>
+      <c r="I76" s="14">
         <v>42697</v>
       </c>
     </row>
@@ -3957,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -3966,24 +3953,21 @@
         <v>0</v>
       </c>
       <c r="I77" s="14">
+        <v>42698</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" s="6">
         <v>42697</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="H78" s="12">
-        <v>0</v>
-      </c>
-      <c r="I78" s="14">
-        <v>42698</v>
       </c>
     </row>
     <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -3991,21 +3975,19 @@
         <v>2</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" s="6">
-        <v>42697</v>
-      </c>
+      <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -4017,96 +3999,96 @@
         <v>2</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52">
+        <v>3</v>
+      </c>
+      <c r="I82" s="61"/>
+      <c r="J82" s="52"/>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="52" t="s">
+      <c r="B83" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52">
+      <c r="G83" s="57"/>
+      <c r="H83" s="57">
         <v>3</v>
       </c>
-      <c r="I83" s="61"/>
-      <c r="J83" s="52"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I83" s="60"/>
+      <c r="J83" s="57"/>
+    </row>
+    <row r="84" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="G84" s="57"/>
-      <c r="H84" s="57">
+      <c r="B84" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52">
         <v>3</v>
       </c>
-      <c r="I84" s="60"/>
-      <c r="J84" s="57"/>
-    </row>
-    <row r="85" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52">
-        <v>3</v>
-      </c>
-      <c r="I85" s="61"/>
-      <c r="J85" s="52"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="52"/>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F85" t="s">
+        <v>138</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F86" t="s">
-        <v>138</v>
-      </c>
-      <c r="H86">
+        <v>300</v>
+      </c>
+      <c r="H86" s="12">
         <v>0</v>
       </c>
       <c r="I86" s="6"/>
@@ -4115,10 +4097,17 @@
       <c r="A87" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H87" s="12">
+      <c r="B87" t="s">
+        <v>310</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D87" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E87" s="26"/>
+      <c r="H87">
         <v>0</v>
       </c>
       <c r="I87" s="6"/>
@@ -4128,7 +4117,7 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>303</v>
@@ -4147,7 +4136,7 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>303</v>
@@ -4161,39 +4150,43 @@
       </c>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B90" t="s">
-        <v>312</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D90" s="26">
-        <v>42775</v>
-      </c>
+      <c r="B90" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D90" s="26"/>
       <c r="E90" s="26"/>
-      <c r="H90">
+      <c r="F90" t="s">
+        <v>133</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H90" s="12">
         <v>0</v>
       </c>
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="A91" s="12"/>
       <c r="B91" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D91" s="26"/>
+        <v>388</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="D91" s="26">
+        <v>42818</v>
+      </c>
       <c r="E91" s="26"/>
       <c r="F91" t="s">
-        <v>133</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>318</v>
+        <v>138</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>370</v>
       </c>
       <c r="H91" s="12">
         <v>0</v>
@@ -4203,7 +4196,7 @@
     <row r="92" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C92" s="17" t="s">
         <v>390</v>
@@ -4226,18 +4219,13 @@
     <row r="93" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C93" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="D93" s="26">
-        <v>42818</v>
-      </c>
+      <c r="D93" s="26"/>
       <c r="E93" s="26"/>
-      <c r="F93" t="s">
-        <v>138</v>
-      </c>
       <c r="G93" s="12" t="s">
         <v>370</v>
       </c>
@@ -4246,37 +4234,45 @@
       </c>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
-      <c r="B94" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>390</v>
-      </c>
+      <c r="B94" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C94" s="17"/>
       <c r="D94" s="26"/>
       <c r="E94" s="26"/>
-      <c r="G94" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="H94" s="12">
-        <v>0</v>
-      </c>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C95" s="17"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="6"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="52"/>
+      <c r="B95" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="C95" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="D95" s="59">
+        <v>42831</v>
+      </c>
+      <c r="E95" s="59"/>
+      <c r="F95" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="G95" s="52"/>
+      <c r="H95" s="52">
+        <v>0</v>
+      </c>
+      <c r="I95" s="60">
+        <v>42842</v>
+      </c>
+      <c r="J95" s="62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="52"/>
       <c r="B96" s="58" t="s">
         <v>415</v>
@@ -4293,7 +4289,7 @@
       </c>
       <c r="G96" s="52"/>
       <c r="H96" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" s="60">
         <v>42842</v>
@@ -4303,124 +4299,110 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="52"/>
-      <c r="B97" s="58" t="s">
-        <v>416</v>
-      </c>
-      <c r="C97" s="58" t="s">
-        <v>397</v>
-      </c>
-      <c r="D97" s="59">
-        <v>42831</v>
-      </c>
-      <c r="E97" s="59"/>
-      <c r="F97" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="52">
-        <v>1</v>
-      </c>
-      <c r="I97" s="60">
-        <v>42842</v>
-      </c>
-      <c r="J97" s="62" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="12"/>
+      <c r="B97" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
-      <c r="B98" s="8" t="s">
-        <v>373</v>
+      <c r="B98" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="12"/>
+      <c r="G98" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H98" s="12">
+        <v>0</v>
+      </c>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="G99" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H99" s="12">
-        <v>0</v>
-      </c>
-      <c r="I99" s="6"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="H99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="H100" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>234</v>
-      </c>
+      <c r="B101" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D101" s="19">
+        <v>42760</v>
+      </c>
+      <c r="E101" s="19"/>
       <c r="H101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D102" s="19">
-        <v>42760</v>
-      </c>
-      <c r="E102" s="19"/>
-      <c r="H102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="58" t="s">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57">
+      <c r="C102" s="58"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="57">
         <v>3</v>
       </c>
-      <c r="I103" s="57"/>
-      <c r="J103" s="57"/>
+      <c r="I102" s="57"/>
+      <c r="J102" s="57"/>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="A104" s="12"/>
       <c r="B104" s="7" t="s">
-        <v>240</v>
+        <v>363</v>
+      </c>
+      <c r="G104" t="s">
+        <v>366</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4429,120 +4411,117 @@
     <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G105" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G106" t="s">
-        <v>318</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="H106" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="H107" t="s">
+      <c r="B107" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D108" s="19">
+        <v>42760</v>
+      </c>
+      <c r="E108" s="19"/>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="H109" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="H108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="C109" s="19" t="s">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C111" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="D109" s="19">
+      <c r="D111" s="19">
         <v>42760</v>
       </c>
-      <c r="E109" s="19"/>
-      <c r="H109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="H110" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="E111" s="19"/>
       <c r="H111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>2</v>
-      </c>
+    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
       <c r="B112" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D112" s="19">
-        <v>42760</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
       <c r="E112" s="19"/>
-      <c r="H112">
-        <v>0</v>
-      </c>
     </row>
     <row r="113" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
@@ -4551,164 +4530,179 @@
     <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
     </row>
-    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
-      <c r="B115" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
+      <c r="B116" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" s="58" t="s">
+      <c r="A118" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="C119" s="58"/>
-      <c r="D119" s="58"/>
-      <c r="E119" s="58"/>
-      <c r="F119" s="57"/>
-      <c r="G119" s="57"/>
-      <c r="H119" s="57">
-        <v>2</v>
-      </c>
-      <c r="I119" s="57"/>
-      <c r="J119" s="57"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="57"/>
+      <c r="G118" s="57"/>
+      <c r="H118" s="57">
+        <v>2</v>
+      </c>
+      <c r="I118" s="57"/>
+      <c r="J118" s="57"/>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
+      <c r="B121" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="52"/>
-      <c r="B123" s="54" t="s">
+      <c r="A122" s="52"/>
+      <c r="B122" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="C122" s="54" t="s">
+        <v>397</v>
+      </c>
+      <c r="D122" s="63">
+        <v>42831</v>
+      </c>
+      <c r="E122" s="64"/>
+      <c r="F122" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="G122" s="57"/>
+      <c r="H122" s="57">
+        <v>1</v>
+      </c>
+      <c r="I122" s="60">
+        <v>42842</v>
+      </c>
+      <c r="J122" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="K122" t="s">
         <v>417</v>
       </c>
-      <c r="C123" s="54" t="s">
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
+      <c r="B123" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C123" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="D123" s="63">
+      <c r="D123" s="44">
         <v>42831</v>
       </c>
-      <c r="E123" s="64"/>
-      <c r="F123" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="G123" s="57"/>
-      <c r="H123" s="57">
-        <v>1</v>
-      </c>
-      <c r="I123" s="60">
+      <c r="E123" s="45"/>
+      <c r="F123" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="G123" s="46"/>
+      <c r="H123" s="46">
+        <v>0</v>
+      </c>
+      <c r="I123" s="47">
+        <v>42834</v>
+      </c>
+      <c r="J123" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="52"/>
+      <c r="B124" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="C124" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="D124" s="59">
+        <v>42831</v>
+      </c>
+      <c r="E124" s="64"/>
+      <c r="F124" s="57"/>
+      <c r="G124" s="57"/>
+      <c r="H124" s="57">
+        <v>0</v>
+      </c>
+      <c r="I124" s="60">
         <v>42842</v>
       </c>
-      <c r="J123" s="57" t="s">
-        <v>418</v>
-      </c>
-      <c r="K123" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
-      <c r="B124" s="43" t="s">
-        <v>408</v>
-      </c>
-      <c r="C124" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="D124" s="44">
-        <v>42831</v>
-      </c>
-      <c r="E124" s="45"/>
-      <c r="F124" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46">
-        <v>0</v>
-      </c>
-      <c r="I124" s="47">
-        <v>42834</v>
-      </c>
-      <c r="J124" t="s">
+      <c r="J124" s="62" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="52"/>
       <c r="B125" s="54" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="C125" s="58" t="s">
         <v>397</v>
@@ -4717,72 +4711,69 @@
         <v>42831</v>
       </c>
       <c r="E125" s="64"/>
-      <c r="F125" s="57"/>
+      <c r="F125" s="52" t="s">
+        <v>133</v>
+      </c>
       <c r="G125" s="57"/>
-      <c r="H125" s="57">
-        <v>1</v>
-      </c>
-      <c r="I125" s="60">
-        <v>42842</v>
-      </c>
-      <c r="J125" s="62" t="s">
+      <c r="H125" s="52">
+        <v>0</v>
+      </c>
+      <c r="I125" s="60"/>
+      <c r="J125" s="62"/>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+      <c r="B126" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="C126" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="D126" s="49">
+        <v>42831</v>
+      </c>
+      <c r="E126" s="50"/>
+      <c r="F126" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="G126" s="51"/>
+      <c r="H126" s="51">
+        <v>0</v>
+      </c>
+      <c r="I126" s="42">
+        <v>42834</v>
+      </c>
+      <c r="J126" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="52"/>
-      <c r="B126" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="C126" s="58" t="s">
-        <v>397</v>
-      </c>
-      <c r="D126" s="59">
-        <v>42831</v>
-      </c>
-      <c r="E126" s="64"/>
-      <c r="F126" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="G126" s="57"/>
-      <c r="H126" s="52">
-        <v>1</v>
-      </c>
-      <c r="I126" s="60"/>
-      <c r="J126" s="62"/>
-    </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
-      <c r="B127" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="C127" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="D127" s="49">
-        <v>42831</v>
-      </c>
-      <c r="E127" s="50"/>
-      <c r="F127" s="51" t="s">
+    <row r="127" spans="1:11" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D127" s="19">
+        <v>42760</v>
+      </c>
+      <c r="E127" s="19"/>
+      <c r="F127" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G127" s="51"/>
-      <c r="H127" s="51">
-        <v>0</v>
-      </c>
-      <c r="I127" s="42">
-        <v>42834</v>
-      </c>
-      <c r="J127" t="s">
-        <v>144</v>
+      <c r="H127" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B128" s="22" t="s">
-        <v>278</v>
+      <c r="B128" s="23" t="s">
+        <v>291</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>286</v>
@@ -4791,62 +4782,55 @@
         <v>42760</v>
       </c>
       <c r="E128" s="19"/>
-      <c r="F128" s="12" t="s">
+      <c r="F128" s="19" t="s">
         <v>138</v>
       </c>
       <c r="H128" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D129" s="19">
-        <v>42760</v>
-      </c>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19" t="s">
+    <row r="129" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="52"/>
+      <c r="B129" s="53" t="s">
+        <v>369</v>
+      </c>
+      <c r="C129" s="55"/>
+      <c r="D129" s="56"/>
+      <c r="E129" s="56"/>
+      <c r="F129" s="56"/>
+      <c r="G129" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="H129" s="52">
+        <v>3</v>
+      </c>
+      <c r="I129" s="52"/>
+      <c r="J129" s="52"/>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F130" t="s">
         <v>138</v>
       </c>
-      <c r="H129" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="52"/>
-      <c r="B130" s="53" t="s">
-        <v>369</v>
-      </c>
-      <c r="C130" s="55"/>
-      <c r="D130" s="56"/>
-      <c r="E130" s="56"/>
-      <c r="F130" s="56"/>
-      <c r="G130" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="H130" s="52">
-        <v>3</v>
-      </c>
-      <c r="I130" s="52"/>
-      <c r="J130" s="52"/>
+      <c r="H130">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F131" t="s">
-        <v>138</v>
-      </c>
+      <c r="B131" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
       <c r="H131">
         <v>0</v>
       </c>
@@ -4856,85 +4840,79 @@
         <v>2</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="H132">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
+      <c r="B133" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F133" t="s">
+        <v>133</v>
+      </c>
       <c r="H133">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="A134" s="12"/>
       <c r="B134" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F134" t="s">
-        <v>133</v>
+        <v>383</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
-      <c r="B135" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B136" s="58" t="s">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="58" t="s">
         <v>396</v>
       </c>
-      <c r="C136" s="58"/>
-      <c r="D136" s="59">
+      <c r="C135" s="58"/>
+      <c r="D135" s="59">
         <v>42818</v>
       </c>
-      <c r="E136" s="58"/>
-      <c r="F136" s="57" t="s">
+      <c r="E135" s="58"/>
+      <c r="F135" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="G136" s="57"/>
-      <c r="H136" s="57">
+      <c r="G135" s="57"/>
+      <c r="H135" s="57">
         <v>1</v>
       </c>
-      <c r="I136" s="60">
+      <c r="I135" s="60">
         <v>42702</v>
       </c>
-      <c r="J136" s="57"/>
-    </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J135" s="57"/>
+    </row>
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -4942,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -4950,7 +4928,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -4958,7 +4936,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -4966,7 +4944,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -4974,34 +4952,37 @@
         <v>2</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+    </row>
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
+      <c r="B144" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -5012,38 +4993,45 @@
         <v>2</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="A147" s="12"/>
       <c r="B147" s="7" t="s">
-        <v>258</v>
+        <v>375</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
-      <c r="B148" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B149" s="8" t="s">
-        <v>301</v>
+      <c r="B149" t="s">
+        <v>302</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D149" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E149" s="26"/>
+      <c r="H149">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -5051,15 +5039,8 @@
         <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>302</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D150" s="26">
-        <v>42775</v>
-      </c>
-      <c r="E150" s="26"/>
+        <v>304</v>
+      </c>
       <c r="H150">
         <v>0</v>
       </c>
@@ -5069,159 +5050,164 @@
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>304</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D151" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E151" s="26"/>
       <c r="H151">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B152" t="s">
-        <v>314</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D152" s="26">
-        <v>42775</v>
-      </c>
-      <c r="E152" s="26"/>
-      <c r="H152">
-        <v>0</v>
-      </c>
+      <c r="A152" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C152" s="58"/>
+      <c r="D152" s="58"/>
+      <c r="E152" s="58"/>
+      <c r="F152" s="57"/>
+      <c r="G152" s="57"/>
+      <c r="H152" s="57">
+        <v>3</v>
+      </c>
+      <c r="I152" s="57"/>
+      <c r="J152" s="57"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B153" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="C153" s="58"/>
-      <c r="D153" s="58"/>
-      <c r="E153" s="58"/>
-      <c r="F153" s="57"/>
-      <c r="G153" s="57"/>
-      <c r="H153" s="57">
-        <v>3</v>
-      </c>
-      <c r="I153" s="57"/>
-      <c r="J153" s="57"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A155" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B155" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B155" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B156" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+    </row>
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
+      <c r="B157" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="A159" s="12"/>
       <c r="B159" s="9" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
-      <c r="B160" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A160" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B161" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="H163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B164" s="8" t="s">
+      <c r="B163" s="8" t="s">
         <v>385</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="12"/>
+      <c r="B164" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D164" s="26">
+        <v>42809</v>
+      </c>
+      <c r="E164" s="26"/>
+      <c r="H164">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>286</v>
@@ -5237,10 +5223,7 @@
     <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
       <c r="B166" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>286</v>
+        <v>383</v>
       </c>
       <c r="D166" s="26">
         <v>42809</v>
@@ -5250,38 +5233,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
-      <c r="B167" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D167" s="26">
-        <v>42809</v>
-      </c>
-      <c r="E167" s="26"/>
-      <c r="H167">
-        <v>0</v>
-      </c>
+      <c r="B167" s="9"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="12"/>
-      <c r="B168" s="9"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C168" s="8"/>
+    </row>
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C169" s="8"/>
+      <c r="B169" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="H169">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -5294,12 +5278,9 @@
       <c r="A171" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B171" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
+      <c r="B171" s="7" t="s">
+        <v>251</v>
+      </c>
       <c r="H171">
         <v>0</v>
       </c>
@@ -5309,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -5320,57 +5301,57 @@
         <v>1</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="12" t="s">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="12"/>
+      <c r="B174" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="52"/>
+      <c r="B175" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="57"/>
+      <c r="G175" s="57"/>
+      <c r="H175" s="57">
+        <v>2</v>
+      </c>
+      <c r="I175" s="57"/>
+      <c r="J175" s="57"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B174" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="12"/>
-      <c r="B175" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="52"/>
-      <c r="B176" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="C176" s="58"/>
-      <c r="D176" s="58"/>
-      <c r="E176" s="58"/>
-      <c r="F176" s="57"/>
-      <c r="G176" s="57"/>
-      <c r="H176" s="57">
-        <v>2</v>
-      </c>
-      <c r="I176" s="57"/>
-      <c r="J176" s="57"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B176" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="H176" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="H177" t="s">
-        <v>41</v>
+      <c r="B177" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -5378,10 +5359,16 @@
         <v>1</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>116</v>
+        <v>224</v>
+      </c>
+      <c r="F178" t="s">
+        <v>138</v>
       </c>
       <c r="H178">
         <v>0</v>
+      </c>
+      <c r="I178" s="6">
+        <v>42702</v>
       </c>
     </row>
     <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -5389,65 +5376,68 @@
         <v>1</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F179" t="s">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
-      <c r="I179" s="6">
-        <v>42702</v>
-      </c>
+      <c r="I179" s="6"/>
     </row>
     <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>269</v>
+        <v>227</v>
+      </c>
+      <c r="G180" t="s">
+        <v>138</v>
       </c>
       <c r="H180">
         <v>0</v>
       </c>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B181" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G181" t="s">
+      <c r="B181" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+      <c r="H181" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B182" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C182" s="55"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="52"/>
+      <c r="G182" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="H181">
-        <v>0</v>
-      </c>
-      <c r="I181" s="6"/>
-    </row>
-    <row r="182" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B182" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C182" s="13"/>
-      <c r="D182" s="13"/>
-      <c r="E182" s="13"/>
-      <c r="H182" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H182" s="52">
+        <v>2</v>
+      </c>
+      <c r="I182" s="52"/>
+      <c r="J182" s="52"/>
+    </row>
+    <row r="183" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="52" t="s">
         <v>1</v>
       </c>
       <c r="B183" s="55" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C183" s="55"/>
       <c r="D183" s="55"/>
@@ -5462,89 +5452,85 @@
       <c r="I183" s="52"/>
       <c r="J183" s="52"/>
     </row>
-    <row r="184" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="52" t="s">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B184" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="C184" s="55"/>
-      <c r="D184" s="55"/>
-      <c r="E184" s="55"/>
-      <c r="F184" s="52"/>
-      <c r="G184" s="57" t="s">
+      <c r="B184" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G184" t="s">
         <v>138</v>
       </c>
-      <c r="H184" s="52">
-        <v>2</v>
-      </c>
-      <c r="I184" s="52"/>
-      <c r="J184" s="52"/>
-    </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B185" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G185" t="s">
-        <v>138</v>
-      </c>
-      <c r="H185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C185" s="13"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+      <c r="H185" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B186" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C186" s="13"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13"/>
-      <c r="H186" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B187" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H187">
-        <v>0</v>
+      <c r="B187" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C187" s="13"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H187" s="12">
+        <v>0</v>
+      </c>
+      <c r="I187" s="14">
+        <v>42702</v>
       </c>
     </row>
     <row r="188" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B188" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C188" s="13"/>
-      <c r="D188" s="13"/>
-      <c r="E188" s="13"/>
-      <c r="F188" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H188" s="12">
-        <v>0</v>
-      </c>
-      <c r="I188" s="14">
-        <v>42702</v>
-      </c>
+      <c r="A188" s="52"/>
+      <c r="B188" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="C188" s="55"/>
+      <c r="D188" s="55"/>
+      <c r="E188" s="55"/>
+      <c r="F188" s="52"/>
+      <c r="G188" s="52"/>
+      <c r="H188" s="52">
+        <v>2</v>
+      </c>
+      <c r="I188" s="61"/>
+      <c r="J188" s="52"/>
     </row>
     <row r="189" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="52"/>
       <c r="B189" s="55" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="C189" s="55"/>
       <c r="D189" s="55"/>
@@ -5552,103 +5538,105 @@
       <c r="F189" s="52"/>
       <c r="G189" s="52"/>
       <c r="H189" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" s="61"/>
       <c r="J189" s="52"/>
     </row>
     <row r="190" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="52"/>
-      <c r="B190" s="55" t="s">
-        <v>398</v>
-      </c>
-      <c r="C190" s="55"/>
-      <c r="D190" s="55"/>
-      <c r="E190" s="55"/>
-      <c r="F190" s="52"/>
-      <c r="G190" s="52"/>
-      <c r="H190" s="52">
+      <c r="A190" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I190" s="61"/>
-      <c r="J190" s="52"/>
+      <c r="B190" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C190" s="15"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H190" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I190" s="14"/>
     </row>
     <row r="191" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="12" t="s">
+      <c r="A191" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B191" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C191" s="15"/>
-      <c r="D191" s="15"/>
-      <c r="E191" s="15"/>
-      <c r="F191" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H191" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I191" s="14"/>
-    </row>
-    <row r="192" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="52" t="s">
+      <c r="B191" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="C191" s="65"/>
+      <c r="D191" s="65"/>
+      <c r="E191" s="65"/>
+      <c r="F191" s="52"/>
+      <c r="G191" s="52"/>
+      <c r="H191" s="52">
         <v>1</v>
       </c>
-      <c r="B192" s="53" t="s">
-        <v>402</v>
-      </c>
-      <c r="C192" s="65"/>
-      <c r="D192" s="65"/>
-      <c r="E192" s="65"/>
-      <c r="F192" s="52"/>
-      <c r="G192" s="52"/>
-      <c r="H192" s="52">
+      <c r="I191" s="61"/>
+      <c r="J191" s="52"/>
+    </row>
+    <row r="192" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I192" s="61"/>
-      <c r="J192" s="52"/>
-    </row>
-    <row r="193" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C192" s="15"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="H192" s="12">
+        <v>0</v>
+      </c>
+      <c r="I192" s="14"/>
+    </row>
+    <row r="193" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C193" s="15"/>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
-      <c r="H193" s="12">
-        <v>0</v>
-      </c>
       <c r="I193" s="14"/>
     </row>
-    <row r="194" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="12" t="s">
+    <row r="194" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B194" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="C194" s="15"/>
-      <c r="D194" s="15"/>
-      <c r="E194" s="15"/>
-      <c r="I194" s="14"/>
-    </row>
-    <row r="195" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="C194" s="65"/>
+      <c r="D194" s="65"/>
+      <c r="E194" s="65"/>
+      <c r="F194" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G194" s="52"/>
+      <c r="H194" s="52">
+        <v>2</v>
+      </c>
+      <c r="I194" s="61"/>
+      <c r="J194" s="52"/>
+    </row>
+    <row r="195" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B195" s="65" t="s">
-        <v>261</v>
+      <c r="B195" s="53" t="s">
+        <v>327</v>
       </c>
       <c r="C195" s="65"/>
       <c r="D195" s="65"/>
       <c r="E195" s="65"/>
-      <c r="F195" s="52" t="s">
-        <v>133</v>
-      </c>
+      <c r="F195" s="52"/>
       <c r="G195" s="52"/>
       <c r="H195" s="52">
         <v>2</v>
@@ -5657,29 +5645,23 @@
       <c r="J195" s="52"/>
     </row>
     <row r="196" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="52" t="s">
+      <c r="A196" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B196" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="C196" s="65"/>
-      <c r="D196" s="65"/>
-      <c r="E196" s="65"/>
-      <c r="F196" s="52"/>
-      <c r="G196" s="52"/>
-      <c r="H196" s="52">
-        <v>2</v>
-      </c>
-      <c r="I196" s="61"/>
-      <c r="J196" s="52"/>
+      <c r="B196" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="I196" s="14"/>
     </row>
     <row r="197" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C197" s="15"/>
       <c r="D197" s="15"/>
@@ -5691,60 +5673,66 @@
         <v>1</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="C198" s="15"/>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="I198" s="14"/>
     </row>
-    <row r="199" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="12" t="s">
+    <row r="199" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B199" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="C199" s="15"/>
-      <c r="D199" s="15"/>
-      <c r="E199" s="15"/>
-      <c r="I199" s="14"/>
-    </row>
-    <row r="200" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="55" t="s">
+      <c r="B199" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="C200" s="55"/>
-      <c r="D200" s="55"/>
-      <c r="E200" s="55"/>
-      <c r="F200" s="52" t="s">
+      <c r="C199" s="55"/>
+      <c r="D199" s="55"/>
+      <c r="E199" s="55"/>
+      <c r="F199" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="G200" s="52"/>
-      <c r="H200" s="52">
+      <c r="G199" s="52"/>
+      <c r="H199" s="52">
         <v>3</v>
       </c>
-      <c r="I200" s="61"/>
-      <c r="J200" s="52"/>
-    </row>
-    <row r="201" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A201" s="12" t="s">
+      <c r="I199" s="61"/>
+      <c r="J199" s="52"/>
+    </row>
+    <row r="200" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A200" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="B201" s="16" t="s">
+      <c r="B200" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="I201" s="6"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I200" s="6"/>
+    </row>
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="B201" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="C201" s="58"/>
+      <c r="D201" s="58"/>
+      <c r="E201" s="58"/>
+      <c r="F201" s="57"/>
+      <c r="G201" s="57"/>
+      <c r="H201" s="57">
+        <v>3</v>
+      </c>
+      <c r="I201" s="60"/>
+      <c r="J201" s="57"/>
+    </row>
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="52" t="s">
         <v>333</v>
       </c>
       <c r="B202" s="58" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C202" s="58"/>
       <c r="D202" s="58"/>
@@ -5757,12 +5745,12 @@
       <c r="I202" s="60"/>
       <c r="J202" s="57"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="52" t="s">
         <v>333</v>
       </c>
       <c r="B203" s="58" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C203" s="58"/>
       <c r="D203" s="58"/>
@@ -5775,12 +5763,12 @@
       <c r="I203" s="60"/>
       <c r="J203" s="57"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="52" t="s">
         <v>333</v>
       </c>
       <c r="B204" s="58" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C204" s="58"/>
       <c r="D204" s="58"/>
@@ -5793,42 +5781,42 @@
       <c r="I204" s="60"/>
       <c r="J204" s="57"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="52" t="s">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="B205" s="58" t="s">
-        <v>331</v>
-      </c>
-      <c r="C205" s="58"/>
-      <c r="D205" s="58"/>
-      <c r="E205" s="58"/>
-      <c r="F205" s="57"/>
-      <c r="G205" s="57"/>
-      <c r="H205" s="57">
-        <v>3</v>
-      </c>
-      <c r="I205" s="60"/>
-      <c r="J205" s="57"/>
+      <c r="B205" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205" s="6"/>
     </row>
     <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="12" t="s">
+      <c r="A206" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="B206" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H206">
-        <v>0</v>
-      </c>
-      <c r="I206" s="6"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="C206" s="58"/>
+      <c r="D206" s="58"/>
+      <c r="E206" s="58"/>
+      <c r="F206" s="57"/>
+      <c r="G206" s="57"/>
+      <c r="H206" s="57">
+        <v>2</v>
+      </c>
+      <c r="I206" s="60"/>
+      <c r="J206" s="57"/>
+    </row>
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="52" t="s">
         <v>333</v>
       </c>
       <c r="B207" s="58" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="C207" s="58"/>
       <c r="D207" s="58"/>
@@ -5836,17 +5824,17 @@
       <c r="F207" s="57"/>
       <c r="G207" s="57"/>
       <c r="H207" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I207" s="60"/>
       <c r="J207" s="57"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="52" t="s">
         <v>333</v>
       </c>
       <c r="B208" s="58" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C208" s="58"/>
       <c r="D208" s="58"/>
@@ -5859,12 +5847,12 @@
       <c r="I208" s="60"/>
       <c r="J208" s="57"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="52" t="s">
         <v>333</v>
       </c>
       <c r="B209" s="58" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C209" s="58"/>
       <c r="D209" s="58"/>
@@ -5878,123 +5866,116 @@
       <c r="J209" s="57"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="B210" s="58" t="s">
-        <v>337</v>
-      </c>
-      <c r="C210" s="58"/>
-      <c r="D210" s="58"/>
-      <c r="E210" s="58"/>
-      <c r="F210" s="57"/>
-      <c r="G210" s="57"/>
-      <c r="H210" s="57">
-        <v>3</v>
-      </c>
-      <c r="I210" s="60"/>
-      <c r="J210" s="57"/>
+      <c r="A210" s="12"/>
+      <c r="B210" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I210" s="6"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
-      <c r="B211" s="7" t="s">
-        <v>354</v>
-      </c>
       <c r="I211" s="6"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
+      <c r="B212" s="7" t="s">
+        <v>378</v>
+      </c>
       <c r="I212" s="6"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I213" s="6"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I214" s="6"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="12"/>
-      <c r="B215" s="7" t="s">
-        <v>380</v>
+    <row r="215" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B215" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="I215" s="6"/>
     </row>
-    <row r="216" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B216" s="16" t="s">
-        <v>334</v>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="15" t="s">
+        <v>349</v>
       </c>
       <c r="I216" s="6"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B217" s="15" t="s">
-        <v>349</v>
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
       </c>
       <c r="I217" s="6"/>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H218">
-        <v>0</v>
-      </c>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I218" s="6"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I219" s="6"/>
-    </row>
-    <row r="220" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C219" s="15"/>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15"/>
+      <c r="I219" s="14"/>
+    </row>
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="B220" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="C220" s="15"/>
-      <c r="D220" s="15"/>
-      <c r="E220" s="15"/>
-      <c r="I220" s="14"/>
+      <c r="B220" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F220" t="s">
+        <v>133</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
         <v>315</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F221" t="s">
-        <v>133</v>
+        <v>328</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="J221" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="12" t="s">
+      <c r="A222" s="12"/>
+      <c r="B222" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="B222" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H222">
-        <v>9</v>
-      </c>
-      <c r="J222" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="12"/>
       <c r="B223" s="7" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -6005,60 +5986,60 @@
         <v>315</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="H224">
         <v>0</v>
       </c>
+      <c r="I224" s="6"/>
     </row>
     <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
         <v>315</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>255</v>
+        <v>120</v>
       </c>
       <c r="H225">
         <v>0</v>
       </c>
-      <c r="I225" s="6"/>
+      <c r="J225" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H226">
-        <v>0</v>
-      </c>
-      <c r="J226" t="s">
-        <v>144</v>
-      </c>
+      <c r="A226" s="52"/>
+      <c r="B226" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="C226" s="58"/>
+      <c r="D226" s="58"/>
+      <c r="E226" s="58"/>
+      <c r="F226" s="57"/>
+      <c r="G226" s="57"/>
+      <c r="H226" s="57">
+        <v>2</v>
+      </c>
+      <c r="I226" s="57"/>
+      <c r="J226" s="57"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227" s="52"/>
-      <c r="B227" s="58" t="s">
-        <v>346</v>
-      </c>
-      <c r="C227" s="58"/>
-      <c r="D227" s="58"/>
-      <c r="E227" s="58"/>
-      <c r="F227" s="57"/>
-      <c r="G227" s="57"/>
-      <c r="H227" s="57">
-        <v>2</v>
-      </c>
-      <c r="I227" s="57"/>
-      <c r="J227" s="57"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B228" s="8" t="s">
-        <v>297</v>
+      <c r="B228" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6066,22 +6047,31 @@
         <v>297</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>298</v>
+        <v>130</v>
+      </c>
+      <c r="F229" t="s">
+        <v>133</v>
       </c>
       <c r="H229">
         <v>0</v>
+      </c>
+      <c r="I229" s="6">
+        <v>42702</v>
+      </c>
+      <c r="J229" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B230" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F230" t="s">
-        <v>133</v>
-      </c>
+      <c r="B230" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C230" s="9"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="9"/>
       <c r="H230">
         <v>0</v>
       </c>
@@ -6096,20 +6086,17 @@
       <c r="A231" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B231" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C231" s="9"/>
-      <c r="D231" s="9"/>
-      <c r="E231" s="9"/>
+      <c r="B231" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F231" t="s">
+        <v>133</v>
+      </c>
       <c r="H231">
         <v>0</v>
       </c>
       <c r="I231" s="6">
         <v>42702</v>
-      </c>
-      <c r="J231" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6117,16 +6104,13 @@
         <v>297</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F232" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H232">
         <v>0</v>
-      </c>
-      <c r="I232" s="6">
-        <v>42702</v>
       </c>
     </row>
     <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6134,13 +6118,19 @@
         <v>297</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F233" t="s">
         <v>135</v>
       </c>
       <c r="H233">
         <v>0</v>
+      </c>
+      <c r="I233" s="6">
+        <v>42697</v>
+      </c>
+      <c r="J233" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6148,95 +6138,95 @@
         <v>297</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F234" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="H234">
         <v>0</v>
       </c>
-      <c r="I234" s="6">
-        <v>42697</v>
-      </c>
-      <c r="J234" t="s">
-        <v>144</v>
-      </c>
+      <c r="I234" s="6"/>
     </row>
     <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>255</v>
+      <c r="A235" s="12"/>
+      <c r="B235" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I235" s="6"/>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="12"/>
-      <c r="B236" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="H236">
-        <v>9</v>
-      </c>
-      <c r="I236" s="6"/>
-    </row>
-    <row r="237" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B237" s="16" t="s">
+    <row r="236" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B236" s="16" t="s">
         <v>86</v>
+      </c>
+      <c r="C236" s="16"/>
+      <c r="D236" s="16"/>
+      <c r="E236" s="16"/>
+    </row>
+    <row r="237" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B237" s="64" t="s">
+        <v>137</v>
       </c>
       <c r="C237" s="16"/>
       <c r="D237" s="16"/>
       <c r="E237" s="16"/>
+      <c r="H237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B238" s="64" t="s">
-        <v>137</v>
-      </c>
+      <c r="B238" s="16"/>
       <c r="C238" s="16"/>
       <c r="D238" s="16"/>
       <c r="E238" s="16"/>
-      <c r="H238">
-        <v>2</v>
-      </c>
     </row>
     <row r="239" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B239" s="16"/>
+      <c r="B239" s="64" t="s">
+        <v>420</v>
+      </c>
       <c r="C239" s="16"/>
       <c r="D239" s="16"/>
       <c r="E239" s="16"/>
     </row>
     <row r="240" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B240" s="64" t="s">
-        <v>422</v>
+      <c r="B240" s="57" t="s">
+        <v>421</v>
       </c>
       <c r="C240" s="16"/>
       <c r="D240" s="16"/>
       <c r="E240" s="16"/>
-    </row>
-    <row r="241" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B241" s="57" t="s">
-        <v>423</v>
-      </c>
-      <c r="C241" s="16"/>
-      <c r="D241" s="16"/>
-      <c r="E241" s="16"/>
-      <c r="H241">
+      <c r="H240">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="57"/>
+      <c r="B241" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="C241" s="58"/>
+      <c r="D241" s="58"/>
+      <c r="E241" s="58"/>
+      <c r="F241" s="57"/>
+      <c r="G241" s="57"/>
+      <c r="H241" s="57">
+        <v>2</v>
+      </c>
+      <c r="I241" s="57"/>
+      <c r="J241" s="57"/>
+    </row>
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="57"/>
-      <c r="B242" s="64" t="s">
-        <v>262</v>
-      </c>
-      <c r="C242" s="58"/>
-      <c r="D242" s="58"/>
-      <c r="E242" s="58"/>
+      <c r="B242" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="C242" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="D242" s="59">
+        <v>42775</v>
+      </c>
+      <c r="E242" s="59"/>
       <c r="F242" s="57"/>
       <c r="G242" s="57"/>
       <c r="H242" s="57">
@@ -6247,81 +6237,77 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="57"/>
-      <c r="B243" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="C243" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="D243" s="59">
-        <v>42775</v>
-      </c>
-      <c r="E243" s="59"/>
+      <c r="B243" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="C243" s="58"/>
+      <c r="D243" s="58"/>
+      <c r="E243" s="58"/>
       <c r="F243" s="57"/>
       <c r="G243" s="57"/>
       <c r="H243" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" s="57"/>
       <c r="J243" s="57"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="57"/>
-      <c r="B244" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="C244" s="58"/>
-      <c r="D244" s="58"/>
-      <c r="E244" s="58"/>
-      <c r="F244" s="57"/>
-      <c r="G244" s="57"/>
-      <c r="H244" s="57">
-        <v>1</v>
-      </c>
-      <c r="I244" s="57"/>
-      <c r="J244" s="57"/>
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>305</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D244" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E244" s="26"/>
+      <c r="H244">
+        <v>0</v>
+      </c>
     </row>
     <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B245" t="s">
-        <v>305</v>
-      </c>
-      <c r="C245" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D245" s="26">
-        <v>42775</v>
-      </c>
-      <c r="E245" s="26"/>
-      <c r="H245">
-        <v>0</v>
-      </c>
+      <c r="A245" s="57"/>
+      <c r="B245" s="58" t="s">
+        <v>382</v>
+      </c>
+      <c r="C245" s="58"/>
+      <c r="D245" s="58"/>
+      <c r="E245" s="58"/>
+      <c r="F245" s="57"/>
+      <c r="G245" s="57"/>
+      <c r="H245" s="57">
+        <v>0</v>
+      </c>
+      <c r="I245" s="60"/>
+      <c r="J245" s="57"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A246" s="57"/>
-      <c r="B246" s="58" t="s">
-        <v>382</v>
-      </c>
-      <c r="C246" s="58"/>
-      <c r="D246" s="58"/>
-      <c r="E246" s="58"/>
-      <c r="F246" s="57"/>
-      <c r="G246" s="57"/>
-      <c r="H246" s="57">
-        <v>0</v>
-      </c>
-      <c r="I246" s="60"/>
-      <c r="J246" s="57"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B247" s="8" t="s">
+      <c r="B246" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="I247" s="6"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I246" s="6"/>
+    </row>
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="57"/>
+      <c r="B247" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="C247" s="58"/>
+      <c r="D247" s="58"/>
+      <c r="E247" s="58"/>
+      <c r="F247" s="57"/>
+      <c r="G247" s="57"/>
+      <c r="H247" s="57">
+        <v>2</v>
+      </c>
+      <c r="I247" s="60"/>
+      <c r="J247" s="57"/>
+    </row>
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="57"/>
       <c r="B248" s="58" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C248" s="58"/>
       <c r="D248" s="58"/>
@@ -6329,15 +6315,15 @@
       <c r="F248" s="57"/>
       <c r="G248" s="57"/>
       <c r="H248" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" s="60"/>
       <c r="J248" s="57"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="57"/>
       <c r="B249" s="58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C249" s="58"/>
       <c r="D249" s="58"/>
@@ -6351,31 +6337,31 @@
       <c r="J249" s="57"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" s="57"/>
-      <c r="B250" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="C250" s="58"/>
-      <c r="D250" s="58"/>
-      <c r="E250" s="58"/>
-      <c r="F250" s="57"/>
-      <c r="G250" s="57"/>
-      <c r="H250" s="57">
-        <v>2</v>
-      </c>
-      <c r="I250" s="60"/>
-      <c r="J250" s="57"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B251" s="7" t="s">
+      <c r="B250" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="I251" s="6"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I250" s="6"/>
+    </row>
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="57"/>
+      <c r="B251" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="C251" s="58"/>
+      <c r="D251" s="58"/>
+      <c r="E251" s="58"/>
+      <c r="F251" s="57"/>
+      <c r="G251" s="57"/>
+      <c r="H251" s="57">
+        <v>2</v>
+      </c>
+      <c r="I251" s="60"/>
+      <c r="J251" s="57"/>
+    </row>
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="57"/>
       <c r="B252" s="58" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="C252" s="58"/>
       <c r="D252" s="58"/>
@@ -6388,10 +6374,10 @@
       <c r="I252" s="60"/>
       <c r="J252" s="57"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="57"/>
       <c r="B253" s="58" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C253" s="58"/>
       <c r="D253" s="58"/>
@@ -6404,10 +6390,10 @@
       <c r="I253" s="60"/>
       <c r="J253" s="57"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="57"/>
       <c r="B254" s="58" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C254" s="58"/>
       <c r="D254" s="58"/>
@@ -6421,76 +6407,68 @@
       <c r="J254" s="57"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A255" s="57"/>
-      <c r="B255" s="58" t="s">
-        <v>401</v>
-      </c>
-      <c r="C255" s="58"/>
-      <c r="D255" s="58"/>
-      <c r="E255" s="58"/>
-      <c r="F255" s="57"/>
-      <c r="G255" s="57"/>
-      <c r="H255" s="57">
-        <v>2</v>
-      </c>
-      <c r="I255" s="60"/>
-      <c r="J255" s="57"/>
+      <c r="B255" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C255" s="8"/>
+      <c r="D255" s="8"/>
+      <c r="E255" s="8"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B256" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C256" s="8"/>
-      <c r="D256" s="8"/>
-      <c r="E256" s="8"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F256" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F257" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F258" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F259" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>4</v>
+      <c r="A260" t="s">
+        <v>174</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
+      </c>
+      <c r="F260" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>174</v>
-      </c>
       <c r="B261" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F261" t="s">
         <v>211</v>
@@ -6498,7 +6476,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B262" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F262" t="s">
         <v>211</v>
@@ -6506,158 +6484,166 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B263" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F263" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B264" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F264" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B265" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F265" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B266" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F266" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B266" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C266" s="10"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="10"/>
+    </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B267" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C267" s="10"/>
-      <c r="D267" s="10"/>
-      <c r="E267" s="10"/>
+      <c r="B267" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F267" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B268" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F268" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B269" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B270" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B271" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="F272" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F273" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B274" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="F274" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B275" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F275" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B276" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F276" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B277" s="10" t="s">
+      <c r="B276" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C277" s="10"/>
-      <c r="D277" s="10"/>
-      <c r="E277" s="10"/>
+      <c r="C276" s="10"/>
+      <c r="D276" s="10"/>
+      <c r="E276" s="10"/>
+    </row>
+    <row r="277" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B277" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F277" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="278" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B278" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F278" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B279" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F279" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B280" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1</v>
+      </c>
       <c r="B281" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>2</v>
-      </c>
-      <c r="B283" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="57"/>
+      <c r="B283" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C283" s="58"/>
+      <c r="D283" s="58"/>
+      <c r="E283" s="58"/>
+      <c r="F283" s="57"/>
+      <c r="G283" s="57"/>
+      <c r="H283" s="57">
+        <v>2</v>
+      </c>
+      <c r="I283" s="57"/>
+      <c r="J283" s="57"/>
+    </row>
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="57"/>
       <c r="B284" s="58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C284" s="58"/>
       <c r="D284" s="58"/>
@@ -6670,10 +6656,10 @@
       <c r="I284" s="57"/>
       <c r="J284" s="57"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="57"/>
       <c r="B285" s="58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C285" s="58"/>
       <c r="D285" s="58"/>
@@ -6681,30 +6667,22 @@
       <c r="F285" s="57"/>
       <c r="G285" s="57"/>
       <c r="H285" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I285" s="57"/>
       <c r="J285" s="57"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A286" s="57"/>
-      <c r="B286" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="C286" s="58"/>
-      <c r="D286" s="58"/>
-      <c r="E286" s="58"/>
-      <c r="F286" s="57"/>
-      <c r="G286" s="57"/>
-      <c r="H286" s="57">
-        <v>3</v>
-      </c>
-      <c r="I286" s="57"/>
-      <c r="J286" s="57"/>
-    </row>
-    <row r="287" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B287" s="7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="H287">
         <v>0</v>
@@ -6712,18 +6690,24 @@
     </row>
     <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B288" s="7" t="s">
-        <v>217</v>
+        <v>202</v>
+      </c>
+      <c r="F288" t="s">
+        <v>219</v>
       </c>
       <c r="H288">
         <v>0</v>
+      </c>
+      <c r="I288" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B289" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F289" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -6734,10 +6718,10 @@
     </row>
     <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B290" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F290" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H290">
         <v>0</v>
@@ -6746,12 +6730,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B291" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F291" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="H291">
         <v>0</v>
@@ -6760,9 +6741,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B292" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -6773,7 +6754,7 @@
     </row>
     <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B293" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H293">
         <v>0</v>
@@ -6782,41 +6763,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H294">
-        <v>0</v>
-      </c>
-      <c r="I294" t="s">
-        <v>144</v>
-      </c>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="57"/>
+      <c r="B294" s="58"/>
+      <c r="C294" s="58"/>
+      <c r="D294" s="58"/>
+      <c r="E294" s="58"/>
+      <c r="F294" s="57"/>
+      <c r="G294" s="57"/>
+      <c r="H294" s="57"/>
+      <c r="I294" s="57"/>
+      <c r="J294" s="57"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A295" s="57"/>
-      <c r="B295" s="58"/>
-      <c r="C295" s="58"/>
-      <c r="D295" s="58"/>
-      <c r="E295" s="58"/>
-      <c r="F295" s="57"/>
-      <c r="G295" s="57"/>
-      <c r="H295" s="57"/>
-      <c r="I295" s="57"/>
-      <c r="J295" s="57"/>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B296" s="7" t="s">
+      <c r="B295" s="7" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:J294">
+  <autoFilter ref="A7:J293">
     <filterColumn colId="7">
       <filters blank="1">
         <filter val="1"/>
-        <filter val="2"/>
-        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documents/Technical/ProjectPlan-Internal.xlsx
+++ b/Documents/Technical/ProjectPlan-Internal.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Actions - Post - Demo1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$J$293</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Actions - Post - Demo1'!$A$7:$J$298</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="426">
   <si>
     <t>Reports</t>
   </si>
@@ -1430,12 +1430,6 @@
     <t>Sam Site Converting from Live to DB</t>
   </si>
   <si>
-    <t>Clarifications required from ICON</t>
-  </si>
-  <si>
-    <t>WIP</t>
-  </si>
-  <si>
     <t>Institute related Findings - Changes in Compliance Form</t>
   </si>
   <si>
@@ -1443,6 +1437,24 @@
   </si>
   <si>
     <t>Authroisation in API Controllers</t>
+  </si>
+  <si>
+    <t>Sort List in descending oder</t>
+  </si>
+  <si>
+    <t>The Source Date of SDN website (12th site in ICSF) is displaying wrong date as 17th Mar instead of the correct one 13th Apr.</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Incorect Page Number in footer.  ICSFs going more than 2 pages are having the pagination error and could you please see if this could be fixed by any means.</t>
+  </si>
+  <si>
+    <t>User List in pop up must be in alphabetical order</t>
   </si>
 </sst>
 </file>
@@ -2745,18 +2757,18 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K295"/>
+  <dimension ref="A1:K300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B247" sqref="B247"/>
+      <selection pane="bottomRight" activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="7" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="7" customWidth="1"/>
@@ -4420,108 +4432,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="8" t="s">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+      <c r="B106" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D106" s="26">
+        <v>42845</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="H106" t="s">
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="H107" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="9" t="s">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="H107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="24" t="s">
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="C109" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="D108" s="19">
+      <c r="D109" s="19">
         <v>42760</v>
       </c>
-      <c r="E108" s="19"/>
-      <c r="H108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="10" t="s">
+      <c r="E109" s="19"/>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="H109" t="s">
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="H110" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="7" t="s">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="20" t="s">
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C112" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="D111" s="19">
+      <c r="D112" s="19">
         <v>42760</v>
       </c>
-      <c r="E111" s="19"/>
-      <c r="H111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
       <c r="E112" s="19"/>
+      <c r="H112">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="20" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
@@ -4530,164 +4548,136 @@
     <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" s="8" t="s">
+    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
+      <c r="B115" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="12"/>
+      <c r="B116" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D116" s="26">
+        <v>42845</v>
+      </c>
+      <c r="E116" s="19"/>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-    </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="7" t="s">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="C118" s="58"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="57"/>
-      <c r="G118" s="57"/>
-      <c r="H118" s="57">
-        <v>2</v>
-      </c>
-      <c r="I118" s="57"/>
-      <c r="J118" s="57"/>
+      <c r="H118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B119" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" s="58"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="57"/>
+      <c r="G120" s="57"/>
+      <c r="H120" s="57">
+        <v>2</v>
+      </c>
+      <c r="I120" s="57"/>
+      <c r="J120" s="57"/>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" s="7" t="s">
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" s="8" t="s">
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="52"/>
-      <c r="B122" s="54" t="s">
-        <v>416</v>
-      </c>
-      <c r="C122" s="54" t="s">
-        <v>397</v>
-      </c>
-      <c r="D122" s="63">
-        <v>42831</v>
-      </c>
-      <c r="E122" s="64"/>
-      <c r="F122" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="G122" s="57"/>
-      <c r="H122" s="57">
-        <v>1</v>
-      </c>
-      <c r="I122" s="60">
-        <v>42842</v>
-      </c>
-      <c r="J122" s="57" t="s">
-        <v>418</v>
-      </c>
-      <c r="K122" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
-      <c r="B123" s="43" t="s">
-        <v>408</v>
-      </c>
-      <c r="C123" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="D123" s="44">
-        <v>42831</v>
-      </c>
-      <c r="E123" s="45"/>
-      <c r="F123" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="G123" s="46"/>
-      <c r="H123" s="46">
-        <v>0</v>
-      </c>
-      <c r="I123" s="47">
-        <v>42834</v>
-      </c>
-      <c r="J123" t="s">
-        <v>144</v>
-      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="52"/>
       <c r="B124" s="54" t="s">
-        <v>406</v>
-      </c>
-      <c r="C124" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="C124" s="54" t="s">
         <v>397</v>
       </c>
-      <c r="D124" s="59">
+      <c r="D124" s="63">
         <v>42831</v>
       </c>
       <c r="E124" s="64"/>
-      <c r="F124" s="57"/>
+      <c r="F124" s="57" t="s">
+        <v>133</v>
+      </c>
       <c r="G124" s="57"/>
       <c r="H124" s="57">
         <v>0</v>
@@ -4698,229 +4688,266 @@
       <c r="J124" s="62" t="s">
         <v>144</v>
       </c>
+      <c r="K124" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="52"/>
-      <c r="B125" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="C125" s="58" t="s">
+      <c r="A125" s="12"/>
+      <c r="B125" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C125" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="D125" s="59">
+      <c r="D125" s="44">
         <v>42831</v>
       </c>
-      <c r="E125" s="64"/>
-      <c r="F125" s="52" t="s">
+      <c r="E125" s="45"/>
+      <c r="F125" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46">
+        <v>0</v>
+      </c>
+      <c r="I125" s="47">
+        <v>42834</v>
+      </c>
+      <c r="J125" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="52"/>
+      <c r="B126" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="C126" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="D126" s="59">
+        <v>42831</v>
+      </c>
+      <c r="E126" s="64"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="57"/>
+      <c r="H126" s="57">
+        <v>0</v>
+      </c>
+      <c r="I126" s="60">
+        <v>42842</v>
+      </c>
+      <c r="J126" s="62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="52"/>
+      <c r="B127" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="C127" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="D127" s="59">
+        <v>42831</v>
+      </c>
+      <c r="E127" s="64"/>
+      <c r="F127" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="G125" s="57"/>
-      <c r="H125" s="52">
-        <v>0</v>
-      </c>
-      <c r="I125" s="60"/>
-      <c r="J125" s="62"/>
-    </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
-      <c r="B126" s="38" t="s">
+      <c r="G127" s="57"/>
+      <c r="H127" s="52">
+        <v>0</v>
+      </c>
+      <c r="I127" s="60"/>
+      <c r="J127" s="62"/>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="12"/>
+      <c r="B128" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="C126" s="48" t="s">
+      <c r="C128" s="48" t="s">
         <v>397</v>
       </c>
-      <c r="D126" s="49">
+      <c r="D128" s="49">
         <v>42831</v>
       </c>
-      <c r="E126" s="50"/>
-      <c r="F126" s="51" t="s">
+      <c r="E128" s="50"/>
+      <c r="F128" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="G126" s="51"/>
-      <c r="H126" s="51">
-        <v>0</v>
-      </c>
-      <c r="I126" s="42">
+      <c r="G128" s="51"/>
+      <c r="H128" s="51">
+        <v>0</v>
+      </c>
+      <c r="I128" s="42">
         <v>42834</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J128" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:11" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="22" t="s">
+    <row r="129" spans="1:10" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C129" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="D127" s="19">
+      <c r="D129" s="19">
         <v>42760</v>
       </c>
-      <c r="E127" s="19"/>
-      <c r="F127" s="12" t="s">
+      <c r="E129" s="19"/>
+      <c r="F129" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="H127" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="23" t="s">
+      <c r="H129" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="12" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="C130" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="D128" s="19">
+      <c r="D130" s="19">
         <v>42760</v>
       </c>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19" t="s">
+      <c r="E130" s="19"/>
+      <c r="F130" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="H128" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="52"/>
-      <c r="B129" s="53" t="s">
+      <c r="H130" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="52"/>
+      <c r="B131" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="C129" s="55"/>
-      <c r="D129" s="56"/>
-      <c r="E129" s="56"/>
-      <c r="F129" s="56"/>
-      <c r="G129" s="52" t="s">
+      <c r="C131" s="55"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="56"/>
+      <c r="F131" s="56"/>
+      <c r="G131" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="H129" s="52">
+      <c r="H131" s="52">
         <v>3</v>
       </c>
-      <c r="I129" s="52"/>
-      <c r="J129" s="52"/>
-    </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F130" t="s">
-        <v>138</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="H131">
-        <v>0</v>
-      </c>
+      <c r="I131" s="52"/>
+      <c r="J131" s="52"/>
     </row>
     <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
+      <c r="B132" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F132" t="s">
+        <v>138</v>
+      </c>
       <c r="H132">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="H134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F135" t="s">
         <v>133</v>
       </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
-      <c r="B134" s="7" t="s">
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="12"/>
+      <c r="B136" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B135" s="58" t="s">
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="58" t="s">
         <v>396</v>
       </c>
-      <c r="C135" s="58"/>
-      <c r="D135" s="59">
+      <c r="C137" s="58"/>
+      <c r="D137" s="59">
         <v>42818</v>
       </c>
-      <c r="E135" s="58"/>
-      <c r="F135" s="57" t="s">
+      <c r="E137" s="58"/>
+      <c r="F137" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="G135" s="57"/>
-      <c r="H135" s="57">
-        <v>1</v>
-      </c>
-      <c r="I135" s="60">
+      <c r="G137" s="57"/>
+      <c r="H137" s="57">
+        <v>0</v>
+      </c>
+      <c r="I137" s="60">
         <v>42702</v>
       </c>
-      <c r="J135" s="57"/>
-    </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B136" s="7" t="s">
+      <c r="J137" s="57"/>
+    </row>
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>123</v>
+      <c r="H138">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -4928,7 +4955,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -4936,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -4944,7 +4971,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -4952,97 +4979,84 @@
         <v>2</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-    </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
     </row>
     <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B146" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="7" t="s">
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
+      <c r="B149" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" s="8" t="s">
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B149" t="s">
-        <v>302</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D149" s="26">
-        <v>42775</v>
-      </c>
-      <c r="E149" s="26"/>
-      <c r="H149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B150" t="s">
-        <v>304</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -5050,7 +5064,7 @@
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>303</v>
@@ -5064,400 +5078,402 @@
       </c>
     </row>
     <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B152" s="58" t="s">
+      <c r="A152" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
+        <v>304</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" t="s">
+        <v>314</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D153" s="26">
+        <v>42775</v>
+      </c>
+      <c r="E153" s="26"/>
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C152" s="58"/>
-      <c r="D152" s="58"/>
-      <c r="E152" s="58"/>
-      <c r="F152" s="57"/>
-      <c r="G152" s="57"/>
-      <c r="H152" s="57">
+      <c r="C154" s="58"/>
+      <c r="D154" s="58"/>
+      <c r="E154" s="58"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="57"/>
+      <c r="H154" s="57">
         <v>3</v>
       </c>
-      <c r="I152" s="57"/>
-      <c r="J152" s="57"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B153" s="7" t="s">
+      <c r="I154" s="57"/>
+      <c r="J154" s="57"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B154" s="7" t="s">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A155" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B155" s="16" t="s">
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="12"/>
+      <c r="B157" t="s">
+        <v>424</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D157" s="26">
+        <v>42845</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F157" t="s">
+        <v>138</v>
+      </c>
+      <c r="G157" t="s">
+        <v>318</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A158" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B156" s="8" t="s">
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-    </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B157" s="9" t="s">
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+    </row>
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B158" s="9" t="s">
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
-      <c r="B159" s="9" t="s">
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="12"/>
+      <c r="B162" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A160" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>330</v>
-      </c>
       <c r="H162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A163" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
-      <c r="B164" s="9" t="s">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
+      <c r="B167" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C167" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D164" s="26">
+      <c r="D167" s="26">
         <v>42809</v>
       </c>
-      <c r="E164" s="26"/>
-      <c r="H164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
-      <c r="B165" s="9" t="s">
+      <c r="E167" s="26"/>
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="12"/>
+      <c r="B168" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="C168" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D165" s="26">
+      <c r="D168" s="26">
         <v>42809</v>
       </c>
-      <c r="E165" s="26"/>
-      <c r="H165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="12"/>
-      <c r="B166" s="9" t="s">
+      <c r="E168" s="26"/>
+      <c r="H168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="12"/>
+      <c r="B169" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="D166" s="26">
+      <c r="D169" s="26">
         <v>42809</v>
       </c>
-      <c r="E166" s="26"/>
-      <c r="H166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
-      <c r="B167" s="9"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C168" s="8"/>
-    </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
+      <c r="E169" s="26"/>
       <c r="H169">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="H170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="12"/>
+      <c r="B170" s="9"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B171" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C171" s="8"/>
+    </row>
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="7" t="s">
-        <v>239</v>
-      </c>
+      <c r="B172" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
       <c r="H172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B173" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="B173" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
       <c r="H173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="12"/>
-      <c r="B174" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="52"/>
-      <c r="B175" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="C175" s="58"/>
-      <c r="D175" s="58"/>
-      <c r="E175" s="58"/>
-      <c r="F175" s="57"/>
-      <c r="G175" s="57"/>
-      <c r="H175" s="57">
-        <v>2</v>
-      </c>
-      <c r="I175" s="57"/>
-      <c r="J175" s="57"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B176" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="H176" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="12" t="s">
+      <c r="B176" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="12"/>
+      <c r="B177" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="52"/>
+      <c r="B178" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="C178" s="58"/>
+      <c r="D178" s="58"/>
+      <c r="E178" s="58"/>
+      <c r="F178" s="57"/>
+      <c r="G178" s="57"/>
+      <c r="H178" s="57">
+        <v>2</v>
+      </c>
+      <c r="I178" s="57"/>
+      <c r="J178" s="57"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="52"/>
+      <c r="B179" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="C179" s="58"/>
+      <c r="D179" s="59">
+        <v>42850</v>
+      </c>
+      <c r="E179" s="58"/>
+      <c r="F179" s="57"/>
+      <c r="G179" s="57"/>
+      <c r="H179" s="52">
         <v>1</v>
       </c>
-      <c r="B177" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F178" t="s">
-        <v>138</v>
-      </c>
-      <c r="H178">
-        <v>0</v>
-      </c>
-      <c r="I178" s="6">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H179">
-        <v>0</v>
-      </c>
-      <c r="I179" s="6"/>
-    </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I179" s="57"/>
+      <c r="J179" s="57"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B180" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G180" t="s">
-        <v>138</v>
-      </c>
-      <c r="H180">
-        <v>0</v>
-      </c>
-      <c r="I180" s="6"/>
-    </row>
-    <row r="181" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8"/>
+      <c r="H180" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B181" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="H181" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="52" t="s">
+      <c r="B181" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="C182" s="55"/>
-      <c r="D182" s="55"/>
-      <c r="E182" s="55"/>
-      <c r="F182" s="52"/>
-      <c r="G182" s="57" t="s">
+      <c r="B182" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F182" t="s">
         <v>138</v>
       </c>
-      <c r="H182" s="52">
-        <v>2</v>
-      </c>
-      <c r="I182" s="52"/>
-      <c r="J182" s="52"/>
-    </row>
-    <row r="183" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="52" t="s">
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182" s="6">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B183" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="C183" s="55"/>
-      <c r="D183" s="55"/>
-      <c r="E183" s="55"/>
-      <c r="F183" s="52"/>
-      <c r="G183" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="H183" s="52">
-        <v>2</v>
-      </c>
-      <c r="I183" s="52"/>
-      <c r="J183" s="52"/>
+      <c r="B183" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183" s="6"/>
     </row>
     <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="G184" t="s">
         <v>138</v>
@@ -5465,13 +5481,14 @@
       <c r="H184">
         <v>0</v>
       </c>
+      <c r="I184" s="6"/>
     </row>
     <row r="185" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
@@ -5480,158 +5497,161 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="12" t="s">
+    <row r="186" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B186" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H186">
-        <v>0</v>
-      </c>
+      <c r="B186" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C186" s="55"/>
+      <c r="D186" s="55"/>
+      <c r="E186" s="55"/>
+      <c r="F186" s="52"/>
+      <c r="G186" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="H186" s="52">
+        <v>2</v>
+      </c>
+      <c r="I186" s="52"/>
+      <c r="J186" s="52"/>
     </row>
     <row r="187" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="12" t="s">
+      <c r="A187" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B187" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C187" s="13"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
-      <c r="F187" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H187" s="12">
-        <v>0</v>
-      </c>
-      <c r="I187" s="14">
-        <v>42702</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="52"/>
-      <c r="B188" s="55" t="s">
-        <v>344</v>
-      </c>
-      <c r="C188" s="55"/>
-      <c r="D188" s="55"/>
-      <c r="E188" s="55"/>
-      <c r="F188" s="52"/>
-      <c r="G188" s="52"/>
-      <c r="H188" s="52">
-        <v>2</v>
-      </c>
-      <c r="I188" s="61"/>
-      <c r="J188" s="52"/>
-    </row>
-    <row r="189" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="52"/>
-      <c r="B189" s="55" t="s">
-        <v>398</v>
-      </c>
-      <c r="C189" s="55"/>
-      <c r="D189" s="55"/>
-      <c r="E189" s="55"/>
-      <c r="F189" s="52"/>
-      <c r="G189" s="52"/>
-      <c r="H189" s="52">
+      <c r="B187" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="C187" s="55"/>
+      <c r="D187" s="55"/>
+      <c r="E187" s="55"/>
+      <c r="F187" s="52"/>
+      <c r="G187" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="H187" s="52">
+        <v>2</v>
+      </c>
+      <c r="I187" s="52"/>
+      <c r="J187" s="52"/>
+    </row>
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I189" s="61"/>
-      <c r="J189" s="52"/>
-    </row>
-    <row r="190" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G188" t="s">
+        <v>138</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+      <c r="H189" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B190" s="15" t="s">
+      <c r="B190" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H191" s="12">
+        <v>0</v>
+      </c>
+      <c r="I191" s="14">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="52"/>
+      <c r="B192" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="C192" s="55"/>
+      <c r="D192" s="55"/>
+      <c r="E192" s="55"/>
+      <c r="F192" s="52"/>
+      <c r="G192" s="52"/>
+      <c r="H192" s="52">
+        <v>2</v>
+      </c>
+      <c r="I192" s="61"/>
+      <c r="J192" s="52"/>
+    </row>
+    <row r="193" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="52"/>
+      <c r="B193" s="55" t="s">
+        <v>398</v>
+      </c>
+      <c r="C193" s="55"/>
+      <c r="D193" s="55"/>
+      <c r="E193" s="55"/>
+      <c r="F193" s="52"/>
+      <c r="G193" s="52"/>
+      <c r="H193" s="52">
+        <v>1</v>
+      </c>
+      <c r="I193" s="61"/>
+      <c r="J193" s="52"/>
+    </row>
+    <row r="194" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B194" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C190" s="15"/>
-      <c r="D190" s="15"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="12" t="s">
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H190" s="12" t="s">
+      <c r="H194" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I190" s="14"/>
-    </row>
-    <row r="191" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B191" s="53" t="s">
-        <v>402</v>
-      </c>
-      <c r="C191" s="65"/>
-      <c r="D191" s="65"/>
-      <c r="E191" s="65"/>
-      <c r="F191" s="52"/>
-      <c r="G191" s="52"/>
-      <c r="H191" s="52">
-        <v>1</v>
-      </c>
-      <c r="I191" s="61"/>
-      <c r="J191" s="52"/>
-    </row>
-    <row r="192" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B192" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="C192" s="15"/>
-      <c r="D192" s="15"/>
-      <c r="E192" s="15"/>
-      <c r="H192" s="12">
-        <v>0</v>
-      </c>
-      <c r="I192" s="14"/>
-    </row>
-    <row r="193" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B193" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="C193" s="15"/>
-      <c r="D193" s="15"/>
-      <c r="E193" s="15"/>
-      <c r="I193" s="14"/>
-    </row>
-    <row r="194" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B194" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="C194" s="65"/>
-      <c r="D194" s="65"/>
-      <c r="E194" s="65"/>
-      <c r="F194" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="G194" s="52"/>
-      <c r="H194" s="52">
-        <v>2</v>
-      </c>
-      <c r="I194" s="61"/>
-      <c r="J194" s="52"/>
-    </row>
-    <row r="195" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I194" s="14"/>
+    </row>
+    <row r="195" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="52" t="s">
         <v>1</v>
       </c>
       <c r="B195" s="53" t="s">
-        <v>327</v>
+        <v>402</v>
       </c>
       <c r="C195" s="65"/>
       <c r="D195" s="65"/>
@@ -5639,166 +5659,165 @@
       <c r="F195" s="52"/>
       <c r="G195" s="52"/>
       <c r="H195" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" s="61"/>
       <c r="J195" s="52"/>
     </row>
-    <row r="196" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B196" s="15" t="s">
-        <v>325</v>
+      <c r="B196" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="C196" s="15"/>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
+      <c r="H196" s="12">
+        <v>0</v>
+      </c>
       <c r="I196" s="14"/>
     </row>
     <row r="197" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B197" s="15" t="s">
-        <v>326</v>
+      <c r="B197" s="18" t="s">
+        <v>324</v>
       </c>
       <c r="C197" s="15"/>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="I197" s="14"/>
     </row>
-    <row r="198" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="12" t="s">
+    <row r="198" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B198" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="C198" s="15"/>
-      <c r="D198" s="15"/>
-      <c r="E198" s="15"/>
-      <c r="I198" s="14"/>
+      <c r="B198" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="C198" s="65"/>
+      <c r="D198" s="65"/>
+      <c r="E198" s="65"/>
+      <c r="F198" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G198" s="52"/>
+      <c r="H198" s="52">
+        <v>2</v>
+      </c>
+      <c r="I198" s="61"/>
+      <c r="J198" s="52"/>
     </row>
     <row r="199" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B199" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="C199" s="55"/>
-      <c r="D199" s="55"/>
-      <c r="E199" s="55"/>
-      <c r="F199" s="52" t="s">
-        <v>133</v>
-      </c>
+      <c r="B199" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="C199" s="65"/>
+      <c r="D199" s="65"/>
+      <c r="E199" s="65"/>
+      <c r="F199" s="52"/>
       <c r="G199" s="52"/>
       <c r="H199" s="52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" s="61"/>
       <c r="J199" s="52"/>
     </row>
-    <row r="200" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C200" s="15"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="15"/>
+      <c r="I200" s="14"/>
+    </row>
+    <row r="201" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="I201" s="14"/>
+    </row>
+    <row r="202" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C202" s="15"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="I202" s="14"/>
+    </row>
+    <row r="203" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B203" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="C203" s="55"/>
+      <c r="D203" s="55"/>
+      <c r="E203" s="55"/>
+      <c r="F203" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G203" s="52"/>
+      <c r="H203" s="52">
+        <v>3</v>
+      </c>
+      <c r="I203" s="61"/>
+      <c r="J203" s="52"/>
+    </row>
+    <row r="204" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A204" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="B200" s="16" t="s">
+      <c r="B204" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="I200" s="6"/>
-    </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="52" t="s">
+      <c r="I204" s="6"/>
+    </row>
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="B201" s="58" t="s">
+      <c r="B205" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="C201" s="58"/>
-      <c r="D201" s="58"/>
-      <c r="E201" s="58"/>
-      <c r="F201" s="57"/>
-      <c r="G201" s="57"/>
-      <c r="H201" s="57">
+      <c r="C205" s="58"/>
+      <c r="D205" s="58"/>
+      <c r="E205" s="58"/>
+      <c r="F205" s="57"/>
+      <c r="G205" s="57"/>
+      <c r="H205" s="57">
         <v>3</v>
       </c>
-      <c r="I201" s="60"/>
-      <c r="J201" s="57"/>
-    </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="B202" s="58" t="s">
-        <v>321</v>
-      </c>
-      <c r="C202" s="58"/>
-      <c r="D202" s="58"/>
-      <c r="E202" s="58"/>
-      <c r="F202" s="57"/>
-      <c r="G202" s="57"/>
-      <c r="H202" s="57">
-        <v>3</v>
-      </c>
-      <c r="I202" s="60"/>
-      <c r="J202" s="57"/>
-    </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="B203" s="58" t="s">
-        <v>336</v>
-      </c>
-      <c r="C203" s="58"/>
-      <c r="D203" s="58"/>
-      <c r="E203" s="58"/>
-      <c r="F203" s="57"/>
-      <c r="G203" s="57"/>
-      <c r="H203" s="57">
-        <v>3</v>
-      </c>
-      <c r="I203" s="60"/>
-      <c r="J203" s="57"/>
-    </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="B204" s="58" t="s">
-        <v>331</v>
-      </c>
-      <c r="C204" s="58"/>
-      <c r="D204" s="58"/>
-      <c r="E204" s="58"/>
-      <c r="F204" s="57"/>
-      <c r="G204" s="57"/>
-      <c r="H204" s="57">
-        <v>3</v>
-      </c>
-      <c r="I204" s="60"/>
-      <c r="J204" s="57"/>
-    </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H205">
-        <v>0</v>
-      </c>
-      <c r="I205" s="6"/>
+      <c r="I205" s="60"/>
+      <c r="J205" s="57"/>
     </row>
     <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="52" t="s">
         <v>333</v>
       </c>
       <c r="B206" s="58" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="C206" s="58"/>
       <c r="D206" s="58"/>
@@ -5806,7 +5825,7 @@
       <c r="F206" s="57"/>
       <c r="G206" s="57"/>
       <c r="H206" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I206" s="60"/>
       <c r="J206" s="57"/>
@@ -5816,7 +5835,7 @@
         <v>333</v>
       </c>
       <c r="B207" s="58" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C207" s="58"/>
       <c r="D207" s="58"/>
@@ -5834,7 +5853,7 @@
         <v>333</v>
       </c>
       <c r="B208" s="58" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C208" s="58"/>
       <c r="D208" s="58"/>
@@ -5848,255 +5867,253 @@
       <c r="J208" s="57"/>
     </row>
     <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="52" t="s">
+      <c r="A209" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="B209" s="58" t="s">
+      <c r="B209" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209" s="6"/>
+    </row>
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="B210" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="C210" s="58"/>
+      <c r="D210" s="58"/>
+      <c r="E210" s="58"/>
+      <c r="F210" s="57"/>
+      <c r="G210" s="57"/>
+      <c r="H210" s="57">
+        <v>2</v>
+      </c>
+      <c r="I210" s="60"/>
+      <c r="J210" s="57"/>
+    </row>
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="B211" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="C211" s="58"/>
+      <c r="D211" s="58"/>
+      <c r="E211" s="58"/>
+      <c r="F211" s="57"/>
+      <c r="G211" s="57"/>
+      <c r="H211" s="57">
+        <v>3</v>
+      </c>
+      <c r="I211" s="60"/>
+      <c r="J211" s="57"/>
+    </row>
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="B212" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="C212" s="58"/>
+      <c r="D212" s="58"/>
+      <c r="E212" s="58"/>
+      <c r="F212" s="57"/>
+      <c r="G212" s="57"/>
+      <c r="H212" s="57">
+        <v>3</v>
+      </c>
+      <c r="I212" s="60"/>
+      <c r="J212" s="57"/>
+    </row>
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="B213" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="C209" s="58"/>
-      <c r="D209" s="58"/>
-      <c r="E209" s="58"/>
-      <c r="F209" s="57"/>
-      <c r="G209" s="57"/>
-      <c r="H209" s="57">
+      <c r="C213" s="58"/>
+      <c r="D213" s="58"/>
+      <c r="E213" s="58"/>
+      <c r="F213" s="57"/>
+      <c r="G213" s="57"/>
+      <c r="H213" s="57">
         <v>3</v>
       </c>
-      <c r="I209" s="60"/>
-      <c r="J209" s="57"/>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
-      <c r="B210" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="I210" s="6"/>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" s="12"/>
-      <c r="I211" s="6"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="12"/>
-      <c r="B212" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="I212" s="6"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="12"/>
-      <c r="B213" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="I213" s="6"/>
+      <c r="I213" s="60"/>
+      <c r="J213" s="57"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I214" s="6"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="12"/>
+      <c r="I215" s="6"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="12"/>
+      <c r="B216" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="I216" s="6"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="12"/>
+      <c r="B217" s="7" t="s